--- a/背题.xlsx
+++ b/背题.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,118 @@
     <t>configure controlfile autobackup on</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>shut restoredatabase archlog recoverdatabase startup open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restore recover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restore spfile crtlfile database recoverdatabase openresetlogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incomplete database recovery.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restore database until time '09/28/2008:18:00:00';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attempting to restore gold_copy may or may not succeed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online redo logs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equivalent of sql：FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restore databse &amp; recover database &amp; open resetlogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file4 offline restore recover online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The command fails because the database is running.&amp;not the correct way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>until time seq scn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recover cmd do not Restore datafile images.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLL BACK：SYSTEM, SYSAUX, UNDO, USERS, TEMP.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swich to datafile copy→recover tablespace→open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recover corruption list;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The alter database open resetlogs command will fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offline→restore→recover→online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connrman→startinstance→restorecrtlfile→mount→restoredatafile→recoverdatafile→open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list backup of database;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crosscheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resync catalog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backup database plus archivelog duration 10:00;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog start with：get those backup set pieces in the recovery catalog and the control file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nothing will happen to them. The backup set pieces do not exist.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mark as deleted records in crtldile &amp; recovery catalog，delete backup set pieces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expired：The backup set contains one or more missing backup set pieces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -148,6 +260,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -537,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="O311" sqref="O311"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="C337" sqref="C337:C345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -563,7 +676,7 @@
     <row r="3" spans="2:8">
       <c r="E3">
         <f>COUNTA($C$6:$C$717)</f>
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F3" s="7"/>
       <c r="H3" s="7"/>
@@ -598,7 +711,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="7">
         <f>$E$3/$E$2</f>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -612,7 +725,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="7">
         <f t="shared" ref="F7:F70" si="1">$E$3/$E$2</f>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -626,7 +739,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H8" s="7"/>
     </row>
@@ -640,7 +753,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -654,7 +767,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -668,7 +781,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -682,7 +795,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H12" s="7"/>
     </row>
@@ -696,7 +809,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H13" s="7"/>
     </row>
@@ -710,7 +823,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -724,7 +837,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H15" s="7"/>
     </row>
@@ -738,7 +851,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -752,7 +865,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H17" s="7"/>
     </row>
@@ -766,7 +879,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H18" s="7"/>
     </row>
@@ -780,7 +893,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H19" s="7"/>
     </row>
@@ -794,7 +907,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H20" s="7"/>
     </row>
@@ -808,7 +921,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H21" s="7"/>
     </row>
@@ -822,7 +935,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H22" s="7"/>
     </row>
@@ -836,7 +949,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H23" s="7"/>
     </row>
@@ -850,7 +963,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H24" s="7"/>
     </row>
@@ -864,7 +977,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H25" s="7"/>
     </row>
@@ -878,7 +991,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H26" s="7"/>
     </row>
@@ -892,7 +1005,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H27" s="7"/>
     </row>
@@ -906,7 +1019,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H28" s="7"/>
     </row>
@@ -920,7 +1033,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H29" s="7"/>
     </row>
@@ -934,7 +1047,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H30" s="7"/>
     </row>
@@ -948,7 +1061,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H31" s="7"/>
     </row>
@@ -962,7 +1075,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H32" s="7"/>
     </row>
@@ -976,7 +1089,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H33" s="7"/>
     </row>
@@ -990,7 +1103,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H34" s="7"/>
     </row>
@@ -1004,7 +1117,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H35" s="7"/>
     </row>
@@ -1018,7 +1131,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H36" s="7"/>
     </row>
@@ -1032,7 +1145,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H37" s="7"/>
     </row>
@@ -1046,7 +1159,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H38" s="7"/>
     </row>
@@ -1060,7 +1173,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H39" s="7"/>
     </row>
@@ -1074,7 +1187,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H40" s="7"/>
     </row>
@@ -1088,7 +1201,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H41" s="7"/>
     </row>
@@ -1102,7 +1215,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H42" s="7"/>
     </row>
@@ -1116,7 +1229,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H43" s="7"/>
     </row>
@@ -1130,7 +1243,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H44" s="7"/>
     </row>
@@ -1144,7 +1257,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H45" s="7"/>
     </row>
@@ -1158,7 +1271,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H46" s="7"/>
     </row>
@@ -1172,7 +1285,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H47" s="7"/>
     </row>
@@ -1186,7 +1299,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H48" s="7"/>
     </row>
@@ -1200,7 +1313,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H49" s="7"/>
     </row>
@@ -1214,7 +1327,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -1228,7 +1341,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H51" s="7"/>
     </row>
@@ -1242,7 +1355,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H52" s="7"/>
     </row>
@@ -1256,7 +1369,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H53" s="7"/>
     </row>
@@ -1270,7 +1383,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -1284,7 +1397,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -1298,7 +1411,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H56" s="7"/>
     </row>
@@ -1312,7 +1425,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H57" s="7"/>
     </row>
@@ -1326,7 +1439,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H58" s="7"/>
     </row>
@@ -1340,7 +1453,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H59" s="7"/>
     </row>
@@ -1354,7 +1467,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H60" s="7"/>
     </row>
@@ -1368,7 +1481,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H61" s="7"/>
     </row>
@@ -1382,7 +1495,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H62" s="7"/>
     </row>
@@ -1396,7 +1509,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H63" s="7"/>
     </row>
@@ -1410,7 +1523,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H64" s="7"/>
     </row>
@@ -1424,7 +1537,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H65" s="7"/>
     </row>
@@ -1438,7 +1551,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H66" s="7"/>
     </row>
@@ -1452,7 +1565,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H67" s="7"/>
     </row>
@@ -1466,7 +1579,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H68" s="7"/>
     </row>
@@ -1480,7 +1593,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H69" s="7"/>
     </row>
@@ -1494,7 +1607,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="7">
         <f t="shared" si="1"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H70" s="7"/>
     </row>
@@ -1508,7 +1621,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="7">
         <f t="shared" ref="F71:F134" si="3">$E$3/$E$2</f>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H71" s="7"/>
     </row>
@@ -1522,7 +1635,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H72" s="7"/>
     </row>
@@ -1536,7 +1649,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H73" s="7"/>
     </row>
@@ -1550,7 +1663,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H74" s="7"/>
     </row>
@@ -1564,7 +1677,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H75" s="7"/>
     </row>
@@ -1578,7 +1691,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H76" s="7"/>
     </row>
@@ -1592,7 +1705,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H77" s="7"/>
     </row>
@@ -1606,7 +1719,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H78" s="7"/>
     </row>
@@ -1620,7 +1733,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H79" s="7"/>
     </row>
@@ -1634,7 +1747,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H80" s="7"/>
     </row>
@@ -1648,7 +1761,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H81" s="7"/>
     </row>
@@ -1662,7 +1775,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H82" s="7"/>
     </row>
@@ -1676,7 +1789,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H83" s="7"/>
     </row>
@@ -1690,7 +1803,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H84" s="7"/>
     </row>
@@ -1704,7 +1817,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H85" s="7"/>
     </row>
@@ -1718,7 +1831,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H86" s="7"/>
     </row>
@@ -1732,7 +1845,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H87" s="7"/>
     </row>
@@ -1746,7 +1859,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H88" s="7"/>
     </row>
@@ -1760,7 +1873,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H89" s="7"/>
     </row>
@@ -1774,7 +1887,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H90" s="7"/>
     </row>
@@ -1788,7 +1901,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H91" s="7"/>
     </row>
@@ -1802,7 +1915,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H92" s="7"/>
     </row>
@@ -1816,7 +1929,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H93" s="7"/>
     </row>
@@ -1830,7 +1943,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H94" s="7"/>
     </row>
@@ -1844,7 +1957,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H95" s="7"/>
     </row>
@@ -1858,7 +1971,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H96" s="7"/>
     </row>
@@ -1872,7 +1985,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H97" s="7"/>
     </row>
@@ -1886,7 +1999,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H98" s="7"/>
     </row>
@@ -1900,7 +2013,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H99" s="7"/>
     </row>
@@ -1914,7 +2027,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H100" s="7"/>
     </row>
@@ -1928,7 +2041,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H101" s="7"/>
     </row>
@@ -1942,7 +2055,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H102" s="7"/>
     </row>
@@ -1956,7 +2069,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H103" s="7"/>
     </row>
@@ -1970,7 +2083,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H104" s="7"/>
     </row>
@@ -1984,7 +2097,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H105" s="7"/>
     </row>
@@ -1998,7 +2111,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H106" s="7"/>
     </row>
@@ -2012,7 +2125,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H107" s="7"/>
     </row>
@@ -2026,7 +2139,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H108" s="7"/>
     </row>
@@ -2040,7 +2153,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H109" s="7"/>
     </row>
@@ -2054,7 +2167,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H110" s="7"/>
     </row>
@@ -2068,7 +2181,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H111" s="7"/>
     </row>
@@ -2082,7 +2195,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H112" s="7"/>
     </row>
@@ -2096,7 +2209,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H113" s="7"/>
     </row>
@@ -2110,7 +2223,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H114" s="7"/>
     </row>
@@ -2124,7 +2237,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H115" s="7"/>
     </row>
@@ -2138,7 +2251,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H116" s="7"/>
     </row>
@@ -2152,7 +2265,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H117" s="7"/>
     </row>
@@ -2166,7 +2279,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H118" s="7"/>
     </row>
@@ -2180,7 +2293,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H119" s="7"/>
     </row>
@@ -2194,7 +2307,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H120" s="7"/>
     </row>
@@ -2208,7 +2321,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H121" s="7"/>
     </row>
@@ -2222,7 +2335,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H122" s="7"/>
     </row>
@@ -2236,7 +2349,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H123" s="7"/>
     </row>
@@ -2250,7 +2363,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H124" s="7"/>
     </row>
@@ -2264,7 +2377,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H125" s="7"/>
     </row>
@@ -2278,7 +2391,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H126" s="7"/>
     </row>
@@ -2292,7 +2405,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H127" s="7"/>
     </row>
@@ -2306,7 +2419,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H128" s="7"/>
     </row>
@@ -2320,7 +2433,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H129" s="7"/>
     </row>
@@ -2334,7 +2447,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H130" s="7"/>
     </row>
@@ -2348,7 +2461,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H131" s="7"/>
     </row>
@@ -2362,7 +2475,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H132" s="7"/>
     </row>
@@ -2376,7 +2489,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H133" s="7"/>
     </row>
@@ -2390,7 +2503,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="7">
         <f t="shared" si="3"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H134" s="7"/>
     </row>
@@ -2404,7 +2517,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="7">
         <f t="shared" ref="F135:F198" si="5">$E$3/$E$2</f>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H135" s="7"/>
     </row>
@@ -2418,7 +2531,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H136" s="7"/>
     </row>
@@ -2432,7 +2545,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H137" s="7"/>
     </row>
@@ -2446,7 +2559,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H138" s="7"/>
     </row>
@@ -2460,7 +2573,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H139" s="7"/>
     </row>
@@ -2474,7 +2587,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H140" s="7"/>
     </row>
@@ -2488,7 +2601,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H141" s="7"/>
     </row>
@@ -2502,7 +2615,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H142" s="7"/>
     </row>
@@ -2516,7 +2629,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H143" s="7"/>
     </row>
@@ -2530,7 +2643,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H144" s="7"/>
     </row>
@@ -2544,7 +2657,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H145" s="7"/>
     </row>
@@ -2558,7 +2671,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H146" s="7"/>
     </row>
@@ -2572,7 +2685,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H147" s="7"/>
     </row>
@@ -2586,7 +2699,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H148" s="7"/>
     </row>
@@ -2600,7 +2713,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H149" s="7"/>
     </row>
@@ -2614,7 +2727,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H150" s="7"/>
     </row>
@@ -2628,7 +2741,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H151" s="7"/>
     </row>
@@ -2642,7 +2755,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H152" s="7"/>
     </row>
@@ -2656,7 +2769,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H153" s="7"/>
     </row>
@@ -2670,7 +2783,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H154" s="7"/>
     </row>
@@ -2684,7 +2797,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H155" s="7"/>
     </row>
@@ -2698,7 +2811,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H156" s="7"/>
     </row>
@@ -2712,7 +2825,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H157" s="7"/>
     </row>
@@ -2726,7 +2839,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H158" s="7"/>
     </row>
@@ -2740,7 +2853,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H159" s="7"/>
     </row>
@@ -2754,7 +2867,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H160" s="7"/>
     </row>
@@ -2768,7 +2881,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H161" s="7"/>
     </row>
@@ -2782,7 +2895,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H162" s="7"/>
     </row>
@@ -2796,7 +2909,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H163" s="7"/>
     </row>
@@ -2810,7 +2923,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H164" s="7"/>
     </row>
@@ -2824,7 +2937,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H165" s="7"/>
     </row>
@@ -2838,7 +2951,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H166" s="7"/>
     </row>
@@ -2852,7 +2965,7 @@
       <c r="E167" s="4"/>
       <c r="F167" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H167" s="7"/>
     </row>
@@ -2866,7 +2979,7 @@
       <c r="E168" s="4"/>
       <c r="F168" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H168" s="7"/>
     </row>
@@ -2880,7 +2993,7 @@
       <c r="E169" s="4"/>
       <c r="F169" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H169" s="7"/>
     </row>
@@ -2894,7 +3007,7 @@
       <c r="E170" s="4"/>
       <c r="F170" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H170" s="7"/>
     </row>
@@ -2908,7 +3021,7 @@
       <c r="E171" s="4"/>
       <c r="F171" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H171" s="7"/>
     </row>
@@ -2922,7 +3035,7 @@
       <c r="E172" s="4"/>
       <c r="F172" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H172" s="7"/>
     </row>
@@ -2936,7 +3049,7 @@
       <c r="E173" s="4"/>
       <c r="F173" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H173" s="7"/>
     </row>
@@ -2950,7 +3063,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H174" s="7"/>
     </row>
@@ -2964,7 +3077,7 @@
       <c r="E175" s="4"/>
       <c r="F175" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H175" s="7"/>
     </row>
@@ -2978,7 +3091,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H176" s="7"/>
     </row>
@@ -2992,7 +3105,7 @@
       <c r="E177" s="4"/>
       <c r="F177" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H177" s="7"/>
     </row>
@@ -3006,7 +3119,7 @@
       <c r="E178" s="4"/>
       <c r="F178" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H178" s="7"/>
     </row>
@@ -3020,7 +3133,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H179" s="7"/>
     </row>
@@ -3034,7 +3147,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H180" s="7"/>
     </row>
@@ -3048,7 +3161,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H181" s="7"/>
     </row>
@@ -3062,7 +3175,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H182" s="7"/>
     </row>
@@ -3076,7 +3189,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H183" s="7"/>
     </row>
@@ -3090,7 +3203,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H184" s="7"/>
     </row>
@@ -3104,7 +3217,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H185" s="7"/>
     </row>
@@ -3118,7 +3231,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H186" s="7"/>
     </row>
@@ -3132,7 +3245,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H187" s="7"/>
     </row>
@@ -3146,7 +3259,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H188" s="7"/>
     </row>
@@ -3160,7 +3273,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H189" s="7"/>
     </row>
@@ -3174,7 +3287,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H190" s="7"/>
     </row>
@@ -3188,7 +3301,7 @@
       <c r="E191" s="4"/>
       <c r="F191" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H191" s="7"/>
     </row>
@@ -3202,7 +3315,7 @@
       <c r="E192" s="4"/>
       <c r="F192" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H192" s="7"/>
     </row>
@@ -3216,7 +3329,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H193" s="7"/>
     </row>
@@ -3230,7 +3343,7 @@
       <c r="E194" s="4"/>
       <c r="F194" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H194" s="7"/>
     </row>
@@ -3244,7 +3357,7 @@
       <c r="E195" s="4"/>
       <c r="F195" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H195" s="7"/>
     </row>
@@ -3258,7 +3371,7 @@
       <c r="E196" s="4"/>
       <c r="F196" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H196" s="7"/>
     </row>
@@ -3272,7 +3385,7 @@
       <c r="E197" s="4"/>
       <c r="F197" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H197" s="7"/>
     </row>
@@ -3286,7 +3399,7 @@
       <c r="E198" s="4"/>
       <c r="F198" s="7">
         <f t="shared" si="5"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H198" s="7"/>
     </row>
@@ -3300,7 +3413,7 @@
       <c r="E199" s="4"/>
       <c r="F199" s="7">
         <f t="shared" ref="F199:F262" si="7">$E$3/$E$2</f>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H199" s="7"/>
     </row>
@@ -3314,7 +3427,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H200" s="7"/>
     </row>
@@ -3328,7 +3441,7 @@
       <c r="E201" s="4"/>
       <c r="F201" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H201" s="7"/>
     </row>
@@ -3342,7 +3455,7 @@
       <c r="E202" s="4"/>
       <c r="F202" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H202" s="7"/>
     </row>
@@ -3356,7 +3469,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H203" s="7"/>
     </row>
@@ -3370,7 +3483,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H204" s="7"/>
     </row>
@@ -3384,7 +3497,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H205" s="7"/>
     </row>
@@ -3398,7 +3511,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H206" s="7"/>
     </row>
@@ -3412,7 +3525,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H207" s="7"/>
     </row>
@@ -3426,7 +3539,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H208" s="7"/>
     </row>
@@ -3440,7 +3553,7 @@
       <c r="E209" s="4"/>
       <c r="F209" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H209" s="7"/>
     </row>
@@ -3454,7 +3567,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H210" s="7"/>
     </row>
@@ -3468,7 +3581,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H211" s="7"/>
     </row>
@@ -3482,7 +3595,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H212" s="7"/>
     </row>
@@ -3496,7 +3609,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H213" s="7"/>
     </row>
@@ -3510,7 +3623,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H214" s="7"/>
     </row>
@@ -3524,7 +3637,7 @@
       <c r="E215" s="4"/>
       <c r="F215" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H215" s="7"/>
     </row>
@@ -3538,7 +3651,7 @@
       <c r="E216" s="4"/>
       <c r="F216" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H216" s="7"/>
     </row>
@@ -3552,7 +3665,7 @@
       <c r="E217" s="4"/>
       <c r="F217" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H217" s="7"/>
     </row>
@@ -3566,7 +3679,7 @@
       <c r="E218" s="4"/>
       <c r="F218" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H218" s="7"/>
     </row>
@@ -3580,7 +3693,7 @@
       <c r="E219" s="4"/>
       <c r="F219" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H219" s="7"/>
     </row>
@@ -3594,7 +3707,7 @@
       <c r="E220" s="4"/>
       <c r="F220" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H220" s="7"/>
     </row>
@@ -3608,7 +3721,7 @@
       <c r="E221" s="4"/>
       <c r="F221" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H221" s="7"/>
     </row>
@@ -3622,7 +3735,7 @@
       <c r="E222" s="4"/>
       <c r="F222" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H222" s="7"/>
     </row>
@@ -3636,7 +3749,7 @@
       <c r="E223" s="4"/>
       <c r="F223" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H223" s="7"/>
     </row>
@@ -3650,7 +3763,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H224" s="7"/>
     </row>
@@ -3664,7 +3777,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H225" s="7"/>
     </row>
@@ -3678,7 +3791,7 @@
       <c r="E226" s="4"/>
       <c r="F226" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H226" s="7"/>
     </row>
@@ -3692,7 +3805,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H227" s="7"/>
     </row>
@@ -3706,7 +3819,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H228" s="7"/>
     </row>
@@ -3720,7 +3833,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H229" s="7"/>
     </row>
@@ -3734,7 +3847,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H230" s="7"/>
     </row>
@@ -3748,7 +3861,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H231" s="7"/>
     </row>
@@ -3762,7 +3875,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H232" s="7"/>
     </row>
@@ -3776,7 +3889,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H233" s="7"/>
     </row>
@@ -3790,7 +3903,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H234" s="7"/>
     </row>
@@ -3804,7 +3917,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H235" s="7"/>
     </row>
@@ -3818,7 +3931,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H236" s="7"/>
     </row>
@@ -3832,7 +3945,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H237" s="7"/>
     </row>
@@ -3846,7 +3959,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H238" s="7"/>
     </row>
@@ -3860,7 +3973,7 @@
       <c r="E239" s="4"/>
       <c r="F239" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H239" s="7"/>
     </row>
@@ -3874,7 +3987,7 @@
       <c r="E240" s="4"/>
       <c r="F240" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H240" s="7"/>
     </row>
@@ -3888,7 +4001,7 @@
       <c r="E241" s="4"/>
       <c r="F241" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H241" s="7"/>
     </row>
@@ -3902,7 +4015,7 @@
       <c r="E242" s="4"/>
       <c r="F242" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H242" s="7"/>
     </row>
@@ -3916,7 +4029,7 @@
       <c r="E243" s="4"/>
       <c r="F243" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H243" s="7"/>
     </row>
@@ -3930,7 +4043,7 @@
       <c r="E244" s="4"/>
       <c r="F244" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H244" s="7"/>
     </row>
@@ -3944,7 +4057,7 @@
       <c r="E245" s="4"/>
       <c r="F245" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H245" s="7"/>
     </row>
@@ -3958,7 +4071,7 @@
       <c r="E246" s="4"/>
       <c r="F246" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H246" s="7"/>
     </row>
@@ -3972,7 +4085,7 @@
       <c r="E247" s="4"/>
       <c r="F247" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H247" s="7"/>
     </row>
@@ -3986,7 +4099,7 @@
       <c r="E248" s="4"/>
       <c r="F248" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H248" s="7"/>
     </row>
@@ -4000,7 +4113,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H249" s="7"/>
     </row>
@@ -4014,7 +4127,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H250" s="7"/>
     </row>
@@ -4028,7 +4141,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H251" s="7"/>
     </row>
@@ -4042,7 +4155,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H252" s="7"/>
     </row>
@@ -4056,7 +4169,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H253" s="7"/>
     </row>
@@ -4070,7 +4183,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H254" s="7"/>
     </row>
@@ -4084,7 +4197,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H255" s="7"/>
     </row>
@@ -4098,7 +4211,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H256" s="7"/>
     </row>
@@ -4112,7 +4225,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H257" s="7"/>
     </row>
@@ -4126,7 +4239,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H258" s="7"/>
     </row>
@@ -4140,7 +4253,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H259" s="7"/>
     </row>
@@ -4154,7 +4267,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H260" s="7"/>
     </row>
@@ -4168,7 +4281,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H261" s="7"/>
     </row>
@@ -4182,7 +4295,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="7">
         <f t="shared" si="7"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H262" s="7"/>
     </row>
@@ -4196,7 +4309,7 @@
       <c r="E263" s="4"/>
       <c r="F263" s="7">
         <f t="shared" ref="F263:F326" si="9">$E$3/$E$2</f>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H263" s="7"/>
     </row>
@@ -4210,7 +4323,7 @@
       <c r="E264" s="4"/>
       <c r="F264" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H264" s="7"/>
     </row>
@@ -4224,7 +4337,7 @@
       <c r="E265" s="4"/>
       <c r="F265" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H265" s="7"/>
     </row>
@@ -4238,7 +4351,7 @@
       <c r="E266" s="4"/>
       <c r="F266" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H266" s="7"/>
     </row>
@@ -4252,7 +4365,7 @@
       <c r="E267" s="4"/>
       <c r="F267" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H267" s="7"/>
     </row>
@@ -4266,7 +4379,7 @@
       <c r="E268" s="4"/>
       <c r="F268" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H268" s="7"/>
     </row>
@@ -4280,7 +4393,7 @@
       <c r="E269" s="4"/>
       <c r="F269" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H269" s="7"/>
     </row>
@@ -4294,7 +4407,7 @@
       <c r="E270" s="4"/>
       <c r="F270" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H270" s="7"/>
     </row>
@@ -4308,7 +4421,7 @@
       <c r="E271" s="4"/>
       <c r="F271" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H271" s="7"/>
     </row>
@@ -4322,7 +4435,7 @@
       <c r="E272" s="4"/>
       <c r="F272" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H272" s="7"/>
     </row>
@@ -4336,7 +4449,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H273" s="7"/>
     </row>
@@ -4350,7 +4463,7 @@
       <c r="E274" s="4"/>
       <c r="F274" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H274" s="7"/>
     </row>
@@ -4364,7 +4477,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H275" s="7"/>
     </row>
@@ -4378,7 +4491,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H276" s="7"/>
     </row>
@@ -4392,7 +4505,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H277" s="7"/>
     </row>
@@ -4406,7 +4519,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H278" s="7"/>
     </row>
@@ -4420,7 +4533,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H279" s="7"/>
     </row>
@@ -4434,7 +4547,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H280" s="7"/>
     </row>
@@ -4448,7 +4561,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H281" s="7"/>
     </row>
@@ -4462,7 +4575,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H282" s="7"/>
     </row>
@@ -4476,7 +4589,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H283" s="7"/>
     </row>
@@ -4490,7 +4603,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H284" s="7"/>
     </row>
@@ -4504,7 +4617,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H285" s="7"/>
     </row>
@@ -4518,7 +4631,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H286" s="7"/>
     </row>
@@ -4532,7 +4645,7 @@
       <c r="E287" s="4"/>
       <c r="F287" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H287" s="7"/>
     </row>
@@ -4546,7 +4659,7 @@
       <c r="E288" s="4"/>
       <c r="F288" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H288" s="7"/>
     </row>
@@ -4560,7 +4673,7 @@
       <c r="E289" s="4"/>
       <c r="F289" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H289" s="7"/>
     </row>
@@ -4574,7 +4687,7 @@
       <c r="E290" s="4"/>
       <c r="F290" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H290" s="7"/>
     </row>
@@ -4588,7 +4701,7 @@
       <c r="E291" s="4"/>
       <c r="F291" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H291" s="7"/>
     </row>
@@ -4602,7 +4715,7 @@
       <c r="E292" s="4"/>
       <c r="F292" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H292" s="7"/>
     </row>
@@ -4616,7 +4729,7 @@
       <c r="E293" s="4"/>
       <c r="F293" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H293" s="7"/>
     </row>
@@ -4630,7 +4743,7 @@
       <c r="E294" s="4"/>
       <c r="F294" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H294" s="7"/>
     </row>
@@ -4644,7 +4757,7 @@
       <c r="E295" s="4"/>
       <c r="F295" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H295" s="7"/>
     </row>
@@ -4658,7 +4771,7 @@
       <c r="E296" s="4"/>
       <c r="F296" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H296" s="7"/>
     </row>
@@ -4672,7 +4785,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H297" s="7"/>
     </row>
@@ -4686,7 +4799,7 @@
       <c r="E298" s="4"/>
       <c r="F298" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H298" s="7"/>
     </row>
@@ -4700,7 +4813,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H299" s="7"/>
     </row>
@@ -4714,7 +4827,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H300" s="7"/>
     </row>
@@ -4728,7 +4841,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H301" s="7"/>
     </row>
@@ -4742,7 +4855,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H302" s="7"/>
     </row>
@@ -4756,7 +4869,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H303" s="7"/>
     </row>
@@ -4770,7 +4883,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H304" s="7"/>
     </row>
@@ -4784,7 +4897,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H305" s="7"/>
     </row>
@@ -4800,7 +4913,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="G306" s="6" t="s">
         <v>13</v>
@@ -4819,7 +4932,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="G307" s="6" t="s">
         <v>14</v>
@@ -4838,7 +4951,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="G308" s="6" t="s">
         <v>15</v>
@@ -4857,7 +4970,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="G309" s="6" t="s">
         <v>16</v>
@@ -4876,7 +4989,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="G310" s="6" t="s">
         <v>17</v>
@@ -4895,7 +5008,7 @@
       <c r="E311" s="4"/>
       <c r="F311" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="G311" s="6" t="s">
         <v>18</v>
@@ -4914,7 +5027,7 @@
       <c r="E312" s="4"/>
       <c r="F312" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="G312" s="6" t="s">
         <v>19</v>
@@ -4933,7 +5046,7 @@
       <c r="E313" s="4"/>
       <c r="F313" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="G313" s="6" t="s">
         <v>20</v>
@@ -4952,7 +5065,7 @@
       <c r="E314" s="4"/>
       <c r="F314" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="G314" s="6" t="s">
         <v>21</v>
@@ -4971,7 +5084,7 @@
       <c r="E315" s="4"/>
       <c r="F315" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="G315" s="6" t="s">
         <v>22</v>
@@ -4990,7 +5103,7 @@
       <c r="E316" s="4"/>
       <c r="F316" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="G316" s="6" t="s">
         <v>24</v>
@@ -5009,7 +5122,7 @@
       <c r="E317" s="4"/>
       <c r="F317" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="G317" s="8" t="s">
         <v>23</v>
@@ -5028,7 +5141,7 @@
       <c r="E318" s="4"/>
       <c r="F318" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>25</v>
@@ -5040,12 +5153,17 @@
         <f t="shared" si="8"/>
         <v>314</v>
       </c>
-      <c r="C319" s="4"/>
+      <c r="C319" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
       <c r="F319" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G319" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="H319" s="7"/>
     </row>
@@ -5054,366 +5172,502 @@
         <f t="shared" si="8"/>
         <v>315</v>
       </c>
-      <c r="C320" s="4"/>
+      <c r="C320" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
       <c r="F320" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G320" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="H320" s="7"/>
     </row>
-    <row r="321" spans="2:8">
+    <row r="321" spans="1:8">
       <c r="B321" s="2">
         <f t="shared" si="8"/>
         <v>316</v>
       </c>
-      <c r="C321" s="4"/>
+      <c r="C321" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
       <c r="F321" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G321" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="H321" s="7"/>
     </row>
-    <row r="322" spans="2:8">
+    <row r="322" spans="1:8">
       <c r="B322" s="2">
         <f t="shared" si="8"/>
         <v>317</v>
       </c>
-      <c r="C322" s="4"/>
+      <c r="C322" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
       <c r="F322" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G322" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="H322" s="7"/>
     </row>
-    <row r="323" spans="2:8">
+    <row r="323" spans="1:8">
       <c r="B323" s="2">
         <f t="shared" si="8"/>
         <v>318</v>
       </c>
-      <c r="C323" s="4"/>
+      <c r="C323" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
       <c r="F323" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G323" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="H323" s="7"/>
     </row>
-    <row r="324" spans="2:8">
+    <row r="324" spans="1:8">
       <c r="B324" s="2">
         <f t="shared" si="8"/>
         <v>319</v>
       </c>
-      <c r="C324" s="4"/>
+      <c r="C324" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
       <c r="F324" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G324" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="H324" s="7"/>
     </row>
-    <row r="325" spans="2:8">
+    <row r="325" spans="1:8">
       <c r="B325" s="2">
         <f t="shared" si="8"/>
         <v>320</v>
       </c>
-      <c r="C325" s="4"/>
+      <c r="C325" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
       <c r="F325" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G325" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H325" s="7"/>
     </row>
-    <row r="326" spans="2:8">
+    <row r="326" spans="1:8">
       <c r="B326" s="2">
         <f t="shared" si="8"/>
         <v>321</v>
       </c>
-      <c r="C326" s="4"/>
+      <c r="C326" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
       <c r="F326" s="7">
         <f t="shared" si="9"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G326" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="H326" s="7"/>
     </row>
-    <row r="327" spans="2:8">
+    <row r="327" spans="1:8">
       <c r="B327" s="2">
         <f t="shared" ref="B327:B390" si="10">ROW()-5</f>
         <v>322</v>
       </c>
-      <c r="C327" s="4"/>
+      <c r="C327" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
       <c r="F327" s="7">
         <f t="shared" ref="F327:F390" si="11">$E$3/$E$2</f>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G327" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="H327" s="7"/>
     </row>
-    <row r="328" spans="2:8">
+    <row r="328" spans="1:8">
       <c r="B328" s="2">
         <f t="shared" si="10"/>
         <v>323</v>
       </c>
-      <c r="C328" s="4"/>
+      <c r="C328" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
       <c r="F328" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G328" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="H328" s="7"/>
     </row>
-    <row r="329" spans="2:8">
+    <row r="329" spans="1:8">
       <c r="B329" s="2">
         <f t="shared" si="10"/>
         <v>324</v>
       </c>
-      <c r="C329" s="4"/>
+      <c r="C329" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
       <c r="F329" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G329" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="H329" s="7"/>
     </row>
-    <row r="330" spans="2:8">
+    <row r="330" spans="1:8">
       <c r="B330" s="2">
         <f t="shared" si="10"/>
         <v>325</v>
       </c>
-      <c r="C330" s="4"/>
+      <c r="C330" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
       <c r="F330" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G330" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="H330" s="7"/>
     </row>
-    <row r="331" spans="2:8">
+    <row r="331" spans="1:8">
+      <c r="A331" t="s">
+        <v>39</v>
+      </c>
       <c r="B331" s="2">
         <f t="shared" si="10"/>
         <v>326</v>
       </c>
-      <c r="C331" s="4"/>
+      <c r="C331" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
       <c r="F331" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G331" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="H331" s="7"/>
     </row>
-    <row r="332" spans="2:8">
+    <row r="332" spans="1:8">
       <c r="B332" s="2">
         <f t="shared" si="10"/>
         <v>327</v>
       </c>
-      <c r="C332" s="4"/>
+      <c r="C332" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
       <c r="F332" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G332" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="H332" s="7"/>
     </row>
-    <row r="333" spans="2:8">
+    <row r="333" spans="1:8">
       <c r="B333" s="2">
         <f t="shared" si="10"/>
         <v>328</v>
       </c>
-      <c r="C333" s="4"/>
+      <c r="C333" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
       <c r="F333" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G333" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H333" s="7"/>
     </row>
-    <row r="334" spans="2:8">
+    <row r="334" spans="1:8">
       <c r="B334" s="2">
         <f t="shared" si="10"/>
         <v>329</v>
       </c>
-      <c r="C334" s="4"/>
+      <c r="C334" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
       <c r="F334" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G334" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="H334" s="7"/>
     </row>
-    <row r="335" spans="2:8">
+    <row r="335" spans="1:8">
       <c r="B335" s="2">
         <f t="shared" si="10"/>
         <v>330</v>
       </c>
-      <c r="C335" s="4"/>
+      <c r="C335" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
       <c r="F335" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G335" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="H335" s="7"/>
     </row>
-    <row r="336" spans="2:8">
+    <row r="336" spans="1:8">
       <c r="B336" s="2">
         <f t="shared" si="10"/>
         <v>331</v>
       </c>
-      <c r="C336" s="4"/>
+      <c r="C336" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
       <c r="F336" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G336" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="H336" s="7"/>
     </row>
-    <row r="337" spans="2:8">
+    <row r="337" spans="1:8">
       <c r="B337" s="2">
         <f t="shared" si="10"/>
         <v>332</v>
       </c>
-      <c r="C337" s="4"/>
+      <c r="C337" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
       <c r="F337" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G337" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="H337" s="7"/>
     </row>
-    <row r="338" spans="2:8">
+    <row r="338" spans="1:8">
       <c r="B338" s="2">
         <f t="shared" si="10"/>
         <v>333</v>
       </c>
-      <c r="C338" s="4"/>
+      <c r="C338" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
       <c r="F338" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G338" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="H338" s="7"/>
     </row>
-    <row r="339" spans="2:8">
+    <row r="339" spans="1:8">
       <c r="B339" s="2">
         <f t="shared" si="10"/>
         <v>334</v>
       </c>
-      <c r="C339" s="4"/>
+      <c r="C339" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
       <c r="F339" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G339" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="H339" s="7"/>
     </row>
-    <row r="340" spans="2:8">
+    <row r="340" spans="1:8">
       <c r="B340" s="2">
         <f t="shared" si="10"/>
         <v>335</v>
       </c>
-      <c r="C340" s="4"/>
+      <c r="C340" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
       <c r="F340" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G340" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="H340" s="7"/>
     </row>
-    <row r="341" spans="2:8">
+    <row r="341" spans="1:8">
       <c r="B341" s="2">
         <f t="shared" si="10"/>
         <v>336</v>
       </c>
-      <c r="C341" s="4"/>
+      <c r="C341" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
       <c r="F341" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G341" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="H341" s="7"/>
     </row>
-    <row r="342" spans="2:8">
+    <row r="342" spans="1:8">
       <c r="B342" s="2">
         <f t="shared" si="10"/>
         <v>337</v>
       </c>
-      <c r="C342" s="4"/>
+      <c r="C342" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
       <c r="F342" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G342" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="H342" s="7"/>
     </row>
-    <row r="343" spans="2:8">
+    <row r="343" spans="1:8">
+      <c r="A343" t="s">
+        <v>39</v>
+      </c>
       <c r="B343" s="2">
         <f t="shared" si="10"/>
         <v>338</v>
       </c>
-      <c r="C343" s="4"/>
+      <c r="C343" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
       <c r="F343" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G343" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="H343" s="7"/>
     </row>
-    <row r="344" spans="2:8">
+    <row r="344" spans="1:8">
       <c r="B344" s="2">
         <f t="shared" si="10"/>
         <v>339</v>
       </c>
-      <c r="C344" s="4"/>
+      <c r="C344" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
       <c r="F344" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G344" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="H344" s="7"/>
     </row>
-    <row r="345" spans="2:8">
+    <row r="345" spans="1:8">
       <c r="B345" s="2">
         <f t="shared" si="10"/>
         <v>340</v>
       </c>
-      <c r="C345" s="4"/>
+      <c r="C345" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
       <c r="F345" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
+      </c>
+      <c r="G345" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="H345" s="7"/>
     </row>
-    <row r="346" spans="2:8">
+    <row r="346" spans="1:8">
       <c r="B346" s="2">
         <f t="shared" si="10"/>
         <v>341</v>
@@ -5423,11 +5677,11 @@
       <c r="E346" s="4"/>
       <c r="F346" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H346" s="7"/>
     </row>
-    <row r="347" spans="2:8">
+    <row r="347" spans="1:8">
       <c r="B347" s="2">
         <f t="shared" si="10"/>
         <v>342</v>
@@ -5437,11 +5691,11 @@
       <c r="E347" s="4"/>
       <c r="F347" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H347" s="7"/>
     </row>
-    <row r="348" spans="2:8">
+    <row r="348" spans="1:8">
       <c r="B348" s="2">
         <f t="shared" si="10"/>
         <v>343</v>
@@ -5451,11 +5705,11 @@
       <c r="E348" s="4"/>
       <c r="F348" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H348" s="7"/>
     </row>
-    <row r="349" spans="2:8">
+    <row r="349" spans="1:8">
       <c r="B349" s="2">
         <f t="shared" si="10"/>
         <v>344</v>
@@ -5465,11 +5719,11 @@
       <c r="E349" s="4"/>
       <c r="F349" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H349" s="7"/>
     </row>
-    <row r="350" spans="2:8">
+    <row r="350" spans="1:8">
       <c r="B350" s="2">
         <f t="shared" si="10"/>
         <v>345</v>
@@ -5479,11 +5733,11 @@
       <c r="E350" s="4"/>
       <c r="F350" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H350" s="7"/>
     </row>
-    <row r="351" spans="2:8">
+    <row r="351" spans="1:8">
       <c r="B351" s="2">
         <f t="shared" si="10"/>
         <v>346</v>
@@ -5493,11 +5747,11 @@
       <c r="E351" s="4"/>
       <c r="F351" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H351" s="7"/>
     </row>
-    <row r="352" spans="2:8">
+    <row r="352" spans="1:8">
       <c r="B352" s="2">
         <f t="shared" si="10"/>
         <v>347</v>
@@ -5507,7 +5761,7 @@
       <c r="E352" s="4"/>
       <c r="F352" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H352" s="7"/>
     </row>
@@ -5521,7 +5775,7 @@
       <c r="E353" s="4"/>
       <c r="F353" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H353" s="7"/>
     </row>
@@ -5535,7 +5789,7 @@
       <c r="E354" s="4"/>
       <c r="F354" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H354" s="7"/>
     </row>
@@ -5549,7 +5803,7 @@
       <c r="E355" s="4"/>
       <c r="F355" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H355" s="7"/>
     </row>
@@ -5563,7 +5817,7 @@
       <c r="E356" s="4"/>
       <c r="F356" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H356" s="7"/>
     </row>
@@ -5577,7 +5831,7 @@
       <c r="E357" s="4"/>
       <c r="F357" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H357" s="7"/>
     </row>
@@ -5591,7 +5845,7 @@
       <c r="E358" s="4"/>
       <c r="F358" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H358" s="7"/>
     </row>
@@ -5605,7 +5859,7 @@
       <c r="E359" s="4"/>
       <c r="F359" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H359" s="7"/>
     </row>
@@ -5619,7 +5873,7 @@
       <c r="E360" s="4"/>
       <c r="F360" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H360" s="7"/>
     </row>
@@ -5633,7 +5887,7 @@
       <c r="E361" s="4"/>
       <c r="F361" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H361" s="7"/>
     </row>
@@ -5647,7 +5901,7 @@
       <c r="E362" s="4"/>
       <c r="F362" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H362" s="7"/>
     </row>
@@ -5661,7 +5915,7 @@
       <c r="E363" s="4"/>
       <c r="F363" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H363" s="7"/>
     </row>
@@ -5675,7 +5929,7 @@
       <c r="E364" s="4"/>
       <c r="F364" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H364" s="7"/>
     </row>
@@ -5689,7 +5943,7 @@
       <c r="E365" s="4"/>
       <c r="F365" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H365" s="7"/>
     </row>
@@ -5703,7 +5957,7 @@
       <c r="E366" s="4"/>
       <c r="F366" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H366" s="7"/>
     </row>
@@ -5717,7 +5971,7 @@
       <c r="E367" s="4"/>
       <c r="F367" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H367" s="7"/>
     </row>
@@ -5731,7 +5985,7 @@
       <c r="E368" s="4"/>
       <c r="F368" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H368" s="7"/>
     </row>
@@ -5745,7 +5999,7 @@
       <c r="E369" s="4"/>
       <c r="F369" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H369" s="7"/>
     </row>
@@ -5759,7 +6013,7 @@
       <c r="E370" s="4"/>
       <c r="F370" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H370" s="7"/>
     </row>
@@ -5773,7 +6027,7 @@
       <c r="E371" s="4"/>
       <c r="F371" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H371" s="7"/>
     </row>
@@ -5787,7 +6041,7 @@
       <c r="E372" s="4"/>
       <c r="F372" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H372" s="7"/>
     </row>
@@ -5801,7 +6055,7 @@
       <c r="E373" s="4"/>
       <c r="F373" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H373" s="7"/>
     </row>
@@ -5815,7 +6069,7 @@
       <c r="E374" s="4"/>
       <c r="F374" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H374" s="7"/>
     </row>
@@ -5829,7 +6083,7 @@
       <c r="E375" s="4"/>
       <c r="F375" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H375" s="7"/>
     </row>
@@ -5843,7 +6097,7 @@
       <c r="E376" s="4"/>
       <c r="F376" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H376" s="7"/>
     </row>
@@ -5857,7 +6111,7 @@
       <c r="E377" s="4"/>
       <c r="F377" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H377" s="7"/>
     </row>
@@ -5871,7 +6125,7 @@
       <c r="E378" s="4"/>
       <c r="F378" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H378" s="7"/>
     </row>
@@ -5885,7 +6139,7 @@
       <c r="E379" s="4"/>
       <c r="F379" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H379" s="7"/>
     </row>
@@ -5899,7 +6153,7 @@
       <c r="E380" s="4"/>
       <c r="F380" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H380" s="7"/>
     </row>
@@ -5913,7 +6167,7 @@
       <c r="E381" s="4"/>
       <c r="F381" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H381" s="7"/>
     </row>
@@ -5927,7 +6181,7 @@
       <c r="E382" s="4"/>
       <c r="F382" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H382" s="7"/>
     </row>
@@ -5941,7 +6195,7 @@
       <c r="E383" s="4"/>
       <c r="F383" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H383" s="7"/>
     </row>
@@ -5955,7 +6209,7 @@
       <c r="E384" s="4"/>
       <c r="F384" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H384" s="7"/>
     </row>
@@ -5969,7 +6223,7 @@
       <c r="E385" s="4"/>
       <c r="F385" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H385" s="7"/>
     </row>
@@ -5983,7 +6237,7 @@
       <c r="E386" s="4"/>
       <c r="F386" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H386" s="7"/>
     </row>
@@ -5997,7 +6251,7 @@
       <c r="E387" s="4"/>
       <c r="F387" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H387" s="7"/>
     </row>
@@ -6011,7 +6265,7 @@
       <c r="E388" s="4"/>
       <c r="F388" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H388" s="7"/>
     </row>
@@ -6025,7 +6279,7 @@
       <c r="E389" s="4"/>
       <c r="F389" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H389" s="7"/>
     </row>
@@ -6039,7 +6293,7 @@
       <c r="E390" s="4"/>
       <c r="F390" s="7">
         <f t="shared" si="11"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H390" s="7"/>
     </row>
@@ -6053,7 +6307,7 @@
       <c r="E391" s="4"/>
       <c r="F391" s="7">
         <f t="shared" ref="F391:F454" si="13">$E$3/$E$2</f>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H391" s="7"/>
     </row>
@@ -6067,7 +6321,7 @@
       <c r="E392" s="4"/>
       <c r="F392" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H392" s="7"/>
     </row>
@@ -6081,7 +6335,7 @@
       <c r="E393" s="4"/>
       <c r="F393" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H393" s="7"/>
     </row>
@@ -6095,7 +6349,7 @@
       <c r="E394" s="4"/>
       <c r="F394" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H394" s="7"/>
     </row>
@@ -6109,7 +6363,7 @@
       <c r="E395" s="4"/>
       <c r="F395" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H395" s="7"/>
     </row>
@@ -6123,7 +6377,7 @@
       <c r="E396" s="4"/>
       <c r="F396" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H396" s="7"/>
     </row>
@@ -6137,7 +6391,7 @@
       <c r="E397" s="4"/>
       <c r="F397" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H397" s="7"/>
     </row>
@@ -6151,7 +6405,7 @@
       <c r="E398" s="4"/>
       <c r="F398" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H398" s="7"/>
     </row>
@@ -6165,7 +6419,7 @@
       <c r="E399" s="4"/>
       <c r="F399" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H399" s="7"/>
     </row>
@@ -6179,7 +6433,7 @@
       <c r="E400" s="4"/>
       <c r="F400" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H400" s="7"/>
     </row>
@@ -6193,7 +6447,7 @@
       <c r="E401" s="4"/>
       <c r="F401" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H401" s="7"/>
     </row>
@@ -6207,7 +6461,7 @@
       <c r="E402" s="4"/>
       <c r="F402" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H402" s="7"/>
     </row>
@@ -6221,7 +6475,7 @@
       <c r="E403" s="4"/>
       <c r="F403" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H403" s="7"/>
     </row>
@@ -6235,7 +6489,7 @@
       <c r="E404" s="4"/>
       <c r="F404" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H404" s="7"/>
     </row>
@@ -6249,7 +6503,7 @@
       <c r="E405" s="4"/>
       <c r="F405" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H405" s="7"/>
     </row>
@@ -6263,7 +6517,7 @@
       <c r="E406" s="4"/>
       <c r="F406" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H406" s="7"/>
     </row>
@@ -6277,7 +6531,7 @@
       <c r="E407" s="4"/>
       <c r="F407" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H407" s="7"/>
     </row>
@@ -6291,7 +6545,7 @@
       <c r="E408" s="4"/>
       <c r="F408" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H408" s="7"/>
     </row>
@@ -6305,7 +6559,7 @@
       <c r="E409" s="4"/>
       <c r="F409" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H409" s="7"/>
     </row>
@@ -6319,7 +6573,7 @@
       <c r="E410" s="4"/>
       <c r="F410" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H410" s="7"/>
     </row>
@@ -6333,7 +6587,7 @@
       <c r="E411" s="4"/>
       <c r="F411" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H411" s="7"/>
     </row>
@@ -6347,7 +6601,7 @@
       <c r="E412" s="4"/>
       <c r="F412" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H412" s="7"/>
     </row>
@@ -6361,7 +6615,7 @@
       <c r="E413" s="4"/>
       <c r="F413" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H413" s="7"/>
     </row>
@@ -6375,7 +6629,7 @@
       <c r="E414" s="4"/>
       <c r="F414" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H414" s="7"/>
     </row>
@@ -6389,7 +6643,7 @@
       <c r="E415" s="4"/>
       <c r="F415" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H415" s="7"/>
     </row>
@@ -6403,7 +6657,7 @@
       <c r="E416" s="4"/>
       <c r="F416" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H416" s="7"/>
     </row>
@@ -6417,7 +6671,7 @@
       <c r="E417" s="4"/>
       <c r="F417" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H417" s="7"/>
     </row>
@@ -6431,7 +6685,7 @@
       <c r="E418" s="4"/>
       <c r="F418" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H418" s="7"/>
     </row>
@@ -6445,7 +6699,7 @@
       <c r="E419" s="4"/>
       <c r="F419" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H419" s="7"/>
     </row>
@@ -6459,7 +6713,7 @@
       <c r="E420" s="4"/>
       <c r="F420" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H420" s="7"/>
     </row>
@@ -6473,7 +6727,7 @@
       <c r="E421" s="4"/>
       <c r="F421" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H421" s="7"/>
     </row>
@@ -6487,7 +6741,7 @@
       <c r="E422" s="4"/>
       <c r="F422" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H422" s="7"/>
     </row>
@@ -6501,7 +6755,7 @@
       <c r="E423" s="4"/>
       <c r="F423" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H423" s="7"/>
     </row>
@@ -6515,7 +6769,7 @@
       <c r="E424" s="4"/>
       <c r="F424" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H424" s="7"/>
     </row>
@@ -6529,7 +6783,7 @@
       <c r="E425" s="4"/>
       <c r="F425" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H425" s="7"/>
     </row>
@@ -6543,7 +6797,7 @@
       <c r="E426" s="4"/>
       <c r="F426" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H426" s="7"/>
     </row>
@@ -6557,7 +6811,7 @@
       <c r="E427" s="4"/>
       <c r="F427" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H427" s="7"/>
     </row>
@@ -6571,7 +6825,7 @@
       <c r="E428" s="4"/>
       <c r="F428" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H428" s="7"/>
     </row>
@@ -6585,7 +6839,7 @@
       <c r="E429" s="4"/>
       <c r="F429" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H429" s="7"/>
     </row>
@@ -6599,7 +6853,7 @@
       <c r="E430" s="4"/>
       <c r="F430" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H430" s="7"/>
     </row>
@@ -6613,7 +6867,7 @@
       <c r="E431" s="4"/>
       <c r="F431" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H431" s="7"/>
     </row>
@@ -6627,7 +6881,7 @@
       <c r="E432" s="4"/>
       <c r="F432" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H432" s="7"/>
     </row>
@@ -6641,7 +6895,7 @@
       <c r="E433" s="4"/>
       <c r="F433" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H433" s="7"/>
     </row>
@@ -6655,7 +6909,7 @@
       <c r="E434" s="4"/>
       <c r="F434" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H434" s="7"/>
     </row>
@@ -6669,7 +6923,7 @@
       <c r="E435" s="4"/>
       <c r="F435" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H435" s="7"/>
     </row>
@@ -6683,7 +6937,7 @@
       <c r="E436" s="4"/>
       <c r="F436" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H436" s="7"/>
     </row>
@@ -6697,7 +6951,7 @@
       <c r="E437" s="4"/>
       <c r="F437" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H437" s="7"/>
     </row>
@@ -6711,7 +6965,7 @@
       <c r="E438" s="4"/>
       <c r="F438" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H438" s="7"/>
     </row>
@@ -6725,7 +6979,7 @@
       <c r="E439" s="4"/>
       <c r="F439" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H439" s="7"/>
     </row>
@@ -6739,7 +6993,7 @@
       <c r="E440" s="4"/>
       <c r="F440" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H440" s="7"/>
     </row>
@@ -6753,7 +7007,7 @@
       <c r="E441" s="4"/>
       <c r="F441" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H441" s="7"/>
     </row>
@@ -6767,7 +7021,7 @@
       <c r="E442" s="4"/>
       <c r="F442" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H442" s="7"/>
     </row>
@@ -6781,7 +7035,7 @@
       <c r="E443" s="4"/>
       <c r="F443" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H443" s="7"/>
     </row>
@@ -6795,7 +7049,7 @@
       <c r="E444" s="4"/>
       <c r="F444" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H444" s="7"/>
     </row>
@@ -6809,7 +7063,7 @@
       <c r="E445" s="4"/>
       <c r="F445" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H445" s="7"/>
     </row>
@@ -6823,7 +7077,7 @@
       <c r="E446" s="4"/>
       <c r="F446" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H446" s="7"/>
     </row>
@@ -6837,7 +7091,7 @@
       <c r="E447" s="4"/>
       <c r="F447" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H447" s="7"/>
     </row>
@@ -6851,7 +7105,7 @@
       <c r="E448" s="4"/>
       <c r="F448" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H448" s="7"/>
     </row>
@@ -6865,7 +7119,7 @@
       <c r="E449" s="4"/>
       <c r="F449" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H449" s="7"/>
     </row>
@@ -6879,7 +7133,7 @@
       <c r="E450" s="4"/>
       <c r="F450" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H450" s="7"/>
     </row>
@@ -6893,7 +7147,7 @@
       <c r="E451" s="4"/>
       <c r="F451" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H451" s="7"/>
     </row>
@@ -6907,7 +7161,7 @@
       <c r="E452" s="4"/>
       <c r="F452" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H452" s="7"/>
     </row>
@@ -6921,7 +7175,7 @@
       <c r="E453" s="4"/>
       <c r="F453" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H453" s="7"/>
     </row>
@@ -6935,7 +7189,7 @@
       <c r="E454" s="4"/>
       <c r="F454" s="7">
         <f t="shared" si="13"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H454" s="7"/>
     </row>
@@ -6949,7 +7203,7 @@
       <c r="E455" s="4"/>
       <c r="F455" s="7">
         <f t="shared" ref="F455:F518" si="15">$E$3/$E$2</f>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H455" s="7"/>
     </row>
@@ -6963,7 +7217,7 @@
       <c r="E456" s="4"/>
       <c r="F456" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H456" s="7"/>
     </row>
@@ -6977,7 +7231,7 @@
       <c r="E457" s="4"/>
       <c r="F457" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H457" s="7"/>
     </row>
@@ -6991,7 +7245,7 @@
       <c r="E458" s="4"/>
       <c r="F458" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H458" s="7"/>
     </row>
@@ -7005,7 +7259,7 @@
       <c r="E459" s="4"/>
       <c r="F459" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H459" s="7"/>
     </row>
@@ -7019,7 +7273,7 @@
       <c r="E460" s="4"/>
       <c r="F460" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H460" s="7"/>
     </row>
@@ -7033,7 +7287,7 @@
       <c r="E461" s="4"/>
       <c r="F461" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H461" s="7"/>
     </row>
@@ -7047,7 +7301,7 @@
       <c r="E462" s="4"/>
       <c r="F462" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H462" s="7"/>
     </row>
@@ -7061,7 +7315,7 @@
       <c r="E463" s="4"/>
       <c r="F463" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H463" s="7"/>
     </row>
@@ -7075,7 +7329,7 @@
       <c r="E464" s="4"/>
       <c r="F464" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H464" s="7"/>
     </row>
@@ -7089,7 +7343,7 @@
       <c r="E465" s="4"/>
       <c r="F465" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H465" s="7"/>
     </row>
@@ -7103,7 +7357,7 @@
       <c r="E466" s="4"/>
       <c r="F466" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H466" s="7"/>
     </row>
@@ -7117,7 +7371,7 @@
       <c r="E467" s="4"/>
       <c r="F467" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H467" s="7"/>
     </row>
@@ -7131,7 +7385,7 @@
       <c r="E468" s="4"/>
       <c r="F468" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H468" s="7"/>
     </row>
@@ -7145,7 +7399,7 @@
       <c r="E469" s="4"/>
       <c r="F469" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H469" s="7"/>
     </row>
@@ -7159,7 +7413,7 @@
       <c r="E470" s="4"/>
       <c r="F470" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H470" s="7"/>
     </row>
@@ -7173,7 +7427,7 @@
       <c r="E471" s="4"/>
       <c r="F471" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H471" s="7"/>
     </row>
@@ -7187,7 +7441,7 @@
       <c r="E472" s="4"/>
       <c r="F472" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H472" s="7"/>
     </row>
@@ -7201,7 +7455,7 @@
       <c r="E473" s="4"/>
       <c r="F473" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H473" s="7"/>
     </row>
@@ -7215,7 +7469,7 @@
       <c r="E474" s="4"/>
       <c r="F474" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H474" s="7"/>
     </row>
@@ -7229,7 +7483,7 @@
       <c r="E475" s="4"/>
       <c r="F475" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H475" s="7"/>
     </row>
@@ -7243,7 +7497,7 @@
       <c r="E476" s="4"/>
       <c r="F476" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H476" s="7"/>
     </row>
@@ -7257,7 +7511,7 @@
       <c r="E477" s="4"/>
       <c r="F477" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H477" s="7"/>
     </row>
@@ -7271,7 +7525,7 @@
       <c r="E478" s="4"/>
       <c r="F478" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H478" s="7"/>
     </row>
@@ -7285,7 +7539,7 @@
       <c r="E479" s="4"/>
       <c r="F479" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H479" s="7"/>
     </row>
@@ -7299,7 +7553,7 @@
       <c r="E480" s="4"/>
       <c r="F480" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H480" s="7"/>
     </row>
@@ -7313,7 +7567,7 @@
       <c r="E481" s="4"/>
       <c r="F481" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H481" s="7"/>
     </row>
@@ -7327,7 +7581,7 @@
       <c r="E482" s="4"/>
       <c r="F482" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H482" s="7"/>
     </row>
@@ -7341,7 +7595,7 @@
       <c r="E483" s="4"/>
       <c r="F483" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H483" s="7"/>
     </row>
@@ -7355,7 +7609,7 @@
       <c r="E484" s="4"/>
       <c r="F484" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H484" s="7"/>
     </row>
@@ -7369,7 +7623,7 @@
       <c r="E485" s="4"/>
       <c r="F485" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H485" s="7"/>
     </row>
@@ -7383,7 +7637,7 @@
       <c r="E486" s="4"/>
       <c r="F486" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H486" s="7"/>
     </row>
@@ -7397,7 +7651,7 @@
       <c r="E487" s="4"/>
       <c r="F487" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H487" s="7"/>
     </row>
@@ -7411,7 +7665,7 @@
       <c r="E488" s="4"/>
       <c r="F488" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H488" s="7"/>
     </row>
@@ -7425,7 +7679,7 @@
       <c r="E489" s="4"/>
       <c r="F489" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H489" s="7"/>
     </row>
@@ -7439,7 +7693,7 @@
       <c r="E490" s="4"/>
       <c r="F490" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H490" s="7"/>
     </row>
@@ -7453,7 +7707,7 @@
       <c r="E491" s="4"/>
       <c r="F491" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H491" s="7"/>
     </row>
@@ -7467,7 +7721,7 @@
       <c r="E492" s="4"/>
       <c r="F492" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H492" s="7"/>
     </row>
@@ -7481,7 +7735,7 @@
       <c r="E493" s="4"/>
       <c r="F493" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H493" s="7"/>
     </row>
@@ -7495,7 +7749,7 @@
       <c r="E494" s="4"/>
       <c r="F494" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H494" s="7"/>
     </row>
@@ -7509,7 +7763,7 @@
       <c r="E495" s="4"/>
       <c r="F495" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H495" s="7"/>
     </row>
@@ -7523,7 +7777,7 @@
       <c r="E496" s="4"/>
       <c r="F496" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H496" s="7"/>
     </row>
@@ -7537,7 +7791,7 @@
       <c r="E497" s="4"/>
       <c r="F497" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H497" s="7"/>
     </row>
@@ -7551,7 +7805,7 @@
       <c r="E498" s="4"/>
       <c r="F498" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H498" s="7"/>
     </row>
@@ -7565,7 +7819,7 @@
       <c r="E499" s="4"/>
       <c r="F499" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H499" s="7"/>
     </row>
@@ -7579,7 +7833,7 @@
       <c r="E500" s="4"/>
       <c r="F500" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H500" s="7"/>
     </row>
@@ -7593,7 +7847,7 @@
       <c r="E501" s="4"/>
       <c r="F501" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H501" s="7"/>
     </row>
@@ -7607,7 +7861,7 @@
       <c r="E502" s="4"/>
       <c r="F502" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H502" s="7"/>
     </row>
@@ -7621,7 +7875,7 @@
       <c r="E503" s="4"/>
       <c r="F503" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H503" s="7"/>
     </row>
@@ -7635,7 +7889,7 @@
       <c r="E504" s="4"/>
       <c r="F504" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H504" s="7"/>
     </row>
@@ -7649,7 +7903,7 @@
       <c r="E505" s="4"/>
       <c r="F505" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H505" s="7"/>
     </row>
@@ -7663,7 +7917,7 @@
       <c r="E506" s="4"/>
       <c r="F506" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H506" s="7"/>
     </row>
@@ -7677,7 +7931,7 @@
       <c r="E507" s="4"/>
       <c r="F507" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H507" s="7"/>
     </row>
@@ -7691,7 +7945,7 @@
       <c r="E508" s="4"/>
       <c r="F508" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H508" s="7"/>
     </row>
@@ -7705,7 +7959,7 @@
       <c r="E509" s="4"/>
       <c r="F509" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H509" s="7"/>
     </row>
@@ -7719,7 +7973,7 @@
       <c r="E510" s="4"/>
       <c r="F510" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H510" s="7"/>
     </row>
@@ -7733,7 +7987,7 @@
       <c r="E511" s="4"/>
       <c r="F511" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H511" s="7"/>
     </row>
@@ -7747,7 +8001,7 @@
       <c r="E512" s="4"/>
       <c r="F512" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H512" s="7"/>
     </row>
@@ -7761,7 +8015,7 @@
       <c r="E513" s="4"/>
       <c r="F513" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H513" s="7"/>
     </row>
@@ -7775,7 +8029,7 @@
       <c r="E514" s="4"/>
       <c r="F514" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H514" s="7"/>
     </row>
@@ -7789,7 +8043,7 @@
       <c r="E515" s="4"/>
       <c r="F515" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H515" s="7"/>
     </row>
@@ -7803,7 +8057,7 @@
       <c r="E516" s="4"/>
       <c r="F516" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H516" s="7"/>
     </row>
@@ -7817,7 +8071,7 @@
       <c r="E517" s="4"/>
       <c r="F517" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H517" s="7"/>
     </row>
@@ -7831,7 +8085,7 @@
       <c r="E518" s="4"/>
       <c r="F518" s="7">
         <f t="shared" si="15"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H518" s="7"/>
     </row>
@@ -7845,7 +8099,7 @@
       <c r="E519" s="4"/>
       <c r="F519" s="7">
         <f t="shared" ref="F519:F582" si="17">$E$3/$E$2</f>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H519" s="7"/>
     </row>
@@ -7859,7 +8113,7 @@
       <c r="E520" s="4"/>
       <c r="F520" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H520" s="7"/>
     </row>
@@ -7873,7 +8127,7 @@
       <c r="E521" s="4"/>
       <c r="F521" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H521" s="7"/>
     </row>
@@ -7887,7 +8141,7 @@
       <c r="E522" s="4"/>
       <c r="F522" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H522" s="7"/>
     </row>
@@ -7901,7 +8155,7 @@
       <c r="E523" s="4"/>
       <c r="F523" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H523" s="7"/>
     </row>
@@ -7915,7 +8169,7 @@
       <c r="E524" s="4"/>
       <c r="F524" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H524" s="7"/>
     </row>
@@ -7929,7 +8183,7 @@
       <c r="E525" s="4"/>
       <c r="F525" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H525" s="7"/>
     </row>
@@ -7943,7 +8197,7 @@
       <c r="E526" s="4"/>
       <c r="F526" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H526" s="7"/>
     </row>
@@ -7957,7 +8211,7 @@
       <c r="E527" s="4"/>
       <c r="F527" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H527" s="7"/>
     </row>
@@ -7971,7 +8225,7 @@
       <c r="E528" s="4"/>
       <c r="F528" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H528" s="7"/>
     </row>
@@ -7985,7 +8239,7 @@
       <c r="E529" s="4"/>
       <c r="F529" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H529" s="7"/>
     </row>
@@ -7999,7 +8253,7 @@
       <c r="E530" s="4"/>
       <c r="F530" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H530" s="7"/>
     </row>
@@ -8013,7 +8267,7 @@
       <c r="E531" s="4"/>
       <c r="F531" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H531" s="7"/>
     </row>
@@ -8027,7 +8281,7 @@
       <c r="E532" s="4"/>
       <c r="F532" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H532" s="7"/>
     </row>
@@ -8041,7 +8295,7 @@
       <c r="E533" s="4"/>
       <c r="F533" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H533" s="7"/>
     </row>
@@ -8055,7 +8309,7 @@
       <c r="E534" s="4"/>
       <c r="F534" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H534" s="7"/>
     </row>
@@ -8069,7 +8323,7 @@
       <c r="E535" s="4"/>
       <c r="F535" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H535" s="7"/>
     </row>
@@ -8083,7 +8337,7 @@
       <c r="E536" s="4"/>
       <c r="F536" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H536" s="7"/>
     </row>
@@ -8097,7 +8351,7 @@
       <c r="E537" s="4"/>
       <c r="F537" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H537" s="7"/>
     </row>
@@ -8111,7 +8365,7 @@
       <c r="E538" s="4"/>
       <c r="F538" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H538" s="7"/>
     </row>
@@ -8125,7 +8379,7 @@
       <c r="E539" s="4"/>
       <c r="F539" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H539" s="7"/>
     </row>
@@ -8139,7 +8393,7 @@
       <c r="E540" s="4"/>
       <c r="F540" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H540" s="7"/>
     </row>
@@ -8153,7 +8407,7 @@
       <c r="E541" s="4"/>
       <c r="F541" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H541" s="7"/>
     </row>
@@ -8167,7 +8421,7 @@
       <c r="E542" s="4"/>
       <c r="F542" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H542" s="7"/>
     </row>
@@ -8181,7 +8435,7 @@
       <c r="E543" s="4"/>
       <c r="F543" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H543" s="7"/>
     </row>
@@ -8195,7 +8449,7 @@
       <c r="E544" s="4"/>
       <c r="F544" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H544" s="7"/>
     </row>
@@ -8209,7 +8463,7 @@
       <c r="E545" s="4"/>
       <c r="F545" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H545" s="7"/>
     </row>
@@ -8223,7 +8477,7 @@
       <c r="E546" s="4"/>
       <c r="F546" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H546" s="7"/>
     </row>
@@ -8237,7 +8491,7 @@
       <c r="E547" s="4"/>
       <c r="F547" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H547" s="7"/>
     </row>
@@ -8251,7 +8505,7 @@
       <c r="E548" s="4"/>
       <c r="F548" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H548" s="7"/>
     </row>
@@ -8265,7 +8519,7 @@
       <c r="E549" s="4"/>
       <c r="F549" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H549" s="7"/>
     </row>
@@ -8279,7 +8533,7 @@
       <c r="E550" s="4"/>
       <c r="F550" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H550" s="7"/>
     </row>
@@ -8293,7 +8547,7 @@
       <c r="E551" s="4"/>
       <c r="F551" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H551" s="7"/>
     </row>
@@ -8307,7 +8561,7 @@
       <c r="E552" s="4"/>
       <c r="F552" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H552" s="7"/>
     </row>
@@ -8321,7 +8575,7 @@
       <c r="E553" s="4"/>
       <c r="F553" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H553" s="7"/>
     </row>
@@ -8335,7 +8589,7 @@
       <c r="E554" s="4"/>
       <c r="F554" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H554" s="7"/>
     </row>
@@ -8349,7 +8603,7 @@
       <c r="E555" s="4"/>
       <c r="F555" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H555" s="7"/>
     </row>
@@ -8363,7 +8617,7 @@
       <c r="E556" s="4"/>
       <c r="F556" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H556" s="7"/>
     </row>
@@ -8377,7 +8631,7 @@
       <c r="E557" s="4"/>
       <c r="F557" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H557" s="7"/>
     </row>
@@ -8391,7 +8645,7 @@
       <c r="E558" s="4"/>
       <c r="F558" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H558" s="7"/>
     </row>
@@ -8405,7 +8659,7 @@
       <c r="E559" s="4"/>
       <c r="F559" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H559" s="7"/>
     </row>
@@ -8419,7 +8673,7 @@
       <c r="E560" s="4"/>
       <c r="F560" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H560" s="7"/>
     </row>
@@ -8433,7 +8687,7 @@
       <c r="E561" s="4"/>
       <c r="F561" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H561" s="7"/>
     </row>
@@ -8447,7 +8701,7 @@
       <c r="E562" s="4"/>
       <c r="F562" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H562" s="7"/>
     </row>
@@ -8461,7 +8715,7 @@
       <c r="E563" s="4"/>
       <c r="F563" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H563" s="7"/>
     </row>
@@ -8475,7 +8729,7 @@
       <c r="E564" s="4"/>
       <c r="F564" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H564" s="7"/>
     </row>
@@ -8489,7 +8743,7 @@
       <c r="E565" s="4"/>
       <c r="F565" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H565" s="7"/>
     </row>
@@ -8503,7 +8757,7 @@
       <c r="E566" s="4"/>
       <c r="F566" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H566" s="7"/>
     </row>
@@ -8517,7 +8771,7 @@
       <c r="E567" s="4"/>
       <c r="F567" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H567" s="7"/>
     </row>
@@ -8531,7 +8785,7 @@
       <c r="E568" s="4"/>
       <c r="F568" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H568" s="7"/>
     </row>
@@ -8545,7 +8799,7 @@
       <c r="E569" s="4"/>
       <c r="F569" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H569" s="7"/>
     </row>
@@ -8559,7 +8813,7 @@
       <c r="E570" s="4"/>
       <c r="F570" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H570" s="7"/>
     </row>
@@ -8573,7 +8827,7 @@
       <c r="E571" s="4"/>
       <c r="F571" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H571" s="7"/>
     </row>
@@ -8587,7 +8841,7 @@
       <c r="E572" s="4"/>
       <c r="F572" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H572" s="7"/>
     </row>
@@ -8601,7 +8855,7 @@
       <c r="E573" s="4"/>
       <c r="F573" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H573" s="7"/>
     </row>
@@ -8615,7 +8869,7 @@
       <c r="E574" s="4"/>
       <c r="F574" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H574" s="7"/>
     </row>
@@ -8629,7 +8883,7 @@
       <c r="E575" s="4"/>
       <c r="F575" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H575" s="7"/>
     </row>
@@ -8643,7 +8897,7 @@
       <c r="E576" s="4"/>
       <c r="F576" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H576" s="7"/>
     </row>
@@ -8657,7 +8911,7 @@
       <c r="E577" s="4"/>
       <c r="F577" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H577" s="7"/>
     </row>
@@ -8671,7 +8925,7 @@
       <c r="E578" s="4"/>
       <c r="F578" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H578" s="7"/>
     </row>
@@ -8685,7 +8939,7 @@
       <c r="E579" s="4"/>
       <c r="F579" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H579" s="7"/>
     </row>
@@ -8699,7 +8953,7 @@
       <c r="E580" s="4"/>
       <c r="F580" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H580" s="7"/>
     </row>
@@ -8713,7 +8967,7 @@
       <c r="E581" s="4"/>
       <c r="F581" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H581" s="7"/>
     </row>
@@ -8727,7 +8981,7 @@
       <c r="E582" s="4"/>
       <c r="F582" s="7">
         <f t="shared" si="17"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H582" s="7"/>
     </row>
@@ -8741,7 +8995,7 @@
       <c r="E583" s="4"/>
       <c r="F583" s="7">
         <f t="shared" ref="F583:F646" si="19">$E$3/$E$2</f>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H583" s="7"/>
     </row>
@@ -8755,7 +9009,7 @@
       <c r="E584" s="4"/>
       <c r="F584" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H584" s="7"/>
     </row>
@@ -8769,7 +9023,7 @@
       <c r="E585" s="4"/>
       <c r="F585" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H585" s="7"/>
     </row>
@@ -8783,7 +9037,7 @@
       <c r="E586" s="4"/>
       <c r="F586" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H586" s="7"/>
     </row>
@@ -8797,7 +9051,7 @@
       <c r="E587" s="4"/>
       <c r="F587" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H587" s="7"/>
     </row>
@@ -8811,7 +9065,7 @@
       <c r="E588" s="4"/>
       <c r="F588" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H588" s="7"/>
     </row>
@@ -8825,7 +9079,7 @@
       <c r="E589" s="4"/>
       <c r="F589" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H589" s="7"/>
     </row>
@@ -8839,7 +9093,7 @@
       <c r="E590" s="4"/>
       <c r="F590" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H590" s="7"/>
     </row>
@@ -8853,7 +9107,7 @@
       <c r="E591" s="4"/>
       <c r="F591" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H591" s="7"/>
     </row>
@@ -8867,7 +9121,7 @@
       <c r="E592" s="4"/>
       <c r="F592" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H592" s="7"/>
     </row>
@@ -8881,7 +9135,7 @@
       <c r="E593" s="4"/>
       <c r="F593" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H593" s="7"/>
     </row>
@@ -8895,7 +9149,7 @@
       <c r="E594" s="4"/>
       <c r="F594" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H594" s="7"/>
     </row>
@@ -8909,7 +9163,7 @@
       <c r="E595" s="4"/>
       <c r="F595" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H595" s="7"/>
     </row>
@@ -8923,7 +9177,7 @@
       <c r="E596" s="4"/>
       <c r="F596" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H596" s="7"/>
     </row>
@@ -8937,7 +9191,7 @@
       <c r="E597" s="4"/>
       <c r="F597" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H597" s="7"/>
     </row>
@@ -8951,7 +9205,7 @@
       <c r="E598" s="4"/>
       <c r="F598" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H598" s="7"/>
     </row>
@@ -8965,7 +9219,7 @@
       <c r="E599" s="4"/>
       <c r="F599" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H599" s="7"/>
     </row>
@@ -8979,7 +9233,7 @@
       <c r="E600" s="4"/>
       <c r="F600" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H600" s="7"/>
     </row>
@@ -8993,7 +9247,7 @@
       <c r="E601" s="4"/>
       <c r="F601" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H601" s="7"/>
     </row>
@@ -9007,7 +9261,7 @@
       <c r="E602" s="4"/>
       <c r="F602" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H602" s="7"/>
     </row>
@@ -9021,7 +9275,7 @@
       <c r="E603" s="4"/>
       <c r="F603" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H603" s="7"/>
     </row>
@@ -9035,7 +9289,7 @@
       <c r="E604" s="4"/>
       <c r="F604" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H604" s="7"/>
     </row>
@@ -9049,7 +9303,7 @@
       <c r="E605" s="4"/>
       <c r="F605" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H605" s="7"/>
     </row>
@@ -9063,7 +9317,7 @@
       <c r="E606" s="4"/>
       <c r="F606" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H606" s="7"/>
     </row>
@@ -9077,7 +9331,7 @@
       <c r="E607" s="4"/>
       <c r="F607" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H607" s="7"/>
     </row>
@@ -9091,7 +9345,7 @@
       <c r="E608" s="4"/>
       <c r="F608" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H608" s="7"/>
     </row>
@@ -9105,7 +9359,7 @@
       <c r="E609" s="4"/>
       <c r="F609" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H609" s="7"/>
     </row>
@@ -9119,7 +9373,7 @@
       <c r="E610" s="4"/>
       <c r="F610" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H610" s="7"/>
     </row>
@@ -9133,7 +9387,7 @@
       <c r="E611" s="4"/>
       <c r="F611" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H611" s="7"/>
     </row>
@@ -9147,7 +9401,7 @@
       <c r="E612" s="4"/>
       <c r="F612" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H612" s="7"/>
     </row>
@@ -9161,7 +9415,7 @@
       <c r="E613" s="4"/>
       <c r="F613" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H613" s="7"/>
     </row>
@@ -9175,7 +9429,7 @@
       <c r="E614" s="4"/>
       <c r="F614" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H614" s="7"/>
     </row>
@@ -9189,7 +9443,7 @@
       <c r="E615" s="4"/>
       <c r="F615" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H615" s="7"/>
     </row>
@@ -9203,7 +9457,7 @@
       <c r="E616" s="4"/>
       <c r="F616" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H616" s="7"/>
     </row>
@@ -9217,7 +9471,7 @@
       <c r="E617" s="4"/>
       <c r="F617" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H617" s="7"/>
     </row>
@@ -9231,7 +9485,7 @@
       <c r="E618" s="4"/>
       <c r="F618" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H618" s="7"/>
     </row>
@@ -9245,7 +9499,7 @@
       <c r="E619" s="4"/>
       <c r="F619" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H619" s="7"/>
     </row>
@@ -9259,7 +9513,7 @@
       <c r="E620" s="4"/>
       <c r="F620" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H620" s="7"/>
     </row>
@@ -9273,7 +9527,7 @@
       <c r="E621" s="4"/>
       <c r="F621" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H621" s="7"/>
     </row>
@@ -9287,7 +9541,7 @@
       <c r="E622" s="4"/>
       <c r="F622" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H622" s="7"/>
     </row>
@@ -9301,7 +9555,7 @@
       <c r="E623" s="4"/>
       <c r="F623" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H623" s="7"/>
     </row>
@@ -9315,7 +9569,7 @@
       <c r="E624" s="4"/>
       <c r="F624" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H624" s="7"/>
     </row>
@@ -9329,7 +9583,7 @@
       <c r="E625" s="4"/>
       <c r="F625" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H625" s="7"/>
     </row>
@@ -9343,7 +9597,7 @@
       <c r="E626" s="4"/>
       <c r="F626" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H626" s="7"/>
     </row>
@@ -9357,7 +9611,7 @@
       <c r="E627" s="4"/>
       <c r="F627" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H627" s="7"/>
     </row>
@@ -9371,7 +9625,7 @@
       <c r="E628" s="4"/>
       <c r="F628" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H628" s="7"/>
     </row>
@@ -9385,7 +9639,7 @@
       <c r="E629" s="4"/>
       <c r="F629" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H629" s="7"/>
     </row>
@@ -9399,7 +9653,7 @@
       <c r="E630" s="4"/>
       <c r="F630" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H630" s="7"/>
     </row>
@@ -9413,7 +9667,7 @@
       <c r="E631" s="4"/>
       <c r="F631" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H631" s="7"/>
     </row>
@@ -9427,7 +9681,7 @@
       <c r="E632" s="4"/>
       <c r="F632" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H632" s="7"/>
     </row>
@@ -9441,7 +9695,7 @@
       <c r="E633" s="4"/>
       <c r="F633" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H633" s="7"/>
     </row>
@@ -9455,7 +9709,7 @@
       <c r="E634" s="4"/>
       <c r="F634" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H634" s="7"/>
     </row>
@@ -9469,7 +9723,7 @@
       <c r="E635" s="4"/>
       <c r="F635" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H635" s="7"/>
     </row>
@@ -9483,7 +9737,7 @@
       <c r="E636" s="4"/>
       <c r="F636" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H636" s="7"/>
     </row>
@@ -9497,7 +9751,7 @@
       <c r="E637" s="4"/>
       <c r="F637" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H637" s="7"/>
     </row>
@@ -9511,7 +9765,7 @@
       <c r="E638" s="4"/>
       <c r="F638" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H638" s="7"/>
     </row>
@@ -9525,7 +9779,7 @@
       <c r="E639" s="4"/>
       <c r="F639" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H639" s="7"/>
     </row>
@@ -9539,7 +9793,7 @@
       <c r="E640" s="4"/>
       <c r="F640" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H640" s="7"/>
     </row>
@@ -9553,7 +9807,7 @@
       <c r="E641" s="4"/>
       <c r="F641" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H641" s="7"/>
     </row>
@@ -9567,7 +9821,7 @@
       <c r="E642" s="4"/>
       <c r="F642" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H642" s="7"/>
     </row>
@@ -9581,7 +9835,7 @@
       <c r="E643" s="4"/>
       <c r="F643" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H643" s="7"/>
     </row>
@@ -9595,7 +9849,7 @@
       <c r="E644" s="4"/>
       <c r="F644" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H644" s="7"/>
     </row>
@@ -9609,7 +9863,7 @@
       <c r="E645" s="4"/>
       <c r="F645" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H645" s="7"/>
     </row>
@@ -9623,7 +9877,7 @@
       <c r="E646" s="4"/>
       <c r="F646" s="7">
         <f t="shared" si="19"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H646" s="7"/>
     </row>
@@ -9637,7 +9891,7 @@
       <c r="E647" s="4"/>
       <c r="F647" s="7">
         <f t="shared" ref="F647:F710" si="21">$E$3/$E$2</f>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H647" s="7"/>
     </row>
@@ -9651,7 +9905,7 @@
       <c r="E648" s="4"/>
       <c r="F648" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H648" s="7"/>
     </row>
@@ -9665,7 +9919,7 @@
       <c r="E649" s="4"/>
       <c r="F649" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H649" s="7"/>
     </row>
@@ -9679,7 +9933,7 @@
       <c r="E650" s="4"/>
       <c r="F650" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H650" s="7"/>
     </row>
@@ -9693,7 +9947,7 @@
       <c r="E651" s="4"/>
       <c r="F651" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H651" s="7"/>
     </row>
@@ -9707,7 +9961,7 @@
       <c r="E652" s="4"/>
       <c r="F652" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H652" s="7"/>
     </row>
@@ -9721,7 +9975,7 @@
       <c r="E653" s="4"/>
       <c r="F653" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H653" s="7"/>
     </row>
@@ -9735,7 +9989,7 @@
       <c r="E654" s="4"/>
       <c r="F654" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H654" s="7"/>
     </row>
@@ -9749,7 +10003,7 @@
       <c r="E655" s="4"/>
       <c r="F655" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H655" s="7"/>
     </row>
@@ -9763,7 +10017,7 @@
       <c r="E656" s="4"/>
       <c r="F656" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H656" s="7"/>
     </row>
@@ -9777,7 +10031,7 @@
       <c r="E657" s="4"/>
       <c r="F657" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H657" s="7"/>
     </row>
@@ -9791,7 +10045,7 @@
       <c r="E658" s="4"/>
       <c r="F658" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H658" s="7"/>
     </row>
@@ -9805,7 +10059,7 @@
       <c r="E659" s="4"/>
       <c r="F659" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H659" s="7"/>
     </row>
@@ -9819,7 +10073,7 @@
       <c r="E660" s="4"/>
       <c r="F660" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H660" s="7"/>
     </row>
@@ -9833,7 +10087,7 @@
       <c r="E661" s="4"/>
       <c r="F661" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H661" s="7"/>
     </row>
@@ -9847,7 +10101,7 @@
       <c r="E662" s="4"/>
       <c r="F662" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H662" s="7"/>
     </row>
@@ -9861,7 +10115,7 @@
       <c r="E663" s="4"/>
       <c r="F663" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H663" s="7"/>
     </row>
@@ -9875,7 +10129,7 @@
       <c r="E664" s="4"/>
       <c r="F664" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H664" s="7"/>
     </row>
@@ -9889,7 +10143,7 @@
       <c r="E665" s="4"/>
       <c r="F665" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H665" s="7"/>
     </row>
@@ -9903,7 +10157,7 @@
       <c r="E666" s="4"/>
       <c r="F666" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H666" s="7"/>
     </row>
@@ -9917,7 +10171,7 @@
       <c r="E667" s="4"/>
       <c r="F667" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H667" s="7"/>
     </row>
@@ -9931,7 +10185,7 @@
       <c r="E668" s="4"/>
       <c r="F668" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H668" s="7"/>
     </row>
@@ -9945,7 +10199,7 @@
       <c r="E669" s="4"/>
       <c r="F669" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H669" s="7"/>
     </row>
@@ -9959,7 +10213,7 @@
       <c r="E670" s="4"/>
       <c r="F670" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H670" s="7"/>
     </row>
@@ -9973,7 +10227,7 @@
       <c r="E671" s="4"/>
       <c r="F671" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H671" s="7"/>
     </row>
@@ -9987,7 +10241,7 @@
       <c r="E672" s="4"/>
       <c r="F672" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H672" s="7"/>
     </row>
@@ -10001,7 +10255,7 @@
       <c r="E673" s="4"/>
       <c r="F673" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H673" s="7"/>
     </row>
@@ -10015,7 +10269,7 @@
       <c r="E674" s="4"/>
       <c r="F674" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H674" s="7"/>
     </row>
@@ -10029,7 +10283,7 @@
       <c r="E675" s="4"/>
       <c r="F675" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H675" s="7"/>
     </row>
@@ -10043,7 +10297,7 @@
       <c r="E676" s="4"/>
       <c r="F676" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H676" s="7"/>
     </row>
@@ -10057,7 +10311,7 @@
       <c r="E677" s="4"/>
       <c r="F677" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H677" s="7"/>
     </row>
@@ -10071,7 +10325,7 @@
       <c r="E678" s="4"/>
       <c r="F678" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H678" s="7"/>
     </row>
@@ -10085,7 +10339,7 @@
       <c r="E679" s="4"/>
       <c r="F679" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H679" s="7"/>
     </row>
@@ -10099,7 +10353,7 @@
       <c r="E680" s="4"/>
       <c r="F680" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H680" s="7"/>
     </row>
@@ -10113,7 +10367,7 @@
       <c r="E681" s="4"/>
       <c r="F681" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H681" s="7"/>
     </row>
@@ -10127,7 +10381,7 @@
       <c r="E682" s="4"/>
       <c r="F682" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H682" s="7"/>
     </row>
@@ -10141,7 +10395,7 @@
       <c r="E683" s="4"/>
       <c r="F683" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H683" s="7"/>
     </row>
@@ -10155,7 +10409,7 @@
       <c r="E684" s="4"/>
       <c r="F684" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H684" s="7"/>
     </row>
@@ -10169,7 +10423,7 @@
       <c r="E685" s="4"/>
       <c r="F685" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H685" s="7"/>
     </row>
@@ -10183,7 +10437,7 @@
       <c r="E686" s="4"/>
       <c r="F686" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H686" s="7"/>
     </row>
@@ -10197,7 +10451,7 @@
       <c r="E687" s="4"/>
       <c r="F687" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H687" s="7"/>
     </row>
@@ -10211,7 +10465,7 @@
       <c r="E688" s="4"/>
       <c r="F688" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H688" s="7"/>
     </row>
@@ -10225,7 +10479,7 @@
       <c r="E689" s="4"/>
       <c r="F689" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H689" s="7"/>
     </row>
@@ -10239,7 +10493,7 @@
       <c r="E690" s="4"/>
       <c r="F690" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H690" s="7"/>
     </row>
@@ -10253,7 +10507,7 @@
       <c r="E691" s="4"/>
       <c r="F691" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H691" s="7"/>
     </row>
@@ -10267,7 +10521,7 @@
       <c r="E692" s="4"/>
       <c r="F692" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H692" s="7"/>
     </row>
@@ -10281,7 +10535,7 @@
       <c r="E693" s="4"/>
       <c r="F693" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H693" s="7"/>
     </row>
@@ -10295,7 +10549,7 @@
       <c r="E694" s="4"/>
       <c r="F694" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H694" s="7"/>
     </row>
@@ -10309,7 +10563,7 @@
       <c r="E695" s="4"/>
       <c r="F695" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H695" s="7"/>
     </row>
@@ -10323,7 +10577,7 @@
       <c r="E696" s="4"/>
       <c r="F696" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H696" s="7"/>
     </row>
@@ -10337,7 +10591,7 @@
       <c r="E697" s="4"/>
       <c r="F697" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H697" s="7"/>
     </row>
@@ -10351,7 +10605,7 @@
       <c r="E698" s="4"/>
       <c r="F698" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H698" s="7"/>
     </row>
@@ -10365,7 +10619,7 @@
       <c r="E699" s="4"/>
       <c r="F699" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H699" s="7"/>
     </row>
@@ -10379,7 +10633,7 @@
       <c r="E700" s="4"/>
       <c r="F700" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H700" s="7"/>
     </row>
@@ -10393,7 +10647,7 @@
       <c r="E701" s="4"/>
       <c r="F701" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H701" s="7"/>
     </row>
@@ -10407,7 +10661,7 @@
       <c r="E702" s="4"/>
       <c r="F702" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H702" s="7"/>
     </row>
@@ -10421,7 +10675,7 @@
       <c r="E703" s="4"/>
       <c r="F703" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H703" s="7"/>
     </row>
@@ -10435,7 +10689,7 @@
       <c r="E704" s="4"/>
       <c r="F704" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H704" s="7"/>
     </row>
@@ -10449,7 +10703,7 @@
       <c r="E705" s="4"/>
       <c r="F705" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H705" s="7"/>
     </row>
@@ -10465,7 +10719,7 @@
       <c r="E706" s="4"/>
       <c r="F706" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="G706" s="6" t="s">
         <v>11</v>
@@ -10484,7 +10738,7 @@
       <c r="E707" s="4"/>
       <c r="F707" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="G707" s="6" t="s">
         <v>10</v>
@@ -10503,7 +10757,7 @@
       <c r="E708" s="4"/>
       <c r="F708" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H708" s="7"/>
     </row>
@@ -10519,7 +10773,7 @@
       <c r="E709" s="4"/>
       <c r="F709" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="G709" s="6" t="s">
         <v>9</v>
@@ -10541,7 +10795,7 @@
       <c r="E710" s="4"/>
       <c r="F710" s="7">
         <f t="shared" si="21"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="G710" s="6" t="s">
         <v>6</v>
@@ -10560,7 +10814,7 @@
       <c r="E711" s="4"/>
       <c r="F711" s="7">
         <f t="shared" ref="F711:F717" si="23">$E$3/$E$2</f>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="G711" s="6" t="s">
         <v>7</v>
@@ -10579,7 +10833,7 @@
       <c r="E712" s="4"/>
       <c r="F712" s="7">
         <f t="shared" si="23"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="G712" s="6" t="s">
         <v>8</v>
@@ -10598,7 +10852,7 @@
       <c r="E713" s="4"/>
       <c r="F713" s="7">
         <f t="shared" si="23"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H713" s="7"/>
     </row>
@@ -10614,7 +10868,7 @@
       <c r="E714" s="4"/>
       <c r="F714" s="7">
         <f t="shared" si="23"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H714" s="7"/>
     </row>
@@ -10630,7 +10884,7 @@
       <c r="E715" s="4"/>
       <c r="F715" s="7">
         <f t="shared" si="23"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H715" s="7"/>
     </row>
@@ -10646,7 +10900,7 @@
       <c r="E716" s="4"/>
       <c r="F716" s="7">
         <f t="shared" si="23"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H716" s="7"/>
     </row>
@@ -10662,7 +10916,7 @@
       <c r="E717" s="4"/>
       <c r="F717" s="7">
         <f t="shared" si="23"/>
-        <v>3.51123595505618E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="H717" s="7"/>
     </row>

--- a/背题.xlsx
+++ b/背题.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="64">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,46 @@
     <t>expired：The backup set contains one or more missing backup set pieces</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Make the lost backup set pieces available to RMAN again.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 hours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>any datafile successfully backed up will be usable for recovery &amp; subsequent backups will prioritize datafiles not backed up &amp; no error will be raised</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V$SESSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V$SESSION_LONGOPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unrecoverable operations occur in it.need to be backed up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not yet been backed up&amp;does not imply that the data in the datafile can not be recovered.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMAN will spread the backup IO over the total duration stated in the backup command.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lists all datafiles not backed up in the last three days. It does not imply that the datafile is not recoverable.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To list all backups that had aged beyond the RMAN retention criteria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -243,14 +283,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -355,8 +395,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -364,7 +404,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -651,7 +691,7 @@
   <dimension ref="A1:H717"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="C337" sqref="C337:C345"/>
+      <selection activeCell="C352" sqref="C352:C355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -676,7 +716,7 @@
     <row r="3" spans="2:8">
       <c r="E3">
         <f>COUNTA($C$6:$C$717)</f>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F3" s="7"/>
       <c r="H3" s="7"/>
@@ -711,7 +751,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="7">
         <f>$E$3/$E$2</f>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -725,7 +765,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="7">
         <f t="shared" ref="F7:F70" si="1">$E$3/$E$2</f>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -739,7 +779,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H8" s="7"/>
     </row>
@@ -753,7 +793,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -767,7 +807,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -781,7 +821,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -795,7 +835,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H12" s="7"/>
     </row>
@@ -809,7 +849,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H13" s="7"/>
     </row>
@@ -823,7 +863,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -837,7 +877,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H15" s="7"/>
     </row>
@@ -851,7 +891,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -865,7 +905,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H17" s="7"/>
     </row>
@@ -879,7 +919,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H18" s="7"/>
     </row>
@@ -893,7 +933,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H19" s="7"/>
     </row>
@@ -907,7 +947,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H20" s="7"/>
     </row>
@@ -921,7 +961,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H21" s="7"/>
     </row>
@@ -935,7 +975,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H22" s="7"/>
     </row>
@@ -949,7 +989,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H23" s="7"/>
     </row>
@@ -963,7 +1003,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H24" s="7"/>
     </row>
@@ -977,7 +1017,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H25" s="7"/>
     </row>
@@ -991,7 +1031,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H26" s="7"/>
     </row>
@@ -1005,7 +1045,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H27" s="7"/>
     </row>
@@ -1019,7 +1059,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H28" s="7"/>
     </row>
@@ -1033,7 +1073,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H29" s="7"/>
     </row>
@@ -1047,7 +1087,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H30" s="7"/>
     </row>
@@ -1061,7 +1101,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H31" s="7"/>
     </row>
@@ -1075,7 +1115,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H32" s="7"/>
     </row>
@@ -1089,7 +1129,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H33" s="7"/>
     </row>
@@ -1103,7 +1143,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H34" s="7"/>
     </row>
@@ -1117,7 +1157,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H35" s="7"/>
     </row>
@@ -1131,7 +1171,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H36" s="7"/>
     </row>
@@ -1145,7 +1185,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H37" s="7"/>
     </row>
@@ -1159,7 +1199,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H38" s="7"/>
     </row>
@@ -1173,7 +1213,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H39" s="7"/>
     </row>
@@ -1187,7 +1227,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H40" s="7"/>
     </row>
@@ -1201,7 +1241,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H41" s="7"/>
     </row>
@@ -1215,7 +1255,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H42" s="7"/>
     </row>
@@ -1229,7 +1269,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H43" s="7"/>
     </row>
@@ -1243,7 +1283,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H44" s="7"/>
     </row>
@@ -1257,7 +1297,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H45" s="7"/>
     </row>
@@ -1271,7 +1311,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H46" s="7"/>
     </row>
@@ -1285,7 +1325,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H47" s="7"/>
     </row>
@@ -1299,7 +1339,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H48" s="7"/>
     </row>
@@ -1313,7 +1353,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H49" s="7"/>
     </row>
@@ -1327,7 +1367,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -1341,7 +1381,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H51" s="7"/>
     </row>
@@ -1355,7 +1395,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H52" s="7"/>
     </row>
@@ -1369,7 +1409,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H53" s="7"/>
     </row>
@@ -1383,7 +1423,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -1397,7 +1437,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -1411,7 +1451,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H56" s="7"/>
     </row>
@@ -1425,7 +1465,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H57" s="7"/>
     </row>
@@ -1439,7 +1479,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H58" s="7"/>
     </row>
@@ -1453,7 +1493,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H59" s="7"/>
     </row>
@@ -1467,7 +1507,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H60" s="7"/>
     </row>
@@ -1481,7 +1521,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H61" s="7"/>
     </row>
@@ -1495,7 +1535,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H62" s="7"/>
     </row>
@@ -1509,7 +1549,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H63" s="7"/>
     </row>
@@ -1523,7 +1563,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H64" s="7"/>
     </row>
@@ -1537,7 +1577,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H65" s="7"/>
     </row>
@@ -1551,7 +1591,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H66" s="7"/>
     </row>
@@ -1565,7 +1605,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H67" s="7"/>
     </row>
@@ -1579,7 +1619,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H68" s="7"/>
     </row>
@@ -1593,7 +1633,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H69" s="7"/>
     </row>
@@ -1607,7 +1647,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="7">
         <f t="shared" si="1"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H70" s="7"/>
     </row>
@@ -1621,7 +1661,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="7">
         <f t="shared" ref="F71:F134" si="3">$E$3/$E$2</f>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H71" s="7"/>
     </row>
@@ -1635,7 +1675,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H72" s="7"/>
     </row>
@@ -1649,7 +1689,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H73" s="7"/>
     </row>
@@ -1663,7 +1703,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H74" s="7"/>
     </row>
@@ -1677,7 +1717,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H75" s="7"/>
     </row>
@@ -1691,7 +1731,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H76" s="7"/>
     </row>
@@ -1705,7 +1745,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H77" s="7"/>
     </row>
@@ -1719,7 +1759,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H78" s="7"/>
     </row>
@@ -1733,7 +1773,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H79" s="7"/>
     </row>
@@ -1747,7 +1787,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H80" s="7"/>
     </row>
@@ -1761,7 +1801,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H81" s="7"/>
     </row>
@@ -1775,7 +1815,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H82" s="7"/>
     </row>
@@ -1789,7 +1829,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H83" s="7"/>
     </row>
@@ -1803,7 +1843,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H84" s="7"/>
     </row>
@@ -1817,7 +1857,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H85" s="7"/>
     </row>
@@ -1831,7 +1871,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H86" s="7"/>
     </row>
@@ -1845,7 +1885,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H87" s="7"/>
     </row>
@@ -1859,7 +1899,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H88" s="7"/>
     </row>
@@ -1873,7 +1913,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H89" s="7"/>
     </row>
@@ -1887,7 +1927,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H90" s="7"/>
     </row>
@@ -1901,7 +1941,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H91" s="7"/>
     </row>
@@ -1915,7 +1955,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H92" s="7"/>
     </row>
@@ -1929,7 +1969,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H93" s="7"/>
     </row>
@@ -1943,7 +1983,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H94" s="7"/>
     </row>
@@ -1957,7 +1997,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H95" s="7"/>
     </row>
@@ -1971,7 +2011,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H96" s="7"/>
     </row>
@@ -1985,7 +2025,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H97" s="7"/>
     </row>
@@ -1999,7 +2039,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H98" s="7"/>
     </row>
@@ -2013,7 +2053,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H99" s="7"/>
     </row>
@@ -2027,7 +2067,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H100" s="7"/>
     </row>
@@ -2041,7 +2081,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H101" s="7"/>
     </row>
@@ -2055,7 +2095,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H102" s="7"/>
     </row>
@@ -2069,7 +2109,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H103" s="7"/>
     </row>
@@ -2083,7 +2123,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H104" s="7"/>
     </row>
@@ -2097,7 +2137,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H105" s="7"/>
     </row>
@@ -2111,7 +2151,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H106" s="7"/>
     </row>
@@ -2125,7 +2165,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H107" s="7"/>
     </row>
@@ -2139,7 +2179,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H108" s="7"/>
     </row>
@@ -2153,7 +2193,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H109" s="7"/>
     </row>
@@ -2167,7 +2207,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H110" s="7"/>
     </row>
@@ -2181,7 +2221,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H111" s="7"/>
     </row>
@@ -2195,7 +2235,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H112" s="7"/>
     </row>
@@ -2209,7 +2249,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H113" s="7"/>
     </row>
@@ -2223,7 +2263,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H114" s="7"/>
     </row>
@@ -2237,7 +2277,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H115" s="7"/>
     </row>
@@ -2251,7 +2291,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H116" s="7"/>
     </row>
@@ -2265,7 +2305,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H117" s="7"/>
     </row>
@@ -2279,7 +2319,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H118" s="7"/>
     </row>
@@ -2293,7 +2333,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H119" s="7"/>
     </row>
@@ -2307,7 +2347,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H120" s="7"/>
     </row>
@@ -2321,7 +2361,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H121" s="7"/>
     </row>
@@ -2335,7 +2375,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H122" s="7"/>
     </row>
@@ -2349,7 +2389,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H123" s="7"/>
     </row>
@@ -2363,7 +2403,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H124" s="7"/>
     </row>
@@ -2377,7 +2417,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H125" s="7"/>
     </row>
@@ -2391,7 +2431,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H126" s="7"/>
     </row>
@@ -2405,7 +2445,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H127" s="7"/>
     </row>
@@ -2419,7 +2459,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H128" s="7"/>
     </row>
@@ -2433,7 +2473,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H129" s="7"/>
     </row>
@@ -2447,7 +2487,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H130" s="7"/>
     </row>
@@ -2461,7 +2501,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H131" s="7"/>
     </row>
@@ -2475,7 +2515,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H132" s="7"/>
     </row>
@@ -2489,7 +2529,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H133" s="7"/>
     </row>
@@ -2503,7 +2543,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="7">
         <f t="shared" si="3"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H134" s="7"/>
     </row>
@@ -2517,7 +2557,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="7">
         <f t="shared" ref="F135:F198" si="5">$E$3/$E$2</f>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H135" s="7"/>
     </row>
@@ -2531,7 +2571,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H136" s="7"/>
     </row>
@@ -2545,7 +2585,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H137" s="7"/>
     </row>
@@ -2559,7 +2599,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H138" s="7"/>
     </row>
@@ -2573,7 +2613,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H139" s="7"/>
     </row>
@@ -2587,7 +2627,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H140" s="7"/>
     </row>
@@ -2601,7 +2641,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H141" s="7"/>
     </row>
@@ -2615,7 +2655,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H142" s="7"/>
     </row>
@@ -2629,7 +2669,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H143" s="7"/>
     </row>
@@ -2643,7 +2683,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H144" s="7"/>
     </row>
@@ -2657,7 +2697,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H145" s="7"/>
     </row>
@@ -2671,7 +2711,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H146" s="7"/>
     </row>
@@ -2685,7 +2725,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H147" s="7"/>
     </row>
@@ -2699,7 +2739,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H148" s="7"/>
     </row>
@@ -2713,7 +2753,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H149" s="7"/>
     </row>
@@ -2727,7 +2767,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H150" s="7"/>
     </row>
@@ -2741,7 +2781,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H151" s="7"/>
     </row>
@@ -2755,7 +2795,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H152" s="7"/>
     </row>
@@ -2769,7 +2809,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H153" s="7"/>
     </row>
@@ -2783,7 +2823,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H154" s="7"/>
     </row>
@@ -2797,7 +2837,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H155" s="7"/>
     </row>
@@ -2811,7 +2851,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H156" s="7"/>
     </row>
@@ -2825,7 +2865,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H157" s="7"/>
     </row>
@@ -2839,7 +2879,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H158" s="7"/>
     </row>
@@ -2853,7 +2893,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H159" s="7"/>
     </row>
@@ -2867,7 +2907,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H160" s="7"/>
     </row>
@@ -2881,7 +2921,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H161" s="7"/>
     </row>
@@ -2895,7 +2935,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H162" s="7"/>
     </row>
@@ -2909,7 +2949,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H163" s="7"/>
     </row>
@@ -2923,7 +2963,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H164" s="7"/>
     </row>
@@ -2937,7 +2977,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H165" s="7"/>
     </row>
@@ -2951,7 +2991,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H166" s="7"/>
     </row>
@@ -2965,7 +3005,7 @@
       <c r="E167" s="4"/>
       <c r="F167" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H167" s="7"/>
     </row>
@@ -2979,7 +3019,7 @@
       <c r="E168" s="4"/>
       <c r="F168" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H168" s="7"/>
     </row>
@@ -2993,7 +3033,7 @@
       <c r="E169" s="4"/>
       <c r="F169" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H169" s="7"/>
     </row>
@@ -3007,7 +3047,7 @@
       <c r="E170" s="4"/>
       <c r="F170" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H170" s="7"/>
     </row>
@@ -3021,7 +3061,7 @@
       <c r="E171" s="4"/>
       <c r="F171" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H171" s="7"/>
     </row>
@@ -3035,7 +3075,7 @@
       <c r="E172" s="4"/>
       <c r="F172" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H172" s="7"/>
     </row>
@@ -3049,7 +3089,7 @@
       <c r="E173" s="4"/>
       <c r="F173" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H173" s="7"/>
     </row>
@@ -3063,7 +3103,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H174" s="7"/>
     </row>
@@ -3077,7 +3117,7 @@
       <c r="E175" s="4"/>
       <c r="F175" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H175" s="7"/>
     </row>
@@ -3091,7 +3131,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H176" s="7"/>
     </row>
@@ -3105,7 +3145,7 @@
       <c r="E177" s="4"/>
       <c r="F177" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H177" s="7"/>
     </row>
@@ -3119,7 +3159,7 @@
       <c r="E178" s="4"/>
       <c r="F178" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H178" s="7"/>
     </row>
@@ -3133,7 +3173,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H179" s="7"/>
     </row>
@@ -3147,7 +3187,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H180" s="7"/>
     </row>
@@ -3161,7 +3201,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H181" s="7"/>
     </row>
@@ -3175,7 +3215,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H182" s="7"/>
     </row>
@@ -3189,7 +3229,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H183" s="7"/>
     </row>
@@ -3203,7 +3243,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H184" s="7"/>
     </row>
@@ -3217,7 +3257,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H185" s="7"/>
     </row>
@@ -3231,7 +3271,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H186" s="7"/>
     </row>
@@ -3245,7 +3285,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H187" s="7"/>
     </row>
@@ -3259,7 +3299,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H188" s="7"/>
     </row>
@@ -3273,7 +3313,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H189" s="7"/>
     </row>
@@ -3287,7 +3327,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H190" s="7"/>
     </row>
@@ -3301,7 +3341,7 @@
       <c r="E191" s="4"/>
       <c r="F191" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H191" s="7"/>
     </row>
@@ -3315,7 +3355,7 @@
       <c r="E192" s="4"/>
       <c r="F192" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H192" s="7"/>
     </row>
@@ -3329,7 +3369,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H193" s="7"/>
     </row>
@@ -3343,7 +3383,7 @@
       <c r="E194" s="4"/>
       <c r="F194" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H194" s="7"/>
     </row>
@@ -3357,7 +3397,7 @@
       <c r="E195" s="4"/>
       <c r="F195" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H195" s="7"/>
     </row>
@@ -3371,7 +3411,7 @@
       <c r="E196" s="4"/>
       <c r="F196" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H196" s="7"/>
     </row>
@@ -3385,7 +3425,7 @@
       <c r="E197" s="4"/>
       <c r="F197" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H197" s="7"/>
     </row>
@@ -3399,7 +3439,7 @@
       <c r="E198" s="4"/>
       <c r="F198" s="7">
         <f t="shared" si="5"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H198" s="7"/>
     </row>
@@ -3413,7 +3453,7 @@
       <c r="E199" s="4"/>
       <c r="F199" s="7">
         <f t="shared" ref="F199:F262" si="7">$E$3/$E$2</f>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H199" s="7"/>
     </row>
@@ -3427,7 +3467,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H200" s="7"/>
     </row>
@@ -3441,7 +3481,7 @@
       <c r="E201" s="4"/>
       <c r="F201" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H201" s="7"/>
     </row>
@@ -3455,7 +3495,7 @@
       <c r="E202" s="4"/>
       <c r="F202" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H202" s="7"/>
     </row>
@@ -3469,7 +3509,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H203" s="7"/>
     </row>
@@ -3483,7 +3523,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H204" s="7"/>
     </row>
@@ -3497,7 +3537,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H205" s="7"/>
     </row>
@@ -3511,7 +3551,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H206" s="7"/>
     </row>
@@ -3525,7 +3565,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H207" s="7"/>
     </row>
@@ -3539,7 +3579,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H208" s="7"/>
     </row>
@@ -3553,7 +3593,7 @@
       <c r="E209" s="4"/>
       <c r="F209" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H209" s="7"/>
     </row>
@@ -3567,7 +3607,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H210" s="7"/>
     </row>
@@ -3581,7 +3621,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H211" s="7"/>
     </row>
@@ -3595,7 +3635,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H212" s="7"/>
     </row>
@@ -3609,7 +3649,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H213" s="7"/>
     </row>
@@ -3623,7 +3663,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H214" s="7"/>
     </row>
@@ -3637,7 +3677,7 @@
       <c r="E215" s="4"/>
       <c r="F215" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H215" s="7"/>
     </row>
@@ -3651,7 +3691,7 @@
       <c r="E216" s="4"/>
       <c r="F216" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H216" s="7"/>
     </row>
@@ -3665,7 +3705,7 @@
       <c r="E217" s="4"/>
       <c r="F217" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H217" s="7"/>
     </row>
@@ -3679,7 +3719,7 @@
       <c r="E218" s="4"/>
       <c r="F218" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H218" s="7"/>
     </row>
@@ -3693,7 +3733,7 @@
       <c r="E219" s="4"/>
       <c r="F219" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H219" s="7"/>
     </row>
@@ -3707,7 +3747,7 @@
       <c r="E220" s="4"/>
       <c r="F220" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H220" s="7"/>
     </row>
@@ -3721,7 +3761,7 @@
       <c r="E221" s="4"/>
       <c r="F221" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H221" s="7"/>
     </row>
@@ -3735,7 +3775,7 @@
       <c r="E222" s="4"/>
       <c r="F222" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H222" s="7"/>
     </row>
@@ -3749,7 +3789,7 @@
       <c r="E223" s="4"/>
       <c r="F223" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H223" s="7"/>
     </row>
@@ -3763,7 +3803,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H224" s="7"/>
     </row>
@@ -3777,7 +3817,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H225" s="7"/>
     </row>
@@ -3791,7 +3831,7 @@
       <c r="E226" s="4"/>
       <c r="F226" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H226" s="7"/>
     </row>
@@ -3805,7 +3845,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H227" s="7"/>
     </row>
@@ -3819,7 +3859,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H228" s="7"/>
     </row>
@@ -3833,7 +3873,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H229" s="7"/>
     </row>
@@ -3847,7 +3887,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H230" s="7"/>
     </row>
@@ -3861,7 +3901,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H231" s="7"/>
     </row>
@@ -3875,7 +3915,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H232" s="7"/>
     </row>
@@ -3889,7 +3929,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H233" s="7"/>
     </row>
@@ -3903,7 +3943,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H234" s="7"/>
     </row>
@@ -3917,7 +3957,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H235" s="7"/>
     </row>
@@ -3931,7 +3971,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H236" s="7"/>
     </row>
@@ -3945,7 +3985,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H237" s="7"/>
     </row>
@@ -3959,7 +3999,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H238" s="7"/>
     </row>
@@ -3973,7 +4013,7 @@
       <c r="E239" s="4"/>
       <c r="F239" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H239" s="7"/>
     </row>
@@ -3987,7 +4027,7 @@
       <c r="E240" s="4"/>
       <c r="F240" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H240" s="7"/>
     </row>
@@ -4001,7 +4041,7 @@
       <c r="E241" s="4"/>
       <c r="F241" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H241" s="7"/>
     </row>
@@ -4015,7 +4055,7 @@
       <c r="E242" s="4"/>
       <c r="F242" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H242" s="7"/>
     </row>
@@ -4029,7 +4069,7 @@
       <c r="E243" s="4"/>
       <c r="F243" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H243" s="7"/>
     </row>
@@ -4043,7 +4083,7 @@
       <c r="E244" s="4"/>
       <c r="F244" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H244" s="7"/>
     </row>
@@ -4057,7 +4097,7 @@
       <c r="E245" s="4"/>
       <c r="F245" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H245" s="7"/>
     </row>
@@ -4071,7 +4111,7 @@
       <c r="E246" s="4"/>
       <c r="F246" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H246" s="7"/>
     </row>
@@ -4085,7 +4125,7 @@
       <c r="E247" s="4"/>
       <c r="F247" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H247" s="7"/>
     </row>
@@ -4099,7 +4139,7 @@
       <c r="E248" s="4"/>
       <c r="F248" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H248" s="7"/>
     </row>
@@ -4113,7 +4153,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H249" s="7"/>
     </row>
@@ -4127,7 +4167,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H250" s="7"/>
     </row>
@@ -4141,7 +4181,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H251" s="7"/>
     </row>
@@ -4155,7 +4195,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H252" s="7"/>
     </row>
@@ -4169,7 +4209,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H253" s="7"/>
     </row>
@@ -4183,7 +4223,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H254" s="7"/>
     </row>
@@ -4197,7 +4237,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H255" s="7"/>
     </row>
@@ -4211,7 +4251,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H256" s="7"/>
     </row>
@@ -4225,7 +4265,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H257" s="7"/>
     </row>
@@ -4239,7 +4279,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H258" s="7"/>
     </row>
@@ -4253,7 +4293,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H259" s="7"/>
     </row>
@@ -4267,7 +4307,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H260" s="7"/>
     </row>
@@ -4281,7 +4321,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H261" s="7"/>
     </row>
@@ -4295,7 +4335,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="7">
         <f t="shared" si="7"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H262" s="7"/>
     </row>
@@ -4309,7 +4349,7 @@
       <c r="E263" s="4"/>
       <c r="F263" s="7">
         <f t="shared" ref="F263:F326" si="9">$E$3/$E$2</f>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H263" s="7"/>
     </row>
@@ -4323,7 +4363,7 @@
       <c r="E264" s="4"/>
       <c r="F264" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H264" s="7"/>
     </row>
@@ -4337,7 +4377,7 @@
       <c r="E265" s="4"/>
       <c r="F265" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H265" s="7"/>
     </row>
@@ -4351,7 +4391,7 @@
       <c r="E266" s="4"/>
       <c r="F266" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H266" s="7"/>
     </row>
@@ -4365,7 +4405,7 @@
       <c r="E267" s="4"/>
       <c r="F267" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H267" s="7"/>
     </row>
@@ -4379,7 +4419,7 @@
       <c r="E268" s="4"/>
       <c r="F268" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H268" s="7"/>
     </row>
@@ -4393,7 +4433,7 @@
       <c r="E269" s="4"/>
       <c r="F269" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H269" s="7"/>
     </row>
@@ -4407,7 +4447,7 @@
       <c r="E270" s="4"/>
       <c r="F270" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H270" s="7"/>
     </row>
@@ -4421,7 +4461,7 @@
       <c r="E271" s="4"/>
       <c r="F271" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H271" s="7"/>
     </row>
@@ -4435,7 +4475,7 @@
       <c r="E272" s="4"/>
       <c r="F272" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H272" s="7"/>
     </row>
@@ -4449,7 +4489,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H273" s="7"/>
     </row>
@@ -4463,7 +4503,7 @@
       <c r="E274" s="4"/>
       <c r="F274" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H274" s="7"/>
     </row>
@@ -4477,7 +4517,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H275" s="7"/>
     </row>
@@ -4491,7 +4531,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H276" s="7"/>
     </row>
@@ -4505,7 +4545,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H277" s="7"/>
     </row>
@@ -4519,7 +4559,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H278" s="7"/>
     </row>
@@ -4533,7 +4573,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H279" s="7"/>
     </row>
@@ -4547,7 +4587,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H280" s="7"/>
     </row>
@@ -4561,7 +4601,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H281" s="7"/>
     </row>
@@ -4575,7 +4615,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H282" s="7"/>
     </row>
@@ -4589,7 +4629,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H283" s="7"/>
     </row>
@@ -4603,7 +4643,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H284" s="7"/>
     </row>
@@ -4617,7 +4657,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H285" s="7"/>
     </row>
@@ -4631,7 +4671,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H286" s="7"/>
     </row>
@@ -4645,7 +4685,7 @@
       <c r="E287" s="4"/>
       <c r="F287" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H287" s="7"/>
     </row>
@@ -4659,7 +4699,7 @@
       <c r="E288" s="4"/>
       <c r="F288" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H288" s="7"/>
     </row>
@@ -4673,7 +4713,7 @@
       <c r="E289" s="4"/>
       <c r="F289" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H289" s="7"/>
     </row>
@@ -4687,7 +4727,7 @@
       <c r="E290" s="4"/>
       <c r="F290" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H290" s="7"/>
     </row>
@@ -4701,7 +4741,7 @@
       <c r="E291" s="4"/>
       <c r="F291" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H291" s="7"/>
     </row>
@@ -4715,7 +4755,7 @@
       <c r="E292" s="4"/>
       <c r="F292" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H292" s="7"/>
     </row>
@@ -4729,7 +4769,7 @@
       <c r="E293" s="4"/>
       <c r="F293" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H293" s="7"/>
     </row>
@@ -4743,7 +4783,7 @@
       <c r="E294" s="4"/>
       <c r="F294" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H294" s="7"/>
     </row>
@@ -4757,7 +4797,7 @@
       <c r="E295" s="4"/>
       <c r="F295" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H295" s="7"/>
     </row>
@@ -4771,7 +4811,7 @@
       <c r="E296" s="4"/>
       <c r="F296" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H296" s="7"/>
     </row>
@@ -4785,7 +4825,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H297" s="7"/>
     </row>
@@ -4799,7 +4839,7 @@
       <c r="E298" s="4"/>
       <c r="F298" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H298" s="7"/>
     </row>
@@ -4813,7 +4853,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H299" s="7"/>
     </row>
@@ -4827,7 +4867,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H300" s="7"/>
     </row>
@@ -4841,7 +4881,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H301" s="7"/>
     </row>
@@ -4855,7 +4895,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H302" s="7"/>
     </row>
@@ -4869,7 +4909,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H303" s="7"/>
     </row>
@@ -4883,7 +4923,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H304" s="7"/>
     </row>
@@ -4897,7 +4937,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H305" s="7"/>
     </row>
@@ -4913,7 +4953,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G306" s="6" t="s">
         <v>13</v>
@@ -4932,7 +4972,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G307" s="6" t="s">
         <v>14</v>
@@ -4951,7 +4991,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G308" s="6" t="s">
         <v>15</v>
@@ -4970,7 +5010,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G309" s="6" t="s">
         <v>16</v>
@@ -4989,7 +5029,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G310" s="6" t="s">
         <v>17</v>
@@ -5008,7 +5048,7 @@
       <c r="E311" s="4"/>
       <c r="F311" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G311" s="6" t="s">
         <v>18</v>
@@ -5027,7 +5067,7 @@
       <c r="E312" s="4"/>
       <c r="F312" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G312" s="6" t="s">
         <v>19</v>
@@ -5046,7 +5086,7 @@
       <c r="E313" s="4"/>
       <c r="F313" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G313" s="6" t="s">
         <v>20</v>
@@ -5065,7 +5105,7 @@
       <c r="E314" s="4"/>
       <c r="F314" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G314" s="6" t="s">
         <v>21</v>
@@ -5084,7 +5124,7 @@
       <c r="E315" s="4"/>
       <c r="F315" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G315" s="6" t="s">
         <v>22</v>
@@ -5103,7 +5143,7 @@
       <c r="E316" s="4"/>
       <c r="F316" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G316" s="6" t="s">
         <v>24</v>
@@ -5122,7 +5162,7 @@
       <c r="E317" s="4"/>
       <c r="F317" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G317" s="8" t="s">
         <v>23</v>
@@ -5141,7 +5181,7 @@
       <c r="E318" s="4"/>
       <c r="F318" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>25</v>
@@ -5160,7 +5200,7 @@
       <c r="E319" s="4"/>
       <c r="F319" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G319" s="6" t="s">
         <v>26</v>
@@ -5179,7 +5219,7 @@
       <c r="E320" s="4"/>
       <c r="F320" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G320" s="6" t="s">
         <v>27</v>
@@ -5198,7 +5238,7 @@
       <c r="E321" s="4"/>
       <c r="F321" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G321" s="6" t="s">
         <v>28</v>
@@ -5217,7 +5257,7 @@
       <c r="E322" s="4"/>
       <c r="F322" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G322" s="6" t="s">
         <v>29</v>
@@ -5236,7 +5276,7 @@
       <c r="E323" s="4"/>
       <c r="F323" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G323" s="6" t="s">
         <v>30</v>
@@ -5255,7 +5295,7 @@
       <c r="E324" s="4"/>
       <c r="F324" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G324" s="6" t="s">
         <v>31</v>
@@ -5274,7 +5314,7 @@
       <c r="E325" s="4"/>
       <c r="F325" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G325" s="6" t="s">
         <v>32</v>
@@ -5293,7 +5333,7 @@
       <c r="E326" s="4"/>
       <c r="F326" s="7">
         <f t="shared" si="9"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G326" s="6" t="s">
         <v>33</v>
@@ -5312,7 +5352,7 @@
       <c r="E327" s="4"/>
       <c r="F327" s="7">
         <f t="shared" ref="F327:F390" si="11">$E$3/$E$2</f>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G327" s="6" t="s">
         <v>34</v>
@@ -5331,7 +5371,7 @@
       <c r="E328" s="4"/>
       <c r="F328" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G328" s="6" t="s">
         <v>35</v>
@@ -5350,7 +5390,7 @@
       <c r="E329" s="4"/>
       <c r="F329" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G329" s="6" t="s">
         <v>36</v>
@@ -5369,7 +5409,7 @@
       <c r="E330" s="4"/>
       <c r="F330" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G330" s="6" t="s">
         <v>37</v>
@@ -5391,7 +5431,7 @@
       <c r="E331" s="4"/>
       <c r="F331" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G331" s="6" t="s">
         <v>38</v>
@@ -5410,7 +5450,7 @@
       <c r="E332" s="4"/>
       <c r="F332" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G332" s="6" t="s">
         <v>40</v>
@@ -5429,7 +5469,7 @@
       <c r="E333" s="4"/>
       <c r="F333" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G333" s="6" t="s">
         <v>41</v>
@@ -5448,7 +5488,7 @@
       <c r="E334" s="4"/>
       <c r="F334" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G334" s="6" t="s">
         <v>42</v>
@@ -5467,7 +5507,7 @@
       <c r="E335" s="4"/>
       <c r="F335" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G335" s="6" t="s">
         <v>43</v>
@@ -5486,7 +5526,7 @@
       <c r="E336" s="4"/>
       <c r="F336" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G336" s="6" t="s">
         <v>44</v>
@@ -5505,7 +5545,7 @@
       <c r="E337" s="4"/>
       <c r="F337" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G337" s="6" t="s">
         <v>45</v>
@@ -5524,7 +5564,7 @@
       <c r="E338" s="4"/>
       <c r="F338" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G338" s="6" t="s">
         <v>46</v>
@@ -5543,7 +5583,7 @@
       <c r="E339" s="4"/>
       <c r="F339" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G339" s="6" t="s">
         <v>47</v>
@@ -5562,7 +5602,7 @@
       <c r="E340" s="4"/>
       <c r="F340" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G340" s="6" t="s">
         <v>48</v>
@@ -5581,7 +5621,7 @@
       <c r="E341" s="4"/>
       <c r="F341" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G341" s="6" t="s">
         <v>49</v>
@@ -5600,7 +5640,7 @@
       <c r="E342" s="4"/>
       <c r="F342" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G342" s="6" t="s">
         <v>50</v>
@@ -5622,7 +5662,7 @@
       <c r="E343" s="4"/>
       <c r="F343" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G343" s="6" t="s">
         <v>51</v>
@@ -5641,7 +5681,7 @@
       <c r="E344" s="4"/>
       <c r="F344" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G344" s="6" t="s">
         <v>52</v>
@@ -5660,7 +5700,7 @@
       <c r="E345" s="4"/>
       <c r="F345" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G345" s="6" t="s">
         <v>53</v>
@@ -5672,12 +5712,17 @@
         <f t="shared" si="10"/>
         <v>341</v>
       </c>
-      <c r="C346" s="4"/>
+      <c r="C346" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
       <c r="F346" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
+      </c>
+      <c r="G346" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="H346" s="7"/>
     </row>
@@ -5686,12 +5731,17 @@
         <f t="shared" si="10"/>
         <v>342</v>
       </c>
-      <c r="C347" s="4"/>
+      <c r="C347" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
       <c r="F347" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
+      </c>
+      <c r="G347" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="H347" s="7"/>
     </row>
@@ -5700,12 +5750,17 @@
         <f t="shared" si="10"/>
         <v>343</v>
       </c>
-      <c r="C348" s="4"/>
+      <c r="C348" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
       <c r="F348" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
+      </c>
+      <c r="G348" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="H348" s="7"/>
     </row>
@@ -5714,12 +5769,17 @@
         <f t="shared" si="10"/>
         <v>344</v>
       </c>
-      <c r="C349" s="4"/>
+      <c r="C349" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
       <c r="F349" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
+      </c>
+      <c r="G349" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="H349" s="7"/>
     </row>
@@ -5728,12 +5788,17 @@
         <f t="shared" si="10"/>
         <v>345</v>
       </c>
-      <c r="C350" s="4"/>
+      <c r="C350" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
       <c r="F350" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
+      </c>
+      <c r="G350" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="H350" s="7"/>
     </row>
@@ -5742,12 +5807,17 @@
         <f t="shared" si="10"/>
         <v>346</v>
       </c>
-      <c r="C351" s="4"/>
+      <c r="C351" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
       <c r="F351" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
+      </c>
+      <c r="G351" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="H351" s="7"/>
     </row>
@@ -5756,12 +5826,17 @@
         <f t="shared" si="10"/>
         <v>347</v>
       </c>
-      <c r="C352" s="4"/>
+      <c r="C352" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
       <c r="F352" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
+      </c>
+      <c r="G352" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="H352" s="7"/>
     </row>
@@ -5770,12 +5845,17 @@
         <f t="shared" si="10"/>
         <v>348</v>
       </c>
-      <c r="C353" s="4"/>
+      <c r="C353" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
       <c r="F353" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
+      </c>
+      <c r="G353" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="H353" s="7"/>
     </row>
@@ -5784,12 +5864,17 @@
         <f t="shared" si="10"/>
         <v>349</v>
       </c>
-      <c r="C354" s="4"/>
+      <c r="C354" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
       <c r="F354" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
+      </c>
+      <c r="G354" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="H354" s="7"/>
     </row>
@@ -5798,12 +5883,17 @@
         <f t="shared" si="10"/>
         <v>350</v>
       </c>
-      <c r="C355" s="4"/>
+      <c r="C355" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
       <c r="F355" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
+      </c>
+      <c r="G355" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="H355" s="7"/>
     </row>
@@ -5817,7 +5907,7 @@
       <c r="E356" s="4"/>
       <c r="F356" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H356" s="7"/>
     </row>
@@ -5831,7 +5921,7 @@
       <c r="E357" s="4"/>
       <c r="F357" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H357" s="7"/>
     </row>
@@ -5845,7 +5935,7 @@
       <c r="E358" s="4"/>
       <c r="F358" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H358" s="7"/>
     </row>
@@ -5859,7 +5949,7 @@
       <c r="E359" s="4"/>
       <c r="F359" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H359" s="7"/>
     </row>
@@ -5873,7 +5963,7 @@
       <c r="E360" s="4"/>
       <c r="F360" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H360" s="7"/>
     </row>
@@ -5887,7 +5977,7 @@
       <c r="E361" s="4"/>
       <c r="F361" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H361" s="7"/>
     </row>
@@ -5901,7 +5991,7 @@
       <c r="E362" s="4"/>
       <c r="F362" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H362" s="7"/>
     </row>
@@ -5915,7 +6005,7 @@
       <c r="E363" s="4"/>
       <c r="F363" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H363" s="7"/>
     </row>
@@ -5929,7 +6019,7 @@
       <c r="E364" s="4"/>
       <c r="F364" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H364" s="7"/>
     </row>
@@ -5943,7 +6033,7 @@
       <c r="E365" s="4"/>
       <c r="F365" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H365" s="7"/>
     </row>
@@ -5957,7 +6047,7 @@
       <c r="E366" s="4"/>
       <c r="F366" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H366" s="7"/>
     </row>
@@ -5971,7 +6061,7 @@
       <c r="E367" s="4"/>
       <c r="F367" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H367" s="7"/>
     </row>
@@ -5985,7 +6075,7 @@
       <c r="E368" s="4"/>
       <c r="F368" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H368" s="7"/>
     </row>
@@ -5999,7 +6089,7 @@
       <c r="E369" s="4"/>
       <c r="F369" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H369" s="7"/>
     </row>
@@ -6013,7 +6103,7 @@
       <c r="E370" s="4"/>
       <c r="F370" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H370" s="7"/>
     </row>
@@ -6027,7 +6117,7 @@
       <c r="E371" s="4"/>
       <c r="F371" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H371" s="7"/>
     </row>
@@ -6041,7 +6131,7 @@
       <c r="E372" s="4"/>
       <c r="F372" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H372" s="7"/>
     </row>
@@ -6055,7 +6145,7 @@
       <c r="E373" s="4"/>
       <c r="F373" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H373" s="7"/>
     </row>
@@ -6069,7 +6159,7 @@
       <c r="E374" s="4"/>
       <c r="F374" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H374" s="7"/>
     </row>
@@ -6083,7 +6173,7 @@
       <c r="E375" s="4"/>
       <c r="F375" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H375" s="7"/>
     </row>
@@ -6097,7 +6187,7 @@
       <c r="E376" s="4"/>
       <c r="F376" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H376" s="7"/>
     </row>
@@ -6111,7 +6201,7 @@
       <c r="E377" s="4"/>
       <c r="F377" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H377" s="7"/>
     </row>
@@ -6125,7 +6215,7 @@
       <c r="E378" s="4"/>
       <c r="F378" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H378" s="7"/>
     </row>
@@ -6139,7 +6229,7 @@
       <c r="E379" s="4"/>
       <c r="F379" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H379" s="7"/>
     </row>
@@ -6153,7 +6243,7 @@
       <c r="E380" s="4"/>
       <c r="F380" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H380" s="7"/>
     </row>
@@ -6167,7 +6257,7 @@
       <c r="E381" s="4"/>
       <c r="F381" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H381" s="7"/>
     </row>
@@ -6181,7 +6271,7 @@
       <c r="E382" s="4"/>
       <c r="F382" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H382" s="7"/>
     </row>
@@ -6195,7 +6285,7 @@
       <c r="E383" s="4"/>
       <c r="F383" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H383" s="7"/>
     </row>
@@ -6209,7 +6299,7 @@
       <c r="E384" s="4"/>
       <c r="F384" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H384" s="7"/>
     </row>
@@ -6223,7 +6313,7 @@
       <c r="E385" s="4"/>
       <c r="F385" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H385" s="7"/>
     </row>
@@ -6237,7 +6327,7 @@
       <c r="E386" s="4"/>
       <c r="F386" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H386" s="7"/>
     </row>
@@ -6251,7 +6341,7 @@
       <c r="E387" s="4"/>
       <c r="F387" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H387" s="7"/>
     </row>
@@ -6265,7 +6355,7 @@
       <c r="E388" s="4"/>
       <c r="F388" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H388" s="7"/>
     </row>
@@ -6279,7 +6369,7 @@
       <c r="E389" s="4"/>
       <c r="F389" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H389" s="7"/>
     </row>
@@ -6293,7 +6383,7 @@
       <c r="E390" s="4"/>
       <c r="F390" s="7">
         <f t="shared" si="11"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H390" s="7"/>
     </row>
@@ -6307,7 +6397,7 @@
       <c r="E391" s="4"/>
       <c r="F391" s="7">
         <f t="shared" ref="F391:F454" si="13">$E$3/$E$2</f>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H391" s="7"/>
     </row>
@@ -6321,7 +6411,7 @@
       <c r="E392" s="4"/>
       <c r="F392" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H392" s="7"/>
     </row>
@@ -6335,7 +6425,7 @@
       <c r="E393" s="4"/>
       <c r="F393" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H393" s="7"/>
     </row>
@@ -6349,7 +6439,7 @@
       <c r="E394" s="4"/>
       <c r="F394" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H394" s="7"/>
     </row>
@@ -6363,7 +6453,7 @@
       <c r="E395" s="4"/>
       <c r="F395" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H395" s="7"/>
     </row>
@@ -6377,7 +6467,7 @@
       <c r="E396" s="4"/>
       <c r="F396" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H396" s="7"/>
     </row>
@@ -6391,7 +6481,7 @@
       <c r="E397" s="4"/>
       <c r="F397" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H397" s="7"/>
     </row>
@@ -6405,7 +6495,7 @@
       <c r="E398" s="4"/>
       <c r="F398" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H398" s="7"/>
     </row>
@@ -6419,7 +6509,7 @@
       <c r="E399" s="4"/>
       <c r="F399" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H399" s="7"/>
     </row>
@@ -6433,7 +6523,7 @@
       <c r="E400" s="4"/>
       <c r="F400" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H400" s="7"/>
     </row>
@@ -6447,7 +6537,7 @@
       <c r="E401" s="4"/>
       <c r="F401" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H401" s="7"/>
     </row>
@@ -6461,7 +6551,7 @@
       <c r="E402" s="4"/>
       <c r="F402" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H402" s="7"/>
     </row>
@@ -6475,7 +6565,7 @@
       <c r="E403" s="4"/>
       <c r="F403" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H403" s="7"/>
     </row>
@@ -6489,7 +6579,7 @@
       <c r="E404" s="4"/>
       <c r="F404" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H404" s="7"/>
     </row>
@@ -6503,7 +6593,7 @@
       <c r="E405" s="4"/>
       <c r="F405" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H405" s="7"/>
     </row>
@@ -6517,7 +6607,7 @@
       <c r="E406" s="4"/>
       <c r="F406" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H406" s="7"/>
     </row>
@@ -6531,7 +6621,7 @@
       <c r="E407" s="4"/>
       <c r="F407" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H407" s="7"/>
     </row>
@@ -6545,7 +6635,7 @@
       <c r="E408" s="4"/>
       <c r="F408" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H408" s="7"/>
     </row>
@@ -6559,7 +6649,7 @@
       <c r="E409" s="4"/>
       <c r="F409" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H409" s="7"/>
     </row>
@@ -6573,7 +6663,7 @@
       <c r="E410" s="4"/>
       <c r="F410" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H410" s="7"/>
     </row>
@@ -6587,7 +6677,7 @@
       <c r="E411" s="4"/>
       <c r="F411" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H411" s="7"/>
     </row>
@@ -6601,7 +6691,7 @@
       <c r="E412" s="4"/>
       <c r="F412" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H412" s="7"/>
     </row>
@@ -6615,7 +6705,7 @@
       <c r="E413" s="4"/>
       <c r="F413" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H413" s="7"/>
     </row>
@@ -6629,7 +6719,7 @@
       <c r="E414" s="4"/>
       <c r="F414" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H414" s="7"/>
     </row>
@@ -6643,7 +6733,7 @@
       <c r="E415" s="4"/>
       <c r="F415" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H415" s="7"/>
     </row>
@@ -6657,7 +6747,7 @@
       <c r="E416" s="4"/>
       <c r="F416" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H416" s="7"/>
     </row>
@@ -6671,7 +6761,7 @@
       <c r="E417" s="4"/>
       <c r="F417" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H417" s="7"/>
     </row>
@@ -6685,7 +6775,7 @@
       <c r="E418" s="4"/>
       <c r="F418" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H418" s="7"/>
     </row>
@@ -6699,7 +6789,7 @@
       <c r="E419" s="4"/>
       <c r="F419" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H419" s="7"/>
     </row>
@@ -6713,7 +6803,7 @@
       <c r="E420" s="4"/>
       <c r="F420" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H420" s="7"/>
     </row>
@@ -6727,7 +6817,7 @@
       <c r="E421" s="4"/>
       <c r="F421" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H421" s="7"/>
     </row>
@@ -6741,7 +6831,7 @@
       <c r="E422" s="4"/>
       <c r="F422" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H422" s="7"/>
     </row>
@@ -6755,7 +6845,7 @@
       <c r="E423" s="4"/>
       <c r="F423" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H423" s="7"/>
     </row>
@@ -6769,7 +6859,7 @@
       <c r="E424" s="4"/>
       <c r="F424" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H424" s="7"/>
     </row>
@@ -6783,7 +6873,7 @@
       <c r="E425" s="4"/>
       <c r="F425" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H425" s="7"/>
     </row>
@@ -6797,7 +6887,7 @@
       <c r="E426" s="4"/>
       <c r="F426" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H426" s="7"/>
     </row>
@@ -6811,7 +6901,7 @@
       <c r="E427" s="4"/>
       <c r="F427" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H427" s="7"/>
     </row>
@@ -6825,7 +6915,7 @@
       <c r="E428" s="4"/>
       <c r="F428" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H428" s="7"/>
     </row>
@@ -6839,7 +6929,7 @@
       <c r="E429" s="4"/>
       <c r="F429" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H429" s="7"/>
     </row>
@@ -6853,7 +6943,7 @@
       <c r="E430" s="4"/>
       <c r="F430" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H430" s="7"/>
     </row>
@@ -6867,7 +6957,7 @@
       <c r="E431" s="4"/>
       <c r="F431" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H431" s="7"/>
     </row>
@@ -6881,7 +6971,7 @@
       <c r="E432" s="4"/>
       <c r="F432" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H432" s="7"/>
     </row>
@@ -6895,7 +6985,7 @@
       <c r="E433" s="4"/>
       <c r="F433" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H433" s="7"/>
     </row>
@@ -6909,7 +6999,7 @@
       <c r="E434" s="4"/>
       <c r="F434" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H434" s="7"/>
     </row>
@@ -6923,7 +7013,7 @@
       <c r="E435" s="4"/>
       <c r="F435" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H435" s="7"/>
     </row>
@@ -6937,7 +7027,7 @@
       <c r="E436" s="4"/>
       <c r="F436" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H436" s="7"/>
     </row>
@@ -6951,7 +7041,7 @@
       <c r="E437" s="4"/>
       <c r="F437" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H437" s="7"/>
     </row>
@@ -6965,7 +7055,7 @@
       <c r="E438" s="4"/>
       <c r="F438" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H438" s="7"/>
     </row>
@@ -6979,7 +7069,7 @@
       <c r="E439" s="4"/>
       <c r="F439" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H439" s="7"/>
     </row>
@@ -6993,7 +7083,7 @@
       <c r="E440" s="4"/>
       <c r="F440" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H440" s="7"/>
     </row>
@@ -7007,7 +7097,7 @@
       <c r="E441" s="4"/>
       <c r="F441" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H441" s="7"/>
     </row>
@@ -7021,7 +7111,7 @@
       <c r="E442" s="4"/>
       <c r="F442" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H442" s="7"/>
     </row>
@@ -7035,7 +7125,7 @@
       <c r="E443" s="4"/>
       <c r="F443" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H443" s="7"/>
     </row>
@@ -7049,7 +7139,7 @@
       <c r="E444" s="4"/>
       <c r="F444" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H444" s="7"/>
     </row>
@@ -7063,7 +7153,7 @@
       <c r="E445" s="4"/>
       <c r="F445" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H445" s="7"/>
     </row>
@@ -7077,7 +7167,7 @@
       <c r="E446" s="4"/>
       <c r="F446" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H446" s="7"/>
     </row>
@@ -7091,7 +7181,7 @@
       <c r="E447" s="4"/>
       <c r="F447" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H447" s="7"/>
     </row>
@@ -7105,7 +7195,7 @@
       <c r="E448" s="4"/>
       <c r="F448" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H448" s="7"/>
     </row>
@@ -7119,7 +7209,7 @@
       <c r="E449" s="4"/>
       <c r="F449" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H449" s="7"/>
     </row>
@@ -7133,7 +7223,7 @@
       <c r="E450" s="4"/>
       <c r="F450" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H450" s="7"/>
     </row>
@@ -7147,7 +7237,7 @@
       <c r="E451" s="4"/>
       <c r="F451" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H451" s="7"/>
     </row>
@@ -7161,7 +7251,7 @@
       <c r="E452" s="4"/>
       <c r="F452" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H452" s="7"/>
     </row>
@@ -7175,7 +7265,7 @@
       <c r="E453" s="4"/>
       <c r="F453" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H453" s="7"/>
     </row>
@@ -7189,7 +7279,7 @@
       <c r="E454" s="4"/>
       <c r="F454" s="7">
         <f t="shared" si="13"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H454" s="7"/>
     </row>
@@ -7203,7 +7293,7 @@
       <c r="E455" s="4"/>
       <c r="F455" s="7">
         <f t="shared" ref="F455:F518" si="15">$E$3/$E$2</f>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H455" s="7"/>
     </row>
@@ -7217,7 +7307,7 @@
       <c r="E456" s="4"/>
       <c r="F456" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H456" s="7"/>
     </row>
@@ -7231,7 +7321,7 @@
       <c r="E457" s="4"/>
       <c r="F457" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H457" s="7"/>
     </row>
@@ -7245,7 +7335,7 @@
       <c r="E458" s="4"/>
       <c r="F458" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H458" s="7"/>
     </row>
@@ -7259,7 +7349,7 @@
       <c r="E459" s="4"/>
       <c r="F459" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H459" s="7"/>
     </row>
@@ -7273,7 +7363,7 @@
       <c r="E460" s="4"/>
       <c r="F460" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H460" s="7"/>
     </row>
@@ -7287,7 +7377,7 @@
       <c r="E461" s="4"/>
       <c r="F461" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H461" s="7"/>
     </row>
@@ -7301,7 +7391,7 @@
       <c r="E462" s="4"/>
       <c r="F462" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H462" s="7"/>
     </row>
@@ -7315,7 +7405,7 @@
       <c r="E463" s="4"/>
       <c r="F463" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H463" s="7"/>
     </row>
@@ -7329,7 +7419,7 @@
       <c r="E464" s="4"/>
       <c r="F464" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H464" s="7"/>
     </row>
@@ -7343,7 +7433,7 @@
       <c r="E465" s="4"/>
       <c r="F465" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H465" s="7"/>
     </row>
@@ -7357,7 +7447,7 @@
       <c r="E466" s="4"/>
       <c r="F466" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H466" s="7"/>
     </row>
@@ -7371,7 +7461,7 @@
       <c r="E467" s="4"/>
       <c r="F467" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H467" s="7"/>
     </row>
@@ -7385,7 +7475,7 @@
       <c r="E468" s="4"/>
       <c r="F468" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H468" s="7"/>
     </row>
@@ -7399,7 +7489,7 @@
       <c r="E469" s="4"/>
       <c r="F469" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H469" s="7"/>
     </row>
@@ -7413,7 +7503,7 @@
       <c r="E470" s="4"/>
       <c r="F470" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H470" s="7"/>
     </row>
@@ -7427,7 +7517,7 @@
       <c r="E471" s="4"/>
       <c r="F471" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H471" s="7"/>
     </row>
@@ -7441,7 +7531,7 @@
       <c r="E472" s="4"/>
       <c r="F472" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H472" s="7"/>
     </row>
@@ -7455,7 +7545,7 @@
       <c r="E473" s="4"/>
       <c r="F473" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H473" s="7"/>
     </row>
@@ -7469,7 +7559,7 @@
       <c r="E474" s="4"/>
       <c r="F474" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H474" s="7"/>
     </row>
@@ -7483,7 +7573,7 @@
       <c r="E475" s="4"/>
       <c r="F475" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H475" s="7"/>
     </row>
@@ -7497,7 +7587,7 @@
       <c r="E476" s="4"/>
       <c r="F476" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H476" s="7"/>
     </row>
@@ -7511,7 +7601,7 @@
       <c r="E477" s="4"/>
       <c r="F477" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H477" s="7"/>
     </row>
@@ -7525,7 +7615,7 @@
       <c r="E478" s="4"/>
       <c r="F478" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H478" s="7"/>
     </row>
@@ -7539,7 +7629,7 @@
       <c r="E479" s="4"/>
       <c r="F479" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H479" s="7"/>
     </row>
@@ -7553,7 +7643,7 @@
       <c r="E480" s="4"/>
       <c r="F480" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H480" s="7"/>
     </row>
@@ -7567,7 +7657,7 @@
       <c r="E481" s="4"/>
       <c r="F481" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H481" s="7"/>
     </row>
@@ -7581,7 +7671,7 @@
       <c r="E482" s="4"/>
       <c r="F482" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H482" s="7"/>
     </row>
@@ -7595,7 +7685,7 @@
       <c r="E483" s="4"/>
       <c r="F483" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H483" s="7"/>
     </row>
@@ -7609,7 +7699,7 @@
       <c r="E484" s="4"/>
       <c r="F484" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H484" s="7"/>
     </row>
@@ -7623,7 +7713,7 @@
       <c r="E485" s="4"/>
       <c r="F485" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H485" s="7"/>
     </row>
@@ -7637,7 +7727,7 @@
       <c r="E486" s="4"/>
       <c r="F486" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H486" s="7"/>
     </row>
@@ -7651,7 +7741,7 @@
       <c r="E487" s="4"/>
       <c r="F487" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H487" s="7"/>
     </row>
@@ -7665,7 +7755,7 @@
       <c r="E488" s="4"/>
       <c r="F488" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H488" s="7"/>
     </row>
@@ -7679,7 +7769,7 @@
       <c r="E489" s="4"/>
       <c r="F489" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H489" s="7"/>
     </row>
@@ -7693,7 +7783,7 @@
       <c r="E490" s="4"/>
       <c r="F490" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H490" s="7"/>
     </row>
@@ -7707,7 +7797,7 @@
       <c r="E491" s="4"/>
       <c r="F491" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H491" s="7"/>
     </row>
@@ -7721,7 +7811,7 @@
       <c r="E492" s="4"/>
       <c r="F492" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H492" s="7"/>
     </row>
@@ -7735,7 +7825,7 @@
       <c r="E493" s="4"/>
       <c r="F493" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H493" s="7"/>
     </row>
@@ -7749,7 +7839,7 @@
       <c r="E494" s="4"/>
       <c r="F494" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H494" s="7"/>
     </row>
@@ -7763,7 +7853,7 @@
       <c r="E495" s="4"/>
       <c r="F495" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H495" s="7"/>
     </row>
@@ -7777,7 +7867,7 @@
       <c r="E496" s="4"/>
       <c r="F496" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H496" s="7"/>
     </row>
@@ -7791,7 +7881,7 @@
       <c r="E497" s="4"/>
       <c r="F497" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H497" s="7"/>
     </row>
@@ -7805,7 +7895,7 @@
       <c r="E498" s="4"/>
       <c r="F498" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H498" s="7"/>
     </row>
@@ -7819,7 +7909,7 @@
       <c r="E499" s="4"/>
       <c r="F499" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H499" s="7"/>
     </row>
@@ -7833,7 +7923,7 @@
       <c r="E500" s="4"/>
       <c r="F500" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H500" s="7"/>
     </row>
@@ -7847,7 +7937,7 @@
       <c r="E501" s="4"/>
       <c r="F501" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H501" s="7"/>
     </row>
@@ -7861,7 +7951,7 @@
       <c r="E502" s="4"/>
       <c r="F502" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H502" s="7"/>
     </row>
@@ -7875,7 +7965,7 @@
       <c r="E503" s="4"/>
       <c r="F503" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H503" s="7"/>
     </row>
@@ -7889,7 +7979,7 @@
       <c r="E504" s="4"/>
       <c r="F504" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H504" s="7"/>
     </row>
@@ -7903,7 +7993,7 @@
       <c r="E505" s="4"/>
       <c r="F505" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H505" s="7"/>
     </row>
@@ -7917,7 +8007,7 @@
       <c r="E506" s="4"/>
       <c r="F506" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H506" s="7"/>
     </row>
@@ -7931,7 +8021,7 @@
       <c r="E507" s="4"/>
       <c r="F507" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H507" s="7"/>
     </row>
@@ -7945,7 +8035,7 @@
       <c r="E508" s="4"/>
       <c r="F508" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H508" s="7"/>
     </row>
@@ -7959,7 +8049,7 @@
       <c r="E509" s="4"/>
       <c r="F509" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H509" s="7"/>
     </row>
@@ -7973,7 +8063,7 @@
       <c r="E510" s="4"/>
       <c r="F510" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H510" s="7"/>
     </row>
@@ -7987,7 +8077,7 @@
       <c r="E511" s="4"/>
       <c r="F511" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H511" s="7"/>
     </row>
@@ -8001,7 +8091,7 @@
       <c r="E512" s="4"/>
       <c r="F512" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H512" s="7"/>
     </row>
@@ -8015,7 +8105,7 @@
       <c r="E513" s="4"/>
       <c r="F513" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H513" s="7"/>
     </row>
@@ -8029,7 +8119,7 @@
       <c r="E514" s="4"/>
       <c r="F514" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H514" s="7"/>
     </row>
@@ -8043,7 +8133,7 @@
       <c r="E515" s="4"/>
       <c r="F515" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H515" s="7"/>
     </row>
@@ -8057,7 +8147,7 @@
       <c r="E516" s="4"/>
       <c r="F516" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H516" s="7"/>
     </row>
@@ -8071,7 +8161,7 @@
       <c r="E517" s="4"/>
       <c r="F517" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H517" s="7"/>
     </row>
@@ -8085,7 +8175,7 @@
       <c r="E518" s="4"/>
       <c r="F518" s="7">
         <f t="shared" si="15"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H518" s="7"/>
     </row>
@@ -8099,7 +8189,7 @@
       <c r="E519" s="4"/>
       <c r="F519" s="7">
         <f t="shared" ref="F519:F582" si="17">$E$3/$E$2</f>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H519" s="7"/>
     </row>
@@ -8113,7 +8203,7 @@
       <c r="E520" s="4"/>
       <c r="F520" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H520" s="7"/>
     </row>
@@ -8127,7 +8217,7 @@
       <c r="E521" s="4"/>
       <c r="F521" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H521" s="7"/>
     </row>
@@ -8141,7 +8231,7 @@
       <c r="E522" s="4"/>
       <c r="F522" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H522" s="7"/>
     </row>
@@ -8155,7 +8245,7 @@
       <c r="E523" s="4"/>
       <c r="F523" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H523" s="7"/>
     </row>
@@ -8169,7 +8259,7 @@
       <c r="E524" s="4"/>
       <c r="F524" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H524" s="7"/>
     </row>
@@ -8183,7 +8273,7 @@
       <c r="E525" s="4"/>
       <c r="F525" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H525" s="7"/>
     </row>
@@ -8197,7 +8287,7 @@
       <c r="E526" s="4"/>
       <c r="F526" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H526" s="7"/>
     </row>
@@ -8211,7 +8301,7 @@
       <c r="E527" s="4"/>
       <c r="F527" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H527" s="7"/>
     </row>
@@ -8225,7 +8315,7 @@
       <c r="E528" s="4"/>
       <c r="F528" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H528" s="7"/>
     </row>
@@ -8239,7 +8329,7 @@
       <c r="E529" s="4"/>
       <c r="F529" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H529" s="7"/>
     </row>
@@ -8253,7 +8343,7 @@
       <c r="E530" s="4"/>
       <c r="F530" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H530" s="7"/>
     </row>
@@ -8267,7 +8357,7 @@
       <c r="E531" s="4"/>
       <c r="F531" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H531" s="7"/>
     </row>
@@ -8281,7 +8371,7 @@
       <c r="E532" s="4"/>
       <c r="F532" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H532" s="7"/>
     </row>
@@ -8295,7 +8385,7 @@
       <c r="E533" s="4"/>
       <c r="F533" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H533" s="7"/>
     </row>
@@ -8309,7 +8399,7 @@
       <c r="E534" s="4"/>
       <c r="F534" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H534" s="7"/>
     </row>
@@ -8323,7 +8413,7 @@
       <c r="E535" s="4"/>
       <c r="F535" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H535" s="7"/>
     </row>
@@ -8337,7 +8427,7 @@
       <c r="E536" s="4"/>
       <c r="F536" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H536" s="7"/>
     </row>
@@ -8351,7 +8441,7 @@
       <c r="E537" s="4"/>
       <c r="F537" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H537" s="7"/>
     </row>
@@ -8365,7 +8455,7 @@
       <c r="E538" s="4"/>
       <c r="F538" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H538" s="7"/>
     </row>
@@ -8379,7 +8469,7 @@
       <c r="E539" s="4"/>
       <c r="F539" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H539" s="7"/>
     </row>
@@ -8393,7 +8483,7 @@
       <c r="E540" s="4"/>
       <c r="F540" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H540" s="7"/>
     </row>
@@ -8407,7 +8497,7 @@
       <c r="E541" s="4"/>
       <c r="F541" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H541" s="7"/>
     </row>
@@ -8421,7 +8511,7 @@
       <c r="E542" s="4"/>
       <c r="F542" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H542" s="7"/>
     </row>
@@ -8435,7 +8525,7 @@
       <c r="E543" s="4"/>
       <c r="F543" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H543" s="7"/>
     </row>
@@ -8449,7 +8539,7 @@
       <c r="E544" s="4"/>
       <c r="F544" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H544" s="7"/>
     </row>
@@ -8463,7 +8553,7 @@
       <c r="E545" s="4"/>
       <c r="F545" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H545" s="7"/>
     </row>
@@ -8477,7 +8567,7 @@
       <c r="E546" s="4"/>
       <c r="F546" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H546" s="7"/>
     </row>
@@ -8491,7 +8581,7 @@
       <c r="E547" s="4"/>
       <c r="F547" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H547" s="7"/>
     </row>
@@ -8505,7 +8595,7 @@
       <c r="E548" s="4"/>
       <c r="F548" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H548" s="7"/>
     </row>
@@ -8519,7 +8609,7 @@
       <c r="E549" s="4"/>
       <c r="F549" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H549" s="7"/>
     </row>
@@ -8533,7 +8623,7 @@
       <c r="E550" s="4"/>
       <c r="F550" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H550" s="7"/>
     </row>
@@ -8547,7 +8637,7 @@
       <c r="E551" s="4"/>
       <c r="F551" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H551" s="7"/>
     </row>
@@ -8561,7 +8651,7 @@
       <c r="E552" s="4"/>
       <c r="F552" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H552" s="7"/>
     </row>
@@ -8575,7 +8665,7 @@
       <c r="E553" s="4"/>
       <c r="F553" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H553" s="7"/>
     </row>
@@ -8589,7 +8679,7 @@
       <c r="E554" s="4"/>
       <c r="F554" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H554" s="7"/>
     </row>
@@ -8603,7 +8693,7 @@
       <c r="E555" s="4"/>
       <c r="F555" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H555" s="7"/>
     </row>
@@ -8617,7 +8707,7 @@
       <c r="E556" s="4"/>
       <c r="F556" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H556" s="7"/>
     </row>
@@ -8631,7 +8721,7 @@
       <c r="E557" s="4"/>
       <c r="F557" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H557" s="7"/>
     </row>
@@ -8645,7 +8735,7 @@
       <c r="E558" s="4"/>
       <c r="F558" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H558" s="7"/>
     </row>
@@ -8659,7 +8749,7 @@
       <c r="E559" s="4"/>
       <c r="F559" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H559" s="7"/>
     </row>
@@ -8673,7 +8763,7 @@
       <c r="E560" s="4"/>
       <c r="F560" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H560" s="7"/>
     </row>
@@ -8687,7 +8777,7 @@
       <c r="E561" s="4"/>
       <c r="F561" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H561" s="7"/>
     </row>
@@ -8701,7 +8791,7 @@
       <c r="E562" s="4"/>
       <c r="F562" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H562" s="7"/>
     </row>
@@ -8715,7 +8805,7 @@
       <c r="E563" s="4"/>
       <c r="F563" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H563" s="7"/>
     </row>
@@ -8729,7 +8819,7 @@
       <c r="E564" s="4"/>
       <c r="F564" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H564" s="7"/>
     </row>
@@ -8743,7 +8833,7 @@
       <c r="E565" s="4"/>
       <c r="F565" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H565" s="7"/>
     </row>
@@ -8757,7 +8847,7 @@
       <c r="E566" s="4"/>
       <c r="F566" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H566" s="7"/>
     </row>
@@ -8771,7 +8861,7 @@
       <c r="E567" s="4"/>
       <c r="F567" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H567" s="7"/>
     </row>
@@ -8785,7 +8875,7 @@
       <c r="E568" s="4"/>
       <c r="F568" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H568" s="7"/>
     </row>
@@ -8799,7 +8889,7 @@
       <c r="E569" s="4"/>
       <c r="F569" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H569" s="7"/>
     </row>
@@ -8813,7 +8903,7 @@
       <c r="E570" s="4"/>
       <c r="F570" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H570" s="7"/>
     </row>
@@ -8827,7 +8917,7 @@
       <c r="E571" s="4"/>
       <c r="F571" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H571" s="7"/>
     </row>
@@ -8841,7 +8931,7 @@
       <c r="E572" s="4"/>
       <c r="F572" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H572" s="7"/>
     </row>
@@ -8855,7 +8945,7 @@
       <c r="E573" s="4"/>
       <c r="F573" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H573" s="7"/>
     </row>
@@ -8869,7 +8959,7 @@
       <c r="E574" s="4"/>
       <c r="F574" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H574" s="7"/>
     </row>
@@ -8883,7 +8973,7 @@
       <c r="E575" s="4"/>
       <c r="F575" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H575" s="7"/>
     </row>
@@ -8897,7 +8987,7 @@
       <c r="E576" s="4"/>
       <c r="F576" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H576" s="7"/>
     </row>
@@ -8911,7 +9001,7 @@
       <c r="E577" s="4"/>
       <c r="F577" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H577" s="7"/>
     </row>
@@ -8925,7 +9015,7 @@
       <c r="E578" s="4"/>
       <c r="F578" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H578" s="7"/>
     </row>
@@ -8939,7 +9029,7 @@
       <c r="E579" s="4"/>
       <c r="F579" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H579" s="7"/>
     </row>
@@ -8953,7 +9043,7 @@
       <c r="E580" s="4"/>
       <c r="F580" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H580" s="7"/>
     </row>
@@ -8967,7 +9057,7 @@
       <c r="E581" s="4"/>
       <c r="F581" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H581" s="7"/>
     </row>
@@ -8981,7 +9071,7 @@
       <c r="E582" s="4"/>
       <c r="F582" s="7">
         <f t="shared" si="17"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H582" s="7"/>
     </row>
@@ -8995,7 +9085,7 @@
       <c r="E583" s="4"/>
       <c r="F583" s="7">
         <f t="shared" ref="F583:F646" si="19">$E$3/$E$2</f>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H583" s="7"/>
     </row>
@@ -9009,7 +9099,7 @@
       <c r="E584" s="4"/>
       <c r="F584" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H584" s="7"/>
     </row>
@@ -9023,7 +9113,7 @@
       <c r="E585" s="4"/>
       <c r="F585" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H585" s="7"/>
     </row>
@@ -9037,7 +9127,7 @@
       <c r="E586" s="4"/>
       <c r="F586" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H586" s="7"/>
     </row>
@@ -9051,7 +9141,7 @@
       <c r="E587" s="4"/>
       <c r="F587" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H587" s="7"/>
     </row>
@@ -9065,7 +9155,7 @@
       <c r="E588" s="4"/>
       <c r="F588" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H588" s="7"/>
     </row>
@@ -9079,7 +9169,7 @@
       <c r="E589" s="4"/>
       <c r="F589" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H589" s="7"/>
     </row>
@@ -9093,7 +9183,7 @@
       <c r="E590" s="4"/>
       <c r="F590" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H590" s="7"/>
     </row>
@@ -9107,7 +9197,7 @@
       <c r="E591" s="4"/>
       <c r="F591" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H591" s="7"/>
     </row>
@@ -9121,7 +9211,7 @@
       <c r="E592" s="4"/>
       <c r="F592" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H592" s="7"/>
     </row>
@@ -9135,7 +9225,7 @@
       <c r="E593" s="4"/>
       <c r="F593" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H593" s="7"/>
     </row>
@@ -9149,7 +9239,7 @@
       <c r="E594" s="4"/>
       <c r="F594" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H594" s="7"/>
     </row>
@@ -9163,7 +9253,7 @@
       <c r="E595" s="4"/>
       <c r="F595" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H595" s="7"/>
     </row>
@@ -9177,7 +9267,7 @@
       <c r="E596" s="4"/>
       <c r="F596" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H596" s="7"/>
     </row>
@@ -9191,7 +9281,7 @@
       <c r="E597" s="4"/>
       <c r="F597" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H597" s="7"/>
     </row>
@@ -9205,7 +9295,7 @@
       <c r="E598" s="4"/>
       <c r="F598" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H598" s="7"/>
     </row>
@@ -9219,7 +9309,7 @@
       <c r="E599" s="4"/>
       <c r="F599" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H599" s="7"/>
     </row>
@@ -9233,7 +9323,7 @@
       <c r="E600" s="4"/>
       <c r="F600" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H600" s="7"/>
     </row>
@@ -9247,7 +9337,7 @@
       <c r="E601" s="4"/>
       <c r="F601" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H601" s="7"/>
     </row>
@@ -9261,7 +9351,7 @@
       <c r="E602" s="4"/>
       <c r="F602" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H602" s="7"/>
     </row>
@@ -9275,7 +9365,7 @@
       <c r="E603" s="4"/>
       <c r="F603" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H603" s="7"/>
     </row>
@@ -9289,7 +9379,7 @@
       <c r="E604" s="4"/>
       <c r="F604" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H604" s="7"/>
     </row>
@@ -9303,7 +9393,7 @@
       <c r="E605" s="4"/>
       <c r="F605" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H605" s="7"/>
     </row>
@@ -9317,7 +9407,7 @@
       <c r="E606" s="4"/>
       <c r="F606" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H606" s="7"/>
     </row>
@@ -9331,7 +9421,7 @@
       <c r="E607" s="4"/>
       <c r="F607" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H607" s="7"/>
     </row>
@@ -9345,7 +9435,7 @@
       <c r="E608" s="4"/>
       <c r="F608" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H608" s="7"/>
     </row>
@@ -9359,7 +9449,7 @@
       <c r="E609" s="4"/>
       <c r="F609" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H609" s="7"/>
     </row>
@@ -9373,7 +9463,7 @@
       <c r="E610" s="4"/>
       <c r="F610" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H610" s="7"/>
     </row>
@@ -9387,7 +9477,7 @@
       <c r="E611" s="4"/>
       <c r="F611" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H611" s="7"/>
     </row>
@@ -9401,7 +9491,7 @@
       <c r="E612" s="4"/>
       <c r="F612" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H612" s="7"/>
     </row>
@@ -9415,7 +9505,7 @@
       <c r="E613" s="4"/>
       <c r="F613" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H613" s="7"/>
     </row>
@@ -9429,7 +9519,7 @@
       <c r="E614" s="4"/>
       <c r="F614" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H614" s="7"/>
     </row>
@@ -9443,7 +9533,7 @@
       <c r="E615" s="4"/>
       <c r="F615" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H615" s="7"/>
     </row>
@@ -9457,7 +9547,7 @@
       <c r="E616" s="4"/>
       <c r="F616" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H616" s="7"/>
     </row>
@@ -9471,7 +9561,7 @@
       <c r="E617" s="4"/>
       <c r="F617" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H617" s="7"/>
     </row>
@@ -9485,7 +9575,7 @@
       <c r="E618" s="4"/>
       <c r="F618" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H618" s="7"/>
     </row>
@@ -9499,7 +9589,7 @@
       <c r="E619" s="4"/>
       <c r="F619" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H619" s="7"/>
     </row>
@@ -9513,7 +9603,7 @@
       <c r="E620" s="4"/>
       <c r="F620" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H620" s="7"/>
     </row>
@@ -9527,7 +9617,7 @@
       <c r="E621" s="4"/>
       <c r="F621" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H621" s="7"/>
     </row>
@@ -9541,7 +9631,7 @@
       <c r="E622" s="4"/>
       <c r="F622" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H622" s="7"/>
     </row>
@@ -9555,7 +9645,7 @@
       <c r="E623" s="4"/>
       <c r="F623" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H623" s="7"/>
     </row>
@@ -9569,7 +9659,7 @@
       <c r="E624" s="4"/>
       <c r="F624" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H624" s="7"/>
     </row>
@@ -9583,7 +9673,7 @@
       <c r="E625" s="4"/>
       <c r="F625" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H625" s="7"/>
     </row>
@@ -9597,7 +9687,7 @@
       <c r="E626" s="4"/>
       <c r="F626" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H626" s="7"/>
     </row>
@@ -9611,7 +9701,7 @@
       <c r="E627" s="4"/>
       <c r="F627" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H627" s="7"/>
     </row>
@@ -9625,7 +9715,7 @@
       <c r="E628" s="4"/>
       <c r="F628" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H628" s="7"/>
     </row>
@@ -9639,7 +9729,7 @@
       <c r="E629" s="4"/>
       <c r="F629" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H629" s="7"/>
     </row>
@@ -9653,7 +9743,7 @@
       <c r="E630" s="4"/>
       <c r="F630" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H630" s="7"/>
     </row>
@@ -9667,7 +9757,7 @@
       <c r="E631" s="4"/>
       <c r="F631" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H631" s="7"/>
     </row>
@@ -9681,7 +9771,7 @@
       <c r="E632" s="4"/>
       <c r="F632" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H632" s="7"/>
     </row>
@@ -9695,7 +9785,7 @@
       <c r="E633" s="4"/>
       <c r="F633" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H633" s="7"/>
     </row>
@@ -9709,7 +9799,7 @@
       <c r="E634" s="4"/>
       <c r="F634" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H634" s="7"/>
     </row>
@@ -9723,7 +9813,7 @@
       <c r="E635" s="4"/>
       <c r="F635" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H635" s="7"/>
     </row>
@@ -9737,7 +9827,7 @@
       <c r="E636" s="4"/>
       <c r="F636" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H636" s="7"/>
     </row>
@@ -9751,7 +9841,7 @@
       <c r="E637" s="4"/>
       <c r="F637" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H637" s="7"/>
     </row>
@@ -9765,7 +9855,7 @@
       <c r="E638" s="4"/>
       <c r="F638" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H638" s="7"/>
     </row>
@@ -9779,7 +9869,7 @@
       <c r="E639" s="4"/>
       <c r="F639" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H639" s="7"/>
     </row>
@@ -9793,7 +9883,7 @@
       <c r="E640" s="4"/>
       <c r="F640" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H640" s="7"/>
     </row>
@@ -9807,7 +9897,7 @@
       <c r="E641" s="4"/>
       <c r="F641" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H641" s="7"/>
     </row>
@@ -9821,7 +9911,7 @@
       <c r="E642" s="4"/>
       <c r="F642" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H642" s="7"/>
     </row>
@@ -9835,7 +9925,7 @@
       <c r="E643" s="4"/>
       <c r="F643" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H643" s="7"/>
     </row>
@@ -9849,7 +9939,7 @@
       <c r="E644" s="4"/>
       <c r="F644" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H644" s="7"/>
     </row>
@@ -9863,7 +9953,7 @@
       <c r="E645" s="4"/>
       <c r="F645" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H645" s="7"/>
     </row>
@@ -9877,7 +9967,7 @@
       <c r="E646" s="4"/>
       <c r="F646" s="7">
         <f t="shared" si="19"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H646" s="7"/>
     </row>
@@ -9891,7 +9981,7 @@
       <c r="E647" s="4"/>
       <c r="F647" s="7">
         <f t="shared" ref="F647:F710" si="21">$E$3/$E$2</f>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H647" s="7"/>
     </row>
@@ -9905,7 +9995,7 @@
       <c r="E648" s="4"/>
       <c r="F648" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H648" s="7"/>
     </row>
@@ -9919,7 +10009,7 @@
       <c r="E649" s="4"/>
       <c r="F649" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H649" s="7"/>
     </row>
@@ -9933,7 +10023,7 @@
       <c r="E650" s="4"/>
       <c r="F650" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H650" s="7"/>
     </row>
@@ -9947,7 +10037,7 @@
       <c r="E651" s="4"/>
       <c r="F651" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H651" s="7"/>
     </row>
@@ -9961,7 +10051,7 @@
       <c r="E652" s="4"/>
       <c r="F652" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H652" s="7"/>
     </row>
@@ -9975,7 +10065,7 @@
       <c r="E653" s="4"/>
       <c r="F653" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H653" s="7"/>
     </row>
@@ -9989,7 +10079,7 @@
       <c r="E654" s="4"/>
       <c r="F654" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H654" s="7"/>
     </row>
@@ -10003,7 +10093,7 @@
       <c r="E655" s="4"/>
       <c r="F655" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H655" s="7"/>
     </row>
@@ -10017,7 +10107,7 @@
       <c r="E656" s="4"/>
       <c r="F656" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H656" s="7"/>
     </row>
@@ -10031,7 +10121,7 @@
       <c r="E657" s="4"/>
       <c r="F657" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H657" s="7"/>
     </row>
@@ -10045,7 +10135,7 @@
       <c r="E658" s="4"/>
       <c r="F658" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H658" s="7"/>
     </row>
@@ -10059,7 +10149,7 @@
       <c r="E659" s="4"/>
       <c r="F659" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H659" s="7"/>
     </row>
@@ -10073,7 +10163,7 @@
       <c r="E660" s="4"/>
       <c r="F660" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H660" s="7"/>
     </row>
@@ -10087,7 +10177,7 @@
       <c r="E661" s="4"/>
       <c r="F661" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H661" s="7"/>
     </row>
@@ -10101,7 +10191,7 @@
       <c r="E662" s="4"/>
       <c r="F662" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H662" s="7"/>
     </row>
@@ -10115,7 +10205,7 @@
       <c r="E663" s="4"/>
       <c r="F663" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H663" s="7"/>
     </row>
@@ -10129,7 +10219,7 @@
       <c r="E664" s="4"/>
       <c r="F664" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H664" s="7"/>
     </row>
@@ -10143,7 +10233,7 @@
       <c r="E665" s="4"/>
       <c r="F665" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H665" s="7"/>
     </row>
@@ -10157,7 +10247,7 @@
       <c r="E666" s="4"/>
       <c r="F666" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H666" s="7"/>
     </row>
@@ -10171,7 +10261,7 @@
       <c r="E667" s="4"/>
       <c r="F667" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H667" s="7"/>
     </row>
@@ -10185,7 +10275,7 @@
       <c r="E668" s="4"/>
       <c r="F668" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H668" s="7"/>
     </row>
@@ -10199,7 +10289,7 @@
       <c r="E669" s="4"/>
       <c r="F669" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H669" s="7"/>
     </row>
@@ -10213,7 +10303,7 @@
       <c r="E670" s="4"/>
       <c r="F670" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H670" s="7"/>
     </row>
@@ -10227,7 +10317,7 @@
       <c r="E671" s="4"/>
       <c r="F671" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H671" s="7"/>
     </row>
@@ -10241,7 +10331,7 @@
       <c r="E672" s="4"/>
       <c r="F672" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H672" s="7"/>
     </row>
@@ -10255,7 +10345,7 @@
       <c r="E673" s="4"/>
       <c r="F673" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H673" s="7"/>
     </row>
@@ -10269,7 +10359,7 @@
       <c r="E674" s="4"/>
       <c r="F674" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H674" s="7"/>
     </row>
@@ -10283,7 +10373,7 @@
       <c r="E675" s="4"/>
       <c r="F675" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H675" s="7"/>
     </row>
@@ -10297,7 +10387,7 @@
       <c r="E676" s="4"/>
       <c r="F676" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H676" s="7"/>
     </row>
@@ -10311,7 +10401,7 @@
       <c r="E677" s="4"/>
       <c r="F677" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H677" s="7"/>
     </row>
@@ -10325,7 +10415,7 @@
       <c r="E678" s="4"/>
       <c r="F678" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H678" s="7"/>
     </row>
@@ -10339,7 +10429,7 @@
       <c r="E679" s="4"/>
       <c r="F679" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H679" s="7"/>
     </row>
@@ -10353,7 +10443,7 @@
       <c r="E680" s="4"/>
       <c r="F680" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H680" s="7"/>
     </row>
@@ -10367,7 +10457,7 @@
       <c r="E681" s="4"/>
       <c r="F681" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H681" s="7"/>
     </row>
@@ -10381,7 +10471,7 @@
       <c r="E682" s="4"/>
       <c r="F682" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H682" s="7"/>
     </row>
@@ -10395,7 +10485,7 @@
       <c r="E683" s="4"/>
       <c r="F683" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H683" s="7"/>
     </row>
@@ -10409,7 +10499,7 @@
       <c r="E684" s="4"/>
       <c r="F684" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H684" s="7"/>
     </row>
@@ -10423,7 +10513,7 @@
       <c r="E685" s="4"/>
       <c r="F685" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H685" s="7"/>
     </row>
@@ -10437,7 +10527,7 @@
       <c r="E686" s="4"/>
       <c r="F686" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H686" s="7"/>
     </row>
@@ -10451,7 +10541,7 @@
       <c r="E687" s="4"/>
       <c r="F687" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H687" s="7"/>
     </row>
@@ -10465,7 +10555,7 @@
       <c r="E688" s="4"/>
       <c r="F688" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H688" s="7"/>
     </row>
@@ -10479,7 +10569,7 @@
       <c r="E689" s="4"/>
       <c r="F689" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H689" s="7"/>
     </row>
@@ -10493,7 +10583,7 @@
       <c r="E690" s="4"/>
       <c r="F690" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H690" s="7"/>
     </row>
@@ -10507,7 +10597,7 @@
       <c r="E691" s="4"/>
       <c r="F691" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H691" s="7"/>
     </row>
@@ -10521,7 +10611,7 @@
       <c r="E692" s="4"/>
       <c r="F692" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H692" s="7"/>
     </row>
@@ -10535,7 +10625,7 @@
       <c r="E693" s="4"/>
       <c r="F693" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H693" s="7"/>
     </row>
@@ -10549,7 +10639,7 @@
       <c r="E694" s="4"/>
       <c r="F694" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H694" s="7"/>
     </row>
@@ -10563,7 +10653,7 @@
       <c r="E695" s="4"/>
       <c r="F695" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H695" s="7"/>
     </row>
@@ -10577,7 +10667,7 @@
       <c r="E696" s="4"/>
       <c r="F696" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H696" s="7"/>
     </row>
@@ -10591,7 +10681,7 @@
       <c r="E697" s="4"/>
       <c r="F697" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H697" s="7"/>
     </row>
@@ -10605,7 +10695,7 @@
       <c r="E698" s="4"/>
       <c r="F698" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H698" s="7"/>
     </row>
@@ -10619,7 +10709,7 @@
       <c r="E699" s="4"/>
       <c r="F699" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H699" s="7"/>
     </row>
@@ -10633,7 +10723,7 @@
       <c r="E700" s="4"/>
       <c r="F700" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H700" s="7"/>
     </row>
@@ -10647,7 +10737,7 @@
       <c r="E701" s="4"/>
       <c r="F701" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H701" s="7"/>
     </row>
@@ -10661,7 +10751,7 @@
       <c r="E702" s="4"/>
       <c r="F702" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H702" s="7"/>
     </row>
@@ -10675,7 +10765,7 @@
       <c r="E703" s="4"/>
       <c r="F703" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H703" s="7"/>
     </row>
@@ -10689,7 +10779,7 @@
       <c r="E704" s="4"/>
       <c r="F704" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H704" s="7"/>
     </row>
@@ -10703,7 +10793,7 @@
       <c r="E705" s="4"/>
       <c r="F705" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H705" s="7"/>
     </row>
@@ -10719,7 +10809,7 @@
       <c r="E706" s="4"/>
       <c r="F706" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G706" s="6" t="s">
         <v>11</v>
@@ -10738,7 +10828,7 @@
       <c r="E707" s="4"/>
       <c r="F707" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G707" s="6" t="s">
         <v>10</v>
@@ -10757,7 +10847,7 @@
       <c r="E708" s="4"/>
       <c r="F708" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H708" s="7"/>
     </row>
@@ -10773,7 +10863,7 @@
       <c r="E709" s="4"/>
       <c r="F709" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G709" s="6" t="s">
         <v>9</v>
@@ -10795,7 +10885,7 @@
       <c r="E710" s="4"/>
       <c r="F710" s="7">
         <f t="shared" si="21"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G710" s="6" t="s">
         <v>6</v>
@@ -10814,7 +10904,7 @@
       <c r="E711" s="4"/>
       <c r="F711" s="7">
         <f t="shared" ref="F711:F717" si="23">$E$3/$E$2</f>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G711" s="6" t="s">
         <v>7</v>
@@ -10833,7 +10923,7 @@
       <c r="E712" s="4"/>
       <c r="F712" s="7">
         <f t="shared" si="23"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="G712" s="6" t="s">
         <v>8</v>
@@ -10852,7 +10942,7 @@
       <c r="E713" s="4"/>
       <c r="F713" s="7">
         <f t="shared" si="23"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H713" s="7"/>
     </row>
@@ -10868,7 +10958,7 @@
       <c r="E714" s="4"/>
       <c r="F714" s="7">
         <f t="shared" si="23"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H714" s="7"/>
     </row>
@@ -10884,7 +10974,7 @@
       <c r="E715" s="4"/>
       <c r="F715" s="7">
         <f t="shared" si="23"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H715" s="7"/>
     </row>
@@ -10900,7 +10990,7 @@
       <c r="E716" s="4"/>
       <c r="F716" s="7">
         <f t="shared" si="23"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H716" s="7"/>
     </row>
@@ -10916,7 +11006,7 @@
       <c r="E717" s="4"/>
       <c r="F717" s="7">
         <f t="shared" si="23"/>
-        <v>7.3033707865168537E-2</v>
+        <v>8.7078651685393263E-2</v>
       </c>
       <c r="H717" s="7"/>
     </row>

--- a/背题.xlsx
+++ b/背题.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,129 @@
     <t>To list all backups that had aged beyond the RMAN retention criteria</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">report schema command not provide：last backup for datafiles and tempfiles &amp; Checkpoint SCN </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The physical backup set pieces are missing from the media.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE:tablespace point-in-time recovery is possible only with RMAN.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recover tablespace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active database duplication:No backup is required.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set oracle_sid=orcl rman target=sys/robert auxname=sys/Robert@orcl2 duplicate target database to neworcl from active database</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 database instances are used during a database-duplication process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reset database to incarnation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_PITR_CHECK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pieces available→restore spfile→ctrlfile →recover→open resetlogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recover tablespace users until time ,,10/06/2008:22:42:00 auxiliary destination ,,c:\oracle\auxiliary;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE：you can perform an active database duplication when the database is in 
+NOARCHIVELOG mode.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There is not a current backup of the database available.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_file_name_convert</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOARCHIVELOG mode &amp; No backup is required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_PITR_OBJECTS_TO_BE_DROPPED</t>
+  </si>
+  <si>
+    <t>You must perform the TSPITR recovery of both tablespaces for it to be successful.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To indicate the location of the auxiliary-instance database datafiles.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The SQL Tuning Advisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The tablespace cannot be duplicated or restored to the point in time before the duplication.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list incarnation of database</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The datafiles have an OFFLINE status.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flashback Query &amp; TABLE &amp; Transaction Processing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logical container &amp; stored in the tablespace in which they were created.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flashback Transaction Query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRANT SELECT ANY TRANSACTION TO ARREN;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The undo tablespace is not set to auto-extend.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable Supplemental Logging &amp; version 10.0 compatibility. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The application user has exceeded their undo quota.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -283,14 +406,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -395,8 +518,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -404,7 +527,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -690,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="C352" sqref="C352:C355"/>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="C376" sqref="C376:C384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -716,7 +839,7 @@
     <row r="3" spans="2:8">
       <c r="E3">
         <f>COUNTA($C$6:$C$717)</f>
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F3" s="7"/>
       <c r="H3" s="7"/>
@@ -751,7 +874,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="7">
         <f>$E$3/$E$2</f>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -765,7 +888,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="7">
         <f t="shared" ref="F7:F70" si="1">$E$3/$E$2</f>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -779,7 +902,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H8" s="7"/>
     </row>
@@ -793,7 +916,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -807,7 +930,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -821,7 +944,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -835,7 +958,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H12" s="7"/>
     </row>
@@ -849,7 +972,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H13" s="7"/>
     </row>
@@ -863,7 +986,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -877,7 +1000,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H15" s="7"/>
     </row>
@@ -891,7 +1014,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -905,7 +1028,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H17" s="7"/>
     </row>
@@ -919,7 +1042,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H18" s="7"/>
     </row>
@@ -933,7 +1056,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H19" s="7"/>
     </row>
@@ -947,7 +1070,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H20" s="7"/>
     </row>
@@ -961,7 +1084,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H21" s="7"/>
     </row>
@@ -975,7 +1098,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H22" s="7"/>
     </row>
@@ -989,7 +1112,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H23" s="7"/>
     </row>
@@ -1003,7 +1126,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H24" s="7"/>
     </row>
@@ -1017,7 +1140,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H25" s="7"/>
     </row>
@@ -1031,7 +1154,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H26" s="7"/>
     </row>
@@ -1045,7 +1168,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H27" s="7"/>
     </row>
@@ -1059,7 +1182,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H28" s="7"/>
     </row>
@@ -1073,7 +1196,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H29" s="7"/>
     </row>
@@ -1087,7 +1210,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H30" s="7"/>
     </row>
@@ -1101,7 +1224,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H31" s="7"/>
     </row>
@@ -1115,7 +1238,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H32" s="7"/>
     </row>
@@ -1129,7 +1252,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H33" s="7"/>
     </row>
@@ -1143,7 +1266,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H34" s="7"/>
     </row>
@@ -1157,7 +1280,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H35" s="7"/>
     </row>
@@ -1171,7 +1294,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H36" s="7"/>
     </row>
@@ -1185,7 +1308,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H37" s="7"/>
     </row>
@@ -1199,7 +1322,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H38" s="7"/>
     </row>
@@ -1213,7 +1336,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H39" s="7"/>
     </row>
@@ -1227,7 +1350,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H40" s="7"/>
     </row>
@@ -1241,7 +1364,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H41" s="7"/>
     </row>
@@ -1255,7 +1378,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H42" s="7"/>
     </row>
@@ -1269,7 +1392,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H43" s="7"/>
     </row>
@@ -1283,7 +1406,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H44" s="7"/>
     </row>
@@ -1297,7 +1420,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H45" s="7"/>
     </row>
@@ -1311,7 +1434,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H46" s="7"/>
     </row>
@@ -1325,7 +1448,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H47" s="7"/>
     </row>
@@ -1339,7 +1462,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H48" s="7"/>
     </row>
@@ -1353,7 +1476,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H49" s="7"/>
     </row>
@@ -1367,7 +1490,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -1381,7 +1504,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H51" s="7"/>
     </row>
@@ -1395,7 +1518,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H52" s="7"/>
     </row>
@@ -1409,7 +1532,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H53" s="7"/>
     </row>
@@ -1423,7 +1546,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -1437,7 +1560,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -1451,7 +1574,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H56" s="7"/>
     </row>
@@ -1465,7 +1588,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H57" s="7"/>
     </row>
@@ -1479,7 +1602,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H58" s="7"/>
     </row>
@@ -1493,7 +1616,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H59" s="7"/>
     </row>
@@ -1507,7 +1630,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H60" s="7"/>
     </row>
@@ -1521,7 +1644,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H61" s="7"/>
     </row>
@@ -1535,7 +1658,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H62" s="7"/>
     </row>
@@ -1549,7 +1672,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H63" s="7"/>
     </row>
@@ -1563,7 +1686,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H64" s="7"/>
     </row>
@@ -1577,7 +1700,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H65" s="7"/>
     </row>
@@ -1591,7 +1714,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H66" s="7"/>
     </row>
@@ -1605,7 +1728,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H67" s="7"/>
     </row>
@@ -1619,7 +1742,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H68" s="7"/>
     </row>
@@ -1633,7 +1756,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H69" s="7"/>
     </row>
@@ -1647,7 +1770,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="7">
         <f t="shared" si="1"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H70" s="7"/>
     </row>
@@ -1661,7 +1784,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="7">
         <f t="shared" ref="F71:F134" si="3">$E$3/$E$2</f>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H71" s="7"/>
     </row>
@@ -1675,7 +1798,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H72" s="7"/>
     </row>
@@ -1689,7 +1812,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H73" s="7"/>
     </row>
@@ -1703,7 +1826,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H74" s="7"/>
     </row>
@@ -1717,7 +1840,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H75" s="7"/>
     </row>
@@ -1731,7 +1854,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H76" s="7"/>
     </row>
@@ -1745,7 +1868,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H77" s="7"/>
     </row>
@@ -1759,7 +1882,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H78" s="7"/>
     </row>
@@ -1773,7 +1896,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H79" s="7"/>
     </row>
@@ -1787,7 +1910,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H80" s="7"/>
     </row>
@@ -1801,7 +1924,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H81" s="7"/>
     </row>
@@ -1815,7 +1938,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H82" s="7"/>
     </row>
@@ -1829,7 +1952,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H83" s="7"/>
     </row>
@@ -1843,7 +1966,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H84" s="7"/>
     </row>
@@ -1857,7 +1980,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H85" s="7"/>
     </row>
@@ -1871,7 +1994,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H86" s="7"/>
     </row>
@@ -1885,7 +2008,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H87" s="7"/>
     </row>
@@ -1899,7 +2022,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H88" s="7"/>
     </row>
@@ -1913,7 +2036,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H89" s="7"/>
     </row>
@@ -1927,7 +2050,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H90" s="7"/>
     </row>
@@ -1941,7 +2064,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H91" s="7"/>
     </row>
@@ -1955,7 +2078,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H92" s="7"/>
     </row>
@@ -1969,7 +2092,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H93" s="7"/>
     </row>
@@ -1983,7 +2106,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H94" s="7"/>
     </row>
@@ -1997,7 +2120,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H95" s="7"/>
     </row>
@@ -2011,7 +2134,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H96" s="7"/>
     </row>
@@ -2025,7 +2148,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H97" s="7"/>
     </row>
@@ -2039,7 +2162,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H98" s="7"/>
     </row>
@@ -2053,7 +2176,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H99" s="7"/>
     </row>
@@ -2067,7 +2190,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H100" s="7"/>
     </row>
@@ -2081,7 +2204,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H101" s="7"/>
     </row>
@@ -2095,7 +2218,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H102" s="7"/>
     </row>
@@ -2109,7 +2232,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H103" s="7"/>
     </row>
@@ -2123,7 +2246,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H104" s="7"/>
     </row>
@@ -2137,7 +2260,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H105" s="7"/>
     </row>
@@ -2151,7 +2274,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H106" s="7"/>
     </row>
@@ -2165,7 +2288,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H107" s="7"/>
     </row>
@@ -2179,7 +2302,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H108" s="7"/>
     </row>
@@ -2193,7 +2316,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H109" s="7"/>
     </row>
@@ -2207,7 +2330,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H110" s="7"/>
     </row>
@@ -2221,7 +2344,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H111" s="7"/>
     </row>
@@ -2235,7 +2358,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H112" s="7"/>
     </row>
@@ -2249,7 +2372,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H113" s="7"/>
     </row>
@@ -2263,7 +2386,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H114" s="7"/>
     </row>
@@ -2277,7 +2400,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H115" s="7"/>
     </row>
@@ -2291,7 +2414,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H116" s="7"/>
     </row>
@@ -2305,7 +2428,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H117" s="7"/>
     </row>
@@ -2319,7 +2442,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H118" s="7"/>
     </row>
@@ -2333,7 +2456,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H119" s="7"/>
     </row>
@@ -2347,7 +2470,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H120" s="7"/>
     </row>
@@ -2361,7 +2484,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H121" s="7"/>
     </row>
@@ -2375,7 +2498,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H122" s="7"/>
     </row>
@@ -2389,7 +2512,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H123" s="7"/>
     </row>
@@ -2403,7 +2526,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H124" s="7"/>
     </row>
@@ -2417,7 +2540,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H125" s="7"/>
     </row>
@@ -2431,7 +2554,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H126" s="7"/>
     </row>
@@ -2445,7 +2568,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H127" s="7"/>
     </row>
@@ -2459,7 +2582,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H128" s="7"/>
     </row>
@@ -2473,7 +2596,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H129" s="7"/>
     </row>
@@ -2487,7 +2610,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H130" s="7"/>
     </row>
@@ -2501,7 +2624,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H131" s="7"/>
     </row>
@@ -2515,7 +2638,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H132" s="7"/>
     </row>
@@ -2529,7 +2652,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H133" s="7"/>
     </row>
@@ -2543,7 +2666,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="7">
         <f t="shared" si="3"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H134" s="7"/>
     </row>
@@ -2557,7 +2680,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="7">
         <f t="shared" ref="F135:F198" si="5">$E$3/$E$2</f>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H135" s="7"/>
     </row>
@@ -2571,7 +2694,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H136" s="7"/>
     </row>
@@ -2585,7 +2708,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H137" s="7"/>
     </row>
@@ -2599,7 +2722,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H138" s="7"/>
     </row>
@@ -2613,7 +2736,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H139" s="7"/>
     </row>
@@ -2627,7 +2750,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H140" s="7"/>
     </row>
@@ -2641,7 +2764,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H141" s="7"/>
     </row>
@@ -2655,7 +2778,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H142" s="7"/>
     </row>
@@ -2669,7 +2792,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H143" s="7"/>
     </row>
@@ -2683,7 +2806,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H144" s="7"/>
     </row>
@@ -2697,7 +2820,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H145" s="7"/>
     </row>
@@ -2711,7 +2834,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H146" s="7"/>
     </row>
@@ -2725,7 +2848,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H147" s="7"/>
     </row>
@@ -2739,7 +2862,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H148" s="7"/>
     </row>
@@ -2753,7 +2876,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H149" s="7"/>
     </row>
@@ -2767,7 +2890,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H150" s="7"/>
     </row>
@@ -2781,7 +2904,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H151" s="7"/>
     </row>
@@ -2795,7 +2918,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H152" s="7"/>
     </row>
@@ -2809,7 +2932,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H153" s="7"/>
     </row>
@@ -2823,7 +2946,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H154" s="7"/>
     </row>
@@ -2837,7 +2960,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H155" s="7"/>
     </row>
@@ -2851,7 +2974,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H156" s="7"/>
     </row>
@@ -2865,7 +2988,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H157" s="7"/>
     </row>
@@ -2879,7 +3002,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H158" s="7"/>
     </row>
@@ -2893,7 +3016,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H159" s="7"/>
     </row>
@@ -2907,7 +3030,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H160" s="7"/>
     </row>
@@ -2921,7 +3044,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H161" s="7"/>
     </row>
@@ -2935,7 +3058,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H162" s="7"/>
     </row>
@@ -2949,7 +3072,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H163" s="7"/>
     </row>
@@ -2963,7 +3086,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H164" s="7"/>
     </row>
@@ -2977,7 +3100,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H165" s="7"/>
     </row>
@@ -2991,7 +3114,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H166" s="7"/>
     </row>
@@ -3005,7 +3128,7 @@
       <c r="E167" s="4"/>
       <c r="F167" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H167" s="7"/>
     </row>
@@ -3019,7 +3142,7 @@
       <c r="E168" s="4"/>
       <c r="F168" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H168" s="7"/>
     </row>
@@ -3033,7 +3156,7 @@
       <c r="E169" s="4"/>
       <c r="F169" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H169" s="7"/>
     </row>
@@ -3047,7 +3170,7 @@
       <c r="E170" s="4"/>
       <c r="F170" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H170" s="7"/>
     </row>
@@ -3061,7 +3184,7 @@
       <c r="E171" s="4"/>
       <c r="F171" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H171" s="7"/>
     </row>
@@ -3075,7 +3198,7 @@
       <c r="E172" s="4"/>
       <c r="F172" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H172" s="7"/>
     </row>
@@ -3089,7 +3212,7 @@
       <c r="E173" s="4"/>
       <c r="F173" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H173" s="7"/>
     </row>
@@ -3103,7 +3226,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H174" s="7"/>
     </row>
@@ -3117,7 +3240,7 @@
       <c r="E175" s="4"/>
       <c r="F175" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H175" s="7"/>
     </row>
@@ -3131,7 +3254,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H176" s="7"/>
     </row>
@@ -3145,7 +3268,7 @@
       <c r="E177" s="4"/>
       <c r="F177" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H177" s="7"/>
     </row>
@@ -3159,7 +3282,7 @@
       <c r="E178" s="4"/>
       <c r="F178" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H178" s="7"/>
     </row>
@@ -3173,7 +3296,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H179" s="7"/>
     </row>
@@ -3187,7 +3310,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H180" s="7"/>
     </row>
@@ -3201,7 +3324,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H181" s="7"/>
     </row>
@@ -3215,7 +3338,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H182" s="7"/>
     </row>
@@ -3229,7 +3352,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H183" s="7"/>
     </row>
@@ -3243,7 +3366,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H184" s="7"/>
     </row>
@@ -3257,7 +3380,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H185" s="7"/>
     </row>
@@ -3271,7 +3394,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H186" s="7"/>
     </row>
@@ -3285,7 +3408,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H187" s="7"/>
     </row>
@@ -3299,7 +3422,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H188" s="7"/>
     </row>
@@ -3313,7 +3436,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H189" s="7"/>
     </row>
@@ -3327,7 +3450,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H190" s="7"/>
     </row>
@@ -3341,7 +3464,7 @@
       <c r="E191" s="4"/>
       <c r="F191" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H191" s="7"/>
     </row>
@@ -3355,7 +3478,7 @@
       <c r="E192" s="4"/>
       <c r="F192" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H192" s="7"/>
     </row>
@@ -3369,7 +3492,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H193" s="7"/>
     </row>
@@ -3383,7 +3506,7 @@
       <c r="E194" s="4"/>
       <c r="F194" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H194" s="7"/>
     </row>
@@ -3397,7 +3520,7 @@
       <c r="E195" s="4"/>
       <c r="F195" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H195" s="7"/>
     </row>
@@ -3411,7 +3534,7 @@
       <c r="E196" s="4"/>
       <c r="F196" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H196" s="7"/>
     </row>
@@ -3425,7 +3548,7 @@
       <c r="E197" s="4"/>
       <c r="F197" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H197" s="7"/>
     </row>
@@ -3439,7 +3562,7 @@
       <c r="E198" s="4"/>
       <c r="F198" s="7">
         <f t="shared" si="5"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H198" s="7"/>
     </row>
@@ -3453,7 +3576,7 @@
       <c r="E199" s="4"/>
       <c r="F199" s="7">
         <f t="shared" ref="F199:F262" si="7">$E$3/$E$2</f>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H199" s="7"/>
     </row>
@@ -3467,7 +3590,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H200" s="7"/>
     </row>
@@ -3481,7 +3604,7 @@
       <c r="E201" s="4"/>
       <c r="F201" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H201" s="7"/>
     </row>
@@ -3495,7 +3618,7 @@
       <c r="E202" s="4"/>
       <c r="F202" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H202" s="7"/>
     </row>
@@ -3509,7 +3632,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H203" s="7"/>
     </row>
@@ -3523,7 +3646,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H204" s="7"/>
     </row>
@@ -3537,7 +3660,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H205" s="7"/>
     </row>
@@ -3551,7 +3674,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H206" s="7"/>
     </row>
@@ -3565,7 +3688,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H207" s="7"/>
     </row>
@@ -3579,7 +3702,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H208" s="7"/>
     </row>
@@ -3593,7 +3716,7 @@
       <c r="E209" s="4"/>
       <c r="F209" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H209" s="7"/>
     </row>
@@ -3607,7 +3730,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H210" s="7"/>
     </row>
@@ -3621,7 +3744,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H211" s="7"/>
     </row>
@@ -3635,7 +3758,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H212" s="7"/>
     </row>
@@ -3649,7 +3772,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H213" s="7"/>
     </row>
@@ -3663,7 +3786,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H214" s="7"/>
     </row>
@@ -3677,7 +3800,7 @@
       <c r="E215" s="4"/>
       <c r="F215" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H215" s="7"/>
     </row>
@@ -3691,7 +3814,7 @@
       <c r="E216" s="4"/>
       <c r="F216" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H216" s="7"/>
     </row>
@@ -3705,7 +3828,7 @@
       <c r="E217" s="4"/>
       <c r="F217" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H217" s="7"/>
     </row>
@@ -3719,7 +3842,7 @@
       <c r="E218" s="4"/>
       <c r="F218" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H218" s="7"/>
     </row>
@@ -3733,7 +3856,7 @@
       <c r="E219" s="4"/>
       <c r="F219" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H219" s="7"/>
     </row>
@@ -3747,7 +3870,7 @@
       <c r="E220" s="4"/>
       <c r="F220" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H220" s="7"/>
     </row>
@@ -3761,7 +3884,7 @@
       <c r="E221" s="4"/>
       <c r="F221" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H221" s="7"/>
     </row>
@@ -3775,7 +3898,7 @@
       <c r="E222" s="4"/>
       <c r="F222" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H222" s="7"/>
     </row>
@@ -3789,7 +3912,7 @@
       <c r="E223" s="4"/>
       <c r="F223" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H223" s="7"/>
     </row>
@@ -3803,7 +3926,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H224" s="7"/>
     </row>
@@ -3817,7 +3940,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H225" s="7"/>
     </row>
@@ -3831,7 +3954,7 @@
       <c r="E226" s="4"/>
       <c r="F226" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H226" s="7"/>
     </row>
@@ -3845,7 +3968,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H227" s="7"/>
     </row>
@@ -3859,7 +3982,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H228" s="7"/>
     </row>
@@ -3873,7 +3996,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H229" s="7"/>
     </row>
@@ -3887,7 +4010,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H230" s="7"/>
     </row>
@@ -3901,7 +4024,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H231" s="7"/>
     </row>
@@ -3915,7 +4038,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H232" s="7"/>
     </row>
@@ -3929,7 +4052,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H233" s="7"/>
     </row>
@@ -3943,7 +4066,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H234" s="7"/>
     </row>
@@ -3957,7 +4080,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H235" s="7"/>
     </row>
@@ -3971,7 +4094,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H236" s="7"/>
     </row>
@@ -3985,7 +4108,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H237" s="7"/>
     </row>
@@ -3999,7 +4122,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H238" s="7"/>
     </row>
@@ -4013,7 +4136,7 @@
       <c r="E239" s="4"/>
       <c r="F239" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H239" s="7"/>
     </row>
@@ -4027,7 +4150,7 @@
       <c r="E240" s="4"/>
       <c r="F240" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H240" s="7"/>
     </row>
@@ -4041,7 +4164,7 @@
       <c r="E241" s="4"/>
       <c r="F241" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H241" s="7"/>
     </row>
@@ -4055,7 +4178,7 @@
       <c r="E242" s="4"/>
       <c r="F242" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H242" s="7"/>
     </row>
@@ -4069,7 +4192,7 @@
       <c r="E243" s="4"/>
       <c r="F243" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H243" s="7"/>
     </row>
@@ -4083,7 +4206,7 @@
       <c r="E244" s="4"/>
       <c r="F244" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H244" s="7"/>
     </row>
@@ -4097,7 +4220,7 @@
       <c r="E245" s="4"/>
       <c r="F245" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H245" s="7"/>
     </row>
@@ -4111,7 +4234,7 @@
       <c r="E246" s="4"/>
       <c r="F246" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H246" s="7"/>
     </row>
@@ -4125,7 +4248,7 @@
       <c r="E247" s="4"/>
       <c r="F247" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H247" s="7"/>
     </row>
@@ -4139,7 +4262,7 @@
       <c r="E248" s="4"/>
       <c r="F248" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H248" s="7"/>
     </row>
@@ -4153,7 +4276,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H249" s="7"/>
     </row>
@@ -4167,7 +4290,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H250" s="7"/>
     </row>
@@ -4181,7 +4304,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H251" s="7"/>
     </row>
@@ -4195,7 +4318,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H252" s="7"/>
     </row>
@@ -4209,7 +4332,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H253" s="7"/>
     </row>
@@ -4223,7 +4346,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H254" s="7"/>
     </row>
@@ -4237,7 +4360,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H255" s="7"/>
     </row>
@@ -4251,7 +4374,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H256" s="7"/>
     </row>
@@ -4265,7 +4388,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H257" s="7"/>
     </row>
@@ -4279,7 +4402,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H258" s="7"/>
     </row>
@@ -4293,7 +4416,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H259" s="7"/>
     </row>
@@ -4307,7 +4430,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H260" s="7"/>
     </row>
@@ -4321,7 +4444,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H261" s="7"/>
     </row>
@@ -4335,7 +4458,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="7">
         <f t="shared" si="7"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H262" s="7"/>
     </row>
@@ -4349,7 +4472,7 @@
       <c r="E263" s="4"/>
       <c r="F263" s="7">
         <f t="shared" ref="F263:F326" si="9">$E$3/$E$2</f>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H263" s="7"/>
     </row>
@@ -4363,7 +4486,7 @@
       <c r="E264" s="4"/>
       <c r="F264" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H264" s="7"/>
     </row>
@@ -4377,7 +4500,7 @@
       <c r="E265" s="4"/>
       <c r="F265" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H265" s="7"/>
     </row>
@@ -4391,7 +4514,7 @@
       <c r="E266" s="4"/>
       <c r="F266" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H266" s="7"/>
     </row>
@@ -4405,7 +4528,7 @@
       <c r="E267" s="4"/>
       <c r="F267" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H267" s="7"/>
     </row>
@@ -4419,7 +4542,7 @@
       <c r="E268" s="4"/>
       <c r="F268" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H268" s="7"/>
     </row>
@@ -4433,7 +4556,7 @@
       <c r="E269" s="4"/>
       <c r="F269" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H269" s="7"/>
     </row>
@@ -4447,7 +4570,7 @@
       <c r="E270" s="4"/>
       <c r="F270" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H270" s="7"/>
     </row>
@@ -4461,7 +4584,7 @@
       <c r="E271" s="4"/>
       <c r="F271" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H271" s="7"/>
     </row>
@@ -4475,7 +4598,7 @@
       <c r="E272" s="4"/>
       <c r="F272" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H272" s="7"/>
     </row>
@@ -4489,7 +4612,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H273" s="7"/>
     </row>
@@ -4503,7 +4626,7 @@
       <c r="E274" s="4"/>
       <c r="F274" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H274" s="7"/>
     </row>
@@ -4517,7 +4640,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H275" s="7"/>
     </row>
@@ -4531,7 +4654,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H276" s="7"/>
     </row>
@@ -4545,7 +4668,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H277" s="7"/>
     </row>
@@ -4559,7 +4682,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H278" s="7"/>
     </row>
@@ -4573,7 +4696,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H279" s="7"/>
     </row>
@@ -4587,7 +4710,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H280" s="7"/>
     </row>
@@ -4601,7 +4724,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H281" s="7"/>
     </row>
@@ -4615,7 +4738,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H282" s="7"/>
     </row>
@@ -4629,7 +4752,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H283" s="7"/>
     </row>
@@ -4643,7 +4766,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H284" s="7"/>
     </row>
@@ -4657,7 +4780,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H285" s="7"/>
     </row>
@@ -4671,7 +4794,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H286" s="7"/>
     </row>
@@ -4685,7 +4808,7 @@
       <c r="E287" s="4"/>
       <c r="F287" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H287" s="7"/>
     </row>
@@ -4699,7 +4822,7 @@
       <c r="E288" s="4"/>
       <c r="F288" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H288" s="7"/>
     </row>
@@ -4713,7 +4836,7 @@
       <c r="E289" s="4"/>
       <c r="F289" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H289" s="7"/>
     </row>
@@ -4727,7 +4850,7 @@
       <c r="E290" s="4"/>
       <c r="F290" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H290" s="7"/>
     </row>
@@ -4741,7 +4864,7 @@
       <c r="E291" s="4"/>
       <c r="F291" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H291" s="7"/>
     </row>
@@ -4755,7 +4878,7 @@
       <c r="E292" s="4"/>
       <c r="F292" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H292" s="7"/>
     </row>
@@ -4769,7 +4892,7 @@
       <c r="E293" s="4"/>
       <c r="F293" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H293" s="7"/>
     </row>
@@ -4783,7 +4906,7 @@
       <c r="E294" s="4"/>
       <c r="F294" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H294" s="7"/>
     </row>
@@ -4797,7 +4920,7 @@
       <c r="E295" s="4"/>
       <c r="F295" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H295" s="7"/>
     </row>
@@ -4811,7 +4934,7 @@
       <c r="E296" s="4"/>
       <c r="F296" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H296" s="7"/>
     </row>
@@ -4825,7 +4948,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H297" s="7"/>
     </row>
@@ -4839,7 +4962,7 @@
       <c r="E298" s="4"/>
       <c r="F298" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H298" s="7"/>
     </row>
@@ -4853,7 +4976,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H299" s="7"/>
     </row>
@@ -4867,7 +4990,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H300" s="7"/>
     </row>
@@ -4881,7 +5004,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H301" s="7"/>
     </row>
@@ -4895,7 +5018,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H302" s="7"/>
     </row>
@@ -4909,7 +5032,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H303" s="7"/>
     </row>
@@ -4923,7 +5046,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H304" s="7"/>
     </row>
@@ -4937,7 +5060,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H305" s="7"/>
     </row>
@@ -4953,7 +5076,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G306" s="6" t="s">
         <v>13</v>
@@ -4972,7 +5095,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G307" s="6" t="s">
         <v>14</v>
@@ -4991,7 +5114,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G308" s="6" t="s">
         <v>15</v>
@@ -5010,7 +5133,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G309" s="6" t="s">
         <v>16</v>
@@ -5029,7 +5152,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G310" s="6" t="s">
         <v>17</v>
@@ -5048,7 +5171,7 @@
       <c r="E311" s="4"/>
       <c r="F311" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G311" s="6" t="s">
         <v>18</v>
@@ -5067,7 +5190,7 @@
       <c r="E312" s="4"/>
       <c r="F312" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G312" s="6" t="s">
         <v>19</v>
@@ -5086,7 +5209,7 @@
       <c r="E313" s="4"/>
       <c r="F313" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G313" s="6" t="s">
         <v>20</v>
@@ -5105,7 +5228,7 @@
       <c r="E314" s="4"/>
       <c r="F314" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G314" s="6" t="s">
         <v>21</v>
@@ -5124,7 +5247,7 @@
       <c r="E315" s="4"/>
       <c r="F315" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G315" s="6" t="s">
         <v>22</v>
@@ -5143,7 +5266,7 @@
       <c r="E316" s="4"/>
       <c r="F316" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G316" s="6" t="s">
         <v>24</v>
@@ -5162,7 +5285,7 @@
       <c r="E317" s="4"/>
       <c r="F317" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G317" s="8" t="s">
         <v>23</v>
@@ -5181,7 +5304,7 @@
       <c r="E318" s="4"/>
       <c r="F318" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>25</v>
@@ -5200,7 +5323,7 @@
       <c r="E319" s="4"/>
       <c r="F319" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G319" s="6" t="s">
         <v>26</v>
@@ -5219,7 +5342,7 @@
       <c r="E320" s="4"/>
       <c r="F320" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G320" s="6" t="s">
         <v>27</v>
@@ -5238,7 +5361,7 @@
       <c r="E321" s="4"/>
       <c r="F321" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G321" s="6" t="s">
         <v>28</v>
@@ -5257,7 +5380,7 @@
       <c r="E322" s="4"/>
       <c r="F322" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G322" s="6" t="s">
         <v>29</v>
@@ -5276,7 +5399,7 @@
       <c r="E323" s="4"/>
       <c r="F323" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G323" s="6" t="s">
         <v>30</v>
@@ -5295,7 +5418,7 @@
       <c r="E324" s="4"/>
       <c r="F324" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G324" s="6" t="s">
         <v>31</v>
@@ -5314,7 +5437,7 @@
       <c r="E325" s="4"/>
       <c r="F325" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G325" s="6" t="s">
         <v>32</v>
@@ -5333,7 +5456,7 @@
       <c r="E326" s="4"/>
       <c r="F326" s="7">
         <f t="shared" si="9"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G326" s="6" t="s">
         <v>33</v>
@@ -5352,7 +5475,7 @@
       <c r="E327" s="4"/>
       <c r="F327" s="7">
         <f t="shared" ref="F327:F390" si="11">$E$3/$E$2</f>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G327" s="6" t="s">
         <v>34</v>
@@ -5371,7 +5494,7 @@
       <c r="E328" s="4"/>
       <c r="F328" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G328" s="6" t="s">
         <v>35</v>
@@ -5390,7 +5513,7 @@
       <c r="E329" s="4"/>
       <c r="F329" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G329" s="6" t="s">
         <v>36</v>
@@ -5409,7 +5532,7 @@
       <c r="E330" s="4"/>
       <c r="F330" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G330" s="6" t="s">
         <v>37</v>
@@ -5431,7 +5554,7 @@
       <c r="E331" s="4"/>
       <c r="F331" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G331" s="6" t="s">
         <v>38</v>
@@ -5450,7 +5573,7 @@
       <c r="E332" s="4"/>
       <c r="F332" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G332" s="6" t="s">
         <v>40</v>
@@ -5469,7 +5592,7 @@
       <c r="E333" s="4"/>
       <c r="F333" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G333" s="6" t="s">
         <v>41</v>
@@ -5488,7 +5611,7 @@
       <c r="E334" s="4"/>
       <c r="F334" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G334" s="6" t="s">
         <v>42</v>
@@ -5507,7 +5630,7 @@
       <c r="E335" s="4"/>
       <c r="F335" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G335" s="6" t="s">
         <v>43</v>
@@ -5526,7 +5649,7 @@
       <c r="E336" s="4"/>
       <c r="F336" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G336" s="6" t="s">
         <v>44</v>
@@ -5545,7 +5668,7 @@
       <c r="E337" s="4"/>
       <c r="F337" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G337" s="6" t="s">
         <v>45</v>
@@ -5564,7 +5687,7 @@
       <c r="E338" s="4"/>
       <c r="F338" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G338" s="6" t="s">
         <v>46</v>
@@ -5583,7 +5706,7 @@
       <c r="E339" s="4"/>
       <c r="F339" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G339" s="6" t="s">
         <v>47</v>
@@ -5602,7 +5725,7 @@
       <c r="E340" s="4"/>
       <c r="F340" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G340" s="6" t="s">
         <v>48</v>
@@ -5621,7 +5744,7 @@
       <c r="E341" s="4"/>
       <c r="F341" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G341" s="6" t="s">
         <v>49</v>
@@ -5640,7 +5763,7 @@
       <c r="E342" s="4"/>
       <c r="F342" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G342" s="6" t="s">
         <v>50</v>
@@ -5662,7 +5785,7 @@
       <c r="E343" s="4"/>
       <c r="F343" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G343" s="6" t="s">
         <v>51</v>
@@ -5681,7 +5804,7 @@
       <c r="E344" s="4"/>
       <c r="F344" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G344" s="6" t="s">
         <v>52</v>
@@ -5700,7 +5823,7 @@
       <c r="E345" s="4"/>
       <c r="F345" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G345" s="6" t="s">
         <v>53</v>
@@ -5719,7 +5842,7 @@
       <c r="E346" s="4"/>
       <c r="F346" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G346" s="6" t="s">
         <v>54</v>
@@ -5738,7 +5861,7 @@
       <c r="E347" s="4"/>
       <c r="F347" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G347" s="6" t="s">
         <v>55</v>
@@ -5757,7 +5880,7 @@
       <c r="E348" s="4"/>
       <c r="F348" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G348" s="6" t="s">
         <v>56</v>
@@ -5776,7 +5899,7 @@
       <c r="E349" s="4"/>
       <c r="F349" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G349" s="6" t="s">
         <v>57</v>
@@ -5795,7 +5918,7 @@
       <c r="E350" s="4"/>
       <c r="F350" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G350" s="6" t="s">
         <v>58</v>
@@ -5814,7 +5937,7 @@
       <c r="E351" s="4"/>
       <c r="F351" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G351" s="6" t="s">
         <v>59</v>
@@ -5833,14 +5956,14 @@
       <c r="E352" s="4"/>
       <c r="F352" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G352" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H352" s="7"/>
     </row>
-    <row r="353" spans="2:8">
+    <row r="353" spans="1:8">
       <c r="B353" s="2">
         <f t="shared" si="10"/>
         <v>348</v>
@@ -5852,14 +5975,14 @@
       <c r="E353" s="4"/>
       <c r="F353" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G353" s="6" t="s">
         <v>61</v>
       </c>
       <c r="H353" s="7"/>
     </row>
-    <row r="354" spans="2:8">
+    <row r="354" spans="1:8">
       <c r="B354" s="2">
         <f t="shared" si="10"/>
         <v>349</v>
@@ -5871,14 +5994,14 @@
       <c r="E354" s="4"/>
       <c r="F354" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G354" s="6" t="s">
         <v>62</v>
       </c>
       <c r="H354" s="7"/>
     </row>
-    <row r="355" spans="2:8">
+    <row r="355" spans="1:8">
       <c r="B355" s="2">
         <f t="shared" si="10"/>
         <v>350</v>
@@ -5890,294 +6013,406 @@
       <c r="E355" s="4"/>
       <c r="F355" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G355" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H355" s="7"/>
     </row>
-    <row r="356" spans="2:8">
+    <row r="356" spans="1:8">
       <c r="B356" s="2">
         <f t="shared" si="10"/>
         <v>351</v>
       </c>
-      <c r="C356" s="4"/>
+      <c r="C356" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
       <c r="F356" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G356" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H356" s="7"/>
     </row>
-    <row r="357" spans="2:8">
+    <row r="357" spans="1:8">
       <c r="B357" s="2">
         <f t="shared" si="10"/>
         <v>352</v>
       </c>
-      <c r="C357" s="4"/>
+      <c r="C357" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
       <c r="F357" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G357" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="H357" s="7"/>
     </row>
-    <row r="358" spans="2:8">
+    <row r="358" spans="1:8">
       <c r="B358" s="2">
         <f t="shared" si="10"/>
         <v>353</v>
       </c>
-      <c r="C358" s="4"/>
+      <c r="C358" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
       <c r="F358" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G358" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="H358" s="7"/>
     </row>
-    <row r="359" spans="2:8">
+    <row r="359" spans="1:8">
       <c r="B359" s="2">
         <f t="shared" si="10"/>
         <v>354</v>
       </c>
-      <c r="C359" s="4"/>
+      <c r="C359" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
       <c r="F359" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G359" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="H359" s="7"/>
     </row>
-    <row r="360" spans="2:8">
+    <row r="360" spans="1:8">
       <c r="B360" s="2">
         <f t="shared" si="10"/>
         <v>355</v>
       </c>
-      <c r="C360" s="4"/>
+      <c r="C360" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
       <c r="F360" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G360" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="H360" s="7"/>
     </row>
-    <row r="361" spans="2:8">
+    <row r="361" spans="1:8">
+      <c r="A361" t="s">
+        <v>70</v>
+      </c>
       <c r="B361" s="2">
         <f t="shared" si="10"/>
         <v>356</v>
       </c>
-      <c r="C361" s="4"/>
+      <c r="C361" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
       <c r="F361" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G361" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="H361" s="7"/>
     </row>
-    <row r="362" spans="2:8">
+    <row r="362" spans="1:8">
       <c r="B362" s="2">
         <f t="shared" si="10"/>
         <v>357</v>
       </c>
-      <c r="C362" s="4"/>
+      <c r="C362" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
       <c r="F362" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G362" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="H362" s="7"/>
     </row>
-    <row r="363" spans="2:8">
+    <row r="363" spans="1:8">
+      <c r="A363" t="s">
+        <v>85</v>
+      </c>
       <c r="B363" s="2">
         <f t="shared" si="10"/>
         <v>358</v>
       </c>
-      <c r="C363" s="4"/>
+      <c r="C363" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
       <c r="F363" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G363" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="H363" s="7"/>
     </row>
-    <row r="364" spans="2:8">
+    <row r="364" spans="1:8">
       <c r="B364" s="2">
         <f t="shared" si="10"/>
         <v>359</v>
       </c>
-      <c r="C364" s="4"/>
+      <c r="C364" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
       <c r="F364" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G364" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="H364" s="7"/>
     </row>
-    <row r="365" spans="2:8">
+    <row r="365" spans="1:8">
       <c r="B365" s="2">
         <f t="shared" si="10"/>
         <v>360</v>
       </c>
-      <c r="C365" s="4"/>
+      <c r="C365" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
       <c r="F365" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G365" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="H365" s="7"/>
     </row>
-    <row r="366" spans="2:8">
+    <row r="366" spans="1:8">
       <c r="B366" s="2">
         <f t="shared" si="10"/>
         <v>361</v>
       </c>
-      <c r="C366" s="4"/>
+      <c r="C366" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
       <c r="F366" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G366" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="H366" s="7"/>
     </row>
-    <row r="367" spans="2:8">
+    <row r="367" spans="1:8">
       <c r="B367" s="2">
         <f t="shared" si="10"/>
         <v>362</v>
       </c>
-      <c r="C367" s="4"/>
+      <c r="C367" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
       <c r="F367" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G367" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="H367" s="7"/>
     </row>
-    <row r="368" spans="2:8">
+    <row r="368" spans="1:8">
       <c r="B368" s="2">
         <f t="shared" si="10"/>
         <v>363</v>
       </c>
-      <c r="C368" s="4"/>
+      <c r="C368" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
       <c r="F368" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G368" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="H368" s="7"/>
     </row>
-    <row r="369" spans="2:8">
+    <row r="369" spans="1:8">
       <c r="B369" s="2">
         <f t="shared" si="10"/>
         <v>364</v>
       </c>
-      <c r="C369" s="4"/>
+      <c r="C369" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
       <c r="F369" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G369" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="H369" s="7"/>
     </row>
-    <row r="370" spans="2:8">
+    <row r="370" spans="1:8">
       <c r="B370" s="2">
         <f t="shared" si="10"/>
         <v>365</v>
       </c>
-      <c r="C370" s="4"/>
+      <c r="C370" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
       <c r="F370" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G370" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="H370" s="7"/>
     </row>
-    <row r="371" spans="2:8">
+    <row r="371" spans="1:8">
       <c r="B371" s="2">
         <f t="shared" si="10"/>
         <v>366</v>
       </c>
-      <c r="C371" s="4"/>
+      <c r="C371" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
       <c r="F371" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G371" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="H371" s="7"/>
     </row>
-    <row r="372" spans="2:8">
+    <row r="372" spans="1:8">
       <c r="B372" s="2">
         <f t="shared" si="10"/>
         <v>367</v>
       </c>
-      <c r="C372" s="4"/>
+      <c r="C372" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
       <c r="F372" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G372" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="H372" s="7"/>
     </row>
-    <row r="373" spans="2:8">
+    <row r="373" spans="1:8">
+      <c r="A373" t="s">
+        <v>85</v>
+      </c>
       <c r="B373" s="2">
         <f t="shared" si="10"/>
         <v>368</v>
       </c>
-      <c r="C373" s="4"/>
+      <c r="C373" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
       <c r="F373" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G373" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="H373" s="7"/>
     </row>
-    <row r="374" spans="2:8">
+    <row r="374" spans="1:8">
       <c r="B374" s="2">
         <f t="shared" si="10"/>
         <v>369</v>
       </c>
-      <c r="C374" s="4"/>
+      <c r="C374" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
       <c r="F374" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G374" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="H374" s="7"/>
     </row>
-    <row r="375" spans="2:8">
+    <row r="375" spans="1:8">
+      <c r="A375" t="s">
+        <v>85</v>
+      </c>
       <c r="B375" s="2">
         <f t="shared" si="10"/>
         <v>370</v>
       </c>
-      <c r="C375" s="4"/>
+      <c r="C375" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
       <c r="F375" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G375" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="H375" s="7"/>
     </row>
-    <row r="376" spans="2:8">
+    <row r="376" spans="1:8">
       <c r="B376" s="2">
         <f t="shared" si="10"/>
         <v>371</v>
@@ -6187,11 +6422,14 @@
       <c r="E376" s="4"/>
       <c r="F376" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G376" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="H376" s="7"/>
     </row>
-    <row r="377" spans="2:8">
+    <row r="377" spans="1:8">
       <c r="B377" s="2">
         <f t="shared" si="10"/>
         <v>372</v>
@@ -6201,11 +6439,17 @@
       <c r="E377" s="4"/>
       <c r="F377" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G377" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="H377" s="7"/>
     </row>
-    <row r="378" spans="2:8">
+    <row r="378" spans="1:8">
+      <c r="A378" t="s">
+        <v>85</v>
+      </c>
       <c r="B378" s="2">
         <f t="shared" si="10"/>
         <v>373</v>
@@ -6215,11 +6459,14 @@
       <c r="E378" s="4"/>
       <c r="F378" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G378" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="H378" s="7"/>
     </row>
-    <row r="379" spans="2:8">
+    <row r="379" spans="1:8">
       <c r="B379" s="2">
         <f t="shared" si="10"/>
         <v>374</v>
@@ -6229,11 +6476,14 @@
       <c r="E379" s="4"/>
       <c r="F379" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G379" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="H379" s="7"/>
     </row>
-    <row r="380" spans="2:8">
+    <row r="380" spans="1:8">
       <c r="B380" s="2">
         <f t="shared" si="10"/>
         <v>375</v>
@@ -6243,11 +6493,14 @@
       <c r="E380" s="4"/>
       <c r="F380" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G380" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="H380" s="7"/>
     </row>
-    <row r="381" spans="2:8">
+    <row r="381" spans="1:8">
       <c r="B381" s="2">
         <f t="shared" si="10"/>
         <v>376</v>
@@ -6257,11 +6510,14 @@
       <c r="E381" s="4"/>
       <c r="F381" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G381" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="H381" s="7"/>
     </row>
-    <row r="382" spans="2:8">
+    <row r="382" spans="1:8">
       <c r="B382" s="2">
         <f t="shared" si="10"/>
         <v>377</v>
@@ -6271,11 +6527,14 @@
       <c r="E382" s="4"/>
       <c r="F382" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G382" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="H382" s="7"/>
     </row>
-    <row r="383" spans="2:8">
+    <row r="383" spans="1:8">
       <c r="B383" s="2">
         <f t="shared" si="10"/>
         <v>378</v>
@@ -6285,11 +6544,14 @@
       <c r="E383" s="4"/>
       <c r="F383" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G383" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="H383" s="7"/>
     </row>
-    <row r="384" spans="2:8">
+    <row r="384" spans="1:8">
       <c r="B384" s="2">
         <f t="shared" si="10"/>
         <v>379</v>
@@ -6299,7 +6561,10 @@
       <c r="E384" s="4"/>
       <c r="F384" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
+      </c>
+      <c r="G384" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="H384" s="7"/>
     </row>
@@ -6313,7 +6578,7 @@
       <c r="E385" s="4"/>
       <c r="F385" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H385" s="7"/>
     </row>
@@ -6327,7 +6592,7 @@
       <c r="E386" s="4"/>
       <c r="F386" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H386" s="7"/>
     </row>
@@ -6341,7 +6606,7 @@
       <c r="E387" s="4"/>
       <c r="F387" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H387" s="7"/>
     </row>
@@ -6355,7 +6620,7 @@
       <c r="E388" s="4"/>
       <c r="F388" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H388" s="7"/>
     </row>
@@ -6369,7 +6634,7 @@
       <c r="E389" s="4"/>
       <c r="F389" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H389" s="7"/>
     </row>
@@ -6383,7 +6648,7 @@
       <c r="E390" s="4"/>
       <c r="F390" s="7">
         <f t="shared" si="11"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H390" s="7"/>
     </row>
@@ -6397,7 +6662,7 @@
       <c r="E391" s="4"/>
       <c r="F391" s="7">
         <f t="shared" ref="F391:F454" si="13">$E$3/$E$2</f>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H391" s="7"/>
     </row>
@@ -6411,7 +6676,7 @@
       <c r="E392" s="4"/>
       <c r="F392" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H392" s="7"/>
     </row>
@@ -6425,7 +6690,7 @@
       <c r="E393" s="4"/>
       <c r="F393" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H393" s="7"/>
     </row>
@@ -6439,7 +6704,7 @@
       <c r="E394" s="4"/>
       <c r="F394" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H394" s="7"/>
     </row>
@@ -6453,7 +6718,7 @@
       <c r="E395" s="4"/>
       <c r="F395" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H395" s="7"/>
     </row>
@@ -6467,7 +6732,7 @@
       <c r="E396" s="4"/>
       <c r="F396" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H396" s="7"/>
     </row>
@@ -6481,7 +6746,7 @@
       <c r="E397" s="4"/>
       <c r="F397" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H397" s="7"/>
     </row>
@@ -6495,7 +6760,7 @@
       <c r="E398" s="4"/>
       <c r="F398" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H398" s="7"/>
     </row>
@@ -6509,7 +6774,7 @@
       <c r="E399" s="4"/>
       <c r="F399" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H399" s="7"/>
     </row>
@@ -6523,7 +6788,7 @@
       <c r="E400" s="4"/>
       <c r="F400" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H400" s="7"/>
     </row>
@@ -6537,7 +6802,7 @@
       <c r="E401" s="4"/>
       <c r="F401" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H401" s="7"/>
     </row>
@@ -6551,7 +6816,7 @@
       <c r="E402" s="4"/>
       <c r="F402" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H402" s="7"/>
     </row>
@@ -6565,7 +6830,7 @@
       <c r="E403" s="4"/>
       <c r="F403" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H403" s="7"/>
     </row>
@@ -6579,7 +6844,7 @@
       <c r="E404" s="4"/>
       <c r="F404" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H404" s="7"/>
     </row>
@@ -6593,7 +6858,7 @@
       <c r="E405" s="4"/>
       <c r="F405" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H405" s="7"/>
     </row>
@@ -6607,7 +6872,7 @@
       <c r="E406" s="4"/>
       <c r="F406" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H406" s="7"/>
     </row>
@@ -6621,7 +6886,7 @@
       <c r="E407" s="4"/>
       <c r="F407" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H407" s="7"/>
     </row>
@@ -6635,7 +6900,7 @@
       <c r="E408" s="4"/>
       <c r="F408" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H408" s="7"/>
     </row>
@@ -6649,7 +6914,7 @@
       <c r="E409" s="4"/>
       <c r="F409" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H409" s="7"/>
     </row>
@@ -6663,7 +6928,7 @@
       <c r="E410" s="4"/>
       <c r="F410" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H410" s="7"/>
     </row>
@@ -6677,7 +6942,7 @@
       <c r="E411" s="4"/>
       <c r="F411" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H411" s="7"/>
     </row>
@@ -6691,7 +6956,7 @@
       <c r="E412" s="4"/>
       <c r="F412" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H412" s="7"/>
     </row>
@@ -6705,7 +6970,7 @@
       <c r="E413" s="4"/>
       <c r="F413" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H413" s="7"/>
     </row>
@@ -6719,7 +6984,7 @@
       <c r="E414" s="4"/>
       <c r="F414" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H414" s="7"/>
     </row>
@@ -6733,7 +6998,7 @@
       <c r="E415" s="4"/>
       <c r="F415" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H415" s="7"/>
     </row>
@@ -6747,7 +7012,7 @@
       <c r="E416" s="4"/>
       <c r="F416" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H416" s="7"/>
     </row>
@@ -6761,7 +7026,7 @@
       <c r="E417" s="4"/>
       <c r="F417" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H417" s="7"/>
     </row>
@@ -6775,7 +7040,7 @@
       <c r="E418" s="4"/>
       <c r="F418" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H418" s="7"/>
     </row>
@@ -6789,7 +7054,7 @@
       <c r="E419" s="4"/>
       <c r="F419" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H419" s="7"/>
     </row>
@@ -6803,7 +7068,7 @@
       <c r="E420" s="4"/>
       <c r="F420" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H420" s="7"/>
     </row>
@@ -6817,7 +7082,7 @@
       <c r="E421" s="4"/>
       <c r="F421" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H421" s="7"/>
     </row>
@@ -6831,7 +7096,7 @@
       <c r="E422" s="4"/>
       <c r="F422" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H422" s="7"/>
     </row>
@@ -6845,7 +7110,7 @@
       <c r="E423" s="4"/>
       <c r="F423" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H423" s="7"/>
     </row>
@@ -6859,7 +7124,7 @@
       <c r="E424" s="4"/>
       <c r="F424" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H424" s="7"/>
     </row>
@@ -6873,7 +7138,7 @@
       <c r="E425" s="4"/>
       <c r="F425" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H425" s="7"/>
     </row>
@@ -6887,7 +7152,7 @@
       <c r="E426" s="4"/>
       <c r="F426" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H426" s="7"/>
     </row>
@@ -6901,7 +7166,7 @@
       <c r="E427" s="4"/>
       <c r="F427" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H427" s="7"/>
     </row>
@@ -6915,7 +7180,7 @@
       <c r="E428" s="4"/>
       <c r="F428" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H428" s="7"/>
     </row>
@@ -6929,7 +7194,7 @@
       <c r="E429" s="4"/>
       <c r="F429" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H429" s="7"/>
     </row>
@@ -6943,7 +7208,7 @@
       <c r="E430" s="4"/>
       <c r="F430" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H430" s="7"/>
     </row>
@@ -6957,7 +7222,7 @@
       <c r="E431" s="4"/>
       <c r="F431" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H431" s="7"/>
     </row>
@@ -6971,7 +7236,7 @@
       <c r="E432" s="4"/>
       <c r="F432" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H432" s="7"/>
     </row>
@@ -6985,7 +7250,7 @@
       <c r="E433" s="4"/>
       <c r="F433" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H433" s="7"/>
     </row>
@@ -6999,7 +7264,7 @@
       <c r="E434" s="4"/>
       <c r="F434" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H434" s="7"/>
     </row>
@@ -7013,7 +7278,7 @@
       <c r="E435" s="4"/>
       <c r="F435" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H435" s="7"/>
     </row>
@@ -7027,7 +7292,7 @@
       <c r="E436" s="4"/>
       <c r="F436" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H436" s="7"/>
     </row>
@@ -7041,7 +7306,7 @@
       <c r="E437" s="4"/>
       <c r="F437" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H437" s="7"/>
     </row>
@@ -7055,7 +7320,7 @@
       <c r="E438" s="4"/>
       <c r="F438" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H438" s="7"/>
     </row>
@@ -7069,7 +7334,7 @@
       <c r="E439" s="4"/>
       <c r="F439" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H439" s="7"/>
     </row>
@@ -7083,7 +7348,7 @@
       <c r="E440" s="4"/>
       <c r="F440" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H440" s="7"/>
     </row>
@@ -7097,7 +7362,7 @@
       <c r="E441" s="4"/>
       <c r="F441" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H441" s="7"/>
     </row>
@@ -7111,7 +7376,7 @@
       <c r="E442" s="4"/>
       <c r="F442" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H442" s="7"/>
     </row>
@@ -7125,7 +7390,7 @@
       <c r="E443" s="4"/>
       <c r="F443" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H443" s="7"/>
     </row>
@@ -7139,7 +7404,7 @@
       <c r="E444" s="4"/>
       <c r="F444" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H444" s="7"/>
     </row>
@@ -7153,7 +7418,7 @@
       <c r="E445" s="4"/>
       <c r="F445" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H445" s="7"/>
     </row>
@@ -7167,7 +7432,7 @@
       <c r="E446" s="4"/>
       <c r="F446" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H446" s="7"/>
     </row>
@@ -7181,7 +7446,7 @@
       <c r="E447" s="4"/>
       <c r="F447" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H447" s="7"/>
     </row>
@@ -7195,7 +7460,7 @@
       <c r="E448" s="4"/>
       <c r="F448" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H448" s="7"/>
     </row>
@@ -7209,7 +7474,7 @@
       <c r="E449" s="4"/>
       <c r="F449" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H449" s="7"/>
     </row>
@@ -7223,7 +7488,7 @@
       <c r="E450" s="4"/>
       <c r="F450" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H450" s="7"/>
     </row>
@@ -7237,7 +7502,7 @@
       <c r="E451" s="4"/>
       <c r="F451" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H451" s="7"/>
     </row>
@@ -7251,7 +7516,7 @@
       <c r="E452" s="4"/>
       <c r="F452" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H452" s="7"/>
     </row>
@@ -7265,7 +7530,7 @@
       <c r="E453" s="4"/>
       <c r="F453" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H453" s="7"/>
     </row>
@@ -7279,7 +7544,7 @@
       <c r="E454" s="4"/>
       <c r="F454" s="7">
         <f t="shared" si="13"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H454" s="7"/>
     </row>
@@ -7293,7 +7558,7 @@
       <c r="E455" s="4"/>
       <c r="F455" s="7">
         <f t="shared" ref="F455:F518" si="15">$E$3/$E$2</f>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H455" s="7"/>
     </row>
@@ -7307,7 +7572,7 @@
       <c r="E456" s="4"/>
       <c r="F456" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H456" s="7"/>
     </row>
@@ -7321,7 +7586,7 @@
       <c r="E457" s="4"/>
       <c r="F457" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H457" s="7"/>
     </row>
@@ -7335,7 +7600,7 @@
       <c r="E458" s="4"/>
       <c r="F458" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H458" s="7"/>
     </row>
@@ -7349,7 +7614,7 @@
       <c r="E459" s="4"/>
       <c r="F459" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H459" s="7"/>
     </row>
@@ -7363,7 +7628,7 @@
       <c r="E460" s="4"/>
       <c r="F460" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H460" s="7"/>
     </row>
@@ -7377,7 +7642,7 @@
       <c r="E461" s="4"/>
       <c r="F461" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H461" s="7"/>
     </row>
@@ -7391,7 +7656,7 @@
       <c r="E462" s="4"/>
       <c r="F462" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H462" s="7"/>
     </row>
@@ -7405,7 +7670,7 @@
       <c r="E463" s="4"/>
       <c r="F463" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H463" s="7"/>
     </row>
@@ -7419,7 +7684,7 @@
       <c r="E464" s="4"/>
       <c r="F464" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H464" s="7"/>
     </row>
@@ -7433,7 +7698,7 @@
       <c r="E465" s="4"/>
       <c r="F465" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H465" s="7"/>
     </row>
@@ -7447,7 +7712,7 @@
       <c r="E466" s="4"/>
       <c r="F466" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H466" s="7"/>
     </row>
@@ -7461,7 +7726,7 @@
       <c r="E467" s="4"/>
       <c r="F467" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H467" s="7"/>
     </row>
@@ -7475,7 +7740,7 @@
       <c r="E468" s="4"/>
       <c r="F468" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H468" s="7"/>
     </row>
@@ -7489,7 +7754,7 @@
       <c r="E469" s="4"/>
       <c r="F469" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H469" s="7"/>
     </row>
@@ -7503,7 +7768,7 @@
       <c r="E470" s="4"/>
       <c r="F470" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H470" s="7"/>
     </row>
@@ -7517,7 +7782,7 @@
       <c r="E471" s="4"/>
       <c r="F471" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H471" s="7"/>
     </row>
@@ -7531,7 +7796,7 @@
       <c r="E472" s="4"/>
       <c r="F472" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H472" s="7"/>
     </row>
@@ -7545,7 +7810,7 @@
       <c r="E473" s="4"/>
       <c r="F473" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H473" s="7"/>
     </row>
@@ -7559,7 +7824,7 @@
       <c r="E474" s="4"/>
       <c r="F474" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H474" s="7"/>
     </row>
@@ -7573,7 +7838,7 @@
       <c r="E475" s="4"/>
       <c r="F475" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H475" s="7"/>
     </row>
@@ -7587,7 +7852,7 @@
       <c r="E476" s="4"/>
       <c r="F476" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H476" s="7"/>
     </row>
@@ -7601,7 +7866,7 @@
       <c r="E477" s="4"/>
       <c r="F477" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H477" s="7"/>
     </row>
@@ -7615,7 +7880,7 @@
       <c r="E478" s="4"/>
       <c r="F478" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H478" s="7"/>
     </row>
@@ -7629,7 +7894,7 @@
       <c r="E479" s="4"/>
       <c r="F479" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H479" s="7"/>
     </row>
@@ -7643,7 +7908,7 @@
       <c r="E480" s="4"/>
       <c r="F480" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H480" s="7"/>
     </row>
@@ -7657,7 +7922,7 @@
       <c r="E481" s="4"/>
       <c r="F481" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H481" s="7"/>
     </row>
@@ -7671,7 +7936,7 @@
       <c r="E482" s="4"/>
       <c r="F482" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H482" s="7"/>
     </row>
@@ -7685,7 +7950,7 @@
       <c r="E483" s="4"/>
       <c r="F483" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H483" s="7"/>
     </row>
@@ -7699,7 +7964,7 @@
       <c r="E484" s="4"/>
       <c r="F484" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H484" s="7"/>
     </row>
@@ -7713,7 +7978,7 @@
       <c r="E485" s="4"/>
       <c r="F485" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H485" s="7"/>
     </row>
@@ -7727,7 +7992,7 @@
       <c r="E486" s="4"/>
       <c r="F486" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H486" s="7"/>
     </row>
@@ -7741,7 +8006,7 @@
       <c r="E487" s="4"/>
       <c r="F487" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H487" s="7"/>
     </row>
@@ -7755,7 +8020,7 @@
       <c r="E488" s="4"/>
       <c r="F488" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H488" s="7"/>
     </row>
@@ -7769,7 +8034,7 @@
       <c r="E489" s="4"/>
       <c r="F489" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H489" s="7"/>
     </row>
@@ -7783,7 +8048,7 @@
       <c r="E490" s="4"/>
       <c r="F490" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H490" s="7"/>
     </row>
@@ -7797,7 +8062,7 @@
       <c r="E491" s="4"/>
       <c r="F491" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H491" s="7"/>
     </row>
@@ -7811,7 +8076,7 @@
       <c r="E492" s="4"/>
       <c r="F492" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H492" s="7"/>
     </row>
@@ -7825,7 +8090,7 @@
       <c r="E493" s="4"/>
       <c r="F493" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H493" s="7"/>
     </row>
@@ -7839,7 +8104,7 @@
       <c r="E494" s="4"/>
       <c r="F494" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H494" s="7"/>
     </row>
@@ -7853,7 +8118,7 @@
       <c r="E495" s="4"/>
       <c r="F495" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H495" s="7"/>
     </row>
@@ -7867,7 +8132,7 @@
       <c r="E496" s="4"/>
       <c r="F496" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H496" s="7"/>
     </row>
@@ -7881,7 +8146,7 @@
       <c r="E497" s="4"/>
       <c r="F497" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H497" s="7"/>
     </row>
@@ -7895,7 +8160,7 @@
       <c r="E498" s="4"/>
       <c r="F498" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H498" s="7"/>
     </row>
@@ -7909,7 +8174,7 @@
       <c r="E499" s="4"/>
       <c r="F499" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H499" s="7"/>
     </row>
@@ -7923,7 +8188,7 @@
       <c r="E500" s="4"/>
       <c r="F500" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H500" s="7"/>
     </row>
@@ -7937,7 +8202,7 @@
       <c r="E501" s="4"/>
       <c r="F501" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H501" s="7"/>
     </row>
@@ -7951,7 +8216,7 @@
       <c r="E502" s="4"/>
       <c r="F502" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H502" s="7"/>
     </row>
@@ -7965,7 +8230,7 @@
       <c r="E503" s="4"/>
       <c r="F503" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H503" s="7"/>
     </row>
@@ -7979,7 +8244,7 @@
       <c r="E504" s="4"/>
       <c r="F504" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H504" s="7"/>
     </row>
@@ -7993,7 +8258,7 @@
       <c r="E505" s="4"/>
       <c r="F505" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H505" s="7"/>
     </row>
@@ -8007,7 +8272,7 @@
       <c r="E506" s="4"/>
       <c r="F506" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H506" s="7"/>
     </row>
@@ -8021,7 +8286,7 @@
       <c r="E507" s="4"/>
       <c r="F507" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H507" s="7"/>
     </row>
@@ -8035,7 +8300,7 @@
       <c r="E508" s="4"/>
       <c r="F508" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H508" s="7"/>
     </row>
@@ -8049,7 +8314,7 @@
       <c r="E509" s="4"/>
       <c r="F509" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H509" s="7"/>
     </row>
@@ -8063,7 +8328,7 @@
       <c r="E510" s="4"/>
       <c r="F510" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H510" s="7"/>
     </row>
@@ -8077,7 +8342,7 @@
       <c r="E511" s="4"/>
       <c r="F511" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H511" s="7"/>
     </row>
@@ -8091,7 +8356,7 @@
       <c r="E512" s="4"/>
       <c r="F512" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H512" s="7"/>
     </row>
@@ -8105,7 +8370,7 @@
       <c r="E513" s="4"/>
       <c r="F513" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H513" s="7"/>
     </row>
@@ -8119,7 +8384,7 @@
       <c r="E514" s="4"/>
       <c r="F514" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H514" s="7"/>
     </row>
@@ -8133,7 +8398,7 @@
       <c r="E515" s="4"/>
       <c r="F515" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H515" s="7"/>
     </row>
@@ -8147,7 +8412,7 @@
       <c r="E516" s="4"/>
       <c r="F516" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H516" s="7"/>
     </row>
@@ -8161,7 +8426,7 @@
       <c r="E517" s="4"/>
       <c r="F517" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H517" s="7"/>
     </row>
@@ -8175,7 +8440,7 @@
       <c r="E518" s="4"/>
       <c r="F518" s="7">
         <f t="shared" si="15"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H518" s="7"/>
     </row>
@@ -8189,7 +8454,7 @@
       <c r="E519" s="4"/>
       <c r="F519" s="7">
         <f t="shared" ref="F519:F582" si="17">$E$3/$E$2</f>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H519" s="7"/>
     </row>
@@ -8203,7 +8468,7 @@
       <c r="E520" s="4"/>
       <c r="F520" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H520" s="7"/>
     </row>
@@ -8217,7 +8482,7 @@
       <c r="E521" s="4"/>
       <c r="F521" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H521" s="7"/>
     </row>
@@ -8231,7 +8496,7 @@
       <c r="E522" s="4"/>
       <c r="F522" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H522" s="7"/>
     </row>
@@ -8245,7 +8510,7 @@
       <c r="E523" s="4"/>
       <c r="F523" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H523" s="7"/>
     </row>
@@ -8259,7 +8524,7 @@
       <c r="E524" s="4"/>
       <c r="F524" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H524" s="7"/>
     </row>
@@ -8273,7 +8538,7 @@
       <c r="E525" s="4"/>
       <c r="F525" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H525" s="7"/>
     </row>
@@ -8287,7 +8552,7 @@
       <c r="E526" s="4"/>
       <c r="F526" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H526" s="7"/>
     </row>
@@ -8301,7 +8566,7 @@
       <c r="E527" s="4"/>
       <c r="F527" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H527" s="7"/>
     </row>
@@ -8315,7 +8580,7 @@
       <c r="E528" s="4"/>
       <c r="F528" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H528" s="7"/>
     </row>
@@ -8329,7 +8594,7 @@
       <c r="E529" s="4"/>
       <c r="F529" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H529" s="7"/>
     </row>
@@ -8343,7 +8608,7 @@
       <c r="E530" s="4"/>
       <c r="F530" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H530" s="7"/>
     </row>
@@ -8357,7 +8622,7 @@
       <c r="E531" s="4"/>
       <c r="F531" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H531" s="7"/>
     </row>
@@ -8371,7 +8636,7 @@
       <c r="E532" s="4"/>
       <c r="F532" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H532" s="7"/>
     </row>
@@ -8385,7 +8650,7 @@
       <c r="E533" s="4"/>
       <c r="F533" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H533" s="7"/>
     </row>
@@ -8399,7 +8664,7 @@
       <c r="E534" s="4"/>
       <c r="F534" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H534" s="7"/>
     </row>
@@ -8413,7 +8678,7 @@
       <c r="E535" s="4"/>
       <c r="F535" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H535" s="7"/>
     </row>
@@ -8427,7 +8692,7 @@
       <c r="E536" s="4"/>
       <c r="F536" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H536" s="7"/>
     </row>
@@ -8441,7 +8706,7 @@
       <c r="E537" s="4"/>
       <c r="F537" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H537" s="7"/>
     </row>
@@ -8455,7 +8720,7 @@
       <c r="E538" s="4"/>
       <c r="F538" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H538" s="7"/>
     </row>
@@ -8469,7 +8734,7 @@
       <c r="E539" s="4"/>
       <c r="F539" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H539" s="7"/>
     </row>
@@ -8483,7 +8748,7 @@
       <c r="E540" s="4"/>
       <c r="F540" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H540" s="7"/>
     </row>
@@ -8497,7 +8762,7 @@
       <c r="E541" s="4"/>
       <c r="F541" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H541" s="7"/>
     </row>
@@ -8511,7 +8776,7 @@
       <c r="E542" s="4"/>
       <c r="F542" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H542" s="7"/>
     </row>
@@ -8525,7 +8790,7 @@
       <c r="E543" s="4"/>
       <c r="F543" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H543" s="7"/>
     </row>
@@ -8539,7 +8804,7 @@
       <c r="E544" s="4"/>
       <c r="F544" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H544" s="7"/>
     </row>
@@ -8553,7 +8818,7 @@
       <c r="E545" s="4"/>
       <c r="F545" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H545" s="7"/>
     </row>
@@ -8567,7 +8832,7 @@
       <c r="E546" s="4"/>
       <c r="F546" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H546" s="7"/>
     </row>
@@ -8581,7 +8846,7 @@
       <c r="E547" s="4"/>
       <c r="F547" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H547" s="7"/>
     </row>
@@ -8595,7 +8860,7 @@
       <c r="E548" s="4"/>
       <c r="F548" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H548" s="7"/>
     </row>
@@ -8609,7 +8874,7 @@
       <c r="E549" s="4"/>
       <c r="F549" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H549" s="7"/>
     </row>
@@ -8623,7 +8888,7 @@
       <c r="E550" s="4"/>
       <c r="F550" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H550" s="7"/>
     </row>
@@ -8637,7 +8902,7 @@
       <c r="E551" s="4"/>
       <c r="F551" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H551" s="7"/>
     </row>
@@ -8651,7 +8916,7 @@
       <c r="E552" s="4"/>
       <c r="F552" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H552" s="7"/>
     </row>
@@ -8665,7 +8930,7 @@
       <c r="E553" s="4"/>
       <c r="F553" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H553" s="7"/>
     </row>
@@ -8679,7 +8944,7 @@
       <c r="E554" s="4"/>
       <c r="F554" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H554" s="7"/>
     </row>
@@ -8693,7 +8958,7 @@
       <c r="E555" s="4"/>
       <c r="F555" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H555" s="7"/>
     </row>
@@ -8707,7 +8972,7 @@
       <c r="E556" s="4"/>
       <c r="F556" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H556" s="7"/>
     </row>
@@ -8721,7 +8986,7 @@
       <c r="E557" s="4"/>
       <c r="F557" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H557" s="7"/>
     </row>
@@ -8735,7 +9000,7 @@
       <c r="E558" s="4"/>
       <c r="F558" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H558" s="7"/>
     </row>
@@ -8749,7 +9014,7 @@
       <c r="E559" s="4"/>
       <c r="F559" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H559" s="7"/>
     </row>
@@ -8763,7 +9028,7 @@
       <c r="E560" s="4"/>
       <c r="F560" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H560" s="7"/>
     </row>
@@ -8777,7 +9042,7 @@
       <c r="E561" s="4"/>
       <c r="F561" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H561" s="7"/>
     </row>
@@ -8791,7 +9056,7 @@
       <c r="E562" s="4"/>
       <c r="F562" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H562" s="7"/>
     </row>
@@ -8805,7 +9070,7 @@
       <c r="E563" s="4"/>
       <c r="F563" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H563" s="7"/>
     </row>
@@ -8819,7 +9084,7 @@
       <c r="E564" s="4"/>
       <c r="F564" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H564" s="7"/>
     </row>
@@ -8833,7 +9098,7 @@
       <c r="E565" s="4"/>
       <c r="F565" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H565" s="7"/>
     </row>
@@ -8847,7 +9112,7 @@
       <c r="E566" s="4"/>
       <c r="F566" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H566" s="7"/>
     </row>
@@ -8861,7 +9126,7 @@
       <c r="E567" s="4"/>
       <c r="F567" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H567" s="7"/>
     </row>
@@ -8875,7 +9140,7 @@
       <c r="E568" s="4"/>
       <c r="F568" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H568" s="7"/>
     </row>
@@ -8889,7 +9154,7 @@
       <c r="E569" s="4"/>
       <c r="F569" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H569" s="7"/>
     </row>
@@ -8903,7 +9168,7 @@
       <c r="E570" s="4"/>
       <c r="F570" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H570" s="7"/>
     </row>
@@ -8917,7 +9182,7 @@
       <c r="E571" s="4"/>
       <c r="F571" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H571" s="7"/>
     </row>
@@ -8931,7 +9196,7 @@
       <c r="E572" s="4"/>
       <c r="F572" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H572" s="7"/>
     </row>
@@ -8945,7 +9210,7 @@
       <c r="E573" s="4"/>
       <c r="F573" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H573" s="7"/>
     </row>
@@ -8959,7 +9224,7 @@
       <c r="E574" s="4"/>
       <c r="F574" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H574" s="7"/>
     </row>
@@ -8973,7 +9238,7 @@
       <c r="E575" s="4"/>
       <c r="F575" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H575" s="7"/>
     </row>
@@ -8987,7 +9252,7 @@
       <c r="E576" s="4"/>
       <c r="F576" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H576" s="7"/>
     </row>
@@ -9001,7 +9266,7 @@
       <c r="E577" s="4"/>
       <c r="F577" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H577" s="7"/>
     </row>
@@ -9015,7 +9280,7 @@
       <c r="E578" s="4"/>
       <c r="F578" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H578" s="7"/>
     </row>
@@ -9029,7 +9294,7 @@
       <c r="E579" s="4"/>
       <c r="F579" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H579" s="7"/>
     </row>
@@ -9043,7 +9308,7 @@
       <c r="E580" s="4"/>
       <c r="F580" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H580" s="7"/>
     </row>
@@ -9057,7 +9322,7 @@
       <c r="E581" s="4"/>
       <c r="F581" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H581" s="7"/>
     </row>
@@ -9071,7 +9336,7 @@
       <c r="E582" s="4"/>
       <c r="F582" s="7">
         <f t="shared" si="17"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H582" s="7"/>
     </row>
@@ -9085,7 +9350,7 @@
       <c r="E583" s="4"/>
       <c r="F583" s="7">
         <f t="shared" ref="F583:F646" si="19">$E$3/$E$2</f>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H583" s="7"/>
     </row>
@@ -9099,7 +9364,7 @@
       <c r="E584" s="4"/>
       <c r="F584" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H584" s="7"/>
     </row>
@@ -9113,7 +9378,7 @@
       <c r="E585" s="4"/>
       <c r="F585" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H585" s="7"/>
     </row>
@@ -9127,7 +9392,7 @@
       <c r="E586" s="4"/>
       <c r="F586" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H586" s="7"/>
     </row>
@@ -9141,7 +9406,7 @@
       <c r="E587" s="4"/>
       <c r="F587" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H587" s="7"/>
     </row>
@@ -9155,7 +9420,7 @@
       <c r="E588" s="4"/>
       <c r="F588" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H588" s="7"/>
     </row>
@@ -9169,7 +9434,7 @@
       <c r="E589" s="4"/>
       <c r="F589" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H589" s="7"/>
     </row>
@@ -9183,7 +9448,7 @@
       <c r="E590" s="4"/>
       <c r="F590" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H590" s="7"/>
     </row>
@@ -9197,7 +9462,7 @@
       <c r="E591" s="4"/>
       <c r="F591" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H591" s="7"/>
     </row>
@@ -9211,7 +9476,7 @@
       <c r="E592" s="4"/>
       <c r="F592" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H592" s="7"/>
     </row>
@@ -9225,7 +9490,7 @@
       <c r="E593" s="4"/>
       <c r="F593" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H593" s="7"/>
     </row>
@@ -9239,7 +9504,7 @@
       <c r="E594" s="4"/>
       <c r="F594" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H594" s="7"/>
     </row>
@@ -9253,7 +9518,7 @@
       <c r="E595" s="4"/>
       <c r="F595" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H595" s="7"/>
     </row>
@@ -9267,7 +9532,7 @@
       <c r="E596" s="4"/>
       <c r="F596" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H596" s="7"/>
     </row>
@@ -9281,7 +9546,7 @@
       <c r="E597" s="4"/>
       <c r="F597" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H597" s="7"/>
     </row>
@@ -9295,7 +9560,7 @@
       <c r="E598" s="4"/>
       <c r="F598" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H598" s="7"/>
     </row>
@@ -9309,7 +9574,7 @@
       <c r="E599" s="4"/>
       <c r="F599" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H599" s="7"/>
     </row>
@@ -9323,7 +9588,7 @@
       <c r="E600" s="4"/>
       <c r="F600" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H600" s="7"/>
     </row>
@@ -9337,7 +9602,7 @@
       <c r="E601" s="4"/>
       <c r="F601" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H601" s="7"/>
     </row>
@@ -9351,7 +9616,7 @@
       <c r="E602" s="4"/>
       <c r="F602" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H602" s="7"/>
     </row>
@@ -9365,7 +9630,7 @@
       <c r="E603" s="4"/>
       <c r="F603" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H603" s="7"/>
     </row>
@@ -9379,7 +9644,7 @@
       <c r="E604" s="4"/>
       <c r="F604" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H604" s="7"/>
     </row>
@@ -9393,7 +9658,7 @@
       <c r="E605" s="4"/>
       <c r="F605" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H605" s="7"/>
     </row>
@@ -9407,7 +9672,7 @@
       <c r="E606" s="4"/>
       <c r="F606" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H606" s="7"/>
     </row>
@@ -9421,7 +9686,7 @@
       <c r="E607" s="4"/>
       <c r="F607" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H607" s="7"/>
     </row>
@@ -9435,7 +9700,7 @@
       <c r="E608" s="4"/>
       <c r="F608" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H608" s="7"/>
     </row>
@@ -9449,7 +9714,7 @@
       <c r="E609" s="4"/>
       <c r="F609" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H609" s="7"/>
     </row>
@@ -9463,7 +9728,7 @@
       <c r="E610" s="4"/>
       <c r="F610" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H610" s="7"/>
     </row>
@@ -9477,7 +9742,7 @@
       <c r="E611" s="4"/>
       <c r="F611" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H611" s="7"/>
     </row>
@@ -9491,7 +9756,7 @@
       <c r="E612" s="4"/>
       <c r="F612" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H612" s="7"/>
     </row>
@@ -9505,7 +9770,7 @@
       <c r="E613" s="4"/>
       <c r="F613" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H613" s="7"/>
     </row>
@@ -9519,7 +9784,7 @@
       <c r="E614" s="4"/>
       <c r="F614" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H614" s="7"/>
     </row>
@@ -9533,7 +9798,7 @@
       <c r="E615" s="4"/>
       <c r="F615" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H615" s="7"/>
     </row>
@@ -9547,7 +9812,7 @@
       <c r="E616" s="4"/>
       <c r="F616" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H616" s="7"/>
     </row>
@@ -9561,7 +9826,7 @@
       <c r="E617" s="4"/>
       <c r="F617" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H617" s="7"/>
     </row>
@@ -9575,7 +9840,7 @@
       <c r="E618" s="4"/>
       <c r="F618" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H618" s="7"/>
     </row>
@@ -9589,7 +9854,7 @@
       <c r="E619" s="4"/>
       <c r="F619" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H619" s="7"/>
     </row>
@@ -9603,7 +9868,7 @@
       <c r="E620" s="4"/>
       <c r="F620" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H620" s="7"/>
     </row>
@@ -9617,7 +9882,7 @@
       <c r="E621" s="4"/>
       <c r="F621" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H621" s="7"/>
     </row>
@@ -9631,7 +9896,7 @@
       <c r="E622" s="4"/>
       <c r="F622" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H622" s="7"/>
     </row>
@@ -9645,7 +9910,7 @@
       <c r="E623" s="4"/>
       <c r="F623" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H623" s="7"/>
     </row>
@@ -9659,7 +9924,7 @@
       <c r="E624" s="4"/>
       <c r="F624" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H624" s="7"/>
     </row>
@@ -9673,7 +9938,7 @@
       <c r="E625" s="4"/>
       <c r="F625" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H625" s="7"/>
     </row>
@@ -9687,7 +9952,7 @@
       <c r="E626" s="4"/>
       <c r="F626" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H626" s="7"/>
     </row>
@@ -9701,7 +9966,7 @@
       <c r="E627" s="4"/>
       <c r="F627" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H627" s="7"/>
     </row>
@@ -9715,7 +9980,7 @@
       <c r="E628" s="4"/>
       <c r="F628" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H628" s="7"/>
     </row>
@@ -9729,7 +9994,7 @@
       <c r="E629" s="4"/>
       <c r="F629" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H629" s="7"/>
     </row>
@@ -9743,7 +10008,7 @@
       <c r="E630" s="4"/>
       <c r="F630" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H630" s="7"/>
     </row>
@@ -9757,7 +10022,7 @@
       <c r="E631" s="4"/>
       <c r="F631" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H631" s="7"/>
     </row>
@@ -9771,7 +10036,7 @@
       <c r="E632" s="4"/>
       <c r="F632" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H632" s="7"/>
     </row>
@@ -9785,7 +10050,7 @@
       <c r="E633" s="4"/>
       <c r="F633" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H633" s="7"/>
     </row>
@@ -9799,7 +10064,7 @@
       <c r="E634" s="4"/>
       <c r="F634" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H634" s="7"/>
     </row>
@@ -9813,7 +10078,7 @@
       <c r="E635" s="4"/>
       <c r="F635" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H635" s="7"/>
     </row>
@@ -9827,7 +10092,7 @@
       <c r="E636" s="4"/>
       <c r="F636" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H636" s="7"/>
     </row>
@@ -9841,7 +10106,7 @@
       <c r="E637" s="4"/>
       <c r="F637" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H637" s="7"/>
     </row>
@@ -9855,7 +10120,7 @@
       <c r="E638" s="4"/>
       <c r="F638" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H638" s="7"/>
     </row>
@@ -9869,7 +10134,7 @@
       <c r="E639" s="4"/>
       <c r="F639" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H639" s="7"/>
     </row>
@@ -9883,7 +10148,7 @@
       <c r="E640" s="4"/>
       <c r="F640" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H640" s="7"/>
     </row>
@@ -9897,7 +10162,7 @@
       <c r="E641" s="4"/>
       <c r="F641" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H641" s="7"/>
     </row>
@@ -9911,7 +10176,7 @@
       <c r="E642" s="4"/>
       <c r="F642" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H642" s="7"/>
     </row>
@@ -9925,7 +10190,7 @@
       <c r="E643" s="4"/>
       <c r="F643" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H643" s="7"/>
     </row>
@@ -9939,7 +10204,7 @@
       <c r="E644" s="4"/>
       <c r="F644" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H644" s="7"/>
     </row>
@@ -9953,7 +10218,7 @@
       <c r="E645" s="4"/>
       <c r="F645" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H645" s="7"/>
     </row>
@@ -9967,7 +10232,7 @@
       <c r="E646" s="4"/>
       <c r="F646" s="7">
         <f t="shared" si="19"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H646" s="7"/>
     </row>
@@ -9981,7 +10246,7 @@
       <c r="E647" s="4"/>
       <c r="F647" s="7">
         <f t="shared" ref="F647:F710" si="21">$E$3/$E$2</f>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H647" s="7"/>
     </row>
@@ -9995,7 +10260,7 @@
       <c r="E648" s="4"/>
       <c r="F648" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H648" s="7"/>
     </row>
@@ -10009,7 +10274,7 @@
       <c r="E649" s="4"/>
       <c r="F649" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H649" s="7"/>
     </row>
@@ -10023,7 +10288,7 @@
       <c r="E650" s="4"/>
       <c r="F650" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H650" s="7"/>
     </row>
@@ -10037,7 +10302,7 @@
       <c r="E651" s="4"/>
       <c r="F651" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H651" s="7"/>
     </row>
@@ -10051,7 +10316,7 @@
       <c r="E652" s="4"/>
       <c r="F652" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H652" s="7"/>
     </row>
@@ -10065,7 +10330,7 @@
       <c r="E653" s="4"/>
       <c r="F653" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H653" s="7"/>
     </row>
@@ -10079,7 +10344,7 @@
       <c r="E654" s="4"/>
       <c r="F654" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H654" s="7"/>
     </row>
@@ -10093,7 +10358,7 @@
       <c r="E655" s="4"/>
       <c r="F655" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H655" s="7"/>
     </row>
@@ -10107,7 +10372,7 @@
       <c r="E656" s="4"/>
       <c r="F656" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H656" s="7"/>
     </row>
@@ -10121,7 +10386,7 @@
       <c r="E657" s="4"/>
       <c r="F657" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H657" s="7"/>
     </row>
@@ -10135,7 +10400,7 @@
       <c r="E658" s="4"/>
       <c r="F658" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H658" s="7"/>
     </row>
@@ -10149,7 +10414,7 @@
       <c r="E659" s="4"/>
       <c r="F659" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H659" s="7"/>
     </row>
@@ -10163,7 +10428,7 @@
       <c r="E660" s="4"/>
       <c r="F660" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H660" s="7"/>
     </row>
@@ -10177,7 +10442,7 @@
       <c r="E661" s="4"/>
       <c r="F661" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H661" s="7"/>
     </row>
@@ -10191,7 +10456,7 @@
       <c r="E662" s="4"/>
       <c r="F662" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H662" s="7"/>
     </row>
@@ -10205,7 +10470,7 @@
       <c r="E663" s="4"/>
       <c r="F663" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H663" s="7"/>
     </row>
@@ -10219,7 +10484,7 @@
       <c r="E664" s="4"/>
       <c r="F664" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H664" s="7"/>
     </row>
@@ -10233,7 +10498,7 @@
       <c r="E665" s="4"/>
       <c r="F665" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H665" s="7"/>
     </row>
@@ -10247,7 +10512,7 @@
       <c r="E666" s="4"/>
       <c r="F666" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H666" s="7"/>
     </row>
@@ -10261,7 +10526,7 @@
       <c r="E667" s="4"/>
       <c r="F667" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H667" s="7"/>
     </row>
@@ -10275,7 +10540,7 @@
       <c r="E668" s="4"/>
       <c r="F668" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H668" s="7"/>
     </row>
@@ -10289,7 +10554,7 @@
       <c r="E669" s="4"/>
       <c r="F669" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H669" s="7"/>
     </row>
@@ -10303,7 +10568,7 @@
       <c r="E670" s="4"/>
       <c r="F670" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H670" s="7"/>
     </row>
@@ -10317,7 +10582,7 @@
       <c r="E671" s="4"/>
       <c r="F671" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H671" s="7"/>
     </row>
@@ -10331,7 +10596,7 @@
       <c r="E672" s="4"/>
       <c r="F672" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H672" s="7"/>
     </row>
@@ -10345,7 +10610,7 @@
       <c r="E673" s="4"/>
       <c r="F673" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H673" s="7"/>
     </row>
@@ -10359,7 +10624,7 @@
       <c r="E674" s="4"/>
       <c r="F674" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H674" s="7"/>
     </row>
@@ -10373,7 +10638,7 @@
       <c r="E675" s="4"/>
       <c r="F675" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H675" s="7"/>
     </row>
@@ -10387,7 +10652,7 @@
       <c r="E676" s="4"/>
       <c r="F676" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H676" s="7"/>
     </row>
@@ -10401,7 +10666,7 @@
       <c r="E677" s="4"/>
       <c r="F677" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H677" s="7"/>
     </row>
@@ -10415,7 +10680,7 @@
       <c r="E678" s="4"/>
       <c r="F678" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H678" s="7"/>
     </row>
@@ -10429,7 +10694,7 @@
       <c r="E679" s="4"/>
       <c r="F679" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H679" s="7"/>
     </row>
@@ -10443,7 +10708,7 @@
       <c r="E680" s="4"/>
       <c r="F680" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H680" s="7"/>
     </row>
@@ -10457,7 +10722,7 @@
       <c r="E681" s="4"/>
       <c r="F681" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H681" s="7"/>
     </row>
@@ -10471,7 +10736,7 @@
       <c r="E682" s="4"/>
       <c r="F682" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H682" s="7"/>
     </row>
@@ -10485,7 +10750,7 @@
       <c r="E683" s="4"/>
       <c r="F683" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H683" s="7"/>
     </row>
@@ -10499,7 +10764,7 @@
       <c r="E684" s="4"/>
       <c r="F684" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H684" s="7"/>
     </row>
@@ -10513,7 +10778,7 @@
       <c r="E685" s="4"/>
       <c r="F685" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H685" s="7"/>
     </row>
@@ -10527,7 +10792,7 @@
       <c r="E686" s="4"/>
       <c r="F686" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H686" s="7"/>
     </row>
@@ -10541,7 +10806,7 @@
       <c r="E687" s="4"/>
       <c r="F687" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H687" s="7"/>
     </row>
@@ -10555,7 +10820,7 @@
       <c r="E688" s="4"/>
       <c r="F688" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H688" s="7"/>
     </row>
@@ -10569,7 +10834,7 @@
       <c r="E689" s="4"/>
       <c r="F689" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H689" s="7"/>
     </row>
@@ -10583,7 +10848,7 @@
       <c r="E690" s="4"/>
       <c r="F690" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H690" s="7"/>
     </row>
@@ -10597,7 +10862,7 @@
       <c r="E691" s="4"/>
       <c r="F691" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H691" s="7"/>
     </row>
@@ -10611,7 +10876,7 @@
       <c r="E692" s="4"/>
       <c r="F692" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H692" s="7"/>
     </row>
@@ -10625,7 +10890,7 @@
       <c r="E693" s="4"/>
       <c r="F693" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H693" s="7"/>
     </row>
@@ -10639,7 +10904,7 @@
       <c r="E694" s="4"/>
       <c r="F694" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H694" s="7"/>
     </row>
@@ -10653,7 +10918,7 @@
       <c r="E695" s="4"/>
       <c r="F695" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H695" s="7"/>
     </row>
@@ -10667,7 +10932,7 @@
       <c r="E696" s="4"/>
       <c r="F696" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H696" s="7"/>
     </row>
@@ -10681,7 +10946,7 @@
       <c r="E697" s="4"/>
       <c r="F697" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H697" s="7"/>
     </row>
@@ -10695,7 +10960,7 @@
       <c r="E698" s="4"/>
       <c r="F698" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H698" s="7"/>
     </row>
@@ -10709,7 +10974,7 @@
       <c r="E699" s="4"/>
       <c r="F699" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H699" s="7"/>
     </row>
@@ -10723,7 +10988,7 @@
       <c r="E700" s="4"/>
       <c r="F700" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H700" s="7"/>
     </row>
@@ -10737,7 +11002,7 @@
       <c r="E701" s="4"/>
       <c r="F701" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H701" s="7"/>
     </row>
@@ -10751,7 +11016,7 @@
       <c r="E702" s="4"/>
       <c r="F702" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H702" s="7"/>
     </row>
@@ -10765,7 +11030,7 @@
       <c r="E703" s="4"/>
       <c r="F703" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H703" s="7"/>
     </row>
@@ -10779,7 +11044,7 @@
       <c r="E704" s="4"/>
       <c r="F704" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H704" s="7"/>
     </row>
@@ -10793,7 +11058,7 @@
       <c r="E705" s="4"/>
       <c r="F705" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H705" s="7"/>
     </row>
@@ -10809,7 +11074,7 @@
       <c r="E706" s="4"/>
       <c r="F706" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G706" s="6" t="s">
         <v>11</v>
@@ -10828,7 +11093,7 @@
       <c r="E707" s="4"/>
       <c r="F707" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G707" s="6" t="s">
         <v>10</v>
@@ -10847,7 +11112,7 @@
       <c r="E708" s="4"/>
       <c r="F708" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H708" s="7"/>
     </row>
@@ -10863,7 +11128,7 @@
       <c r="E709" s="4"/>
       <c r="F709" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G709" s="6" t="s">
         <v>9</v>
@@ -10885,7 +11150,7 @@
       <c r="E710" s="4"/>
       <c r="F710" s="7">
         <f t="shared" si="21"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G710" s="6" t="s">
         <v>6</v>
@@ -10904,7 +11169,7 @@
       <c r="E711" s="4"/>
       <c r="F711" s="7">
         <f t="shared" ref="F711:F717" si="23">$E$3/$E$2</f>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G711" s="6" t="s">
         <v>7</v>
@@ -10923,7 +11188,7 @@
       <c r="E712" s="4"/>
       <c r="F712" s="7">
         <f t="shared" si="23"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="G712" s="6" t="s">
         <v>8</v>
@@ -10942,7 +11207,7 @@
       <c r="E713" s="4"/>
       <c r="F713" s="7">
         <f t="shared" si="23"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H713" s="7"/>
     </row>
@@ -10958,7 +11223,7 @@
       <c r="E714" s="4"/>
       <c r="F714" s="7">
         <f t="shared" si="23"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H714" s="7"/>
     </row>
@@ -10974,7 +11239,7 @@
       <c r="E715" s="4"/>
       <c r="F715" s="7">
         <f t="shared" si="23"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H715" s="7"/>
     </row>
@@ -10990,7 +11255,7 @@
       <c r="E716" s="4"/>
       <c r="F716" s="7">
         <f t="shared" si="23"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H716" s="7"/>
     </row>
@@ -11006,7 +11271,7 @@
       <c r="E717" s="4"/>
       <c r="F717" s="7">
         <f t="shared" si="23"/>
-        <v>8.7078651685393263E-2</v>
+        <v>0.1151685393258427</v>
       </c>
       <c r="H717" s="7"/>
     </row>

--- a/背题.xlsx
+++ b/背题.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="118">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,6 +395,98 @@
   </si>
   <si>
     <t>The application user has exceeded their undo quota.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view versions between two points</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERSIONS_XID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A range of SCN &amp; timestamps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None of the above:BIN$F2JFfMq8Q5unbC0ceE9eJg==$0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The VERSIONS BETWEEN clause may not be used to query past DDL changes to tables.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flashback Table recovery is  dependent on the undo data in the undo tablespace.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All the triggers are disabled during flash back table.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLASHBACK_TRANSACTION_QUERY:START_SCN &amp; START_TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flashback logs in the flash recovery area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RVWR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLASHBACK DB RECOVERY POINT:SCN &amp; NAMED POINT &amp; TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tablespace name &amp; RENTENTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLASHBACK DATA ARCHIVE:AUTOMATIC DELETE expired DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACKGROUND_DUMP &amp; USER_DUMP &amp; CORE_DUMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIAGNOSTIC_DEST:ORACLE_BASE→ORACLE_HOME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;diagnostic_dest&gt;/diag/rdbms/&lt;dbname&gt;/&lt;instname&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support Workbench:View long-running SQL workloads &amp; Clean up incident data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>files associated &amp; ZIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create new package, view contents, view manifest, schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Datafiles remain offline while corrupt blocks are repaired.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detect block corruption:ANALYZE operations &amp; dbv &amp; SQL queries that access the potentially corrupt block&amp;RMAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,14 +498,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -518,8 +610,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -527,7 +619,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -813,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="C376" sqref="C376:C384"/>
+    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="C392" sqref="C392:C405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -839,7 +931,7 @@
     <row r="3" spans="2:8">
       <c r="E3">
         <f>COUNTA($C$6:$C$717)</f>
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="F3" s="7"/>
       <c r="H3" s="7"/>
@@ -874,7 +966,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="7">
         <f>$E$3/$E$2</f>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -888,7 +980,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="7">
         <f t="shared" ref="F7:F70" si="1">$E$3/$E$2</f>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -902,7 +994,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H8" s="7"/>
     </row>
@@ -916,7 +1008,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -930,7 +1022,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -944,7 +1036,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -958,7 +1050,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H12" s="7"/>
     </row>
@@ -972,7 +1064,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H13" s="7"/>
     </row>
@@ -986,7 +1078,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -1000,7 +1092,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H15" s="7"/>
     </row>
@@ -1014,7 +1106,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -1028,7 +1120,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H17" s="7"/>
     </row>
@@ -1042,7 +1134,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H18" s="7"/>
     </row>
@@ -1056,7 +1148,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H19" s="7"/>
     </row>
@@ -1070,7 +1162,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H20" s="7"/>
     </row>
@@ -1084,7 +1176,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H21" s="7"/>
     </row>
@@ -1098,7 +1190,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H22" s="7"/>
     </row>
@@ -1112,7 +1204,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H23" s="7"/>
     </row>
@@ -1126,7 +1218,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H24" s="7"/>
     </row>
@@ -1140,7 +1232,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H25" s="7"/>
     </row>
@@ -1154,7 +1246,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H26" s="7"/>
     </row>
@@ -1168,7 +1260,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H27" s="7"/>
     </row>
@@ -1182,7 +1274,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H28" s="7"/>
     </row>
@@ -1196,7 +1288,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H29" s="7"/>
     </row>
@@ -1210,7 +1302,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H30" s="7"/>
     </row>
@@ -1224,7 +1316,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H31" s="7"/>
     </row>
@@ -1238,7 +1330,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H32" s="7"/>
     </row>
@@ -1252,7 +1344,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H33" s="7"/>
     </row>
@@ -1266,7 +1358,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H34" s="7"/>
     </row>
@@ -1280,7 +1372,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H35" s="7"/>
     </row>
@@ -1294,7 +1386,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H36" s="7"/>
     </row>
@@ -1308,7 +1400,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H37" s="7"/>
     </row>
@@ -1322,7 +1414,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H38" s="7"/>
     </row>
@@ -1336,7 +1428,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H39" s="7"/>
     </row>
@@ -1350,7 +1442,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H40" s="7"/>
     </row>
@@ -1364,7 +1456,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H41" s="7"/>
     </row>
@@ -1378,7 +1470,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H42" s="7"/>
     </row>
@@ -1392,7 +1484,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H43" s="7"/>
     </row>
@@ -1406,7 +1498,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H44" s="7"/>
     </row>
@@ -1420,7 +1512,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H45" s="7"/>
     </row>
@@ -1434,7 +1526,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H46" s="7"/>
     </row>
@@ -1448,7 +1540,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H47" s="7"/>
     </row>
@@ -1462,7 +1554,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H48" s="7"/>
     </row>
@@ -1476,7 +1568,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H49" s="7"/>
     </row>
@@ -1490,7 +1582,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -1504,7 +1596,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H51" s="7"/>
     </row>
@@ -1518,7 +1610,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H52" s="7"/>
     </row>
@@ -1532,7 +1624,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H53" s="7"/>
     </row>
@@ -1546,7 +1638,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -1560,7 +1652,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -1574,7 +1666,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H56" s="7"/>
     </row>
@@ -1588,7 +1680,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H57" s="7"/>
     </row>
@@ -1602,7 +1694,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H58" s="7"/>
     </row>
@@ -1616,7 +1708,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H59" s="7"/>
     </row>
@@ -1630,7 +1722,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H60" s="7"/>
     </row>
@@ -1644,7 +1736,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H61" s="7"/>
     </row>
@@ -1658,7 +1750,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H62" s="7"/>
     </row>
@@ -1672,7 +1764,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H63" s="7"/>
     </row>
@@ -1686,7 +1778,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H64" s="7"/>
     </row>
@@ -1700,7 +1792,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H65" s="7"/>
     </row>
@@ -1714,7 +1806,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H66" s="7"/>
     </row>
@@ -1728,7 +1820,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H67" s="7"/>
     </row>
@@ -1742,7 +1834,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H68" s="7"/>
     </row>
@@ -1756,7 +1848,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H69" s="7"/>
     </row>
@@ -1770,7 +1862,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="7">
         <f t="shared" si="1"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H70" s="7"/>
     </row>
@@ -1784,7 +1876,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="7">
         <f t="shared" ref="F71:F134" si="3">$E$3/$E$2</f>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H71" s="7"/>
     </row>
@@ -1798,7 +1890,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H72" s="7"/>
     </row>
@@ -1812,7 +1904,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H73" s="7"/>
     </row>
@@ -1826,7 +1918,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H74" s="7"/>
     </row>
@@ -1840,7 +1932,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H75" s="7"/>
     </row>
@@ -1854,7 +1946,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H76" s="7"/>
     </row>
@@ -1868,7 +1960,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H77" s="7"/>
     </row>
@@ -1882,7 +1974,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H78" s="7"/>
     </row>
@@ -1896,7 +1988,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H79" s="7"/>
     </row>
@@ -1910,7 +2002,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H80" s="7"/>
     </row>
@@ -1924,7 +2016,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H81" s="7"/>
     </row>
@@ -1938,7 +2030,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H82" s="7"/>
     </row>
@@ -1952,7 +2044,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H83" s="7"/>
     </row>
@@ -1966,7 +2058,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H84" s="7"/>
     </row>
@@ -1980,7 +2072,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H85" s="7"/>
     </row>
@@ -1994,7 +2086,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H86" s="7"/>
     </row>
@@ -2008,7 +2100,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H87" s="7"/>
     </row>
@@ -2022,7 +2114,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H88" s="7"/>
     </row>
@@ -2036,7 +2128,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H89" s="7"/>
     </row>
@@ -2050,7 +2142,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H90" s="7"/>
     </row>
@@ -2064,7 +2156,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H91" s="7"/>
     </row>
@@ -2078,7 +2170,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H92" s="7"/>
     </row>
@@ -2092,7 +2184,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H93" s="7"/>
     </row>
@@ -2106,7 +2198,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H94" s="7"/>
     </row>
@@ -2120,7 +2212,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H95" s="7"/>
     </row>
@@ -2134,7 +2226,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H96" s="7"/>
     </row>
@@ -2148,7 +2240,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H97" s="7"/>
     </row>
@@ -2162,7 +2254,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H98" s="7"/>
     </row>
@@ -2176,7 +2268,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H99" s="7"/>
     </row>
@@ -2190,7 +2282,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H100" s="7"/>
     </row>
@@ -2204,7 +2296,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H101" s="7"/>
     </row>
@@ -2218,7 +2310,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H102" s="7"/>
     </row>
@@ -2232,7 +2324,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H103" s="7"/>
     </row>
@@ -2246,7 +2338,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H104" s="7"/>
     </row>
@@ -2260,7 +2352,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H105" s="7"/>
     </row>
@@ -2274,7 +2366,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H106" s="7"/>
     </row>
@@ -2288,7 +2380,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H107" s="7"/>
     </row>
@@ -2302,7 +2394,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H108" s="7"/>
     </row>
@@ -2316,7 +2408,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H109" s="7"/>
     </row>
@@ -2330,7 +2422,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H110" s="7"/>
     </row>
@@ -2344,7 +2436,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H111" s="7"/>
     </row>
@@ -2358,7 +2450,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H112" s="7"/>
     </row>
@@ -2372,7 +2464,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H113" s="7"/>
     </row>
@@ -2386,7 +2478,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H114" s="7"/>
     </row>
@@ -2400,7 +2492,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H115" s="7"/>
     </row>
@@ -2414,7 +2506,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H116" s="7"/>
     </row>
@@ -2428,7 +2520,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H117" s="7"/>
     </row>
@@ -2442,7 +2534,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H118" s="7"/>
     </row>
@@ -2456,7 +2548,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H119" s="7"/>
     </row>
@@ -2470,7 +2562,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H120" s="7"/>
     </row>
@@ -2484,7 +2576,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H121" s="7"/>
     </row>
@@ -2498,7 +2590,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H122" s="7"/>
     </row>
@@ -2512,7 +2604,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H123" s="7"/>
     </row>
@@ -2526,7 +2618,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H124" s="7"/>
     </row>
@@ -2540,7 +2632,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H125" s="7"/>
     </row>
@@ -2554,7 +2646,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H126" s="7"/>
     </row>
@@ -2568,7 +2660,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H127" s="7"/>
     </row>
@@ -2582,7 +2674,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H128" s="7"/>
     </row>
@@ -2596,7 +2688,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H129" s="7"/>
     </row>
@@ -2610,7 +2702,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H130" s="7"/>
     </row>
@@ -2624,7 +2716,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H131" s="7"/>
     </row>
@@ -2638,7 +2730,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H132" s="7"/>
     </row>
@@ -2652,7 +2744,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H133" s="7"/>
     </row>
@@ -2666,7 +2758,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="7">
         <f t="shared" si="3"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H134" s="7"/>
     </row>
@@ -2680,7 +2772,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="7">
         <f t="shared" ref="F135:F198" si="5">$E$3/$E$2</f>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H135" s="7"/>
     </row>
@@ -2694,7 +2786,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H136" s="7"/>
     </row>
@@ -2708,7 +2800,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H137" s="7"/>
     </row>
@@ -2722,7 +2814,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H138" s="7"/>
     </row>
@@ -2736,7 +2828,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H139" s="7"/>
     </row>
@@ -2750,7 +2842,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H140" s="7"/>
     </row>
@@ -2764,7 +2856,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H141" s="7"/>
     </row>
@@ -2778,7 +2870,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H142" s="7"/>
     </row>
@@ -2792,7 +2884,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H143" s="7"/>
     </row>
@@ -2806,7 +2898,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H144" s="7"/>
     </row>
@@ -2820,7 +2912,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H145" s="7"/>
     </row>
@@ -2834,7 +2926,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H146" s="7"/>
     </row>
@@ -2848,7 +2940,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H147" s="7"/>
     </row>
@@ -2862,7 +2954,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H148" s="7"/>
     </row>
@@ -2876,7 +2968,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H149" s="7"/>
     </row>
@@ -2890,7 +2982,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H150" s="7"/>
     </row>
@@ -2904,7 +2996,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H151" s="7"/>
     </row>
@@ -2918,7 +3010,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H152" s="7"/>
     </row>
@@ -2932,7 +3024,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H153" s="7"/>
     </row>
@@ -2946,7 +3038,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H154" s="7"/>
     </row>
@@ -2960,7 +3052,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H155" s="7"/>
     </row>
@@ -2974,7 +3066,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H156" s="7"/>
     </row>
@@ -2988,7 +3080,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H157" s="7"/>
     </row>
@@ -3002,7 +3094,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H158" s="7"/>
     </row>
@@ -3016,7 +3108,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H159" s="7"/>
     </row>
@@ -3030,7 +3122,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H160" s="7"/>
     </row>
@@ -3044,7 +3136,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H161" s="7"/>
     </row>
@@ -3058,7 +3150,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H162" s="7"/>
     </row>
@@ -3072,7 +3164,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H163" s="7"/>
     </row>
@@ -3086,7 +3178,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H164" s="7"/>
     </row>
@@ -3100,7 +3192,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H165" s="7"/>
     </row>
@@ -3114,7 +3206,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H166" s="7"/>
     </row>
@@ -3128,7 +3220,7 @@
       <c r="E167" s="4"/>
       <c r="F167" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H167" s="7"/>
     </row>
@@ -3142,7 +3234,7 @@
       <c r="E168" s="4"/>
       <c r="F168" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H168" s="7"/>
     </row>
@@ -3156,7 +3248,7 @@
       <c r="E169" s="4"/>
       <c r="F169" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H169" s="7"/>
     </row>
@@ -3170,7 +3262,7 @@
       <c r="E170" s="4"/>
       <c r="F170" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H170" s="7"/>
     </row>
@@ -3184,7 +3276,7 @@
       <c r="E171" s="4"/>
       <c r="F171" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H171" s="7"/>
     </row>
@@ -3198,7 +3290,7 @@
       <c r="E172" s="4"/>
       <c r="F172" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H172" s="7"/>
     </row>
@@ -3212,7 +3304,7 @@
       <c r="E173" s="4"/>
       <c r="F173" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H173" s="7"/>
     </row>
@@ -3226,7 +3318,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H174" s="7"/>
     </row>
@@ -3240,7 +3332,7 @@
       <c r="E175" s="4"/>
       <c r="F175" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H175" s="7"/>
     </row>
@@ -3254,7 +3346,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H176" s="7"/>
     </row>
@@ -3268,7 +3360,7 @@
       <c r="E177" s="4"/>
       <c r="F177" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H177" s="7"/>
     </row>
@@ -3282,7 +3374,7 @@
       <c r="E178" s="4"/>
       <c r="F178" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H178" s="7"/>
     </row>
@@ -3296,7 +3388,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H179" s="7"/>
     </row>
@@ -3310,7 +3402,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H180" s="7"/>
     </row>
@@ -3324,7 +3416,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H181" s="7"/>
     </row>
@@ -3338,7 +3430,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H182" s="7"/>
     </row>
@@ -3352,7 +3444,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H183" s="7"/>
     </row>
@@ -3366,7 +3458,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H184" s="7"/>
     </row>
@@ -3380,7 +3472,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H185" s="7"/>
     </row>
@@ -3394,7 +3486,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H186" s="7"/>
     </row>
@@ -3408,7 +3500,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H187" s="7"/>
     </row>
@@ -3422,7 +3514,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H188" s="7"/>
     </row>
@@ -3436,7 +3528,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H189" s="7"/>
     </row>
@@ -3450,7 +3542,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H190" s="7"/>
     </row>
@@ -3464,7 +3556,7 @@
       <c r="E191" s="4"/>
       <c r="F191" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H191" s="7"/>
     </row>
@@ -3478,7 +3570,7 @@
       <c r="E192" s="4"/>
       <c r="F192" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H192" s="7"/>
     </row>
@@ -3492,7 +3584,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H193" s="7"/>
     </row>
@@ -3506,7 +3598,7 @@
       <c r="E194" s="4"/>
       <c r="F194" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H194" s="7"/>
     </row>
@@ -3520,7 +3612,7 @@
       <c r="E195" s="4"/>
       <c r="F195" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H195" s="7"/>
     </row>
@@ -3534,7 +3626,7 @@
       <c r="E196" s="4"/>
       <c r="F196" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H196" s="7"/>
     </row>
@@ -3548,7 +3640,7 @@
       <c r="E197" s="4"/>
       <c r="F197" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H197" s="7"/>
     </row>
@@ -3562,7 +3654,7 @@
       <c r="E198" s="4"/>
       <c r="F198" s="7">
         <f t="shared" si="5"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H198" s="7"/>
     </row>
@@ -3576,7 +3668,7 @@
       <c r="E199" s="4"/>
       <c r="F199" s="7">
         <f t="shared" ref="F199:F262" si="7">$E$3/$E$2</f>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H199" s="7"/>
     </row>
@@ -3590,7 +3682,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H200" s="7"/>
     </row>
@@ -3604,7 +3696,7 @@
       <c r="E201" s="4"/>
       <c r="F201" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H201" s="7"/>
     </row>
@@ -3618,7 +3710,7 @@
       <c r="E202" s="4"/>
       <c r="F202" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H202" s="7"/>
     </row>
@@ -3632,7 +3724,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H203" s="7"/>
     </row>
@@ -3646,7 +3738,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H204" s="7"/>
     </row>
@@ -3660,7 +3752,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H205" s="7"/>
     </row>
@@ -3674,7 +3766,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H206" s="7"/>
     </row>
@@ -3688,7 +3780,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H207" s="7"/>
     </row>
@@ -3702,7 +3794,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H208" s="7"/>
     </row>
@@ -3716,7 +3808,7 @@
       <c r="E209" s="4"/>
       <c r="F209" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H209" s="7"/>
     </row>
@@ -3730,7 +3822,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H210" s="7"/>
     </row>
@@ -3744,7 +3836,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H211" s="7"/>
     </row>
@@ -3758,7 +3850,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H212" s="7"/>
     </row>
@@ -3772,7 +3864,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H213" s="7"/>
     </row>
@@ -3786,7 +3878,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H214" s="7"/>
     </row>
@@ -3800,7 +3892,7 @@
       <c r="E215" s="4"/>
       <c r="F215" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H215" s="7"/>
     </row>
@@ -3814,7 +3906,7 @@
       <c r="E216" s="4"/>
       <c r="F216" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H216" s="7"/>
     </row>
@@ -3828,7 +3920,7 @@
       <c r="E217" s="4"/>
       <c r="F217" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H217" s="7"/>
     </row>
@@ -3842,7 +3934,7 @@
       <c r="E218" s="4"/>
       <c r="F218" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H218" s="7"/>
     </row>
@@ -3856,7 +3948,7 @@
       <c r="E219" s="4"/>
       <c r="F219" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H219" s="7"/>
     </row>
@@ -3870,7 +3962,7 @@
       <c r="E220" s="4"/>
       <c r="F220" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H220" s="7"/>
     </row>
@@ -3884,7 +3976,7 @@
       <c r="E221" s="4"/>
       <c r="F221" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H221" s="7"/>
     </row>
@@ -3898,7 +3990,7 @@
       <c r="E222" s="4"/>
       <c r="F222" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H222" s="7"/>
     </row>
@@ -3912,7 +4004,7 @@
       <c r="E223" s="4"/>
       <c r="F223" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H223" s="7"/>
     </row>
@@ -3926,7 +4018,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H224" s="7"/>
     </row>
@@ -3940,7 +4032,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H225" s="7"/>
     </row>
@@ -3954,7 +4046,7 @@
       <c r="E226" s="4"/>
       <c r="F226" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H226" s="7"/>
     </row>
@@ -3968,7 +4060,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H227" s="7"/>
     </row>
@@ -3982,7 +4074,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H228" s="7"/>
     </row>
@@ -3996,7 +4088,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H229" s="7"/>
     </row>
@@ -4010,7 +4102,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H230" s="7"/>
     </row>
@@ -4024,7 +4116,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H231" s="7"/>
     </row>
@@ -4038,7 +4130,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H232" s="7"/>
     </row>
@@ -4052,7 +4144,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H233" s="7"/>
     </row>
@@ -4066,7 +4158,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H234" s="7"/>
     </row>
@@ -4080,7 +4172,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H235" s="7"/>
     </row>
@@ -4094,7 +4186,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H236" s="7"/>
     </row>
@@ -4108,7 +4200,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H237" s="7"/>
     </row>
@@ -4122,7 +4214,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H238" s="7"/>
     </row>
@@ -4136,7 +4228,7 @@
       <c r="E239" s="4"/>
       <c r="F239" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H239" s="7"/>
     </row>
@@ -4150,7 +4242,7 @@
       <c r="E240" s="4"/>
       <c r="F240" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H240" s="7"/>
     </row>
@@ -4164,7 +4256,7 @@
       <c r="E241" s="4"/>
       <c r="F241" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H241" s="7"/>
     </row>
@@ -4178,7 +4270,7 @@
       <c r="E242" s="4"/>
       <c r="F242" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H242" s="7"/>
     </row>
@@ -4192,7 +4284,7 @@
       <c r="E243" s="4"/>
       <c r="F243" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H243" s="7"/>
     </row>
@@ -4206,7 +4298,7 @@
       <c r="E244" s="4"/>
       <c r="F244" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H244" s="7"/>
     </row>
@@ -4220,7 +4312,7 @@
       <c r="E245" s="4"/>
       <c r="F245" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H245" s="7"/>
     </row>
@@ -4234,7 +4326,7 @@
       <c r="E246" s="4"/>
       <c r="F246" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H246" s="7"/>
     </row>
@@ -4248,7 +4340,7 @@
       <c r="E247" s="4"/>
       <c r="F247" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H247" s="7"/>
     </row>
@@ -4262,7 +4354,7 @@
       <c r="E248" s="4"/>
       <c r="F248" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H248" s="7"/>
     </row>
@@ -4276,7 +4368,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H249" s="7"/>
     </row>
@@ -4290,7 +4382,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H250" s="7"/>
     </row>
@@ -4304,7 +4396,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H251" s="7"/>
     </row>
@@ -4318,7 +4410,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H252" s="7"/>
     </row>
@@ -4332,7 +4424,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H253" s="7"/>
     </row>
@@ -4346,7 +4438,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H254" s="7"/>
     </row>
@@ -4360,7 +4452,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H255" s="7"/>
     </row>
@@ -4374,7 +4466,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H256" s="7"/>
     </row>
@@ -4388,7 +4480,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H257" s="7"/>
     </row>
@@ -4402,7 +4494,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H258" s="7"/>
     </row>
@@ -4416,7 +4508,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H259" s="7"/>
     </row>
@@ -4430,7 +4522,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H260" s="7"/>
     </row>
@@ -4444,7 +4536,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H261" s="7"/>
     </row>
@@ -4458,7 +4550,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="7">
         <f t="shared" si="7"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H262" s="7"/>
     </row>
@@ -4472,7 +4564,7 @@
       <c r="E263" s="4"/>
       <c r="F263" s="7">
         <f t="shared" ref="F263:F326" si="9">$E$3/$E$2</f>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H263" s="7"/>
     </row>
@@ -4486,7 +4578,7 @@
       <c r="E264" s="4"/>
       <c r="F264" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H264" s="7"/>
     </row>
@@ -4500,7 +4592,7 @@
       <c r="E265" s="4"/>
       <c r="F265" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H265" s="7"/>
     </row>
@@ -4514,7 +4606,7 @@
       <c r="E266" s="4"/>
       <c r="F266" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H266" s="7"/>
     </row>
@@ -4528,7 +4620,7 @@
       <c r="E267" s="4"/>
       <c r="F267" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H267" s="7"/>
     </row>
@@ -4542,7 +4634,7 @@
       <c r="E268" s="4"/>
       <c r="F268" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H268" s="7"/>
     </row>
@@ -4556,7 +4648,7 @@
       <c r="E269" s="4"/>
       <c r="F269" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H269" s="7"/>
     </row>
@@ -4570,7 +4662,7 @@
       <c r="E270" s="4"/>
       <c r="F270" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H270" s="7"/>
     </row>
@@ -4584,7 +4676,7 @@
       <c r="E271" s="4"/>
       <c r="F271" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H271" s="7"/>
     </row>
@@ -4598,7 +4690,7 @@
       <c r="E272" s="4"/>
       <c r="F272" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H272" s="7"/>
     </row>
@@ -4612,7 +4704,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H273" s="7"/>
     </row>
@@ -4626,7 +4718,7 @@
       <c r="E274" s="4"/>
       <c r="F274" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H274" s="7"/>
     </row>
@@ -4640,7 +4732,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H275" s="7"/>
     </row>
@@ -4654,7 +4746,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H276" s="7"/>
     </row>
@@ -4668,7 +4760,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H277" s="7"/>
     </row>
@@ -4682,7 +4774,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H278" s="7"/>
     </row>
@@ -4696,7 +4788,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H279" s="7"/>
     </row>
@@ -4710,7 +4802,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H280" s="7"/>
     </row>
@@ -4724,7 +4816,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H281" s="7"/>
     </row>
@@ -4738,7 +4830,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H282" s="7"/>
     </row>
@@ -4752,7 +4844,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H283" s="7"/>
     </row>
@@ -4766,7 +4858,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H284" s="7"/>
     </row>
@@ -4780,7 +4872,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H285" s="7"/>
     </row>
@@ -4794,7 +4886,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H286" s="7"/>
     </row>
@@ -4808,7 +4900,7 @@
       <c r="E287" s="4"/>
       <c r="F287" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H287" s="7"/>
     </row>
@@ -4822,7 +4914,7 @@
       <c r="E288" s="4"/>
       <c r="F288" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H288" s="7"/>
     </row>
@@ -4836,7 +4928,7 @@
       <c r="E289" s="4"/>
       <c r="F289" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H289" s="7"/>
     </row>
@@ -4850,7 +4942,7 @@
       <c r="E290" s="4"/>
       <c r="F290" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H290" s="7"/>
     </row>
@@ -4864,7 +4956,7 @@
       <c r="E291" s="4"/>
       <c r="F291" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H291" s="7"/>
     </row>
@@ -4878,7 +4970,7 @@
       <c r="E292" s="4"/>
       <c r="F292" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H292" s="7"/>
     </row>
@@ -4892,7 +4984,7 @@
       <c r="E293" s="4"/>
       <c r="F293" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H293" s="7"/>
     </row>
@@ -4906,7 +4998,7 @@
       <c r="E294" s="4"/>
       <c r="F294" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H294" s="7"/>
     </row>
@@ -4920,7 +5012,7 @@
       <c r="E295" s="4"/>
       <c r="F295" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H295" s="7"/>
     </row>
@@ -4934,7 +5026,7 @@
       <c r="E296" s="4"/>
       <c r="F296" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H296" s="7"/>
     </row>
@@ -4948,7 +5040,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H297" s="7"/>
     </row>
@@ -4962,7 +5054,7 @@
       <c r="E298" s="4"/>
       <c r="F298" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H298" s="7"/>
     </row>
@@ -4976,7 +5068,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H299" s="7"/>
     </row>
@@ -4990,7 +5082,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H300" s="7"/>
     </row>
@@ -5004,7 +5096,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H301" s="7"/>
     </row>
@@ -5018,7 +5110,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H302" s="7"/>
     </row>
@@ -5032,7 +5124,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H303" s="7"/>
     </row>
@@ -5046,7 +5138,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H304" s="7"/>
     </row>
@@ -5060,7 +5152,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H305" s="7"/>
     </row>
@@ -5076,7 +5168,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G306" s="6" t="s">
         <v>13</v>
@@ -5095,7 +5187,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G307" s="6" t="s">
         <v>14</v>
@@ -5114,7 +5206,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G308" s="6" t="s">
         <v>15</v>
@@ -5133,7 +5225,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G309" s="6" t="s">
         <v>16</v>
@@ -5152,7 +5244,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G310" s="6" t="s">
         <v>17</v>
@@ -5171,7 +5263,7 @@
       <c r="E311" s="4"/>
       <c r="F311" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G311" s="6" t="s">
         <v>18</v>
@@ -5190,7 +5282,7 @@
       <c r="E312" s="4"/>
       <c r="F312" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G312" s="6" t="s">
         <v>19</v>
@@ -5209,7 +5301,7 @@
       <c r="E313" s="4"/>
       <c r="F313" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G313" s="6" t="s">
         <v>20</v>
@@ -5228,7 +5320,7 @@
       <c r="E314" s="4"/>
       <c r="F314" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G314" s="6" t="s">
         <v>21</v>
@@ -5247,7 +5339,7 @@
       <c r="E315" s="4"/>
       <c r="F315" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G315" s="6" t="s">
         <v>22</v>
@@ -5266,7 +5358,7 @@
       <c r="E316" s="4"/>
       <c r="F316" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G316" s="6" t="s">
         <v>24</v>
@@ -5285,7 +5377,7 @@
       <c r="E317" s="4"/>
       <c r="F317" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G317" s="8" t="s">
         <v>23</v>
@@ -5304,7 +5396,7 @@
       <c r="E318" s="4"/>
       <c r="F318" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>25</v>
@@ -5323,7 +5415,7 @@
       <c r="E319" s="4"/>
       <c r="F319" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G319" s="6" t="s">
         <v>26</v>
@@ -5342,7 +5434,7 @@
       <c r="E320" s="4"/>
       <c r="F320" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G320" s="6" t="s">
         <v>27</v>
@@ -5361,7 +5453,7 @@
       <c r="E321" s="4"/>
       <c r="F321" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G321" s="6" t="s">
         <v>28</v>
@@ -5380,7 +5472,7 @@
       <c r="E322" s="4"/>
       <c r="F322" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G322" s="6" t="s">
         <v>29</v>
@@ -5399,7 +5491,7 @@
       <c r="E323" s="4"/>
       <c r="F323" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G323" s="6" t="s">
         <v>30</v>
@@ -5418,7 +5510,7 @@
       <c r="E324" s="4"/>
       <c r="F324" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G324" s="6" t="s">
         <v>31</v>
@@ -5437,7 +5529,7 @@
       <c r="E325" s="4"/>
       <c r="F325" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G325" s="6" t="s">
         <v>32</v>
@@ -5456,7 +5548,7 @@
       <c r="E326" s="4"/>
       <c r="F326" s="7">
         <f t="shared" si="9"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G326" s="6" t="s">
         <v>33</v>
@@ -5475,7 +5567,7 @@
       <c r="E327" s="4"/>
       <c r="F327" s="7">
         <f t="shared" ref="F327:F390" si="11">$E$3/$E$2</f>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G327" s="6" t="s">
         <v>34</v>
@@ -5494,7 +5586,7 @@
       <c r="E328" s="4"/>
       <c r="F328" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G328" s="6" t="s">
         <v>35</v>
@@ -5513,7 +5605,7 @@
       <c r="E329" s="4"/>
       <c r="F329" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G329" s="6" t="s">
         <v>36</v>
@@ -5532,7 +5624,7 @@
       <c r="E330" s="4"/>
       <c r="F330" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G330" s="6" t="s">
         <v>37</v>
@@ -5554,7 +5646,7 @@
       <c r="E331" s="4"/>
       <c r="F331" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G331" s="6" t="s">
         <v>38</v>
@@ -5573,7 +5665,7 @@
       <c r="E332" s="4"/>
       <c r="F332" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G332" s="6" t="s">
         <v>40</v>
@@ -5592,7 +5684,7 @@
       <c r="E333" s="4"/>
       <c r="F333" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G333" s="6" t="s">
         <v>41</v>
@@ -5611,7 +5703,7 @@
       <c r="E334" s="4"/>
       <c r="F334" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G334" s="6" t="s">
         <v>42</v>
@@ -5630,7 +5722,7 @@
       <c r="E335" s="4"/>
       <c r="F335" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G335" s="6" t="s">
         <v>43</v>
@@ -5649,7 +5741,7 @@
       <c r="E336" s="4"/>
       <c r="F336" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G336" s="6" t="s">
         <v>44</v>
@@ -5668,7 +5760,7 @@
       <c r="E337" s="4"/>
       <c r="F337" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G337" s="6" t="s">
         <v>45</v>
@@ -5687,7 +5779,7 @@
       <c r="E338" s="4"/>
       <c r="F338" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G338" s="6" t="s">
         <v>46</v>
@@ -5706,7 +5798,7 @@
       <c r="E339" s="4"/>
       <c r="F339" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G339" s="6" t="s">
         <v>47</v>
@@ -5725,7 +5817,7 @@
       <c r="E340" s="4"/>
       <c r="F340" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G340" s="6" t="s">
         <v>48</v>
@@ -5744,7 +5836,7 @@
       <c r="E341" s="4"/>
       <c r="F341" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G341" s="6" t="s">
         <v>49</v>
@@ -5763,7 +5855,7 @@
       <c r="E342" s="4"/>
       <c r="F342" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G342" s="6" t="s">
         <v>50</v>
@@ -5785,7 +5877,7 @@
       <c r="E343" s="4"/>
       <c r="F343" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G343" s="6" t="s">
         <v>51</v>
@@ -5804,7 +5896,7 @@
       <c r="E344" s="4"/>
       <c r="F344" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G344" s="6" t="s">
         <v>52</v>
@@ -5823,7 +5915,7 @@
       <c r="E345" s="4"/>
       <c r="F345" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G345" s="6" t="s">
         <v>53</v>
@@ -5842,7 +5934,7 @@
       <c r="E346" s="4"/>
       <c r="F346" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G346" s="6" t="s">
         <v>54</v>
@@ -5861,7 +5953,7 @@
       <c r="E347" s="4"/>
       <c r="F347" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G347" s="6" t="s">
         <v>55</v>
@@ -5880,7 +5972,7 @@
       <c r="E348" s="4"/>
       <c r="F348" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G348" s="6" t="s">
         <v>56</v>
@@ -5899,7 +5991,7 @@
       <c r="E349" s="4"/>
       <c r="F349" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G349" s="6" t="s">
         <v>57</v>
@@ -5907,6 +5999,9 @@
       <c r="H349" s="7"/>
     </row>
     <row r="350" spans="1:8">
+      <c r="A350" t="s">
+        <v>98</v>
+      </c>
       <c r="B350" s="2">
         <f t="shared" si="10"/>
         <v>345</v>
@@ -5918,7 +6013,7 @@
       <c r="E350" s="4"/>
       <c r="F350" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G350" s="6" t="s">
         <v>58</v>
@@ -5937,7 +6032,7 @@
       <c r="E351" s="4"/>
       <c r="F351" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G351" s="6" t="s">
         <v>59</v>
@@ -5956,7 +6051,7 @@
       <c r="E352" s="4"/>
       <c r="F352" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G352" s="6" t="s">
         <v>60</v>
@@ -5975,7 +6070,7 @@
       <c r="E353" s="4"/>
       <c r="F353" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G353" s="6" t="s">
         <v>61</v>
@@ -5994,7 +6089,7 @@
       <c r="E354" s="4"/>
       <c r="F354" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G354" s="6" t="s">
         <v>62</v>
@@ -6013,7 +6108,7 @@
       <c r="E355" s="4"/>
       <c r="F355" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G355" s="6" t="s">
         <v>63</v>
@@ -6032,7 +6127,7 @@
       <c r="E356" s="4"/>
       <c r="F356" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G356" s="6" t="s">
         <v>64</v>
@@ -6051,7 +6146,7 @@
       <c r="E357" s="4"/>
       <c r="F357" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G357" s="6" t="s">
         <v>65</v>
@@ -6070,7 +6165,7 @@
       <c r="E358" s="4"/>
       <c r="F358" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G358" s="6" t="s">
         <v>66</v>
@@ -6089,7 +6184,7 @@
       <c r="E359" s="4"/>
       <c r="F359" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G359" s="6" t="s">
         <v>67</v>
@@ -6108,7 +6203,7 @@
       <c r="E360" s="4"/>
       <c r="F360" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G360" s="6" t="s">
         <v>68</v>
@@ -6130,7 +6225,7 @@
       <c r="E361" s="4"/>
       <c r="F361" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G361" s="6" t="s">
         <v>69</v>
@@ -6149,7 +6244,7 @@
       <c r="E362" s="4"/>
       <c r="F362" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G362" s="6" t="s">
         <v>71</v>
@@ -6171,7 +6266,7 @@
       <c r="E363" s="4"/>
       <c r="F363" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G363" s="6" t="s">
         <v>72</v>
@@ -6190,7 +6285,7 @@
       <c r="E364" s="4"/>
       <c r="F364" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G364" s="6" t="s">
         <v>73</v>
@@ -6209,7 +6304,7 @@
       <c r="E365" s="4"/>
       <c r="F365" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G365" s="6" t="s">
         <v>74</v>
@@ -6228,7 +6323,7 @@
       <c r="E366" s="4"/>
       <c r="F366" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G366" s="6" t="s">
         <v>78</v>
@@ -6247,7 +6342,7 @@
       <c r="E367" s="4"/>
       <c r="F367" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G367" s="6" t="s">
         <v>75</v>
@@ -6266,7 +6361,7 @@
       <c r="E368" s="4"/>
       <c r="F368" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G368" s="6" t="s">
         <v>76</v>
@@ -6285,7 +6380,7 @@
       <c r="E369" s="4"/>
       <c r="F369" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G369" s="6" t="s">
         <v>77</v>
@@ -6304,7 +6399,7 @@
       <c r="E370" s="4"/>
       <c r="F370" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G370" s="6" t="s">
         <v>79</v>
@@ -6323,7 +6418,7 @@
       <c r="E371" s="4"/>
       <c r="F371" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G371" s="6" t="s">
         <v>80</v>
@@ -6342,7 +6437,7 @@
       <c r="E372" s="4"/>
       <c r="F372" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G372" s="6" t="s">
         <v>81</v>
@@ -6364,7 +6459,7 @@
       <c r="E373" s="4"/>
       <c r="F373" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G373" s="6" t="s">
         <v>82</v>
@@ -6383,7 +6478,7 @@
       <c r="E374" s="4"/>
       <c r="F374" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G374" s="6" t="s">
         <v>83</v>
@@ -6405,7 +6500,7 @@
       <c r="E375" s="4"/>
       <c r="F375" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G375" s="6" t="s">
         <v>84</v>
@@ -6417,12 +6512,14 @@
         <f t="shared" si="10"/>
         <v>371</v>
       </c>
-      <c r="C376" s="4"/>
+      <c r="C376" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
       <c r="F376" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G376" s="6" t="s">
         <v>87</v>
@@ -6434,12 +6531,14 @@
         <f t="shared" si="10"/>
         <v>372</v>
       </c>
-      <c r="C377" s="4"/>
+      <c r="C377" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
       <c r="F377" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G377" s="6" t="s">
         <v>86</v>
@@ -6454,12 +6553,14 @@
         <f t="shared" si="10"/>
         <v>373</v>
       </c>
-      <c r="C378" s="4"/>
+      <c r="C378" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
       <c r="F378" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G378" s="6" t="s">
         <v>88</v>
@@ -6471,12 +6572,14 @@
         <f t="shared" si="10"/>
         <v>374</v>
       </c>
-      <c r="C379" s="4"/>
+      <c r="C379" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
       <c r="F379" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G379" s="6" t="s">
         <v>89</v>
@@ -6484,16 +6587,21 @@
       <c r="H379" s="7"/>
     </row>
     <row r="380" spans="1:8">
+      <c r="A380" t="s">
+        <v>98</v>
+      </c>
       <c r="B380" s="2">
         <f t="shared" si="10"/>
         <v>375</v>
       </c>
-      <c r="C380" s="4"/>
+      <c r="C380" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
       <c r="F380" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G380" s="6" t="s">
         <v>90</v>
@@ -6505,12 +6613,14 @@
         <f t="shared" si="10"/>
         <v>376</v>
       </c>
-      <c r="C381" s="4"/>
+      <c r="C381" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
       <c r="F381" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G381" s="6" t="s">
         <v>91</v>
@@ -6522,12 +6632,14 @@
         <f t="shared" si="10"/>
         <v>377</v>
       </c>
-      <c r="C382" s="4"/>
+      <c r="C382" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
       <c r="F382" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G382" s="6" t="s">
         <v>92</v>
@@ -6535,16 +6647,21 @@
       <c r="H382" s="7"/>
     </row>
     <row r="383" spans="1:8">
+      <c r="A383" t="s">
+        <v>98</v>
+      </c>
       <c r="B383" s="2">
         <f t="shared" si="10"/>
         <v>378</v>
       </c>
-      <c r="C383" s="4"/>
+      <c r="C383" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
       <c r="F383" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G383" s="6" t="s">
         <v>93</v>
@@ -6556,239 +6673,333 @@
         <f t="shared" si="10"/>
         <v>379</v>
       </c>
-      <c r="C384" s="4"/>
+      <c r="C384" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
       <c r="F384" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G384" s="6" t="s">
         <v>94</v>
       </c>
       <c r="H384" s="7"/>
     </row>
-    <row r="385" spans="2:8">
+    <row r="385" spans="1:8">
       <c r="B385" s="2">
         <f t="shared" si="10"/>
         <v>380</v>
       </c>
-      <c r="C385" s="4"/>
+      <c r="C385" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
       <c r="F385" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="G385" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="H385" s="7"/>
     </row>
-    <row r="386" spans="2:8">
+    <row r="386" spans="1:8">
       <c r="B386" s="2">
         <f t="shared" si="10"/>
         <v>381</v>
       </c>
-      <c r="C386" s="4"/>
+      <c r="C386" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
       <c r="F386" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="G386" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="H386" s="7"/>
     </row>
-    <row r="387" spans="2:8">
+    <row r="387" spans="1:8">
+      <c r="A387" t="s">
+        <v>98</v>
+      </c>
       <c r="B387" s="2">
         <f t="shared" si="10"/>
         <v>382</v>
       </c>
-      <c r="C387" s="4"/>
+      <c r="C387" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
       <c r="F387" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="G387" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="H387" s="7"/>
     </row>
-    <row r="388" spans="2:8">
+    <row r="388" spans="1:8">
       <c r="B388" s="2">
         <f t="shared" si="10"/>
         <v>383</v>
       </c>
-      <c r="C388" s="4"/>
+      <c r="C388" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
       <c r="F388" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="G388" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="H388" s="7"/>
     </row>
-    <row r="389" spans="2:8">
+    <row r="389" spans="1:8">
       <c r="B389" s="2">
         <f t="shared" si="10"/>
         <v>384</v>
       </c>
-      <c r="C389" s="4"/>
+      <c r="C389" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
       <c r="F389" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="G389" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="H389" s="7"/>
     </row>
-    <row r="390" spans="2:8">
+    <row r="390" spans="1:8">
       <c r="B390" s="2">
         <f t="shared" si="10"/>
         <v>385</v>
       </c>
-      <c r="C390" s="4"/>
+      <c r="C390" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
       <c r="F390" s="7">
         <f t="shared" si="11"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="G390" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="H390" s="7"/>
     </row>
-    <row r="391" spans="2:8">
+    <row r="391" spans="1:8">
       <c r="B391" s="2">
         <f t="shared" ref="B391:B454" si="12">ROW()-5</f>
         <v>386</v>
       </c>
-      <c r="C391" s="4"/>
+      <c r="C391" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
       <c r="F391" s="7">
         <f t="shared" ref="F391:F454" si="13">$E$3/$E$2</f>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="G391" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="H391" s="7"/>
     </row>
-    <row r="392" spans="2:8">
+    <row r="392" spans="1:8">
       <c r="B392" s="2">
         <f t="shared" si="12"/>
         <v>387</v>
       </c>
-      <c r="C392" s="4"/>
+      <c r="C392" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
       <c r="F392" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="G392" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="H392" s="7"/>
     </row>
-    <row r="393" spans="2:8">
+    <row r="393" spans="1:8">
       <c r="B393" s="2">
         <f t="shared" si="12"/>
         <v>388</v>
       </c>
-      <c r="C393" s="4"/>
+      <c r="C393" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
       <c r="F393" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="G393" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="H393" s="7"/>
     </row>
-    <row r="394" spans="2:8">
+    <row r="394" spans="1:8">
       <c r="B394" s="2">
         <f t="shared" si="12"/>
         <v>389</v>
       </c>
-      <c r="C394" s="4"/>
+      <c r="C394" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
       <c r="F394" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="G394" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="H394" s="7"/>
     </row>
-    <row r="395" spans="2:8">
+    <row r="395" spans="1:8">
       <c r="B395" s="2">
         <f t="shared" si="12"/>
         <v>390</v>
       </c>
-      <c r="C395" s="4"/>
+      <c r="C395" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
       <c r="F395" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="G395" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="H395" s="7"/>
     </row>
-    <row r="396" spans="2:8">
+    <row r="396" spans="1:8">
+      <c r="A396" t="s">
+        <v>98</v>
+      </c>
       <c r="B396" s="2">
         <f t="shared" si="12"/>
         <v>391</v>
       </c>
-      <c r="C396" s="4"/>
+      <c r="C396" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
       <c r="F396" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="G396" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="H396" s="7"/>
     </row>
-    <row r="397" spans="2:8">
+    <row r="397" spans="1:8">
       <c r="B397" s="2">
         <f t="shared" si="12"/>
         <v>392</v>
       </c>
-      <c r="C397" s="4"/>
+      <c r="C397" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="F397" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="G397" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="H397" s="7"/>
     </row>
-    <row r="398" spans="2:8">
+    <row r="398" spans="1:8">
+      <c r="A398" t="s">
+        <v>110</v>
+      </c>
       <c r="B398" s="2">
         <f t="shared" si="12"/>
         <v>393</v>
       </c>
-      <c r="C398" s="4"/>
+      <c r="C398" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
       <c r="F398" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="G398" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="H398" s="7"/>
     </row>
-    <row r="399" spans="2:8">
+    <row r="399" spans="1:8">
       <c r="B399" s="2">
         <f t="shared" si="12"/>
         <v>394</v>
       </c>
-      <c r="C399" s="4"/>
+      <c r="C399" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
       <c r="F399" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="G399" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="H399" s="7"/>
     </row>
-    <row r="400" spans="2:8">
+    <row r="400" spans="1:8">
+      <c r="A400" t="s">
+        <v>98</v>
+      </c>
       <c r="B400" s="2">
         <f t="shared" si="12"/>
         <v>395</v>
       </c>
-      <c r="C400" s="4"/>
+      <c r="C400" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
       <c r="F400" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="G400" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="H400" s="7"/>
     </row>
@@ -6797,12 +7008,17 @@
         <f t="shared" si="12"/>
         <v>396</v>
       </c>
-      <c r="C401" s="4"/>
+      <c r="C401" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="F401" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="G401" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="H401" s="7"/>
     </row>
@@ -6811,12 +7027,17 @@
         <f t="shared" si="12"/>
         <v>397</v>
       </c>
-      <c r="C402" s="4"/>
+      <c r="C402" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
       <c r="F402" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="G402" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="H402" s="7"/>
     </row>
@@ -6825,12 +7046,17 @@
         <f t="shared" si="12"/>
         <v>398</v>
       </c>
-      <c r="C403" s="4"/>
+      <c r="C403" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
       <c r="F403" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="G403" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="H403" s="7"/>
     </row>
@@ -6839,12 +7065,17 @@
         <f t="shared" si="12"/>
         <v>399</v>
       </c>
-      <c r="C404" s="4"/>
+      <c r="C404" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
       <c r="F404" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="G404" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="H404" s="7"/>
     </row>
@@ -6853,12 +7084,17 @@
         <f t="shared" si="12"/>
         <v>400</v>
       </c>
-      <c r="C405" s="4"/>
+      <c r="C405" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
       <c r="F405" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="G405" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="H405" s="7"/>
     </row>
@@ -6872,7 +7108,7 @@
       <c r="E406" s="4"/>
       <c r="F406" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H406" s="7"/>
     </row>
@@ -6886,7 +7122,7 @@
       <c r="E407" s="4"/>
       <c r="F407" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H407" s="7"/>
     </row>
@@ -6900,7 +7136,7 @@
       <c r="E408" s="4"/>
       <c r="F408" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H408" s="7"/>
     </row>
@@ -6914,7 +7150,7 @@
       <c r="E409" s="4"/>
       <c r="F409" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H409" s="7"/>
     </row>
@@ -6928,7 +7164,7 @@
       <c r="E410" s="4"/>
       <c r="F410" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H410" s="7"/>
     </row>
@@ -6942,7 +7178,7 @@
       <c r="E411" s="4"/>
       <c r="F411" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H411" s="7"/>
     </row>
@@ -6956,7 +7192,7 @@
       <c r="E412" s="4"/>
       <c r="F412" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H412" s="7"/>
     </row>
@@ -6970,7 +7206,7 @@
       <c r="E413" s="4"/>
       <c r="F413" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H413" s="7"/>
     </row>
@@ -6984,7 +7220,7 @@
       <c r="E414" s="4"/>
       <c r="F414" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H414" s="7"/>
     </row>
@@ -6998,7 +7234,7 @@
       <c r="E415" s="4"/>
       <c r="F415" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H415" s="7"/>
     </row>
@@ -7012,7 +7248,7 @@
       <c r="E416" s="4"/>
       <c r="F416" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H416" s="7"/>
     </row>
@@ -7026,7 +7262,7 @@
       <c r="E417" s="4"/>
       <c r="F417" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H417" s="7"/>
     </row>
@@ -7040,7 +7276,7 @@
       <c r="E418" s="4"/>
       <c r="F418" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H418" s="7"/>
     </row>
@@ -7054,7 +7290,7 @@
       <c r="E419" s="4"/>
       <c r="F419" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H419" s="7"/>
     </row>
@@ -7068,7 +7304,7 @@
       <c r="E420" s="4"/>
       <c r="F420" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H420" s="7"/>
     </row>
@@ -7082,7 +7318,7 @@
       <c r="E421" s="4"/>
       <c r="F421" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H421" s="7"/>
     </row>
@@ -7096,7 +7332,7 @@
       <c r="E422" s="4"/>
       <c r="F422" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H422" s="7"/>
     </row>
@@ -7110,7 +7346,7 @@
       <c r="E423" s="4"/>
       <c r="F423" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H423" s="7"/>
     </row>
@@ -7124,7 +7360,7 @@
       <c r="E424" s="4"/>
       <c r="F424" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H424" s="7"/>
     </row>
@@ -7138,7 +7374,7 @@
       <c r="E425" s="4"/>
       <c r="F425" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H425" s="7"/>
     </row>
@@ -7152,7 +7388,7 @@
       <c r="E426" s="4"/>
       <c r="F426" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H426" s="7"/>
     </row>
@@ -7166,7 +7402,7 @@
       <c r="E427" s="4"/>
       <c r="F427" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H427" s="7"/>
     </row>
@@ -7180,7 +7416,7 @@
       <c r="E428" s="4"/>
       <c r="F428" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H428" s="7"/>
     </row>
@@ -7194,7 +7430,7 @@
       <c r="E429" s="4"/>
       <c r="F429" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H429" s="7"/>
     </row>
@@ -7208,7 +7444,7 @@
       <c r="E430" s="4"/>
       <c r="F430" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H430" s="7"/>
     </row>
@@ -7222,7 +7458,7 @@
       <c r="E431" s="4"/>
       <c r="F431" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H431" s="7"/>
     </row>
@@ -7236,7 +7472,7 @@
       <c r="E432" s="4"/>
       <c r="F432" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H432" s="7"/>
     </row>
@@ -7250,7 +7486,7 @@
       <c r="E433" s="4"/>
       <c r="F433" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H433" s="7"/>
     </row>
@@ -7264,7 +7500,7 @@
       <c r="E434" s="4"/>
       <c r="F434" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H434" s="7"/>
     </row>
@@ -7278,7 +7514,7 @@
       <c r="E435" s="4"/>
       <c r="F435" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H435" s="7"/>
     </row>
@@ -7292,7 +7528,7 @@
       <c r="E436" s="4"/>
       <c r="F436" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H436" s="7"/>
     </row>
@@ -7306,7 +7542,7 @@
       <c r="E437" s="4"/>
       <c r="F437" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H437" s="7"/>
     </row>
@@ -7320,7 +7556,7 @@
       <c r="E438" s="4"/>
       <c r="F438" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H438" s="7"/>
     </row>
@@ -7334,7 +7570,7 @@
       <c r="E439" s="4"/>
       <c r="F439" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H439" s="7"/>
     </row>
@@ -7348,7 +7584,7 @@
       <c r="E440" s="4"/>
       <c r="F440" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H440" s="7"/>
     </row>
@@ -7362,7 +7598,7 @@
       <c r="E441" s="4"/>
       <c r="F441" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H441" s="7"/>
     </row>
@@ -7376,7 +7612,7 @@
       <c r="E442" s="4"/>
       <c r="F442" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H442" s="7"/>
     </row>
@@ -7390,7 +7626,7 @@
       <c r="E443" s="4"/>
       <c r="F443" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H443" s="7"/>
     </row>
@@ -7404,7 +7640,7 @@
       <c r="E444" s="4"/>
       <c r="F444" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H444" s="7"/>
     </row>
@@ -7418,7 +7654,7 @@
       <c r="E445" s="4"/>
       <c r="F445" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H445" s="7"/>
     </row>
@@ -7432,7 +7668,7 @@
       <c r="E446" s="4"/>
       <c r="F446" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H446" s="7"/>
     </row>
@@ -7446,7 +7682,7 @@
       <c r="E447" s="4"/>
       <c r="F447" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H447" s="7"/>
     </row>
@@ -7460,7 +7696,7 @@
       <c r="E448" s="4"/>
       <c r="F448" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H448" s="7"/>
     </row>
@@ -7474,7 +7710,7 @@
       <c r="E449" s="4"/>
       <c r="F449" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H449" s="7"/>
     </row>
@@ -7488,7 +7724,7 @@
       <c r="E450" s="4"/>
       <c r="F450" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H450" s="7"/>
     </row>
@@ -7502,7 +7738,7 @@
       <c r="E451" s="4"/>
       <c r="F451" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H451" s="7"/>
     </row>
@@ -7516,7 +7752,7 @@
       <c r="E452" s="4"/>
       <c r="F452" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H452" s="7"/>
     </row>
@@ -7530,7 +7766,7 @@
       <c r="E453" s="4"/>
       <c r="F453" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H453" s="7"/>
     </row>
@@ -7544,7 +7780,7 @@
       <c r="E454" s="4"/>
       <c r="F454" s="7">
         <f t="shared" si="13"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H454" s="7"/>
     </row>
@@ -7558,7 +7794,7 @@
       <c r="E455" s="4"/>
       <c r="F455" s="7">
         <f t="shared" ref="F455:F518" si="15">$E$3/$E$2</f>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H455" s="7"/>
     </row>
@@ -7572,7 +7808,7 @@
       <c r="E456" s="4"/>
       <c r="F456" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H456" s="7"/>
     </row>
@@ -7586,7 +7822,7 @@
       <c r="E457" s="4"/>
       <c r="F457" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H457" s="7"/>
     </row>
@@ -7600,7 +7836,7 @@
       <c r="E458" s="4"/>
       <c r="F458" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H458" s="7"/>
     </row>
@@ -7614,7 +7850,7 @@
       <c r="E459" s="4"/>
       <c r="F459" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H459" s="7"/>
     </row>
@@ -7628,7 +7864,7 @@
       <c r="E460" s="4"/>
       <c r="F460" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H460" s="7"/>
     </row>
@@ -7642,7 +7878,7 @@
       <c r="E461" s="4"/>
       <c r="F461" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H461" s="7"/>
     </row>
@@ -7656,7 +7892,7 @@
       <c r="E462" s="4"/>
       <c r="F462" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H462" s="7"/>
     </row>
@@ -7670,7 +7906,7 @@
       <c r="E463" s="4"/>
       <c r="F463" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H463" s="7"/>
     </row>
@@ -7684,7 +7920,7 @@
       <c r="E464" s="4"/>
       <c r="F464" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H464" s="7"/>
     </row>
@@ -7698,7 +7934,7 @@
       <c r="E465" s="4"/>
       <c r="F465" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H465" s="7"/>
     </row>
@@ -7712,7 +7948,7 @@
       <c r="E466" s="4"/>
       <c r="F466" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H466" s="7"/>
     </row>
@@ -7726,7 +7962,7 @@
       <c r="E467" s="4"/>
       <c r="F467" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H467" s="7"/>
     </row>
@@ -7740,7 +7976,7 @@
       <c r="E468" s="4"/>
       <c r="F468" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H468" s="7"/>
     </row>
@@ -7754,7 +7990,7 @@
       <c r="E469" s="4"/>
       <c r="F469" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H469" s="7"/>
     </row>
@@ -7768,7 +8004,7 @@
       <c r="E470" s="4"/>
       <c r="F470" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H470" s="7"/>
     </row>
@@ -7782,7 +8018,7 @@
       <c r="E471" s="4"/>
       <c r="F471" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H471" s="7"/>
     </row>
@@ -7796,7 +8032,7 @@
       <c r="E472" s="4"/>
       <c r="F472" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H472" s="7"/>
     </row>
@@ -7810,7 +8046,7 @@
       <c r="E473" s="4"/>
       <c r="F473" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H473" s="7"/>
     </row>
@@ -7824,7 +8060,7 @@
       <c r="E474" s="4"/>
       <c r="F474" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H474" s="7"/>
     </row>
@@ -7838,7 +8074,7 @@
       <c r="E475" s="4"/>
       <c r="F475" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H475" s="7"/>
     </row>
@@ -7852,7 +8088,7 @@
       <c r="E476" s="4"/>
       <c r="F476" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H476" s="7"/>
     </row>
@@ -7866,7 +8102,7 @@
       <c r="E477" s="4"/>
       <c r="F477" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H477" s="7"/>
     </row>
@@ -7880,7 +8116,7 @@
       <c r="E478" s="4"/>
       <c r="F478" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H478" s="7"/>
     </row>
@@ -7894,7 +8130,7 @@
       <c r="E479" s="4"/>
       <c r="F479" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H479" s="7"/>
     </row>
@@ -7908,7 +8144,7 @@
       <c r="E480" s="4"/>
       <c r="F480" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H480" s="7"/>
     </row>
@@ -7922,7 +8158,7 @@
       <c r="E481" s="4"/>
       <c r="F481" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H481" s="7"/>
     </row>
@@ -7936,7 +8172,7 @@
       <c r="E482" s="4"/>
       <c r="F482" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H482" s="7"/>
     </row>
@@ -7950,7 +8186,7 @@
       <c r="E483" s="4"/>
       <c r="F483" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H483" s="7"/>
     </row>
@@ -7964,7 +8200,7 @@
       <c r="E484" s="4"/>
       <c r="F484" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H484" s="7"/>
     </row>
@@ -7978,7 +8214,7 @@
       <c r="E485" s="4"/>
       <c r="F485" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H485" s="7"/>
     </row>
@@ -7992,7 +8228,7 @@
       <c r="E486" s="4"/>
       <c r="F486" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H486" s="7"/>
     </row>
@@ -8006,7 +8242,7 @@
       <c r="E487" s="4"/>
       <c r="F487" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H487" s="7"/>
     </row>
@@ -8020,7 +8256,7 @@
       <c r="E488" s="4"/>
       <c r="F488" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H488" s="7"/>
     </row>
@@ -8034,7 +8270,7 @@
       <c r="E489" s="4"/>
       <c r="F489" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H489" s="7"/>
     </row>
@@ -8048,7 +8284,7 @@
       <c r="E490" s="4"/>
       <c r="F490" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H490" s="7"/>
     </row>
@@ -8062,7 +8298,7 @@
       <c r="E491" s="4"/>
       <c r="F491" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H491" s="7"/>
     </row>
@@ -8076,7 +8312,7 @@
       <c r="E492" s="4"/>
       <c r="F492" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H492" s="7"/>
     </row>
@@ -8090,7 +8326,7 @@
       <c r="E493" s="4"/>
       <c r="F493" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H493" s="7"/>
     </row>
@@ -8104,7 +8340,7 @@
       <c r="E494" s="4"/>
       <c r="F494" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H494" s="7"/>
     </row>
@@ -8118,7 +8354,7 @@
       <c r="E495" s="4"/>
       <c r="F495" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H495" s="7"/>
     </row>
@@ -8132,7 +8368,7 @@
       <c r="E496" s="4"/>
       <c r="F496" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H496" s="7"/>
     </row>
@@ -8146,7 +8382,7 @@
       <c r="E497" s="4"/>
       <c r="F497" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H497" s="7"/>
     </row>
@@ -8160,7 +8396,7 @@
       <c r="E498" s="4"/>
       <c r="F498" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H498" s="7"/>
     </row>
@@ -8174,7 +8410,7 @@
       <c r="E499" s="4"/>
       <c r="F499" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H499" s="7"/>
     </row>
@@ -8188,7 +8424,7 @@
       <c r="E500" s="4"/>
       <c r="F500" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H500" s="7"/>
     </row>
@@ -8202,7 +8438,7 @@
       <c r="E501" s="4"/>
       <c r="F501" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H501" s="7"/>
     </row>
@@ -8216,7 +8452,7 @@
       <c r="E502" s="4"/>
       <c r="F502" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H502" s="7"/>
     </row>
@@ -8230,7 +8466,7 @@
       <c r="E503" s="4"/>
       <c r="F503" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H503" s="7"/>
     </row>
@@ -8244,7 +8480,7 @@
       <c r="E504" s="4"/>
       <c r="F504" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H504" s="7"/>
     </row>
@@ -8258,7 +8494,7 @@
       <c r="E505" s="4"/>
       <c r="F505" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H505" s="7"/>
     </row>
@@ -8272,7 +8508,7 @@
       <c r="E506" s="4"/>
       <c r="F506" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H506" s="7"/>
     </row>
@@ -8286,7 +8522,7 @@
       <c r="E507" s="4"/>
       <c r="F507" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H507" s="7"/>
     </row>
@@ -8300,7 +8536,7 @@
       <c r="E508" s="4"/>
       <c r="F508" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H508" s="7"/>
     </row>
@@ -8314,7 +8550,7 @@
       <c r="E509" s="4"/>
       <c r="F509" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H509" s="7"/>
     </row>
@@ -8328,7 +8564,7 @@
       <c r="E510" s="4"/>
       <c r="F510" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H510" s="7"/>
     </row>
@@ -8342,7 +8578,7 @@
       <c r="E511" s="4"/>
       <c r="F511" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H511" s="7"/>
     </row>
@@ -8356,7 +8592,7 @@
       <c r="E512" s="4"/>
       <c r="F512" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H512" s="7"/>
     </row>
@@ -8370,7 +8606,7 @@
       <c r="E513" s="4"/>
       <c r="F513" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H513" s="7"/>
     </row>
@@ -8384,7 +8620,7 @@
       <c r="E514" s="4"/>
       <c r="F514" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H514" s="7"/>
     </row>
@@ -8398,7 +8634,7 @@
       <c r="E515" s="4"/>
       <c r="F515" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H515" s="7"/>
     </row>
@@ -8412,7 +8648,7 @@
       <c r="E516" s="4"/>
       <c r="F516" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H516" s="7"/>
     </row>
@@ -8426,7 +8662,7 @@
       <c r="E517" s="4"/>
       <c r="F517" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H517" s="7"/>
     </row>
@@ -8440,7 +8676,7 @@
       <c r="E518" s="4"/>
       <c r="F518" s="7">
         <f t="shared" si="15"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H518" s="7"/>
     </row>
@@ -8454,7 +8690,7 @@
       <c r="E519" s="4"/>
       <c r="F519" s="7">
         <f t="shared" ref="F519:F582" si="17">$E$3/$E$2</f>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H519" s="7"/>
     </row>
@@ -8468,7 +8704,7 @@
       <c r="E520" s="4"/>
       <c r="F520" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H520" s="7"/>
     </row>
@@ -8482,7 +8718,7 @@
       <c r="E521" s="4"/>
       <c r="F521" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H521" s="7"/>
     </row>
@@ -8496,7 +8732,7 @@
       <c r="E522" s="4"/>
       <c r="F522" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H522" s="7"/>
     </row>
@@ -8510,7 +8746,7 @@
       <c r="E523" s="4"/>
       <c r="F523" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H523" s="7"/>
     </row>
@@ -8524,7 +8760,7 @@
       <c r="E524" s="4"/>
       <c r="F524" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H524" s="7"/>
     </row>
@@ -8538,7 +8774,7 @@
       <c r="E525" s="4"/>
       <c r="F525" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H525" s="7"/>
     </row>
@@ -8552,7 +8788,7 @@
       <c r="E526" s="4"/>
       <c r="F526" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H526" s="7"/>
     </row>
@@ -8566,7 +8802,7 @@
       <c r="E527" s="4"/>
       <c r="F527" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H527" s="7"/>
     </row>
@@ -8580,7 +8816,7 @@
       <c r="E528" s="4"/>
       <c r="F528" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H528" s="7"/>
     </row>
@@ -8594,7 +8830,7 @@
       <c r="E529" s="4"/>
       <c r="F529" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H529" s="7"/>
     </row>
@@ -8608,7 +8844,7 @@
       <c r="E530" s="4"/>
       <c r="F530" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H530" s="7"/>
     </row>
@@ -8622,7 +8858,7 @@
       <c r="E531" s="4"/>
       <c r="F531" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H531" s="7"/>
     </row>
@@ -8636,7 +8872,7 @@
       <c r="E532" s="4"/>
       <c r="F532" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H532" s="7"/>
     </row>
@@ -8650,7 +8886,7 @@
       <c r="E533" s="4"/>
       <c r="F533" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H533" s="7"/>
     </row>
@@ -8664,7 +8900,7 @@
       <c r="E534" s="4"/>
       <c r="F534" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H534" s="7"/>
     </row>
@@ -8678,7 +8914,7 @@
       <c r="E535" s="4"/>
       <c r="F535" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H535" s="7"/>
     </row>
@@ -8692,7 +8928,7 @@
       <c r="E536" s="4"/>
       <c r="F536" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H536" s="7"/>
     </row>
@@ -8706,7 +8942,7 @@
       <c r="E537" s="4"/>
       <c r="F537" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H537" s="7"/>
     </row>
@@ -8720,7 +8956,7 @@
       <c r="E538" s="4"/>
       <c r="F538" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H538" s="7"/>
     </row>
@@ -8734,7 +8970,7 @@
       <c r="E539" s="4"/>
       <c r="F539" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H539" s="7"/>
     </row>
@@ -8748,7 +8984,7 @@
       <c r="E540" s="4"/>
       <c r="F540" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H540" s="7"/>
     </row>
@@ -8762,7 +8998,7 @@
       <c r="E541" s="4"/>
       <c r="F541" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H541" s="7"/>
     </row>
@@ -8776,7 +9012,7 @@
       <c r="E542" s="4"/>
       <c r="F542" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H542" s="7"/>
     </row>
@@ -8790,7 +9026,7 @@
       <c r="E543" s="4"/>
       <c r="F543" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H543" s="7"/>
     </row>
@@ -8804,7 +9040,7 @@
       <c r="E544" s="4"/>
       <c r="F544" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H544" s="7"/>
     </row>
@@ -8818,7 +9054,7 @@
       <c r="E545" s="4"/>
       <c r="F545" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H545" s="7"/>
     </row>
@@ -8832,7 +9068,7 @@
       <c r="E546" s="4"/>
       <c r="F546" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H546" s="7"/>
     </row>
@@ -8846,7 +9082,7 @@
       <c r="E547" s="4"/>
       <c r="F547" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H547" s="7"/>
     </row>
@@ -8860,7 +9096,7 @@
       <c r="E548" s="4"/>
       <c r="F548" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H548" s="7"/>
     </row>
@@ -8874,7 +9110,7 @@
       <c r="E549" s="4"/>
       <c r="F549" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H549" s="7"/>
     </row>
@@ -8888,7 +9124,7 @@
       <c r="E550" s="4"/>
       <c r="F550" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H550" s="7"/>
     </row>
@@ -8902,7 +9138,7 @@
       <c r="E551" s="4"/>
       <c r="F551" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H551" s="7"/>
     </row>
@@ -8916,7 +9152,7 @@
       <c r="E552" s="4"/>
       <c r="F552" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H552" s="7"/>
     </row>
@@ -8930,7 +9166,7 @@
       <c r="E553" s="4"/>
       <c r="F553" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H553" s="7"/>
     </row>
@@ -8944,7 +9180,7 @@
       <c r="E554" s="4"/>
       <c r="F554" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H554" s="7"/>
     </row>
@@ -8958,7 +9194,7 @@
       <c r="E555" s="4"/>
       <c r="F555" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H555" s="7"/>
     </row>
@@ -8972,7 +9208,7 @@
       <c r="E556" s="4"/>
       <c r="F556" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H556" s="7"/>
     </row>
@@ -8986,7 +9222,7 @@
       <c r="E557" s="4"/>
       <c r="F557" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H557" s="7"/>
     </row>
@@ -9000,7 +9236,7 @@
       <c r="E558" s="4"/>
       <c r="F558" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H558" s="7"/>
     </row>
@@ -9014,7 +9250,7 @@
       <c r="E559" s="4"/>
       <c r="F559" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H559" s="7"/>
     </row>
@@ -9028,7 +9264,7 @@
       <c r="E560" s="4"/>
       <c r="F560" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H560" s="7"/>
     </row>
@@ -9042,7 +9278,7 @@
       <c r="E561" s="4"/>
       <c r="F561" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H561" s="7"/>
     </row>
@@ -9056,7 +9292,7 @@
       <c r="E562" s="4"/>
       <c r="F562" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H562" s="7"/>
     </row>
@@ -9070,7 +9306,7 @@
       <c r="E563" s="4"/>
       <c r="F563" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H563" s="7"/>
     </row>
@@ -9084,7 +9320,7 @@
       <c r="E564" s="4"/>
       <c r="F564" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H564" s="7"/>
     </row>
@@ -9098,7 +9334,7 @@
       <c r="E565" s="4"/>
       <c r="F565" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H565" s="7"/>
     </row>
@@ -9112,7 +9348,7 @@
       <c r="E566" s="4"/>
       <c r="F566" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H566" s="7"/>
     </row>
@@ -9126,7 +9362,7 @@
       <c r="E567" s="4"/>
       <c r="F567" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H567" s="7"/>
     </row>
@@ -9140,7 +9376,7 @@
       <c r="E568" s="4"/>
       <c r="F568" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H568" s="7"/>
     </row>
@@ -9154,7 +9390,7 @@
       <c r="E569" s="4"/>
       <c r="F569" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H569" s="7"/>
     </row>
@@ -9168,7 +9404,7 @@
       <c r="E570" s="4"/>
       <c r="F570" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H570" s="7"/>
     </row>
@@ -9182,7 +9418,7 @@
       <c r="E571" s="4"/>
       <c r="F571" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H571" s="7"/>
     </row>
@@ -9196,7 +9432,7 @@
       <c r="E572" s="4"/>
       <c r="F572" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H572" s="7"/>
     </row>
@@ -9210,7 +9446,7 @@
       <c r="E573" s="4"/>
       <c r="F573" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H573" s="7"/>
     </row>
@@ -9224,7 +9460,7 @@
       <c r="E574" s="4"/>
       <c r="F574" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H574" s="7"/>
     </row>
@@ -9238,7 +9474,7 @@
       <c r="E575" s="4"/>
       <c r="F575" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H575" s="7"/>
     </row>
@@ -9252,7 +9488,7 @@
       <c r="E576" s="4"/>
       <c r="F576" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H576" s="7"/>
     </row>
@@ -9266,7 +9502,7 @@
       <c r="E577" s="4"/>
       <c r="F577" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H577" s="7"/>
     </row>
@@ -9280,7 +9516,7 @@
       <c r="E578" s="4"/>
       <c r="F578" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H578" s="7"/>
     </row>
@@ -9294,7 +9530,7 @@
       <c r="E579" s="4"/>
       <c r="F579" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H579" s="7"/>
     </row>
@@ -9308,7 +9544,7 @@
       <c r="E580" s="4"/>
       <c r="F580" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H580" s="7"/>
     </row>
@@ -9322,7 +9558,7 @@
       <c r="E581" s="4"/>
       <c r="F581" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H581" s="7"/>
     </row>
@@ -9336,7 +9572,7 @@
       <c r="E582" s="4"/>
       <c r="F582" s="7">
         <f t="shared" si="17"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H582" s="7"/>
     </row>
@@ -9350,7 +9586,7 @@
       <c r="E583" s="4"/>
       <c r="F583" s="7">
         <f t="shared" ref="F583:F646" si="19">$E$3/$E$2</f>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H583" s="7"/>
     </row>
@@ -9364,7 +9600,7 @@
       <c r="E584" s="4"/>
       <c r="F584" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H584" s="7"/>
     </row>
@@ -9378,7 +9614,7 @@
       <c r="E585" s="4"/>
       <c r="F585" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H585" s="7"/>
     </row>
@@ -9392,7 +9628,7 @@
       <c r="E586" s="4"/>
       <c r="F586" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H586" s="7"/>
     </row>
@@ -9406,7 +9642,7 @@
       <c r="E587" s="4"/>
       <c r="F587" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H587" s="7"/>
     </row>
@@ -9420,7 +9656,7 @@
       <c r="E588" s="4"/>
       <c r="F588" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H588" s="7"/>
     </row>
@@ -9434,7 +9670,7 @@
       <c r="E589" s="4"/>
       <c r="F589" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H589" s="7"/>
     </row>
@@ -9448,7 +9684,7 @@
       <c r="E590" s="4"/>
       <c r="F590" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H590" s="7"/>
     </row>
@@ -9462,7 +9698,7 @@
       <c r="E591" s="4"/>
       <c r="F591" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H591" s="7"/>
     </row>
@@ -9476,7 +9712,7 @@
       <c r="E592" s="4"/>
       <c r="F592" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H592" s="7"/>
     </row>
@@ -9490,7 +9726,7 @@
       <c r="E593" s="4"/>
       <c r="F593" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H593" s="7"/>
     </row>
@@ -9504,7 +9740,7 @@
       <c r="E594" s="4"/>
       <c r="F594" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H594" s="7"/>
     </row>
@@ -9518,7 +9754,7 @@
       <c r="E595" s="4"/>
       <c r="F595" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H595" s="7"/>
     </row>
@@ -9532,7 +9768,7 @@
       <c r="E596" s="4"/>
       <c r="F596" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H596" s="7"/>
     </row>
@@ -9546,7 +9782,7 @@
       <c r="E597" s="4"/>
       <c r="F597" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H597" s="7"/>
     </row>
@@ -9560,7 +9796,7 @@
       <c r="E598" s="4"/>
       <c r="F598" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H598" s="7"/>
     </row>
@@ -9574,7 +9810,7 @@
       <c r="E599" s="4"/>
       <c r="F599" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H599" s="7"/>
     </row>
@@ -9588,7 +9824,7 @@
       <c r="E600" s="4"/>
       <c r="F600" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H600" s="7"/>
     </row>
@@ -9602,7 +9838,7 @@
       <c r="E601" s="4"/>
       <c r="F601" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H601" s="7"/>
     </row>
@@ -9616,7 +9852,7 @@
       <c r="E602" s="4"/>
       <c r="F602" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H602" s="7"/>
     </row>
@@ -9630,7 +9866,7 @@
       <c r="E603" s="4"/>
       <c r="F603" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H603" s="7"/>
     </row>
@@ -9644,7 +9880,7 @@
       <c r="E604" s="4"/>
       <c r="F604" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H604" s="7"/>
     </row>
@@ -9658,7 +9894,7 @@
       <c r="E605" s="4"/>
       <c r="F605" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H605" s="7"/>
     </row>
@@ -9672,7 +9908,7 @@
       <c r="E606" s="4"/>
       <c r="F606" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H606" s="7"/>
     </row>
@@ -9686,7 +9922,7 @@
       <c r="E607" s="4"/>
       <c r="F607" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H607" s="7"/>
     </row>
@@ -9700,7 +9936,7 @@
       <c r="E608" s="4"/>
       <c r="F608" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H608" s="7"/>
     </row>
@@ -9714,7 +9950,7 @@
       <c r="E609" s="4"/>
       <c r="F609" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H609" s="7"/>
     </row>
@@ -9728,7 +9964,7 @@
       <c r="E610" s="4"/>
       <c r="F610" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H610" s="7"/>
     </row>
@@ -9742,7 +9978,7 @@
       <c r="E611" s="4"/>
       <c r="F611" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H611" s="7"/>
     </row>
@@ -9756,7 +9992,7 @@
       <c r="E612" s="4"/>
       <c r="F612" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H612" s="7"/>
     </row>
@@ -9770,7 +10006,7 @@
       <c r="E613" s="4"/>
       <c r="F613" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H613" s="7"/>
     </row>
@@ -9784,7 +10020,7 @@
       <c r="E614" s="4"/>
       <c r="F614" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H614" s="7"/>
     </row>
@@ -9798,7 +10034,7 @@
       <c r="E615" s="4"/>
       <c r="F615" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H615" s="7"/>
     </row>
@@ -9812,7 +10048,7 @@
       <c r="E616" s="4"/>
       <c r="F616" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H616" s="7"/>
     </row>
@@ -9826,7 +10062,7 @@
       <c r="E617" s="4"/>
       <c r="F617" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H617" s="7"/>
     </row>
@@ -9840,7 +10076,7 @@
       <c r="E618" s="4"/>
       <c r="F618" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H618" s="7"/>
     </row>
@@ -9854,7 +10090,7 @@
       <c r="E619" s="4"/>
       <c r="F619" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H619" s="7"/>
     </row>
@@ -9868,7 +10104,7 @@
       <c r="E620" s="4"/>
       <c r="F620" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H620" s="7"/>
     </row>
@@ -9882,7 +10118,7 @@
       <c r="E621" s="4"/>
       <c r="F621" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H621" s="7"/>
     </row>
@@ -9896,7 +10132,7 @@
       <c r="E622" s="4"/>
       <c r="F622" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H622" s="7"/>
     </row>
@@ -9910,7 +10146,7 @@
       <c r="E623" s="4"/>
       <c r="F623" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H623" s="7"/>
     </row>
@@ -9924,7 +10160,7 @@
       <c r="E624" s="4"/>
       <c r="F624" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H624" s="7"/>
     </row>
@@ -9938,7 +10174,7 @@
       <c r="E625" s="4"/>
       <c r="F625" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H625" s="7"/>
     </row>
@@ -9952,7 +10188,7 @@
       <c r="E626" s="4"/>
       <c r="F626" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H626" s="7"/>
     </row>
@@ -9966,7 +10202,7 @@
       <c r="E627" s="4"/>
       <c r="F627" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H627" s="7"/>
     </row>
@@ -9980,7 +10216,7 @@
       <c r="E628" s="4"/>
       <c r="F628" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H628" s="7"/>
     </row>
@@ -9994,7 +10230,7 @@
       <c r="E629" s="4"/>
       <c r="F629" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H629" s="7"/>
     </row>
@@ -10008,7 +10244,7 @@
       <c r="E630" s="4"/>
       <c r="F630" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H630" s="7"/>
     </row>
@@ -10022,7 +10258,7 @@
       <c r="E631" s="4"/>
       <c r="F631" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H631" s="7"/>
     </row>
@@ -10036,7 +10272,7 @@
       <c r="E632" s="4"/>
       <c r="F632" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H632" s="7"/>
     </row>
@@ -10050,7 +10286,7 @@
       <c r="E633" s="4"/>
       <c r="F633" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H633" s="7"/>
     </row>
@@ -10064,7 +10300,7 @@
       <c r="E634" s="4"/>
       <c r="F634" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H634" s="7"/>
     </row>
@@ -10078,7 +10314,7 @@
       <c r="E635" s="4"/>
       <c r="F635" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H635" s="7"/>
     </row>
@@ -10092,7 +10328,7 @@
       <c r="E636" s="4"/>
       <c r="F636" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H636" s="7"/>
     </row>
@@ -10106,7 +10342,7 @@
       <c r="E637" s="4"/>
       <c r="F637" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H637" s="7"/>
     </row>
@@ -10120,7 +10356,7 @@
       <c r="E638" s="4"/>
       <c r="F638" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H638" s="7"/>
     </row>
@@ -10134,7 +10370,7 @@
       <c r="E639" s="4"/>
       <c r="F639" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H639" s="7"/>
     </row>
@@ -10148,7 +10384,7 @@
       <c r="E640" s="4"/>
       <c r="F640" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H640" s="7"/>
     </row>
@@ -10162,7 +10398,7 @@
       <c r="E641" s="4"/>
       <c r="F641" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H641" s="7"/>
     </row>
@@ -10176,7 +10412,7 @@
       <c r="E642" s="4"/>
       <c r="F642" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H642" s="7"/>
     </row>
@@ -10190,7 +10426,7 @@
       <c r="E643" s="4"/>
       <c r="F643" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H643" s="7"/>
     </row>
@@ -10204,7 +10440,7 @@
       <c r="E644" s="4"/>
       <c r="F644" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H644" s="7"/>
     </row>
@@ -10218,7 +10454,7 @@
       <c r="E645" s="4"/>
       <c r="F645" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H645" s="7"/>
     </row>
@@ -10232,7 +10468,7 @@
       <c r="E646" s="4"/>
       <c r="F646" s="7">
         <f t="shared" si="19"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H646" s="7"/>
     </row>
@@ -10246,7 +10482,7 @@
       <c r="E647" s="4"/>
       <c r="F647" s="7">
         <f t="shared" ref="F647:F710" si="21">$E$3/$E$2</f>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H647" s="7"/>
     </row>
@@ -10260,7 +10496,7 @@
       <c r="E648" s="4"/>
       <c r="F648" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H648" s="7"/>
     </row>
@@ -10274,7 +10510,7 @@
       <c r="E649" s="4"/>
       <c r="F649" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H649" s="7"/>
     </row>
@@ -10288,7 +10524,7 @@
       <c r="E650" s="4"/>
       <c r="F650" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H650" s="7"/>
     </row>
@@ -10302,7 +10538,7 @@
       <c r="E651" s="4"/>
       <c r="F651" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H651" s="7"/>
     </row>
@@ -10316,7 +10552,7 @@
       <c r="E652" s="4"/>
       <c r="F652" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H652" s="7"/>
     </row>
@@ -10330,7 +10566,7 @@
       <c r="E653" s="4"/>
       <c r="F653" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H653" s="7"/>
     </row>
@@ -10344,7 +10580,7 @@
       <c r="E654" s="4"/>
       <c r="F654" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H654" s="7"/>
     </row>
@@ -10358,7 +10594,7 @@
       <c r="E655" s="4"/>
       <c r="F655" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H655" s="7"/>
     </row>
@@ -10372,7 +10608,7 @@
       <c r="E656" s="4"/>
       <c r="F656" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H656" s="7"/>
     </row>
@@ -10386,7 +10622,7 @@
       <c r="E657" s="4"/>
       <c r="F657" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H657" s="7"/>
     </row>
@@ -10400,7 +10636,7 @@
       <c r="E658" s="4"/>
       <c r="F658" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H658" s="7"/>
     </row>
@@ -10414,7 +10650,7 @@
       <c r="E659" s="4"/>
       <c r="F659" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H659" s="7"/>
     </row>
@@ -10428,7 +10664,7 @@
       <c r="E660" s="4"/>
       <c r="F660" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H660" s="7"/>
     </row>
@@ -10442,7 +10678,7 @@
       <c r="E661" s="4"/>
       <c r="F661" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H661" s="7"/>
     </row>
@@ -10456,7 +10692,7 @@
       <c r="E662" s="4"/>
       <c r="F662" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H662" s="7"/>
     </row>
@@ -10470,7 +10706,7 @@
       <c r="E663" s="4"/>
       <c r="F663" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H663" s="7"/>
     </row>
@@ -10484,7 +10720,7 @@
       <c r="E664" s="4"/>
       <c r="F664" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H664" s="7"/>
     </row>
@@ -10498,7 +10734,7 @@
       <c r="E665" s="4"/>
       <c r="F665" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H665" s="7"/>
     </row>
@@ -10512,7 +10748,7 @@
       <c r="E666" s="4"/>
       <c r="F666" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H666" s="7"/>
     </row>
@@ -10526,7 +10762,7 @@
       <c r="E667" s="4"/>
       <c r="F667" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H667" s="7"/>
     </row>
@@ -10540,7 +10776,7 @@
       <c r="E668" s="4"/>
       <c r="F668" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H668" s="7"/>
     </row>
@@ -10554,7 +10790,7 @@
       <c r="E669" s="4"/>
       <c r="F669" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H669" s="7"/>
     </row>
@@ -10568,7 +10804,7 @@
       <c r="E670" s="4"/>
       <c r="F670" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H670" s="7"/>
     </row>
@@ -10582,7 +10818,7 @@
       <c r="E671" s="4"/>
       <c r="F671" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H671" s="7"/>
     </row>
@@ -10596,7 +10832,7 @@
       <c r="E672" s="4"/>
       <c r="F672" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H672" s="7"/>
     </row>
@@ -10610,7 +10846,7 @@
       <c r="E673" s="4"/>
       <c r="F673" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H673" s="7"/>
     </row>
@@ -10624,7 +10860,7 @@
       <c r="E674" s="4"/>
       <c r="F674" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H674" s="7"/>
     </row>
@@ -10638,7 +10874,7 @@
       <c r="E675" s="4"/>
       <c r="F675" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H675" s="7"/>
     </row>
@@ -10652,7 +10888,7 @@
       <c r="E676" s="4"/>
       <c r="F676" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H676" s="7"/>
     </row>
@@ -10666,7 +10902,7 @@
       <c r="E677" s="4"/>
       <c r="F677" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H677" s="7"/>
     </row>
@@ -10680,7 +10916,7 @@
       <c r="E678" s="4"/>
       <c r="F678" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H678" s="7"/>
     </row>
@@ -10694,7 +10930,7 @@
       <c r="E679" s="4"/>
       <c r="F679" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H679" s="7"/>
     </row>
@@ -10708,7 +10944,7 @@
       <c r="E680" s="4"/>
       <c r="F680" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H680" s="7"/>
     </row>
@@ -10722,7 +10958,7 @@
       <c r="E681" s="4"/>
       <c r="F681" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H681" s="7"/>
     </row>
@@ -10736,7 +10972,7 @@
       <c r="E682" s="4"/>
       <c r="F682" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H682" s="7"/>
     </row>
@@ -10750,7 +10986,7 @@
       <c r="E683" s="4"/>
       <c r="F683" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H683" s="7"/>
     </row>
@@ -10764,7 +11000,7 @@
       <c r="E684" s="4"/>
       <c r="F684" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H684" s="7"/>
     </row>
@@ -10778,7 +11014,7 @@
       <c r="E685" s="4"/>
       <c r="F685" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H685" s="7"/>
     </row>
@@ -10792,7 +11028,7 @@
       <c r="E686" s="4"/>
       <c r="F686" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H686" s="7"/>
     </row>
@@ -10806,7 +11042,7 @@
       <c r="E687" s="4"/>
       <c r="F687" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H687" s="7"/>
     </row>
@@ -10820,7 +11056,7 @@
       <c r="E688" s="4"/>
       <c r="F688" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H688" s="7"/>
     </row>
@@ -10834,7 +11070,7 @@
       <c r="E689" s="4"/>
       <c r="F689" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H689" s="7"/>
     </row>
@@ -10848,7 +11084,7 @@
       <c r="E690" s="4"/>
       <c r="F690" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H690" s="7"/>
     </row>
@@ -10862,7 +11098,7 @@
       <c r="E691" s="4"/>
       <c r="F691" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H691" s="7"/>
     </row>
@@ -10876,7 +11112,7 @@
       <c r="E692" s="4"/>
       <c r="F692" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H692" s="7"/>
     </row>
@@ -10890,7 +11126,7 @@
       <c r="E693" s="4"/>
       <c r="F693" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H693" s="7"/>
     </row>
@@ -10904,7 +11140,7 @@
       <c r="E694" s="4"/>
       <c r="F694" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H694" s="7"/>
     </row>
@@ -10918,7 +11154,7 @@
       <c r="E695" s="4"/>
       <c r="F695" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H695" s="7"/>
     </row>
@@ -10932,7 +11168,7 @@
       <c r="E696" s="4"/>
       <c r="F696" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H696" s="7"/>
     </row>
@@ -10946,7 +11182,7 @@
       <c r="E697" s="4"/>
       <c r="F697" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H697" s="7"/>
     </row>
@@ -10960,7 +11196,7 @@
       <c r="E698" s="4"/>
       <c r="F698" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H698" s="7"/>
     </row>
@@ -10974,7 +11210,7 @@
       <c r="E699" s="4"/>
       <c r="F699" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H699" s="7"/>
     </row>
@@ -10988,7 +11224,7 @@
       <c r="E700" s="4"/>
       <c r="F700" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H700" s="7"/>
     </row>
@@ -11002,7 +11238,7 @@
       <c r="E701" s="4"/>
       <c r="F701" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H701" s="7"/>
     </row>
@@ -11016,7 +11252,7 @@
       <c r="E702" s="4"/>
       <c r="F702" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H702" s="7"/>
     </row>
@@ -11030,7 +11266,7 @@
       <c r="E703" s="4"/>
       <c r="F703" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H703" s="7"/>
     </row>
@@ -11044,7 +11280,7 @@
       <c r="E704" s="4"/>
       <c r="F704" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H704" s="7"/>
     </row>
@@ -11058,7 +11294,7 @@
       <c r="E705" s="4"/>
       <c r="F705" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H705" s="7"/>
     </row>
@@ -11074,7 +11310,7 @@
       <c r="E706" s="4"/>
       <c r="F706" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G706" s="6" t="s">
         <v>11</v>
@@ -11093,7 +11329,7 @@
       <c r="E707" s="4"/>
       <c r="F707" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G707" s="6" t="s">
         <v>10</v>
@@ -11112,7 +11348,7 @@
       <c r="E708" s="4"/>
       <c r="F708" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H708" s="7"/>
     </row>
@@ -11128,7 +11364,7 @@
       <c r="E709" s="4"/>
       <c r="F709" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G709" s="6" t="s">
         <v>9</v>
@@ -11150,7 +11386,7 @@
       <c r="E710" s="4"/>
       <c r="F710" s="7">
         <f t="shared" si="21"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G710" s="6" t="s">
         <v>6</v>
@@ -11169,7 +11405,7 @@
       <c r="E711" s="4"/>
       <c r="F711" s="7">
         <f t="shared" ref="F711:F717" si="23">$E$3/$E$2</f>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G711" s="6" t="s">
         <v>7</v>
@@ -11188,7 +11424,7 @@
       <c r="E712" s="4"/>
       <c r="F712" s="7">
         <f t="shared" si="23"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="G712" s="6" t="s">
         <v>8</v>
@@ -11207,7 +11443,7 @@
       <c r="E713" s="4"/>
       <c r="F713" s="7">
         <f t="shared" si="23"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H713" s="7"/>
     </row>
@@ -11223,7 +11459,7 @@
       <c r="E714" s="4"/>
       <c r="F714" s="7">
         <f t="shared" si="23"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H714" s="7"/>
     </row>
@@ -11239,7 +11475,7 @@
       <c r="E715" s="4"/>
       <c r="F715" s="7">
         <f t="shared" si="23"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H715" s="7"/>
     </row>
@@ -11255,7 +11491,7 @@
       <c r="E716" s="4"/>
       <c r="F716" s="7">
         <f t="shared" si="23"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H716" s="7"/>
     </row>
@@ -11271,7 +11507,7 @@
       <c r="E717" s="4"/>
       <c r="F717" s="7">
         <f t="shared" si="23"/>
-        <v>0.1151685393258427</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="H717" s="7"/>
     </row>

--- a/背题.xlsx
+++ b/背题.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="128">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -487,6 +487,46 @@
   </si>
   <si>
     <t>detect block corruption:ANALYZE operations &amp; dbv &amp; SQL queries that access the potentially corrupt block&amp;RMAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical and logical block corruption is recorded automatically &amp; Physical is repairable by BMR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECOVER CORRUPTION LIST; &amp; RECOVER DATAFILE 1201 BLOCK 1968;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>over time to produce better performance &amp; standard test configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equal to or less than the AWR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER DATABASE CLEAR UNARCHIVED LOGFILE GROUP 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job program schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health check :manually disk image block  corruption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global scripts import from RCAT10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACL：list of users and network privileges stored in the XML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,14 +538,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -610,8 +650,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -619,7 +659,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -905,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="C392" sqref="C392:C405"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -917,30 +957,30 @@
     <col min="7" max="7" width="8.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:8">
       <c r="F1" s="7"/>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="1:8">
       <c r="E2">
         <v>712</v>
       </c>
       <c r="F2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="1:8">
       <c r="E3">
         <f>COUNTA($C$6:$C$717)</f>
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="1:8">
       <c r="F4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="1:8">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,105 +996,149 @@
       <c r="F5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="1:8">
       <c r="B6" s="2">
         <f>ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="7">
         <f>$E$3/$E$2</f>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="1:8">
       <c r="B7" s="2">
         <f t="shared" ref="B7:B70" si="0">ROW()-5</f>
         <v>2</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="7">
         <f t="shared" ref="F7:F70" si="1">$E$3/$E$2</f>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="1:8">
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="1:8">
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="1:8">
       <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1064,11 +1148,11 @@
       <c r="E13" s="4"/>
       <c r="F13" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="1:8">
       <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1078,11 +1162,11 @@
       <c r="E14" s="4"/>
       <c r="F14" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="1:8">
       <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1092,11 +1176,11 @@
       <c r="E15" s="4"/>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="1:8">
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1106,7 +1190,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -1120,7 +1204,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H17" s="7"/>
     </row>
@@ -1134,7 +1218,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H18" s="7"/>
     </row>
@@ -1148,7 +1232,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H19" s="7"/>
     </row>
@@ -1162,7 +1246,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H20" s="7"/>
     </row>
@@ -1176,7 +1260,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H21" s="7"/>
     </row>
@@ -1190,7 +1274,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H22" s="7"/>
     </row>
@@ -1204,7 +1288,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H23" s="7"/>
     </row>
@@ -1218,7 +1302,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H24" s="7"/>
     </row>
@@ -1232,7 +1316,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H25" s="7"/>
     </row>
@@ -1246,7 +1330,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H26" s="7"/>
     </row>
@@ -1260,7 +1344,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H27" s="7"/>
     </row>
@@ -1274,7 +1358,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H28" s="7"/>
     </row>
@@ -1288,7 +1372,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H29" s="7"/>
     </row>
@@ -1302,7 +1386,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H30" s="7"/>
     </row>
@@ -1316,7 +1400,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H31" s="7"/>
     </row>
@@ -1330,7 +1414,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H32" s="7"/>
     </row>
@@ -1344,7 +1428,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H33" s="7"/>
     </row>
@@ -1358,7 +1442,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H34" s="7"/>
     </row>
@@ -1372,7 +1456,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H35" s="7"/>
     </row>
@@ -1386,7 +1470,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H36" s="7"/>
     </row>
@@ -1400,7 +1484,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H37" s="7"/>
     </row>
@@ -1414,7 +1498,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H38" s="7"/>
     </row>
@@ -1428,7 +1512,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H39" s="7"/>
     </row>
@@ -1442,7 +1526,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H40" s="7"/>
     </row>
@@ -1456,7 +1540,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H41" s="7"/>
     </row>
@@ -1470,7 +1554,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H42" s="7"/>
     </row>
@@ -1484,7 +1568,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H43" s="7"/>
     </row>
@@ -1498,7 +1582,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H44" s="7"/>
     </row>
@@ -1512,7 +1596,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H45" s="7"/>
     </row>
@@ -1526,7 +1610,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H46" s="7"/>
     </row>
@@ -1540,7 +1624,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H47" s="7"/>
     </row>
@@ -1554,7 +1638,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H48" s="7"/>
     </row>
@@ -1568,7 +1652,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H49" s="7"/>
     </row>
@@ -1582,7 +1666,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -1596,7 +1680,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H51" s="7"/>
     </row>
@@ -1610,7 +1694,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H52" s="7"/>
     </row>
@@ -1624,7 +1708,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H53" s="7"/>
     </row>
@@ -1638,7 +1722,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -1652,7 +1736,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -1666,7 +1750,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H56" s="7"/>
     </row>
@@ -1680,7 +1764,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H57" s="7"/>
     </row>
@@ -1694,7 +1778,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H58" s="7"/>
     </row>
@@ -1708,7 +1792,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H59" s="7"/>
     </row>
@@ -1722,7 +1806,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H60" s="7"/>
     </row>
@@ -1736,7 +1820,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H61" s="7"/>
     </row>
@@ -1750,7 +1834,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H62" s="7"/>
     </row>
@@ -1764,7 +1848,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H63" s="7"/>
     </row>
@@ -1778,7 +1862,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H64" s="7"/>
     </row>
@@ -1792,7 +1876,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H65" s="7"/>
     </row>
@@ -1806,7 +1890,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H66" s="7"/>
     </row>
@@ -1820,7 +1904,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H67" s="7"/>
     </row>
@@ -1834,7 +1918,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H68" s="7"/>
     </row>
@@ -1848,7 +1932,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H69" s="7"/>
     </row>
@@ -1862,7 +1946,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="7">
         <f t="shared" si="1"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H70" s="7"/>
     </row>
@@ -1876,7 +1960,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="7">
         <f t="shared" ref="F71:F134" si="3">$E$3/$E$2</f>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H71" s="7"/>
     </row>
@@ -1890,7 +1974,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H72" s="7"/>
     </row>
@@ -1904,7 +1988,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H73" s="7"/>
     </row>
@@ -1918,7 +2002,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H74" s="7"/>
     </row>
@@ -1932,7 +2016,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H75" s="7"/>
     </row>
@@ -1946,7 +2030,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H76" s="7"/>
     </row>
@@ -1960,7 +2044,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H77" s="7"/>
     </row>
@@ -1974,7 +2058,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H78" s="7"/>
     </row>
@@ -1988,7 +2072,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H79" s="7"/>
     </row>
@@ -2002,7 +2086,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H80" s="7"/>
     </row>
@@ -2016,7 +2100,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H81" s="7"/>
     </row>
@@ -2030,7 +2114,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H82" s="7"/>
     </row>
@@ -2044,7 +2128,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H83" s="7"/>
     </row>
@@ -2058,7 +2142,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H84" s="7"/>
     </row>
@@ -2072,7 +2156,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H85" s="7"/>
     </row>
@@ -2086,7 +2170,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H86" s="7"/>
     </row>
@@ -2100,7 +2184,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H87" s="7"/>
     </row>
@@ -2114,7 +2198,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H88" s="7"/>
     </row>
@@ -2128,7 +2212,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H89" s="7"/>
     </row>
@@ -2142,7 +2226,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H90" s="7"/>
     </row>
@@ -2156,7 +2240,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H91" s="7"/>
     </row>
@@ -2170,7 +2254,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H92" s="7"/>
     </row>
@@ -2184,7 +2268,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H93" s="7"/>
     </row>
@@ -2198,7 +2282,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H94" s="7"/>
     </row>
@@ -2212,7 +2296,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H95" s="7"/>
     </row>
@@ -2226,7 +2310,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H96" s="7"/>
     </row>
@@ -2240,7 +2324,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H97" s="7"/>
     </row>
@@ -2254,7 +2338,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H98" s="7"/>
     </row>
@@ -2268,7 +2352,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H99" s="7"/>
     </row>
@@ -2282,7 +2366,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H100" s="7"/>
     </row>
@@ -2296,7 +2380,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H101" s="7"/>
     </row>
@@ -2310,7 +2394,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H102" s="7"/>
     </row>
@@ -2324,7 +2408,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H103" s="7"/>
     </row>
@@ -2338,7 +2422,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H104" s="7"/>
     </row>
@@ -2352,7 +2436,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H105" s="7"/>
     </row>
@@ -2366,7 +2450,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H106" s="7"/>
     </row>
@@ -2380,7 +2464,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H107" s="7"/>
     </row>
@@ -2394,7 +2478,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H108" s="7"/>
     </row>
@@ -2408,7 +2492,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H109" s="7"/>
     </row>
@@ -2422,7 +2506,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H110" s="7"/>
     </row>
@@ -2436,7 +2520,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H111" s="7"/>
     </row>
@@ -2450,7 +2534,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H112" s="7"/>
     </row>
@@ -2464,7 +2548,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H113" s="7"/>
     </row>
@@ -2478,7 +2562,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H114" s="7"/>
     </row>
@@ -2492,7 +2576,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H115" s="7"/>
     </row>
@@ -2506,7 +2590,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H116" s="7"/>
     </row>
@@ -2520,7 +2604,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H117" s="7"/>
     </row>
@@ -2534,7 +2618,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H118" s="7"/>
     </row>
@@ -2548,7 +2632,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H119" s="7"/>
     </row>
@@ -2562,7 +2646,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H120" s="7"/>
     </row>
@@ -2576,7 +2660,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H121" s="7"/>
     </row>
@@ -2590,7 +2674,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H122" s="7"/>
     </row>
@@ -2604,7 +2688,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H123" s="7"/>
     </row>
@@ -2618,7 +2702,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H124" s="7"/>
     </row>
@@ -2632,7 +2716,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H125" s="7"/>
     </row>
@@ -2646,7 +2730,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H126" s="7"/>
     </row>
@@ -2660,7 +2744,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H127" s="7"/>
     </row>
@@ -2674,7 +2758,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H128" s="7"/>
     </row>
@@ -2688,7 +2772,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H129" s="7"/>
     </row>
@@ -2702,7 +2786,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H130" s="7"/>
     </row>
@@ -2716,7 +2800,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H131" s="7"/>
     </row>
@@ -2730,7 +2814,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H132" s="7"/>
     </row>
@@ -2744,7 +2828,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H133" s="7"/>
     </row>
@@ -2758,7 +2842,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="7">
         <f t="shared" si="3"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H134" s="7"/>
     </row>
@@ -2772,7 +2856,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="7">
         <f t="shared" ref="F135:F198" si="5">$E$3/$E$2</f>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H135" s="7"/>
     </row>
@@ -2786,7 +2870,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H136" s="7"/>
     </row>
@@ -2800,7 +2884,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H137" s="7"/>
     </row>
@@ -2814,7 +2898,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H138" s="7"/>
     </row>
@@ -2828,7 +2912,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H139" s="7"/>
     </row>
@@ -2842,7 +2926,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H140" s="7"/>
     </row>
@@ -2856,7 +2940,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H141" s="7"/>
     </row>
@@ -2870,7 +2954,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H142" s="7"/>
     </row>
@@ -2884,7 +2968,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H143" s="7"/>
     </row>
@@ -2898,7 +2982,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H144" s="7"/>
     </row>
@@ -2912,7 +2996,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H145" s="7"/>
     </row>
@@ -2926,7 +3010,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H146" s="7"/>
     </row>
@@ -2940,7 +3024,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H147" s="7"/>
     </row>
@@ -2954,7 +3038,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H148" s="7"/>
     </row>
@@ -2968,7 +3052,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H149" s="7"/>
     </row>
@@ -2982,7 +3066,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H150" s="7"/>
     </row>
@@ -2996,7 +3080,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H151" s="7"/>
     </row>
@@ -3010,7 +3094,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H152" s="7"/>
     </row>
@@ -3024,7 +3108,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H153" s="7"/>
     </row>
@@ -3038,7 +3122,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H154" s="7"/>
     </row>
@@ -3052,7 +3136,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H155" s="7"/>
     </row>
@@ -3066,7 +3150,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H156" s="7"/>
     </row>
@@ -3080,7 +3164,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H157" s="7"/>
     </row>
@@ -3094,7 +3178,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H158" s="7"/>
     </row>
@@ -3108,7 +3192,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H159" s="7"/>
     </row>
@@ -3122,7 +3206,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H160" s="7"/>
     </row>
@@ -3136,7 +3220,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H161" s="7"/>
     </row>
@@ -3150,7 +3234,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H162" s="7"/>
     </row>
@@ -3164,7 +3248,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H163" s="7"/>
     </row>
@@ -3178,7 +3262,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H164" s="7"/>
     </row>
@@ -3192,7 +3276,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H165" s="7"/>
     </row>
@@ -3206,7 +3290,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H166" s="7"/>
     </row>
@@ -3220,7 +3304,7 @@
       <c r="E167" s="4"/>
       <c r="F167" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H167" s="7"/>
     </row>
@@ -3234,7 +3318,7 @@
       <c r="E168" s="4"/>
       <c r="F168" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H168" s="7"/>
     </row>
@@ -3248,7 +3332,7 @@
       <c r="E169" s="4"/>
       <c r="F169" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H169" s="7"/>
     </row>
@@ -3262,7 +3346,7 @@
       <c r="E170" s="4"/>
       <c r="F170" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H170" s="7"/>
     </row>
@@ -3276,7 +3360,7 @@
       <c r="E171" s="4"/>
       <c r="F171" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H171" s="7"/>
     </row>
@@ -3290,7 +3374,7 @@
       <c r="E172" s="4"/>
       <c r="F172" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H172" s="7"/>
     </row>
@@ -3304,7 +3388,7 @@
       <c r="E173" s="4"/>
       <c r="F173" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H173" s="7"/>
     </row>
@@ -3318,7 +3402,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H174" s="7"/>
     </row>
@@ -3332,7 +3416,7 @@
       <c r="E175" s="4"/>
       <c r="F175" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H175" s="7"/>
     </row>
@@ -3346,7 +3430,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H176" s="7"/>
     </row>
@@ -3360,7 +3444,7 @@
       <c r="E177" s="4"/>
       <c r="F177" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H177" s="7"/>
     </row>
@@ -3374,7 +3458,7 @@
       <c r="E178" s="4"/>
       <c r="F178" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H178" s="7"/>
     </row>
@@ -3388,7 +3472,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H179" s="7"/>
     </row>
@@ -3402,7 +3486,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H180" s="7"/>
     </row>
@@ -3416,7 +3500,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H181" s="7"/>
     </row>
@@ -3430,7 +3514,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H182" s="7"/>
     </row>
@@ -3444,7 +3528,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H183" s="7"/>
     </row>
@@ -3458,7 +3542,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H184" s="7"/>
     </row>
@@ -3472,7 +3556,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H185" s="7"/>
     </row>
@@ -3486,7 +3570,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H186" s="7"/>
     </row>
@@ -3500,7 +3584,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H187" s="7"/>
     </row>
@@ -3514,7 +3598,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H188" s="7"/>
     </row>
@@ -3528,7 +3612,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H189" s="7"/>
     </row>
@@ -3542,7 +3626,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H190" s="7"/>
     </row>
@@ -3556,7 +3640,7 @@
       <c r="E191" s="4"/>
       <c r="F191" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H191" s="7"/>
     </row>
@@ -3570,7 +3654,7 @@
       <c r="E192" s="4"/>
       <c r="F192" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H192" s="7"/>
     </row>
@@ -3584,7 +3668,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H193" s="7"/>
     </row>
@@ -3598,7 +3682,7 @@
       <c r="E194" s="4"/>
       <c r="F194" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H194" s="7"/>
     </row>
@@ -3612,7 +3696,7 @@
       <c r="E195" s="4"/>
       <c r="F195" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H195" s="7"/>
     </row>
@@ -3626,7 +3710,7 @@
       <c r="E196" s="4"/>
       <c r="F196" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H196" s="7"/>
     </row>
@@ -3640,7 +3724,7 @@
       <c r="E197" s="4"/>
       <c r="F197" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H197" s="7"/>
     </row>
@@ -3654,7 +3738,7 @@
       <c r="E198" s="4"/>
       <c r="F198" s="7">
         <f t="shared" si="5"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H198" s="7"/>
     </row>
@@ -3668,7 +3752,7 @@
       <c r="E199" s="4"/>
       <c r="F199" s="7">
         <f t="shared" ref="F199:F262" si="7">$E$3/$E$2</f>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H199" s="7"/>
     </row>
@@ -3682,7 +3766,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H200" s="7"/>
     </row>
@@ -3696,7 +3780,7 @@
       <c r="E201" s="4"/>
       <c r="F201" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H201" s="7"/>
     </row>
@@ -3710,7 +3794,7 @@
       <c r="E202" s="4"/>
       <c r="F202" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H202" s="7"/>
     </row>
@@ -3724,7 +3808,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H203" s="7"/>
     </row>
@@ -3738,7 +3822,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H204" s="7"/>
     </row>
@@ -3752,7 +3836,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H205" s="7"/>
     </row>
@@ -3766,7 +3850,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H206" s="7"/>
     </row>
@@ -3780,7 +3864,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H207" s="7"/>
     </row>
@@ -3794,7 +3878,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H208" s="7"/>
     </row>
@@ -3808,7 +3892,7 @@
       <c r="E209" s="4"/>
       <c r="F209" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H209" s="7"/>
     </row>
@@ -3822,7 +3906,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H210" s="7"/>
     </row>
@@ -3836,7 +3920,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H211" s="7"/>
     </row>
@@ -3850,7 +3934,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H212" s="7"/>
     </row>
@@ -3864,7 +3948,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H213" s="7"/>
     </row>
@@ -3878,7 +3962,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H214" s="7"/>
     </row>
@@ -3892,7 +3976,7 @@
       <c r="E215" s="4"/>
       <c r="F215" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H215" s="7"/>
     </row>
@@ -3906,7 +3990,7 @@
       <c r="E216" s="4"/>
       <c r="F216" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H216" s="7"/>
     </row>
@@ -3920,7 +4004,7 @@
       <c r="E217" s="4"/>
       <c r="F217" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H217" s="7"/>
     </row>
@@ -3934,7 +4018,7 @@
       <c r="E218" s="4"/>
       <c r="F218" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H218" s="7"/>
     </row>
@@ -3948,7 +4032,7 @@
       <c r="E219" s="4"/>
       <c r="F219" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H219" s="7"/>
     </row>
@@ -3962,7 +4046,7 @@
       <c r="E220" s="4"/>
       <c r="F220" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H220" s="7"/>
     </row>
@@ -3976,7 +4060,7 @@
       <c r="E221" s="4"/>
       <c r="F221" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H221" s="7"/>
     </row>
@@ -3990,7 +4074,7 @@
       <c r="E222" s="4"/>
       <c r="F222" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H222" s="7"/>
     </row>
@@ -4004,7 +4088,7 @@
       <c r="E223" s="4"/>
       <c r="F223" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H223" s="7"/>
     </row>
@@ -4018,7 +4102,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H224" s="7"/>
     </row>
@@ -4032,7 +4116,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H225" s="7"/>
     </row>
@@ -4046,7 +4130,7 @@
       <c r="E226" s="4"/>
       <c r="F226" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H226" s="7"/>
     </row>
@@ -4060,7 +4144,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H227" s="7"/>
     </row>
@@ -4074,7 +4158,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H228" s="7"/>
     </row>
@@ -4088,7 +4172,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H229" s="7"/>
     </row>
@@ -4102,7 +4186,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H230" s="7"/>
     </row>
@@ -4116,7 +4200,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H231" s="7"/>
     </row>
@@ -4130,7 +4214,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H232" s="7"/>
     </row>
@@ -4144,7 +4228,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H233" s="7"/>
     </row>
@@ -4158,7 +4242,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H234" s="7"/>
     </row>
@@ -4172,7 +4256,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H235" s="7"/>
     </row>
@@ -4186,7 +4270,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H236" s="7"/>
     </row>
@@ -4200,7 +4284,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H237" s="7"/>
     </row>
@@ -4214,7 +4298,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H238" s="7"/>
     </row>
@@ -4228,7 +4312,7 @@
       <c r="E239" s="4"/>
       <c r="F239" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H239" s="7"/>
     </row>
@@ -4242,7 +4326,7 @@
       <c r="E240" s="4"/>
       <c r="F240" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H240" s="7"/>
     </row>
@@ -4256,7 +4340,7 @@
       <c r="E241" s="4"/>
       <c r="F241" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H241" s="7"/>
     </row>
@@ -4270,7 +4354,7 @@
       <c r="E242" s="4"/>
       <c r="F242" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H242" s="7"/>
     </row>
@@ -4284,7 +4368,7 @@
       <c r="E243" s="4"/>
       <c r="F243" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H243" s="7"/>
     </row>
@@ -4298,7 +4382,7 @@
       <c r="E244" s="4"/>
       <c r="F244" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H244" s="7"/>
     </row>
@@ -4312,7 +4396,7 @@
       <c r="E245" s="4"/>
       <c r="F245" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H245" s="7"/>
     </row>
@@ -4326,7 +4410,7 @@
       <c r="E246" s="4"/>
       <c r="F246" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H246" s="7"/>
     </row>
@@ -4340,7 +4424,7 @@
       <c r="E247" s="4"/>
       <c r="F247" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H247" s="7"/>
     </row>
@@ -4354,7 +4438,7 @@
       <c r="E248" s="4"/>
       <c r="F248" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H248" s="7"/>
     </row>
@@ -4368,7 +4452,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H249" s="7"/>
     </row>
@@ -4382,7 +4466,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H250" s="7"/>
     </row>
@@ -4396,7 +4480,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H251" s="7"/>
     </row>
@@ -4410,7 +4494,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H252" s="7"/>
     </row>
@@ -4424,7 +4508,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H253" s="7"/>
     </row>
@@ -4438,7 +4522,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H254" s="7"/>
     </row>
@@ -4452,7 +4536,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H255" s="7"/>
     </row>
@@ -4466,7 +4550,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H256" s="7"/>
     </row>
@@ -4480,7 +4564,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H257" s="7"/>
     </row>
@@ -4494,7 +4578,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H258" s="7"/>
     </row>
@@ -4508,7 +4592,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H259" s="7"/>
     </row>
@@ -4522,7 +4606,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H260" s="7"/>
     </row>
@@ -4536,7 +4620,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H261" s="7"/>
     </row>
@@ -4550,7 +4634,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="7">
         <f t="shared" si="7"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H262" s="7"/>
     </row>
@@ -4564,7 +4648,7 @@
       <c r="E263" s="4"/>
       <c r="F263" s="7">
         <f t="shared" ref="F263:F326" si="9">$E$3/$E$2</f>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H263" s="7"/>
     </row>
@@ -4578,7 +4662,7 @@
       <c r="E264" s="4"/>
       <c r="F264" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H264" s="7"/>
     </row>
@@ -4592,7 +4676,7 @@
       <c r="E265" s="4"/>
       <c r="F265" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H265" s="7"/>
     </row>
@@ -4606,7 +4690,7 @@
       <c r="E266" s="4"/>
       <c r="F266" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H266" s="7"/>
     </row>
@@ -4620,7 +4704,7 @@
       <c r="E267" s="4"/>
       <c r="F267" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H267" s="7"/>
     </row>
@@ -4634,7 +4718,7 @@
       <c r="E268" s="4"/>
       <c r="F268" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H268" s="7"/>
     </row>
@@ -4648,7 +4732,7 @@
       <c r="E269" s="4"/>
       <c r="F269" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H269" s="7"/>
     </row>
@@ -4662,7 +4746,7 @@
       <c r="E270" s="4"/>
       <c r="F270" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H270" s="7"/>
     </row>
@@ -4676,7 +4760,7 @@
       <c r="E271" s="4"/>
       <c r="F271" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H271" s="7"/>
     </row>
@@ -4690,7 +4774,7 @@
       <c r="E272" s="4"/>
       <c r="F272" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H272" s="7"/>
     </row>
@@ -4704,7 +4788,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H273" s="7"/>
     </row>
@@ -4718,7 +4802,7 @@
       <c r="E274" s="4"/>
       <c r="F274" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H274" s="7"/>
     </row>
@@ -4732,7 +4816,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H275" s="7"/>
     </row>
@@ -4746,7 +4830,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H276" s="7"/>
     </row>
@@ -4760,7 +4844,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H277" s="7"/>
     </row>
@@ -4774,7 +4858,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H278" s="7"/>
     </row>
@@ -4788,7 +4872,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H279" s="7"/>
     </row>
@@ -4802,7 +4886,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H280" s="7"/>
     </row>
@@ -4816,7 +4900,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H281" s="7"/>
     </row>
@@ -4830,7 +4914,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H282" s="7"/>
     </row>
@@ -4844,7 +4928,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H283" s="7"/>
     </row>
@@ -4858,7 +4942,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H284" s="7"/>
     </row>
@@ -4872,7 +4956,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H285" s="7"/>
     </row>
@@ -4886,7 +4970,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H286" s="7"/>
     </row>
@@ -4900,7 +4984,7 @@
       <c r="E287" s="4"/>
       <c r="F287" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H287" s="7"/>
     </row>
@@ -4914,7 +4998,7 @@
       <c r="E288" s="4"/>
       <c r="F288" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H288" s="7"/>
     </row>
@@ -4928,7 +5012,7 @@
       <c r="E289" s="4"/>
       <c r="F289" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H289" s="7"/>
     </row>
@@ -4942,7 +5026,7 @@
       <c r="E290" s="4"/>
       <c r="F290" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H290" s="7"/>
     </row>
@@ -4956,7 +5040,7 @@
       <c r="E291" s="4"/>
       <c r="F291" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H291" s="7"/>
     </row>
@@ -4970,7 +5054,7 @@
       <c r="E292" s="4"/>
       <c r="F292" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H292" s="7"/>
     </row>
@@ -4984,7 +5068,7 @@
       <c r="E293" s="4"/>
       <c r="F293" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H293" s="7"/>
     </row>
@@ -4998,7 +5082,7 @@
       <c r="E294" s="4"/>
       <c r="F294" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H294" s="7"/>
     </row>
@@ -5012,7 +5096,7 @@
       <c r="E295" s="4"/>
       <c r="F295" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H295" s="7"/>
     </row>
@@ -5026,7 +5110,7 @@
       <c r="E296" s="4"/>
       <c r="F296" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H296" s="7"/>
     </row>
@@ -5040,7 +5124,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H297" s="7"/>
     </row>
@@ -5054,7 +5138,7 @@
       <c r="E298" s="4"/>
       <c r="F298" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H298" s="7"/>
     </row>
@@ -5068,7 +5152,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H299" s="7"/>
     </row>
@@ -5082,7 +5166,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H300" s="7"/>
     </row>
@@ -5096,7 +5180,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H301" s="7"/>
     </row>
@@ -5110,7 +5194,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H302" s="7"/>
     </row>
@@ -5124,7 +5208,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H303" s="7"/>
     </row>
@@ -5138,7 +5222,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H304" s="7"/>
     </row>
@@ -5152,7 +5236,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H305" s="7"/>
     </row>
@@ -5168,7 +5252,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G306" s="6" t="s">
         <v>13</v>
@@ -5187,7 +5271,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G307" s="6" t="s">
         <v>14</v>
@@ -5206,7 +5290,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G308" s="6" t="s">
         <v>15</v>
@@ -5225,7 +5309,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G309" s="6" t="s">
         <v>16</v>
@@ -5244,7 +5328,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G310" s="6" t="s">
         <v>17</v>
@@ -5263,7 +5347,7 @@
       <c r="E311" s="4"/>
       <c r="F311" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G311" s="6" t="s">
         <v>18</v>
@@ -5282,7 +5366,7 @@
       <c r="E312" s="4"/>
       <c r="F312" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G312" s="6" t="s">
         <v>19</v>
@@ -5301,7 +5385,7 @@
       <c r="E313" s="4"/>
       <c r="F313" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G313" s="6" t="s">
         <v>20</v>
@@ -5320,7 +5404,7 @@
       <c r="E314" s="4"/>
       <c r="F314" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G314" s="6" t="s">
         <v>21</v>
@@ -5339,7 +5423,7 @@
       <c r="E315" s="4"/>
       <c r="F315" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G315" s="6" t="s">
         <v>22</v>
@@ -5358,7 +5442,7 @@
       <c r="E316" s="4"/>
       <c r="F316" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G316" s="6" t="s">
         <v>24</v>
@@ -5377,7 +5461,7 @@
       <c r="E317" s="4"/>
       <c r="F317" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G317" s="8" t="s">
         <v>23</v>
@@ -5396,7 +5480,7 @@
       <c r="E318" s="4"/>
       <c r="F318" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>25</v>
@@ -5415,7 +5499,7 @@
       <c r="E319" s="4"/>
       <c r="F319" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G319" s="6" t="s">
         <v>26</v>
@@ -5434,7 +5518,7 @@
       <c r="E320" s="4"/>
       <c r="F320" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G320" s="6" t="s">
         <v>27</v>
@@ -5453,7 +5537,7 @@
       <c r="E321" s="4"/>
       <c r="F321" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G321" s="6" t="s">
         <v>28</v>
@@ -5472,7 +5556,7 @@
       <c r="E322" s="4"/>
       <c r="F322" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G322" s="6" t="s">
         <v>29</v>
@@ -5491,7 +5575,7 @@
       <c r="E323" s="4"/>
       <c r="F323" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G323" s="6" t="s">
         <v>30</v>
@@ -5510,7 +5594,7 @@
       <c r="E324" s="4"/>
       <c r="F324" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G324" s="6" t="s">
         <v>31</v>
@@ -5529,7 +5613,7 @@
       <c r="E325" s="4"/>
       <c r="F325" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G325" s="6" t="s">
         <v>32</v>
@@ -5548,7 +5632,7 @@
       <c r="E326" s="4"/>
       <c r="F326" s="7">
         <f t="shared" si="9"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G326" s="6" t="s">
         <v>33</v>
@@ -5567,7 +5651,7 @@
       <c r="E327" s="4"/>
       <c r="F327" s="7">
         <f t="shared" ref="F327:F390" si="11">$E$3/$E$2</f>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G327" s="6" t="s">
         <v>34</v>
@@ -5586,7 +5670,7 @@
       <c r="E328" s="4"/>
       <c r="F328" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G328" s="6" t="s">
         <v>35</v>
@@ -5605,7 +5689,7 @@
       <c r="E329" s="4"/>
       <c r="F329" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G329" s="6" t="s">
         <v>36</v>
@@ -5624,7 +5708,7 @@
       <c r="E330" s="4"/>
       <c r="F330" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G330" s="6" t="s">
         <v>37</v>
@@ -5646,7 +5730,7 @@
       <c r="E331" s="4"/>
       <c r="F331" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G331" s="6" t="s">
         <v>38</v>
@@ -5665,7 +5749,7 @@
       <c r="E332" s="4"/>
       <c r="F332" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G332" s="6" t="s">
         <v>40</v>
@@ -5684,7 +5768,7 @@
       <c r="E333" s="4"/>
       <c r="F333" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G333" s="6" t="s">
         <v>41</v>
@@ -5703,7 +5787,7 @@
       <c r="E334" s="4"/>
       <c r="F334" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G334" s="6" t="s">
         <v>42</v>
@@ -5722,7 +5806,7 @@
       <c r="E335" s="4"/>
       <c r="F335" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G335" s="6" t="s">
         <v>43</v>
@@ -5741,7 +5825,7 @@
       <c r="E336" s="4"/>
       <c r="F336" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G336" s="6" t="s">
         <v>44</v>
@@ -5760,7 +5844,7 @@
       <c r="E337" s="4"/>
       <c r="F337" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G337" s="6" t="s">
         <v>45</v>
@@ -5779,7 +5863,7 @@
       <c r="E338" s="4"/>
       <c r="F338" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G338" s="6" t="s">
         <v>46</v>
@@ -5798,7 +5882,7 @@
       <c r="E339" s="4"/>
       <c r="F339" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G339" s="6" t="s">
         <v>47</v>
@@ -5817,7 +5901,7 @@
       <c r="E340" s="4"/>
       <c r="F340" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G340" s="6" t="s">
         <v>48</v>
@@ -5836,7 +5920,7 @@
       <c r="E341" s="4"/>
       <c r="F341" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G341" s="6" t="s">
         <v>49</v>
@@ -5855,7 +5939,7 @@
       <c r="E342" s="4"/>
       <c r="F342" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G342" s="6" t="s">
         <v>50</v>
@@ -5877,7 +5961,7 @@
       <c r="E343" s="4"/>
       <c r="F343" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G343" s="6" t="s">
         <v>51</v>
@@ -5896,7 +5980,7 @@
       <c r="E344" s="4"/>
       <c r="F344" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G344" s="6" t="s">
         <v>52</v>
@@ -5915,7 +5999,7 @@
       <c r="E345" s="4"/>
       <c r="F345" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G345" s="6" t="s">
         <v>53</v>
@@ -5934,7 +6018,7 @@
       <c r="E346" s="4"/>
       <c r="F346" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G346" s="6" t="s">
         <v>54</v>
@@ -5953,7 +6037,7 @@
       <c r="E347" s="4"/>
       <c r="F347" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G347" s="6" t="s">
         <v>55</v>
@@ -5972,7 +6056,7 @@
       <c r="E348" s="4"/>
       <c r="F348" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G348" s="6" t="s">
         <v>56</v>
@@ -5991,7 +6075,7 @@
       <c r="E349" s="4"/>
       <c r="F349" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G349" s="6" t="s">
         <v>57</v>
@@ -6013,7 +6097,7 @@
       <c r="E350" s="4"/>
       <c r="F350" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G350" s="6" t="s">
         <v>58</v>
@@ -6032,7 +6116,7 @@
       <c r="E351" s="4"/>
       <c r="F351" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G351" s="6" t="s">
         <v>59</v>
@@ -6051,7 +6135,7 @@
       <c r="E352" s="4"/>
       <c r="F352" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G352" s="6" t="s">
         <v>60</v>
@@ -6070,7 +6154,7 @@
       <c r="E353" s="4"/>
       <c r="F353" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G353" s="6" t="s">
         <v>61</v>
@@ -6089,7 +6173,7 @@
       <c r="E354" s="4"/>
       <c r="F354" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G354" s="6" t="s">
         <v>62</v>
@@ -6108,7 +6192,7 @@
       <c r="E355" s="4"/>
       <c r="F355" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G355" s="6" t="s">
         <v>63</v>
@@ -6127,7 +6211,7 @@
       <c r="E356" s="4"/>
       <c r="F356" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G356" s="6" t="s">
         <v>64</v>
@@ -6146,7 +6230,7 @@
       <c r="E357" s="4"/>
       <c r="F357" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G357" s="6" t="s">
         <v>65</v>
@@ -6165,7 +6249,7 @@
       <c r="E358" s="4"/>
       <c r="F358" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G358" s="6" t="s">
         <v>66</v>
@@ -6184,7 +6268,7 @@
       <c r="E359" s="4"/>
       <c r="F359" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G359" s="6" t="s">
         <v>67</v>
@@ -6203,7 +6287,7 @@
       <c r="E360" s="4"/>
       <c r="F360" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G360" s="6" t="s">
         <v>68</v>
@@ -6225,7 +6309,7 @@
       <c r="E361" s="4"/>
       <c r="F361" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G361" s="6" t="s">
         <v>69</v>
@@ -6244,7 +6328,7 @@
       <c r="E362" s="4"/>
       <c r="F362" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G362" s="6" t="s">
         <v>71</v>
@@ -6266,7 +6350,7 @@
       <c r="E363" s="4"/>
       <c r="F363" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G363" s="6" t="s">
         <v>72</v>
@@ -6285,7 +6369,7 @@
       <c r="E364" s="4"/>
       <c r="F364" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G364" s="6" t="s">
         <v>73</v>
@@ -6304,7 +6388,7 @@
       <c r="E365" s="4"/>
       <c r="F365" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G365" s="6" t="s">
         <v>74</v>
@@ -6323,7 +6407,7 @@
       <c r="E366" s="4"/>
       <c r="F366" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G366" s="6" t="s">
         <v>78</v>
@@ -6342,7 +6426,7 @@
       <c r="E367" s="4"/>
       <c r="F367" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G367" s="6" t="s">
         <v>75</v>
@@ -6361,7 +6445,7 @@
       <c r="E368" s="4"/>
       <c r="F368" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G368" s="6" t="s">
         <v>76</v>
@@ -6380,7 +6464,7 @@
       <c r="E369" s="4"/>
       <c r="F369" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G369" s="6" t="s">
         <v>77</v>
@@ -6399,7 +6483,7 @@
       <c r="E370" s="4"/>
       <c r="F370" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G370" s="6" t="s">
         <v>79</v>
@@ -6418,7 +6502,7 @@
       <c r="E371" s="4"/>
       <c r="F371" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G371" s="6" t="s">
         <v>80</v>
@@ -6437,7 +6521,7 @@
       <c r="E372" s="4"/>
       <c r="F372" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G372" s="6" t="s">
         <v>81</v>
@@ -6459,7 +6543,7 @@
       <c r="E373" s="4"/>
       <c r="F373" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G373" s="6" t="s">
         <v>82</v>
@@ -6478,7 +6562,7 @@
       <c r="E374" s="4"/>
       <c r="F374" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G374" s="6" t="s">
         <v>83</v>
@@ -6500,7 +6584,7 @@
       <c r="E375" s="4"/>
       <c r="F375" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G375" s="6" t="s">
         <v>84</v>
@@ -6519,7 +6603,7 @@
       <c r="E376" s="4"/>
       <c r="F376" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G376" s="6" t="s">
         <v>87</v>
@@ -6538,7 +6622,7 @@
       <c r="E377" s="4"/>
       <c r="F377" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G377" s="6" t="s">
         <v>86</v>
@@ -6560,7 +6644,7 @@
       <c r="E378" s="4"/>
       <c r="F378" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G378" s="6" t="s">
         <v>88</v>
@@ -6579,7 +6663,7 @@
       <c r="E379" s="4"/>
       <c r="F379" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G379" s="6" t="s">
         <v>89</v>
@@ -6601,7 +6685,7 @@
       <c r="E380" s="4"/>
       <c r="F380" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G380" s="6" t="s">
         <v>90</v>
@@ -6620,7 +6704,7 @@
       <c r="E381" s="4"/>
       <c r="F381" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G381" s="6" t="s">
         <v>91</v>
@@ -6639,7 +6723,7 @@
       <c r="E382" s="4"/>
       <c r="F382" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G382" s="6" t="s">
         <v>92</v>
@@ -6661,7 +6745,7 @@
       <c r="E383" s="4"/>
       <c r="F383" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G383" s="6" t="s">
         <v>93</v>
@@ -6680,7 +6764,7 @@
       <c r="E384" s="4"/>
       <c r="F384" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G384" s="6" t="s">
         <v>94</v>
@@ -6699,7 +6783,7 @@
       <c r="E385" s="4"/>
       <c r="F385" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G385" s="6" t="s">
         <v>95</v>
@@ -6718,7 +6802,7 @@
       <c r="E386" s="4"/>
       <c r="F386" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G386" s="6" t="s">
         <v>96</v>
@@ -6740,7 +6824,7 @@
       <c r="E387" s="4"/>
       <c r="F387" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G387" s="6" t="s">
         <v>97</v>
@@ -6759,7 +6843,7 @@
       <c r="E388" s="4"/>
       <c r="F388" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G388" s="6" t="s">
         <v>99</v>
@@ -6778,7 +6862,7 @@
       <c r="E389" s="4"/>
       <c r="F389" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G389" s="6" t="s">
         <v>100</v>
@@ -6797,7 +6881,7 @@
       <c r="E390" s="4"/>
       <c r="F390" s="7">
         <f t="shared" si="11"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>101</v>
@@ -6816,7 +6900,7 @@
       <c r="E391" s="4"/>
       <c r="F391" s="7">
         <f t="shared" ref="F391:F454" si="13">$E$3/$E$2</f>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G391" s="6" t="s">
         <v>102</v>
@@ -6835,7 +6919,7 @@
       <c r="E392" s="4"/>
       <c r="F392" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G392" s="6" t="s">
         <v>103</v>
@@ -6854,7 +6938,7 @@
       <c r="E393" s="4"/>
       <c r="F393" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G393" s="6" t="s">
         <v>104</v>
@@ -6873,7 +6957,7 @@
       <c r="E394" s="4"/>
       <c r="F394" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G394" s="6" t="s">
         <v>105</v>
@@ -6892,7 +6976,7 @@
       <c r="E395" s="4"/>
       <c r="F395" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>106</v>
@@ -6914,7 +6998,7 @@
       <c r="E396" s="4"/>
       <c r="F396" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G396" s="6" t="s">
         <v>107</v>
@@ -6933,7 +7017,7 @@
       <c r="E397" s="4"/>
       <c r="F397" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>108</v>
@@ -6955,7 +7039,7 @@
       <c r="E398" s="4"/>
       <c r="F398" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G398" s="6" t="s">
         <v>109</v>
@@ -6974,7 +7058,7 @@
       <c r="E399" s="4"/>
       <c r="F399" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G399" s="6" t="s">
         <v>111</v>
@@ -6996,7 +7080,7 @@
       <c r="E400" s="4"/>
       <c r="F400" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G400" s="6" t="s">
         <v>112</v>
@@ -7015,7 +7099,7 @@
       <c r="E401" s="4"/>
       <c r="F401" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G401" s="6" t="s">
         <v>113</v>
@@ -7034,7 +7118,7 @@
       <c r="E402" s="4"/>
       <c r="F402" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G402" s="6" t="s">
         <v>114</v>
@@ -7053,7 +7137,7 @@
       <c r="E403" s="4"/>
       <c r="F403" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G403" s="6" t="s">
         <v>115</v>
@@ -7072,7 +7156,7 @@
       <c r="E404" s="4"/>
       <c r="F404" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G404" s="6" t="s">
         <v>116</v>
@@ -7091,7 +7175,7 @@
       <c r="E405" s="4"/>
       <c r="F405" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G405" s="6" t="s">
         <v>117</v>
@@ -7103,12 +7187,17 @@
         <f t="shared" si="12"/>
         <v>401</v>
       </c>
-      <c r="C406" s="4"/>
+      <c r="C406" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
       <c r="F406" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
+      </c>
+      <c r="G406" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="H406" s="7"/>
     </row>
@@ -7117,12 +7206,17 @@
         <f t="shared" si="12"/>
         <v>402</v>
       </c>
-      <c r="C407" s="4"/>
+      <c r="C407" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
       <c r="F407" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
+      </c>
+      <c r="G407" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="H407" s="7"/>
     </row>
@@ -7136,7 +7230,7 @@
       <c r="E408" s="4"/>
       <c r="F408" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H408" s="7"/>
     </row>
@@ -7150,7 +7244,7 @@
       <c r="E409" s="4"/>
       <c r="F409" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H409" s="7"/>
     </row>
@@ -7164,7 +7258,7 @@
       <c r="E410" s="4"/>
       <c r="F410" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H410" s="7"/>
     </row>
@@ -7178,7 +7272,7 @@
       <c r="E411" s="4"/>
       <c r="F411" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H411" s="7"/>
     </row>
@@ -7192,7 +7286,7 @@
       <c r="E412" s="4"/>
       <c r="F412" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H412" s="7"/>
     </row>
@@ -7206,7 +7300,7 @@
       <c r="E413" s="4"/>
       <c r="F413" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H413" s="7"/>
     </row>
@@ -7220,7 +7314,7 @@
       <c r="E414" s="4"/>
       <c r="F414" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H414" s="7"/>
     </row>
@@ -7234,7 +7328,7 @@
       <c r="E415" s="4"/>
       <c r="F415" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H415" s="7"/>
     </row>
@@ -7248,7 +7342,7 @@
       <c r="E416" s="4"/>
       <c r="F416" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H416" s="7"/>
     </row>
@@ -7262,7 +7356,7 @@
       <c r="E417" s="4"/>
       <c r="F417" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H417" s="7"/>
     </row>
@@ -7276,7 +7370,7 @@
       <c r="E418" s="4"/>
       <c r="F418" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H418" s="7"/>
     </row>
@@ -7290,7 +7384,7 @@
       <c r="E419" s="4"/>
       <c r="F419" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H419" s="7"/>
     </row>
@@ -7304,7 +7398,7 @@
       <c r="E420" s="4"/>
       <c r="F420" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H420" s="7"/>
     </row>
@@ -7318,7 +7412,7 @@
       <c r="E421" s="4"/>
       <c r="F421" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H421" s="7"/>
     </row>
@@ -7332,7 +7426,7 @@
       <c r="E422" s="4"/>
       <c r="F422" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H422" s="7"/>
     </row>
@@ -7346,7 +7440,7 @@
       <c r="E423" s="4"/>
       <c r="F423" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H423" s="7"/>
     </row>
@@ -7360,7 +7454,7 @@
       <c r="E424" s="4"/>
       <c r="F424" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H424" s="7"/>
     </row>
@@ -7374,7 +7468,7 @@
       <c r="E425" s="4"/>
       <c r="F425" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H425" s="7"/>
     </row>
@@ -7388,7 +7482,7 @@
       <c r="E426" s="4"/>
       <c r="F426" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H426" s="7"/>
     </row>
@@ -7402,7 +7496,7 @@
       <c r="E427" s="4"/>
       <c r="F427" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H427" s="7"/>
     </row>
@@ -7416,7 +7510,7 @@
       <c r="E428" s="4"/>
       <c r="F428" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H428" s="7"/>
     </row>
@@ -7430,7 +7524,7 @@
       <c r="E429" s="4"/>
       <c r="F429" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H429" s="7"/>
     </row>
@@ -7444,7 +7538,7 @@
       <c r="E430" s="4"/>
       <c r="F430" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H430" s="7"/>
     </row>
@@ -7458,7 +7552,7 @@
       <c r="E431" s="4"/>
       <c r="F431" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H431" s="7"/>
     </row>
@@ -7472,7 +7566,7 @@
       <c r="E432" s="4"/>
       <c r="F432" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H432" s="7"/>
     </row>
@@ -7486,7 +7580,7 @@
       <c r="E433" s="4"/>
       <c r="F433" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H433" s="7"/>
     </row>
@@ -7500,7 +7594,7 @@
       <c r="E434" s="4"/>
       <c r="F434" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H434" s="7"/>
     </row>
@@ -7514,7 +7608,7 @@
       <c r="E435" s="4"/>
       <c r="F435" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H435" s="7"/>
     </row>
@@ -7528,7 +7622,7 @@
       <c r="E436" s="4"/>
       <c r="F436" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H436" s="7"/>
     </row>
@@ -7542,7 +7636,7 @@
       <c r="E437" s="4"/>
       <c r="F437" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H437" s="7"/>
     </row>
@@ -7556,7 +7650,7 @@
       <c r="E438" s="4"/>
       <c r="F438" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H438" s="7"/>
     </row>
@@ -7570,7 +7664,7 @@
       <c r="E439" s="4"/>
       <c r="F439" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H439" s="7"/>
     </row>
@@ -7584,7 +7678,7 @@
       <c r="E440" s="4"/>
       <c r="F440" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H440" s="7"/>
     </row>
@@ -7598,7 +7692,7 @@
       <c r="E441" s="4"/>
       <c r="F441" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H441" s="7"/>
     </row>
@@ -7612,7 +7706,7 @@
       <c r="E442" s="4"/>
       <c r="F442" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H442" s="7"/>
     </row>
@@ -7626,7 +7720,7 @@
       <c r="E443" s="4"/>
       <c r="F443" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H443" s="7"/>
     </row>
@@ -7640,7 +7734,7 @@
       <c r="E444" s="4"/>
       <c r="F444" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H444" s="7"/>
     </row>
@@ -7654,7 +7748,7 @@
       <c r="E445" s="4"/>
       <c r="F445" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H445" s="7"/>
     </row>
@@ -7668,7 +7762,7 @@
       <c r="E446" s="4"/>
       <c r="F446" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H446" s="7"/>
     </row>
@@ -7682,7 +7776,7 @@
       <c r="E447" s="4"/>
       <c r="F447" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H447" s="7"/>
     </row>
@@ -7696,7 +7790,7 @@
       <c r="E448" s="4"/>
       <c r="F448" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H448" s="7"/>
     </row>
@@ -7710,7 +7804,7 @@
       <c r="E449" s="4"/>
       <c r="F449" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H449" s="7"/>
     </row>
@@ -7724,7 +7818,7 @@
       <c r="E450" s="4"/>
       <c r="F450" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H450" s="7"/>
     </row>
@@ -7738,7 +7832,7 @@
       <c r="E451" s="4"/>
       <c r="F451" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H451" s="7"/>
     </row>
@@ -7752,7 +7846,7 @@
       <c r="E452" s="4"/>
       <c r="F452" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H452" s="7"/>
     </row>
@@ -7766,7 +7860,7 @@
       <c r="E453" s="4"/>
       <c r="F453" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H453" s="7"/>
     </row>
@@ -7780,7 +7874,7 @@
       <c r="E454" s="4"/>
       <c r="F454" s="7">
         <f t="shared" si="13"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H454" s="7"/>
     </row>
@@ -7794,7 +7888,7 @@
       <c r="E455" s="4"/>
       <c r="F455" s="7">
         <f t="shared" ref="F455:F518" si="15">$E$3/$E$2</f>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H455" s="7"/>
     </row>
@@ -7808,7 +7902,7 @@
       <c r="E456" s="4"/>
       <c r="F456" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H456" s="7"/>
     </row>
@@ -7822,7 +7916,7 @@
       <c r="E457" s="4"/>
       <c r="F457" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H457" s="7"/>
     </row>
@@ -7836,7 +7930,7 @@
       <c r="E458" s="4"/>
       <c r="F458" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H458" s="7"/>
     </row>
@@ -7850,7 +7944,7 @@
       <c r="E459" s="4"/>
       <c r="F459" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H459" s="7"/>
     </row>
@@ -7864,7 +7958,7 @@
       <c r="E460" s="4"/>
       <c r="F460" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H460" s="7"/>
     </row>
@@ -7878,7 +7972,7 @@
       <c r="E461" s="4"/>
       <c r="F461" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H461" s="7"/>
     </row>
@@ -7892,7 +7986,7 @@
       <c r="E462" s="4"/>
       <c r="F462" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H462" s="7"/>
     </row>
@@ -7906,7 +8000,7 @@
       <c r="E463" s="4"/>
       <c r="F463" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H463" s="7"/>
     </row>
@@ -7920,7 +8014,7 @@
       <c r="E464" s="4"/>
       <c r="F464" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H464" s="7"/>
     </row>
@@ -7934,7 +8028,7 @@
       <c r="E465" s="4"/>
       <c r="F465" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H465" s="7"/>
     </row>
@@ -7948,7 +8042,7 @@
       <c r="E466" s="4"/>
       <c r="F466" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H466" s="7"/>
     </row>
@@ -7962,7 +8056,7 @@
       <c r="E467" s="4"/>
       <c r="F467" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H467" s="7"/>
     </row>
@@ -7976,7 +8070,7 @@
       <c r="E468" s="4"/>
       <c r="F468" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H468" s="7"/>
     </row>
@@ -7990,7 +8084,7 @@
       <c r="E469" s="4"/>
       <c r="F469" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H469" s="7"/>
     </row>
@@ -8004,7 +8098,7 @@
       <c r="E470" s="4"/>
       <c r="F470" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H470" s="7"/>
     </row>
@@ -8018,7 +8112,7 @@
       <c r="E471" s="4"/>
       <c r="F471" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H471" s="7"/>
     </row>
@@ -8032,7 +8126,7 @@
       <c r="E472" s="4"/>
       <c r="F472" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H472" s="7"/>
     </row>
@@ -8046,7 +8140,7 @@
       <c r="E473" s="4"/>
       <c r="F473" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H473" s="7"/>
     </row>
@@ -8060,7 +8154,7 @@
       <c r="E474" s="4"/>
       <c r="F474" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H474" s="7"/>
     </row>
@@ -8074,7 +8168,7 @@
       <c r="E475" s="4"/>
       <c r="F475" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H475" s="7"/>
     </row>
@@ -8088,7 +8182,7 @@
       <c r="E476" s="4"/>
       <c r="F476" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H476" s="7"/>
     </row>
@@ -8102,7 +8196,7 @@
       <c r="E477" s="4"/>
       <c r="F477" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H477" s="7"/>
     </row>
@@ -8116,7 +8210,7 @@
       <c r="E478" s="4"/>
       <c r="F478" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H478" s="7"/>
     </row>
@@ -8130,7 +8224,7 @@
       <c r="E479" s="4"/>
       <c r="F479" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H479" s="7"/>
     </row>
@@ -8144,7 +8238,7 @@
       <c r="E480" s="4"/>
       <c r="F480" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H480" s="7"/>
     </row>
@@ -8158,7 +8252,7 @@
       <c r="E481" s="4"/>
       <c r="F481" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H481" s="7"/>
     </row>
@@ -8172,7 +8266,7 @@
       <c r="E482" s="4"/>
       <c r="F482" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H482" s="7"/>
     </row>
@@ -8186,7 +8280,7 @@
       <c r="E483" s="4"/>
       <c r="F483" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H483" s="7"/>
     </row>
@@ -8200,7 +8294,7 @@
       <c r="E484" s="4"/>
       <c r="F484" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H484" s="7"/>
     </row>
@@ -8214,7 +8308,7 @@
       <c r="E485" s="4"/>
       <c r="F485" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H485" s="7"/>
     </row>
@@ -8228,7 +8322,7 @@
       <c r="E486" s="4"/>
       <c r="F486" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H486" s="7"/>
     </row>
@@ -8242,7 +8336,7 @@
       <c r="E487" s="4"/>
       <c r="F487" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H487" s="7"/>
     </row>
@@ -8256,7 +8350,7 @@
       <c r="E488" s="4"/>
       <c r="F488" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H488" s="7"/>
     </row>
@@ -8270,7 +8364,7 @@
       <c r="E489" s="4"/>
       <c r="F489" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H489" s="7"/>
     </row>
@@ -8284,7 +8378,7 @@
       <c r="E490" s="4"/>
       <c r="F490" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H490" s="7"/>
     </row>
@@ -8298,7 +8392,7 @@
       <c r="E491" s="4"/>
       <c r="F491" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H491" s="7"/>
     </row>
@@ -8312,7 +8406,7 @@
       <c r="E492" s="4"/>
       <c r="F492" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H492" s="7"/>
     </row>
@@ -8326,7 +8420,7 @@
       <c r="E493" s="4"/>
       <c r="F493" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H493" s="7"/>
     </row>
@@ -8340,7 +8434,7 @@
       <c r="E494" s="4"/>
       <c r="F494" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H494" s="7"/>
     </row>
@@ -8354,7 +8448,7 @@
       <c r="E495" s="4"/>
       <c r="F495" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H495" s="7"/>
     </row>
@@ -8368,7 +8462,7 @@
       <c r="E496" s="4"/>
       <c r="F496" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H496" s="7"/>
     </row>
@@ -8382,7 +8476,7 @@
       <c r="E497" s="4"/>
       <c r="F497" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H497" s="7"/>
     </row>
@@ -8396,7 +8490,7 @@
       <c r="E498" s="4"/>
       <c r="F498" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H498" s="7"/>
     </row>
@@ -8410,7 +8504,7 @@
       <c r="E499" s="4"/>
       <c r="F499" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H499" s="7"/>
     </row>
@@ -8424,7 +8518,7 @@
       <c r="E500" s="4"/>
       <c r="F500" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H500" s="7"/>
     </row>
@@ -8438,7 +8532,7 @@
       <c r="E501" s="4"/>
       <c r="F501" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H501" s="7"/>
     </row>
@@ -8452,7 +8546,7 @@
       <c r="E502" s="4"/>
       <c r="F502" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H502" s="7"/>
     </row>
@@ -8466,7 +8560,7 @@
       <c r="E503" s="4"/>
       <c r="F503" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H503" s="7"/>
     </row>
@@ -8480,7 +8574,7 @@
       <c r="E504" s="4"/>
       <c r="F504" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H504" s="7"/>
     </row>
@@ -8494,7 +8588,7 @@
       <c r="E505" s="4"/>
       <c r="F505" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H505" s="7"/>
     </row>
@@ -8508,7 +8602,7 @@
       <c r="E506" s="4"/>
       <c r="F506" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H506" s="7"/>
     </row>
@@ -8522,7 +8616,7 @@
       <c r="E507" s="4"/>
       <c r="F507" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H507" s="7"/>
     </row>
@@ -8536,7 +8630,7 @@
       <c r="E508" s="4"/>
       <c r="F508" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H508" s="7"/>
     </row>
@@ -8550,7 +8644,7 @@
       <c r="E509" s="4"/>
       <c r="F509" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H509" s="7"/>
     </row>
@@ -8564,7 +8658,7 @@
       <c r="E510" s="4"/>
       <c r="F510" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H510" s="7"/>
     </row>
@@ -8578,7 +8672,7 @@
       <c r="E511" s="4"/>
       <c r="F511" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H511" s="7"/>
     </row>
@@ -8592,7 +8686,7 @@
       <c r="E512" s="4"/>
       <c r="F512" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H512" s="7"/>
     </row>
@@ -8606,7 +8700,7 @@
       <c r="E513" s="4"/>
       <c r="F513" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H513" s="7"/>
     </row>
@@ -8620,7 +8714,7 @@
       <c r="E514" s="4"/>
       <c r="F514" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H514" s="7"/>
     </row>
@@ -8634,7 +8728,7 @@
       <c r="E515" s="4"/>
       <c r="F515" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H515" s="7"/>
     </row>
@@ -8648,7 +8742,7 @@
       <c r="E516" s="4"/>
       <c r="F516" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H516" s="7"/>
     </row>
@@ -8662,7 +8756,7 @@
       <c r="E517" s="4"/>
       <c r="F517" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H517" s="7"/>
     </row>
@@ -8676,7 +8770,7 @@
       <c r="E518" s="4"/>
       <c r="F518" s="7">
         <f t="shared" si="15"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H518" s="7"/>
     </row>
@@ -8690,7 +8784,7 @@
       <c r="E519" s="4"/>
       <c r="F519" s="7">
         <f t="shared" ref="F519:F582" si="17">$E$3/$E$2</f>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H519" s="7"/>
     </row>
@@ -8704,7 +8798,7 @@
       <c r="E520" s="4"/>
       <c r="F520" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H520" s="7"/>
     </row>
@@ -8718,7 +8812,7 @@
       <c r="E521" s="4"/>
       <c r="F521" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H521" s="7"/>
     </row>
@@ -8732,7 +8826,7 @@
       <c r="E522" s="4"/>
       <c r="F522" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H522" s="7"/>
     </row>
@@ -8746,7 +8840,7 @@
       <c r="E523" s="4"/>
       <c r="F523" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H523" s="7"/>
     </row>
@@ -8760,7 +8854,7 @@
       <c r="E524" s="4"/>
       <c r="F524" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H524" s="7"/>
     </row>
@@ -8774,7 +8868,7 @@
       <c r="E525" s="4"/>
       <c r="F525" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H525" s="7"/>
     </row>
@@ -8788,7 +8882,7 @@
       <c r="E526" s="4"/>
       <c r="F526" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H526" s="7"/>
     </row>
@@ -8802,7 +8896,7 @@
       <c r="E527" s="4"/>
       <c r="F527" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H527" s="7"/>
     </row>
@@ -8816,7 +8910,7 @@
       <c r="E528" s="4"/>
       <c r="F528" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H528" s="7"/>
     </row>
@@ -8830,7 +8924,7 @@
       <c r="E529" s="4"/>
       <c r="F529" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H529" s="7"/>
     </row>
@@ -8844,7 +8938,7 @@
       <c r="E530" s="4"/>
       <c r="F530" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H530" s="7"/>
     </row>
@@ -8858,7 +8952,7 @@
       <c r="E531" s="4"/>
       <c r="F531" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H531" s="7"/>
     </row>
@@ -8872,7 +8966,7 @@
       <c r="E532" s="4"/>
       <c r="F532" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H532" s="7"/>
     </row>
@@ -8886,7 +8980,7 @@
       <c r="E533" s="4"/>
       <c r="F533" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H533" s="7"/>
     </row>
@@ -8900,7 +8994,7 @@
       <c r="E534" s="4"/>
       <c r="F534" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H534" s="7"/>
     </row>
@@ -8914,7 +9008,7 @@
       <c r="E535" s="4"/>
       <c r="F535" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H535" s="7"/>
     </row>
@@ -8928,7 +9022,7 @@
       <c r="E536" s="4"/>
       <c r="F536" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H536" s="7"/>
     </row>
@@ -8942,7 +9036,7 @@
       <c r="E537" s="4"/>
       <c r="F537" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H537" s="7"/>
     </row>
@@ -8956,7 +9050,7 @@
       <c r="E538" s="4"/>
       <c r="F538" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H538" s="7"/>
     </row>
@@ -8970,7 +9064,7 @@
       <c r="E539" s="4"/>
       <c r="F539" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H539" s="7"/>
     </row>
@@ -8984,7 +9078,7 @@
       <c r="E540" s="4"/>
       <c r="F540" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H540" s="7"/>
     </row>
@@ -8998,7 +9092,7 @@
       <c r="E541" s="4"/>
       <c r="F541" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H541" s="7"/>
     </row>
@@ -9012,7 +9106,7 @@
       <c r="E542" s="4"/>
       <c r="F542" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H542" s="7"/>
     </row>
@@ -9026,7 +9120,7 @@
       <c r="E543" s="4"/>
       <c r="F543" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H543" s="7"/>
     </row>
@@ -9040,7 +9134,7 @@
       <c r="E544" s="4"/>
       <c r="F544" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H544" s="7"/>
     </row>
@@ -9054,7 +9148,7 @@
       <c r="E545" s="4"/>
       <c r="F545" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H545" s="7"/>
     </row>
@@ -9068,7 +9162,7 @@
       <c r="E546" s="4"/>
       <c r="F546" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H546" s="7"/>
     </row>
@@ -9082,7 +9176,7 @@
       <c r="E547" s="4"/>
       <c r="F547" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H547" s="7"/>
     </row>
@@ -9096,7 +9190,7 @@
       <c r="E548" s="4"/>
       <c r="F548" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H548" s="7"/>
     </row>
@@ -9110,7 +9204,7 @@
       <c r="E549" s="4"/>
       <c r="F549" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H549" s="7"/>
     </row>
@@ -9124,7 +9218,7 @@
       <c r="E550" s="4"/>
       <c r="F550" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H550" s="7"/>
     </row>
@@ -9138,7 +9232,7 @@
       <c r="E551" s="4"/>
       <c r="F551" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H551" s="7"/>
     </row>
@@ -9152,7 +9246,7 @@
       <c r="E552" s="4"/>
       <c r="F552" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H552" s="7"/>
     </row>
@@ -9166,7 +9260,7 @@
       <c r="E553" s="4"/>
       <c r="F553" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H553" s="7"/>
     </row>
@@ -9180,7 +9274,7 @@
       <c r="E554" s="4"/>
       <c r="F554" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H554" s="7"/>
     </row>
@@ -9194,7 +9288,7 @@
       <c r="E555" s="4"/>
       <c r="F555" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H555" s="7"/>
     </row>
@@ -9208,7 +9302,7 @@
       <c r="E556" s="4"/>
       <c r="F556" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H556" s="7"/>
     </row>
@@ -9222,7 +9316,7 @@
       <c r="E557" s="4"/>
       <c r="F557" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H557" s="7"/>
     </row>
@@ -9236,7 +9330,7 @@
       <c r="E558" s="4"/>
       <c r="F558" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H558" s="7"/>
     </row>
@@ -9250,7 +9344,7 @@
       <c r="E559" s="4"/>
       <c r="F559" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H559" s="7"/>
     </row>
@@ -9264,7 +9358,7 @@
       <c r="E560" s="4"/>
       <c r="F560" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H560" s="7"/>
     </row>
@@ -9278,7 +9372,7 @@
       <c r="E561" s="4"/>
       <c r="F561" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H561" s="7"/>
     </row>
@@ -9292,7 +9386,7 @@
       <c r="E562" s="4"/>
       <c r="F562" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H562" s="7"/>
     </row>
@@ -9306,7 +9400,7 @@
       <c r="E563" s="4"/>
       <c r="F563" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H563" s="7"/>
     </row>
@@ -9320,7 +9414,7 @@
       <c r="E564" s="4"/>
       <c r="F564" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H564" s="7"/>
     </row>
@@ -9334,7 +9428,7 @@
       <c r="E565" s="4"/>
       <c r="F565" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H565" s="7"/>
     </row>
@@ -9348,7 +9442,7 @@
       <c r="E566" s="4"/>
       <c r="F566" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H566" s="7"/>
     </row>
@@ -9362,7 +9456,7 @@
       <c r="E567" s="4"/>
       <c r="F567" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H567" s="7"/>
     </row>
@@ -9376,7 +9470,7 @@
       <c r="E568" s="4"/>
       <c r="F568" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H568" s="7"/>
     </row>
@@ -9390,7 +9484,7 @@
       <c r="E569" s="4"/>
       <c r="F569" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H569" s="7"/>
     </row>
@@ -9404,7 +9498,7 @@
       <c r="E570" s="4"/>
       <c r="F570" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H570" s="7"/>
     </row>
@@ -9418,7 +9512,7 @@
       <c r="E571" s="4"/>
       <c r="F571" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H571" s="7"/>
     </row>
@@ -9432,7 +9526,7 @@
       <c r="E572" s="4"/>
       <c r="F572" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H572" s="7"/>
     </row>
@@ -9446,7 +9540,7 @@
       <c r="E573" s="4"/>
       <c r="F573" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H573" s="7"/>
     </row>
@@ -9460,7 +9554,7 @@
       <c r="E574" s="4"/>
       <c r="F574" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H574" s="7"/>
     </row>
@@ -9474,7 +9568,7 @@
       <c r="E575" s="4"/>
       <c r="F575" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H575" s="7"/>
     </row>
@@ -9488,7 +9582,7 @@
       <c r="E576" s="4"/>
       <c r="F576" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H576" s="7"/>
     </row>
@@ -9502,7 +9596,7 @@
       <c r="E577" s="4"/>
       <c r="F577" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H577" s="7"/>
     </row>
@@ -9516,7 +9610,7 @@
       <c r="E578" s="4"/>
       <c r="F578" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H578" s="7"/>
     </row>
@@ -9530,7 +9624,7 @@
       <c r="E579" s="4"/>
       <c r="F579" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H579" s="7"/>
     </row>
@@ -9544,7 +9638,7 @@
       <c r="E580" s="4"/>
       <c r="F580" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H580" s="7"/>
     </row>
@@ -9558,7 +9652,7 @@
       <c r="E581" s="4"/>
       <c r="F581" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H581" s="7"/>
     </row>
@@ -9572,7 +9666,7 @@
       <c r="E582" s="4"/>
       <c r="F582" s="7">
         <f t="shared" si="17"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H582" s="7"/>
     </row>
@@ -9586,7 +9680,7 @@
       <c r="E583" s="4"/>
       <c r="F583" s="7">
         <f t="shared" ref="F583:F646" si="19">$E$3/$E$2</f>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H583" s="7"/>
     </row>
@@ -9600,7 +9694,7 @@
       <c r="E584" s="4"/>
       <c r="F584" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H584" s="7"/>
     </row>
@@ -9614,7 +9708,7 @@
       <c r="E585" s="4"/>
       <c r="F585" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H585" s="7"/>
     </row>
@@ -9628,7 +9722,7 @@
       <c r="E586" s="4"/>
       <c r="F586" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H586" s="7"/>
     </row>
@@ -9642,7 +9736,7 @@
       <c r="E587" s="4"/>
       <c r="F587" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H587" s="7"/>
     </row>
@@ -9656,7 +9750,7 @@
       <c r="E588" s="4"/>
       <c r="F588" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H588" s="7"/>
     </row>
@@ -9670,7 +9764,7 @@
       <c r="E589" s="4"/>
       <c r="F589" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H589" s="7"/>
     </row>
@@ -9684,7 +9778,7 @@
       <c r="E590" s="4"/>
       <c r="F590" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H590" s="7"/>
     </row>
@@ -9698,7 +9792,7 @@
       <c r="E591" s="4"/>
       <c r="F591" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H591" s="7"/>
     </row>
@@ -9712,7 +9806,7 @@
       <c r="E592" s="4"/>
       <c r="F592" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H592" s="7"/>
     </row>
@@ -9726,7 +9820,7 @@
       <c r="E593" s="4"/>
       <c r="F593" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H593" s="7"/>
     </row>
@@ -9740,7 +9834,7 @@
       <c r="E594" s="4"/>
       <c r="F594" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H594" s="7"/>
     </row>
@@ -9754,7 +9848,7 @@
       <c r="E595" s="4"/>
       <c r="F595" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H595" s="7"/>
     </row>
@@ -9768,7 +9862,7 @@
       <c r="E596" s="4"/>
       <c r="F596" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H596" s="7"/>
     </row>
@@ -9782,7 +9876,7 @@
       <c r="E597" s="4"/>
       <c r="F597" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H597" s="7"/>
     </row>
@@ -9796,7 +9890,7 @@
       <c r="E598" s="4"/>
       <c r="F598" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H598" s="7"/>
     </row>
@@ -9810,7 +9904,7 @@
       <c r="E599" s="4"/>
       <c r="F599" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H599" s="7"/>
     </row>
@@ -9824,7 +9918,7 @@
       <c r="E600" s="4"/>
       <c r="F600" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H600" s="7"/>
     </row>
@@ -9838,7 +9932,7 @@
       <c r="E601" s="4"/>
       <c r="F601" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H601" s="7"/>
     </row>
@@ -9852,7 +9946,7 @@
       <c r="E602" s="4"/>
       <c r="F602" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H602" s="7"/>
     </row>
@@ -9866,7 +9960,7 @@
       <c r="E603" s="4"/>
       <c r="F603" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H603" s="7"/>
     </row>
@@ -9880,7 +9974,7 @@
       <c r="E604" s="4"/>
       <c r="F604" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H604" s="7"/>
     </row>
@@ -9894,7 +9988,7 @@
       <c r="E605" s="4"/>
       <c r="F605" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H605" s="7"/>
     </row>
@@ -9908,7 +10002,7 @@
       <c r="E606" s="4"/>
       <c r="F606" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H606" s="7"/>
     </row>
@@ -9922,7 +10016,7 @@
       <c r="E607" s="4"/>
       <c r="F607" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H607" s="7"/>
     </row>
@@ -9936,7 +10030,7 @@
       <c r="E608" s="4"/>
       <c r="F608" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H608" s="7"/>
     </row>
@@ -9950,7 +10044,7 @@
       <c r="E609" s="4"/>
       <c r="F609" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H609" s="7"/>
     </row>
@@ -9964,7 +10058,7 @@
       <c r="E610" s="4"/>
       <c r="F610" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H610" s="7"/>
     </row>
@@ -9978,7 +10072,7 @@
       <c r="E611" s="4"/>
       <c r="F611" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H611" s="7"/>
     </row>
@@ -9992,7 +10086,7 @@
       <c r="E612" s="4"/>
       <c r="F612" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H612" s="7"/>
     </row>
@@ -10006,7 +10100,7 @@
       <c r="E613" s="4"/>
       <c r="F613" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H613" s="7"/>
     </row>
@@ -10020,7 +10114,7 @@
       <c r="E614" s="4"/>
       <c r="F614" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H614" s="7"/>
     </row>
@@ -10034,7 +10128,7 @@
       <c r="E615" s="4"/>
       <c r="F615" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H615" s="7"/>
     </row>
@@ -10048,7 +10142,7 @@
       <c r="E616" s="4"/>
       <c r="F616" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H616" s="7"/>
     </row>
@@ -10062,7 +10156,7 @@
       <c r="E617" s="4"/>
       <c r="F617" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H617" s="7"/>
     </row>
@@ -10076,7 +10170,7 @@
       <c r="E618" s="4"/>
       <c r="F618" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H618" s="7"/>
     </row>
@@ -10090,7 +10184,7 @@
       <c r="E619" s="4"/>
       <c r="F619" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H619" s="7"/>
     </row>
@@ -10104,7 +10198,7 @@
       <c r="E620" s="4"/>
       <c r="F620" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H620" s="7"/>
     </row>
@@ -10118,7 +10212,7 @@
       <c r="E621" s="4"/>
       <c r="F621" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H621" s="7"/>
     </row>
@@ -10132,7 +10226,7 @@
       <c r="E622" s="4"/>
       <c r="F622" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H622" s="7"/>
     </row>
@@ -10146,7 +10240,7 @@
       <c r="E623" s="4"/>
       <c r="F623" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H623" s="7"/>
     </row>
@@ -10160,7 +10254,7 @@
       <c r="E624" s="4"/>
       <c r="F624" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H624" s="7"/>
     </row>
@@ -10174,7 +10268,7 @@
       <c r="E625" s="4"/>
       <c r="F625" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H625" s="7"/>
     </row>
@@ -10188,7 +10282,7 @@
       <c r="E626" s="4"/>
       <c r="F626" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H626" s="7"/>
     </row>
@@ -10202,7 +10296,7 @@
       <c r="E627" s="4"/>
       <c r="F627" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H627" s="7"/>
     </row>
@@ -10216,7 +10310,7 @@
       <c r="E628" s="4"/>
       <c r="F628" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H628" s="7"/>
     </row>
@@ -10230,7 +10324,7 @@
       <c r="E629" s="4"/>
       <c r="F629" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H629" s="7"/>
     </row>
@@ -10244,7 +10338,7 @@
       <c r="E630" s="4"/>
       <c r="F630" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H630" s="7"/>
     </row>
@@ -10258,7 +10352,7 @@
       <c r="E631" s="4"/>
       <c r="F631" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H631" s="7"/>
     </row>
@@ -10272,7 +10366,7 @@
       <c r="E632" s="4"/>
       <c r="F632" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H632" s="7"/>
     </row>
@@ -10286,7 +10380,7 @@
       <c r="E633" s="4"/>
       <c r="F633" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H633" s="7"/>
     </row>
@@ -10300,7 +10394,7 @@
       <c r="E634" s="4"/>
       <c r="F634" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H634" s="7"/>
     </row>
@@ -10314,7 +10408,7 @@
       <c r="E635" s="4"/>
       <c r="F635" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H635" s="7"/>
     </row>
@@ -10328,7 +10422,7 @@
       <c r="E636" s="4"/>
       <c r="F636" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H636" s="7"/>
     </row>
@@ -10342,7 +10436,7 @@
       <c r="E637" s="4"/>
       <c r="F637" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H637" s="7"/>
     </row>
@@ -10356,7 +10450,7 @@
       <c r="E638" s="4"/>
       <c r="F638" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H638" s="7"/>
     </row>
@@ -10370,7 +10464,7 @@
       <c r="E639" s="4"/>
       <c r="F639" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H639" s="7"/>
     </row>
@@ -10384,7 +10478,7 @@
       <c r="E640" s="4"/>
       <c r="F640" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H640" s="7"/>
     </row>
@@ -10398,7 +10492,7 @@
       <c r="E641" s="4"/>
       <c r="F641" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H641" s="7"/>
     </row>
@@ -10412,7 +10506,7 @@
       <c r="E642" s="4"/>
       <c r="F642" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H642" s="7"/>
     </row>
@@ -10426,7 +10520,7 @@
       <c r="E643" s="4"/>
       <c r="F643" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H643" s="7"/>
     </row>
@@ -10440,7 +10534,7 @@
       <c r="E644" s="4"/>
       <c r="F644" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H644" s="7"/>
     </row>
@@ -10454,7 +10548,7 @@
       <c r="E645" s="4"/>
       <c r="F645" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H645" s="7"/>
     </row>
@@ -10468,7 +10562,7 @@
       <c r="E646" s="4"/>
       <c r="F646" s="7">
         <f t="shared" si="19"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H646" s="7"/>
     </row>
@@ -10482,7 +10576,7 @@
       <c r="E647" s="4"/>
       <c r="F647" s="7">
         <f t="shared" ref="F647:F710" si="21">$E$3/$E$2</f>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H647" s="7"/>
     </row>
@@ -10496,7 +10590,7 @@
       <c r="E648" s="4"/>
       <c r="F648" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H648" s="7"/>
     </row>
@@ -10510,7 +10604,7 @@
       <c r="E649" s="4"/>
       <c r="F649" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H649" s="7"/>
     </row>
@@ -10524,7 +10618,7 @@
       <c r="E650" s="4"/>
       <c r="F650" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H650" s="7"/>
     </row>
@@ -10538,7 +10632,7 @@
       <c r="E651" s="4"/>
       <c r="F651" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H651" s="7"/>
     </row>
@@ -10552,7 +10646,7 @@
       <c r="E652" s="4"/>
       <c r="F652" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H652" s="7"/>
     </row>
@@ -10566,7 +10660,7 @@
       <c r="E653" s="4"/>
       <c r="F653" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H653" s="7"/>
     </row>
@@ -10580,7 +10674,7 @@
       <c r="E654" s="4"/>
       <c r="F654" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H654" s="7"/>
     </row>
@@ -10594,7 +10688,7 @@
       <c r="E655" s="4"/>
       <c r="F655" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H655" s="7"/>
     </row>
@@ -10608,7 +10702,7 @@
       <c r="E656" s="4"/>
       <c r="F656" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H656" s="7"/>
     </row>
@@ -10622,7 +10716,7 @@
       <c r="E657" s="4"/>
       <c r="F657" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H657" s="7"/>
     </row>
@@ -10636,7 +10730,7 @@
       <c r="E658" s="4"/>
       <c r="F658" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H658" s="7"/>
     </row>
@@ -10650,7 +10744,7 @@
       <c r="E659" s="4"/>
       <c r="F659" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H659" s="7"/>
     </row>
@@ -10664,7 +10758,7 @@
       <c r="E660" s="4"/>
       <c r="F660" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H660" s="7"/>
     </row>
@@ -10678,7 +10772,7 @@
       <c r="E661" s="4"/>
       <c r="F661" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H661" s="7"/>
     </row>
@@ -10692,7 +10786,7 @@
       <c r="E662" s="4"/>
       <c r="F662" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H662" s="7"/>
     </row>
@@ -10706,7 +10800,7 @@
       <c r="E663" s="4"/>
       <c r="F663" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H663" s="7"/>
     </row>
@@ -10720,7 +10814,7 @@
       <c r="E664" s="4"/>
       <c r="F664" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H664" s="7"/>
     </row>
@@ -10734,7 +10828,7 @@
       <c r="E665" s="4"/>
       <c r="F665" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H665" s="7"/>
     </row>
@@ -10748,7 +10842,7 @@
       <c r="E666" s="4"/>
       <c r="F666" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H666" s="7"/>
     </row>
@@ -10762,7 +10856,7 @@
       <c r="E667" s="4"/>
       <c r="F667" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H667" s="7"/>
     </row>
@@ -10776,7 +10870,7 @@
       <c r="E668" s="4"/>
       <c r="F668" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H668" s="7"/>
     </row>
@@ -10790,7 +10884,7 @@
       <c r="E669" s="4"/>
       <c r="F669" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H669" s="7"/>
     </row>
@@ -10804,7 +10898,7 @@
       <c r="E670" s="4"/>
       <c r="F670" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H670" s="7"/>
     </row>
@@ -10818,7 +10912,7 @@
       <c r="E671" s="4"/>
       <c r="F671" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H671" s="7"/>
     </row>
@@ -10832,7 +10926,7 @@
       <c r="E672" s="4"/>
       <c r="F672" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H672" s="7"/>
     </row>
@@ -10846,7 +10940,7 @@
       <c r="E673" s="4"/>
       <c r="F673" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H673" s="7"/>
     </row>
@@ -10860,7 +10954,7 @@
       <c r="E674" s="4"/>
       <c r="F674" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H674" s="7"/>
     </row>
@@ -10874,7 +10968,7 @@
       <c r="E675" s="4"/>
       <c r="F675" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H675" s="7"/>
     </row>
@@ -10888,7 +10982,7 @@
       <c r="E676" s="4"/>
       <c r="F676" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H676" s="7"/>
     </row>
@@ -10902,7 +10996,7 @@
       <c r="E677" s="4"/>
       <c r="F677" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H677" s="7"/>
     </row>
@@ -10916,7 +11010,7 @@
       <c r="E678" s="4"/>
       <c r="F678" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H678" s="7"/>
     </row>
@@ -10930,7 +11024,7 @@
       <c r="E679" s="4"/>
       <c r="F679" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H679" s="7"/>
     </row>
@@ -10944,7 +11038,7 @@
       <c r="E680" s="4"/>
       <c r="F680" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H680" s="7"/>
     </row>
@@ -10958,7 +11052,7 @@
       <c r="E681" s="4"/>
       <c r="F681" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H681" s="7"/>
     </row>
@@ -10972,7 +11066,7 @@
       <c r="E682" s="4"/>
       <c r="F682" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H682" s="7"/>
     </row>
@@ -10986,7 +11080,7 @@
       <c r="E683" s="4"/>
       <c r="F683" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H683" s="7"/>
     </row>
@@ -11000,7 +11094,7 @@
       <c r="E684" s="4"/>
       <c r="F684" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H684" s="7"/>
     </row>
@@ -11014,7 +11108,7 @@
       <c r="E685" s="4"/>
       <c r="F685" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H685" s="7"/>
     </row>
@@ -11028,7 +11122,7 @@
       <c r="E686" s="4"/>
       <c r="F686" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H686" s="7"/>
     </row>
@@ -11042,7 +11136,7 @@
       <c r="E687" s="4"/>
       <c r="F687" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H687" s="7"/>
     </row>
@@ -11056,7 +11150,7 @@
       <c r="E688" s="4"/>
       <c r="F688" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H688" s="7"/>
     </row>
@@ -11070,7 +11164,7 @@
       <c r="E689" s="4"/>
       <c r="F689" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H689" s="7"/>
     </row>
@@ -11084,7 +11178,7 @@
       <c r="E690" s="4"/>
       <c r="F690" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H690" s="7"/>
     </row>
@@ -11098,7 +11192,7 @@
       <c r="E691" s="4"/>
       <c r="F691" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H691" s="7"/>
     </row>
@@ -11112,7 +11206,7 @@
       <c r="E692" s="4"/>
       <c r="F692" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H692" s="7"/>
     </row>
@@ -11126,7 +11220,7 @@
       <c r="E693" s="4"/>
       <c r="F693" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H693" s="7"/>
     </row>
@@ -11140,7 +11234,7 @@
       <c r="E694" s="4"/>
       <c r="F694" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H694" s="7"/>
     </row>
@@ -11154,7 +11248,7 @@
       <c r="E695" s="4"/>
       <c r="F695" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H695" s="7"/>
     </row>
@@ -11168,7 +11262,7 @@
       <c r="E696" s="4"/>
       <c r="F696" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H696" s="7"/>
     </row>
@@ -11182,7 +11276,7 @@
       <c r="E697" s="4"/>
       <c r="F697" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H697" s="7"/>
     </row>
@@ -11196,7 +11290,7 @@
       <c r="E698" s="4"/>
       <c r="F698" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H698" s="7"/>
     </row>
@@ -11210,7 +11304,7 @@
       <c r="E699" s="4"/>
       <c r="F699" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H699" s="7"/>
     </row>
@@ -11224,7 +11318,7 @@
       <c r="E700" s="4"/>
       <c r="F700" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H700" s="7"/>
     </row>
@@ -11238,7 +11332,7 @@
       <c r="E701" s="4"/>
       <c r="F701" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H701" s="7"/>
     </row>
@@ -11252,7 +11346,7 @@
       <c r="E702" s="4"/>
       <c r="F702" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H702" s="7"/>
     </row>
@@ -11266,7 +11360,7 @@
       <c r="E703" s="4"/>
       <c r="F703" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H703" s="7"/>
     </row>
@@ -11280,7 +11374,7 @@
       <c r="E704" s="4"/>
       <c r="F704" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H704" s="7"/>
     </row>
@@ -11294,7 +11388,7 @@
       <c r="E705" s="4"/>
       <c r="F705" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H705" s="7"/>
     </row>
@@ -11310,7 +11404,7 @@
       <c r="E706" s="4"/>
       <c r="F706" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G706" s="6" t="s">
         <v>11</v>
@@ -11329,7 +11423,7 @@
       <c r="E707" s="4"/>
       <c r="F707" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G707" s="6" t="s">
         <v>10</v>
@@ -11348,7 +11442,7 @@
       <c r="E708" s="4"/>
       <c r="F708" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H708" s="7"/>
     </row>
@@ -11364,7 +11458,7 @@
       <c r="E709" s="4"/>
       <c r="F709" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G709" s="6" t="s">
         <v>9</v>
@@ -11386,7 +11480,7 @@
       <c r="E710" s="4"/>
       <c r="F710" s="7">
         <f t="shared" si="21"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G710" s="6" t="s">
         <v>6</v>
@@ -11405,7 +11499,7 @@
       <c r="E711" s="4"/>
       <c r="F711" s="7">
         <f t="shared" ref="F711:F717" si="23">$E$3/$E$2</f>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G711" s="6" t="s">
         <v>7</v>
@@ -11424,7 +11518,7 @@
       <c r="E712" s="4"/>
       <c r="F712" s="7">
         <f t="shared" si="23"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="G712" s="6" t="s">
         <v>8</v>
@@ -11443,7 +11537,7 @@
       <c r="E713" s="4"/>
       <c r="F713" s="7">
         <f t="shared" si="23"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H713" s="7"/>
     </row>
@@ -11459,7 +11553,7 @@
       <c r="E714" s="4"/>
       <c r="F714" s="7">
         <f t="shared" si="23"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H714" s="7"/>
     </row>
@@ -11475,7 +11569,7 @@
       <c r="E715" s="4"/>
       <c r="F715" s="7">
         <f t="shared" si="23"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H715" s="7"/>
     </row>
@@ -11491,7 +11585,7 @@
       <c r="E716" s="4"/>
       <c r="F716" s="7">
         <f t="shared" si="23"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H716" s="7"/>
     </row>
@@ -11507,7 +11601,7 @@
       <c r="E717" s="4"/>
       <c r="F717" s="7">
         <f t="shared" si="23"/>
-        <v>0.15730337078651685</v>
+        <v>0.1699438202247191</v>
       </c>
       <c r="H717" s="7"/>
     </row>

--- a/背题.xlsx
+++ b/背题.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="134">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,6 +527,29 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the read-only tablespace is not duplicated but defined</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The OTHER_GROUPS resources consumer group is not included in the resource plan directive</t>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in the mount state &amp; open resetlogs after falseback db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>related indexes dropped &amp; views invalid &amp; flashback drop tables structure and data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The progress of the shrink operation is saved in the bitmap blocks of the BOOKING table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -945,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="G314" sqref="G314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -971,7 +994,7 @@
     <row r="3" spans="1:8">
       <c r="E3">
         <f>COUNTA($C$6:$C$717)</f>
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F3" s="7"/>
       <c r="H3" s="7"/>
@@ -1008,7 +1031,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="7">
         <f>$E$3/$E$2</f>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>120</v>
@@ -1027,7 +1050,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="7">
         <f t="shared" ref="F7:F70" si="1">$E$3/$E$2</f>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>121</v>
@@ -1046,7 +1069,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>122</v>
@@ -1065,7 +1088,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>123</v>
@@ -1087,7 +1110,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>124</v>
@@ -1109,7 +1132,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>125</v>
@@ -1131,7 +1154,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>126</v>
@@ -1148,7 +1171,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H13" s="7"/>
     </row>
@@ -1162,7 +1185,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -1176,7 +1199,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H15" s="7"/>
     </row>
@@ -1190,7 +1213,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -1204,7 +1227,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H17" s="7"/>
     </row>
@@ -1218,7 +1241,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H18" s="7"/>
     </row>
@@ -1232,7 +1255,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H19" s="7"/>
     </row>
@@ -1246,7 +1269,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H20" s="7"/>
     </row>
@@ -1260,7 +1283,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H21" s="7"/>
     </row>
@@ -1274,7 +1297,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H22" s="7"/>
     </row>
@@ -1288,7 +1311,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H23" s="7"/>
     </row>
@@ -1302,7 +1325,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H24" s="7"/>
     </row>
@@ -1316,7 +1339,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H25" s="7"/>
     </row>
@@ -1330,7 +1353,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H26" s="7"/>
     </row>
@@ -1344,7 +1367,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H27" s="7"/>
     </row>
@@ -1358,7 +1381,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H28" s="7"/>
     </row>
@@ -1372,7 +1395,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H29" s="7"/>
     </row>
@@ -1386,7 +1409,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H30" s="7"/>
     </row>
@@ -1400,7 +1423,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H31" s="7"/>
     </row>
@@ -1414,7 +1437,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H32" s="7"/>
     </row>
@@ -1428,7 +1451,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H33" s="7"/>
     </row>
@@ -1442,7 +1465,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H34" s="7"/>
     </row>
@@ -1456,7 +1479,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H35" s="7"/>
     </row>
@@ -1470,7 +1493,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H36" s="7"/>
     </row>
@@ -1484,7 +1507,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H37" s="7"/>
     </row>
@@ -1498,7 +1521,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H38" s="7"/>
     </row>
@@ -1512,7 +1535,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H39" s="7"/>
     </row>
@@ -1526,7 +1549,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H40" s="7"/>
     </row>
@@ -1540,7 +1563,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H41" s="7"/>
     </row>
@@ -1554,7 +1577,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H42" s="7"/>
     </row>
@@ -1568,7 +1591,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H43" s="7"/>
     </row>
@@ -1582,7 +1605,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H44" s="7"/>
     </row>
@@ -1596,7 +1619,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H45" s="7"/>
     </row>
@@ -1610,7 +1633,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H46" s="7"/>
     </row>
@@ -1624,7 +1647,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H47" s="7"/>
     </row>
@@ -1638,7 +1661,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H48" s="7"/>
     </row>
@@ -1652,7 +1675,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H49" s="7"/>
     </row>
@@ -1666,7 +1689,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -1680,7 +1703,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H51" s="7"/>
     </row>
@@ -1694,7 +1717,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H52" s="7"/>
     </row>
@@ -1708,7 +1731,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H53" s="7"/>
     </row>
@@ -1722,7 +1745,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -1736,7 +1759,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -1750,7 +1773,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H56" s="7"/>
     </row>
@@ -1764,7 +1787,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H57" s="7"/>
     </row>
@@ -1778,7 +1801,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H58" s="7"/>
     </row>
@@ -1792,7 +1815,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H59" s="7"/>
     </row>
@@ -1806,7 +1829,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H60" s="7"/>
     </row>
@@ -1820,7 +1843,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H61" s="7"/>
     </row>
@@ -1834,7 +1857,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H62" s="7"/>
     </row>
@@ -1848,7 +1871,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H63" s="7"/>
     </row>
@@ -1862,7 +1885,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H64" s="7"/>
     </row>
@@ -1876,7 +1899,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H65" s="7"/>
     </row>
@@ -1890,7 +1913,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H66" s="7"/>
     </row>
@@ -1904,7 +1927,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H67" s="7"/>
     </row>
@@ -1918,7 +1941,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H68" s="7"/>
     </row>
@@ -1932,7 +1955,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H69" s="7"/>
     </row>
@@ -1946,7 +1969,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="7">
         <f t="shared" si="1"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H70" s="7"/>
     </row>
@@ -1960,7 +1983,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="7">
         <f t="shared" ref="F71:F134" si="3">$E$3/$E$2</f>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H71" s="7"/>
     </row>
@@ -1974,7 +1997,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H72" s="7"/>
     </row>
@@ -1988,7 +2011,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H73" s="7"/>
     </row>
@@ -2002,7 +2025,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H74" s="7"/>
     </row>
@@ -2016,7 +2039,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H75" s="7"/>
     </row>
@@ -2030,7 +2053,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H76" s="7"/>
     </row>
@@ -2044,7 +2067,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H77" s="7"/>
     </row>
@@ -2058,7 +2081,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H78" s="7"/>
     </row>
@@ -2072,7 +2095,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H79" s="7"/>
     </row>
@@ -2086,7 +2109,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H80" s="7"/>
     </row>
@@ -2100,7 +2123,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H81" s="7"/>
     </row>
@@ -2114,7 +2137,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H82" s="7"/>
     </row>
@@ -2128,7 +2151,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H83" s="7"/>
     </row>
@@ -2142,7 +2165,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H84" s="7"/>
     </row>
@@ -2156,7 +2179,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H85" s="7"/>
     </row>
@@ -2170,7 +2193,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H86" s="7"/>
     </row>
@@ -2184,7 +2207,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H87" s="7"/>
     </row>
@@ -2198,7 +2221,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H88" s="7"/>
     </row>
@@ -2212,7 +2235,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H89" s="7"/>
     </row>
@@ -2226,7 +2249,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H90" s="7"/>
     </row>
@@ -2240,7 +2263,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H91" s="7"/>
     </row>
@@ -2254,7 +2277,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H92" s="7"/>
     </row>
@@ -2268,7 +2291,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H93" s="7"/>
     </row>
@@ -2282,7 +2305,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H94" s="7"/>
     </row>
@@ -2296,7 +2319,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H95" s="7"/>
     </row>
@@ -2310,11 +2333,11 @@
       <c r="E96" s="4"/>
       <c r="F96" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H96" s="7"/>
     </row>
-    <row r="97" spans="2:8">
+    <row r="97" spans="1:8">
       <c r="B97" s="2">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -2324,11 +2347,11 @@
       <c r="E97" s="4"/>
       <c r="F97" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H97" s="7"/>
     </row>
-    <row r="98" spans="2:8">
+    <row r="98" spans="1:8">
       <c r="B98" s="2">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -2338,11 +2361,11 @@
       <c r="E98" s="4"/>
       <c r="F98" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H98" s="7"/>
     </row>
-    <row r="99" spans="2:8">
+    <row r="99" spans="1:8">
       <c r="B99" s="2">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -2352,11 +2375,11 @@
       <c r="E99" s="4"/>
       <c r="F99" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H99" s="7"/>
     </row>
-    <row r="100" spans="2:8">
+    <row r="100" spans="1:8">
       <c r="B100" s="2">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -2366,81 +2389,109 @@
       <c r="E100" s="4"/>
       <c r="F100" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H100" s="7"/>
     </row>
-    <row r="101" spans="2:8">
+    <row r="101" spans="1:8">
       <c r="B101" s="2">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="C101" s="4"/>
+      <c r="C101" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="H101" s="7"/>
     </row>
-    <row r="102" spans="2:8">
+    <row r="102" spans="1:8">
       <c r="B102" s="2">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="C102" s="4"/>
+      <c r="C102" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="H102" s="7"/>
     </row>
-    <row r="103" spans="2:8">
+    <row r="103" spans="1:8">
       <c r="B103" s="2">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="C103" s="4"/>
+      <c r="C103" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="H103" s="7"/>
     </row>
-    <row r="104" spans="2:8">
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>130</v>
+      </c>
       <c r="B104" s="2">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="C104" s="4"/>
+      <c r="C104" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" spans="2:8">
+    <row r="105" spans="1:8">
       <c r="B105" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="C105" s="4"/>
+      <c r="C105" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" spans="2:8">
+    <row r="106" spans="1:8">
       <c r="B106" s="2">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -2450,11 +2501,11 @@
       <c r="E106" s="4"/>
       <c r="F106" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H106" s="7"/>
     </row>
-    <row r="107" spans="2:8">
+    <row r="107" spans="1:8">
       <c r="B107" s="2">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -2464,11 +2515,11 @@
       <c r="E107" s="4"/>
       <c r="F107" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H107" s="7"/>
     </row>
-    <row r="108" spans="2:8">
+    <row r="108" spans="1:8">
       <c r="B108" s="2">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -2478,11 +2529,11 @@
       <c r="E108" s="4"/>
       <c r="F108" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" spans="2:8">
+    <row r="109" spans="1:8">
       <c r="B109" s="2">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -2492,11 +2543,11 @@
       <c r="E109" s="4"/>
       <c r="F109" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H109" s="7"/>
     </row>
-    <row r="110" spans="2:8">
+    <row r="110" spans="1:8">
       <c r="B110" s="2">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -2506,11 +2557,11 @@
       <c r="E110" s="4"/>
       <c r="F110" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H110" s="7"/>
     </row>
-    <row r="111" spans="2:8">
+    <row r="111" spans="1:8">
       <c r="B111" s="2">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -2520,11 +2571,11 @@
       <c r="E111" s="4"/>
       <c r="F111" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H111" s="7"/>
     </row>
-    <row r="112" spans="2:8">
+    <row r="112" spans="1:8">
       <c r="B112" s="2">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -2534,7 +2585,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H112" s="7"/>
     </row>
@@ -2548,7 +2599,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H113" s="7"/>
     </row>
@@ -2562,7 +2613,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H114" s="7"/>
     </row>
@@ -2576,7 +2627,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H115" s="7"/>
     </row>
@@ -2590,7 +2641,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H116" s="7"/>
     </row>
@@ -2604,7 +2655,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H117" s="7"/>
     </row>
@@ -2618,7 +2669,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H118" s="7"/>
     </row>
@@ -2632,7 +2683,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H119" s="7"/>
     </row>
@@ -2646,7 +2697,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H120" s="7"/>
     </row>
@@ -2660,7 +2711,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H121" s="7"/>
     </row>
@@ -2674,7 +2725,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H122" s="7"/>
     </row>
@@ -2688,7 +2739,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H123" s="7"/>
     </row>
@@ -2702,7 +2753,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H124" s="7"/>
     </row>
@@ -2716,7 +2767,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H125" s="7"/>
     </row>
@@ -2730,7 +2781,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H126" s="7"/>
     </row>
@@ -2744,7 +2795,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H127" s="7"/>
     </row>
@@ -2758,7 +2809,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H128" s="7"/>
     </row>
@@ -2772,7 +2823,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H129" s="7"/>
     </row>
@@ -2786,7 +2837,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H130" s="7"/>
     </row>
@@ -2800,7 +2851,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H131" s="7"/>
     </row>
@@ -2814,7 +2865,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H132" s="7"/>
     </row>
@@ -2828,7 +2879,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H133" s="7"/>
     </row>
@@ -2842,7 +2893,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="7">
         <f t="shared" si="3"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H134" s="7"/>
     </row>
@@ -2856,7 +2907,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="7">
         <f t="shared" ref="F135:F198" si="5">$E$3/$E$2</f>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H135" s="7"/>
     </row>
@@ -2870,7 +2921,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H136" s="7"/>
     </row>
@@ -2884,7 +2935,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H137" s="7"/>
     </row>
@@ -2898,7 +2949,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H138" s="7"/>
     </row>
@@ -2912,7 +2963,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H139" s="7"/>
     </row>
@@ -2926,7 +2977,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H140" s="7"/>
     </row>
@@ -2940,7 +2991,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H141" s="7"/>
     </row>
@@ -2954,7 +3005,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H142" s="7"/>
     </row>
@@ -2968,7 +3019,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H143" s="7"/>
     </row>
@@ -2982,7 +3033,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H144" s="7"/>
     </row>
@@ -2996,7 +3047,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H145" s="7"/>
     </row>
@@ -3010,7 +3061,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H146" s="7"/>
     </row>
@@ -3024,7 +3075,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H147" s="7"/>
     </row>
@@ -3038,7 +3089,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H148" s="7"/>
     </row>
@@ -3052,7 +3103,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H149" s="7"/>
     </row>
@@ -3066,7 +3117,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H150" s="7"/>
     </row>
@@ -3080,7 +3131,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H151" s="7"/>
     </row>
@@ -3094,7 +3145,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H152" s="7"/>
     </row>
@@ -3108,7 +3159,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H153" s="7"/>
     </row>
@@ -3122,7 +3173,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H154" s="7"/>
     </row>
@@ -3136,7 +3187,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H155" s="7"/>
     </row>
@@ -3150,7 +3201,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H156" s="7"/>
     </row>
@@ -3164,7 +3215,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H157" s="7"/>
     </row>
@@ -3178,7 +3229,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H158" s="7"/>
     </row>
@@ -3192,7 +3243,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H159" s="7"/>
     </row>
@@ -3206,7 +3257,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H160" s="7"/>
     </row>
@@ -3220,7 +3271,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H161" s="7"/>
     </row>
@@ -3234,7 +3285,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H162" s="7"/>
     </row>
@@ -3248,7 +3299,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H163" s="7"/>
     </row>
@@ -3262,7 +3313,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H164" s="7"/>
     </row>
@@ -3276,7 +3327,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H165" s="7"/>
     </row>
@@ -3290,7 +3341,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H166" s="7"/>
     </row>
@@ -3304,7 +3355,7 @@
       <c r="E167" s="4"/>
       <c r="F167" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H167" s="7"/>
     </row>
@@ -3318,7 +3369,7 @@
       <c r="E168" s="4"/>
       <c r="F168" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H168" s="7"/>
     </row>
@@ -3332,7 +3383,7 @@
       <c r="E169" s="4"/>
       <c r="F169" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H169" s="7"/>
     </row>
@@ -3346,7 +3397,7 @@
       <c r="E170" s="4"/>
       <c r="F170" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H170" s="7"/>
     </row>
@@ -3360,7 +3411,7 @@
       <c r="E171" s="4"/>
       <c r="F171" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H171" s="7"/>
     </row>
@@ -3374,7 +3425,7 @@
       <c r="E172" s="4"/>
       <c r="F172" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H172" s="7"/>
     </row>
@@ -3388,7 +3439,7 @@
       <c r="E173" s="4"/>
       <c r="F173" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H173" s="7"/>
     </row>
@@ -3402,7 +3453,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H174" s="7"/>
     </row>
@@ -3416,7 +3467,7 @@
       <c r="E175" s="4"/>
       <c r="F175" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H175" s="7"/>
     </row>
@@ -3430,7 +3481,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H176" s="7"/>
     </row>
@@ -3444,7 +3495,7 @@
       <c r="E177" s="4"/>
       <c r="F177" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H177" s="7"/>
     </row>
@@ -3458,7 +3509,7 @@
       <c r="E178" s="4"/>
       <c r="F178" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H178" s="7"/>
     </row>
@@ -3472,7 +3523,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H179" s="7"/>
     </row>
@@ -3486,7 +3537,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H180" s="7"/>
     </row>
@@ -3500,7 +3551,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H181" s="7"/>
     </row>
@@ -3514,7 +3565,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H182" s="7"/>
     </row>
@@ -3528,7 +3579,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H183" s="7"/>
     </row>
@@ -3542,7 +3593,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H184" s="7"/>
     </row>
@@ -3556,7 +3607,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H185" s="7"/>
     </row>
@@ -3570,7 +3621,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H186" s="7"/>
     </row>
@@ -3584,7 +3635,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H187" s="7"/>
     </row>
@@ -3598,7 +3649,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H188" s="7"/>
     </row>
@@ -3612,7 +3663,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H189" s="7"/>
     </row>
@@ -3626,7 +3677,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H190" s="7"/>
     </row>
@@ -3640,7 +3691,7 @@
       <c r="E191" s="4"/>
       <c r="F191" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H191" s="7"/>
     </row>
@@ -3654,7 +3705,7 @@
       <c r="E192" s="4"/>
       <c r="F192" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H192" s="7"/>
     </row>
@@ -3668,7 +3719,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H193" s="7"/>
     </row>
@@ -3682,7 +3733,7 @@
       <c r="E194" s="4"/>
       <c r="F194" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H194" s="7"/>
     </row>
@@ -3696,7 +3747,7 @@
       <c r="E195" s="4"/>
       <c r="F195" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H195" s="7"/>
     </row>
@@ -3710,7 +3761,7 @@
       <c r="E196" s="4"/>
       <c r="F196" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H196" s="7"/>
     </row>
@@ -3724,7 +3775,7 @@
       <c r="E197" s="4"/>
       <c r="F197" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H197" s="7"/>
     </row>
@@ -3738,7 +3789,7 @@
       <c r="E198" s="4"/>
       <c r="F198" s="7">
         <f t="shared" si="5"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H198" s="7"/>
     </row>
@@ -3752,7 +3803,7 @@
       <c r="E199" s="4"/>
       <c r="F199" s="7">
         <f t="shared" ref="F199:F262" si="7">$E$3/$E$2</f>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H199" s="7"/>
     </row>
@@ -3766,7 +3817,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H200" s="7"/>
     </row>
@@ -3780,7 +3831,7 @@
       <c r="E201" s="4"/>
       <c r="F201" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H201" s="7"/>
     </row>
@@ -3794,7 +3845,7 @@
       <c r="E202" s="4"/>
       <c r="F202" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H202" s="7"/>
     </row>
@@ -3808,7 +3859,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H203" s="7"/>
     </row>
@@ -3822,7 +3873,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H204" s="7"/>
     </row>
@@ -3836,7 +3887,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H205" s="7"/>
     </row>
@@ -3850,7 +3901,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H206" s="7"/>
     </row>
@@ -3864,7 +3915,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H207" s="7"/>
     </row>
@@ -3878,7 +3929,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H208" s="7"/>
     </row>
@@ -3892,7 +3943,7 @@
       <c r="E209" s="4"/>
       <c r="F209" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H209" s="7"/>
     </row>
@@ -3906,7 +3957,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H210" s="7"/>
     </row>
@@ -3920,7 +3971,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H211" s="7"/>
     </row>
@@ -3934,7 +3985,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H212" s="7"/>
     </row>
@@ -3948,7 +3999,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H213" s="7"/>
     </row>
@@ -3962,7 +4013,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H214" s="7"/>
     </row>
@@ -3976,7 +4027,7 @@
       <c r="E215" s="4"/>
       <c r="F215" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H215" s="7"/>
     </row>
@@ -3990,7 +4041,7 @@
       <c r="E216" s="4"/>
       <c r="F216" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H216" s="7"/>
     </row>
@@ -4004,7 +4055,7 @@
       <c r="E217" s="4"/>
       <c r="F217" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H217" s="7"/>
     </row>
@@ -4018,7 +4069,7 @@
       <c r="E218" s="4"/>
       <c r="F218" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H218" s="7"/>
     </row>
@@ -4032,7 +4083,7 @@
       <c r="E219" s="4"/>
       <c r="F219" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H219" s="7"/>
     </row>
@@ -4046,7 +4097,7 @@
       <c r="E220" s="4"/>
       <c r="F220" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H220" s="7"/>
     </row>
@@ -4060,7 +4111,7 @@
       <c r="E221" s="4"/>
       <c r="F221" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H221" s="7"/>
     </row>
@@ -4074,7 +4125,7 @@
       <c r="E222" s="4"/>
       <c r="F222" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H222" s="7"/>
     </row>
@@ -4088,7 +4139,7 @@
       <c r="E223" s="4"/>
       <c r="F223" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H223" s="7"/>
     </row>
@@ -4102,7 +4153,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H224" s="7"/>
     </row>
@@ -4116,7 +4167,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H225" s="7"/>
     </row>
@@ -4130,7 +4181,7 @@
       <c r="E226" s="4"/>
       <c r="F226" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H226" s="7"/>
     </row>
@@ -4144,7 +4195,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H227" s="7"/>
     </row>
@@ -4158,7 +4209,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H228" s="7"/>
     </row>
@@ -4172,7 +4223,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H229" s="7"/>
     </row>
@@ -4186,7 +4237,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H230" s="7"/>
     </row>
@@ -4200,7 +4251,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H231" s="7"/>
     </row>
@@ -4214,7 +4265,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H232" s="7"/>
     </row>
@@ -4228,7 +4279,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H233" s="7"/>
     </row>
@@ -4242,7 +4293,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H234" s="7"/>
     </row>
@@ -4256,7 +4307,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H235" s="7"/>
     </row>
@@ -4270,7 +4321,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H236" s="7"/>
     </row>
@@ -4284,7 +4335,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H237" s="7"/>
     </row>
@@ -4298,7 +4349,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H238" s="7"/>
     </row>
@@ -4312,7 +4363,7 @@
       <c r="E239" s="4"/>
       <c r="F239" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H239" s="7"/>
     </row>
@@ -4326,7 +4377,7 @@
       <c r="E240" s="4"/>
       <c r="F240" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H240" s="7"/>
     </row>
@@ -4340,7 +4391,7 @@
       <c r="E241" s="4"/>
       <c r="F241" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H241" s="7"/>
     </row>
@@ -4354,7 +4405,7 @@
       <c r="E242" s="4"/>
       <c r="F242" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H242" s="7"/>
     </row>
@@ -4368,7 +4419,7 @@
       <c r="E243" s="4"/>
       <c r="F243" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H243" s="7"/>
     </row>
@@ -4382,7 +4433,7 @@
       <c r="E244" s="4"/>
       <c r="F244" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H244" s="7"/>
     </row>
@@ -4396,7 +4447,7 @@
       <c r="E245" s="4"/>
       <c r="F245" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H245" s="7"/>
     </row>
@@ -4410,7 +4461,7 @@
       <c r="E246" s="4"/>
       <c r="F246" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H246" s="7"/>
     </row>
@@ -4424,7 +4475,7 @@
       <c r="E247" s="4"/>
       <c r="F247" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H247" s="7"/>
     </row>
@@ -4438,7 +4489,7 @@
       <c r="E248" s="4"/>
       <c r="F248" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H248" s="7"/>
     </row>
@@ -4452,7 +4503,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H249" s="7"/>
     </row>
@@ -4466,7 +4517,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H250" s="7"/>
     </row>
@@ -4480,7 +4531,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H251" s="7"/>
     </row>
@@ -4494,7 +4545,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H252" s="7"/>
     </row>
@@ -4508,7 +4559,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H253" s="7"/>
     </row>
@@ -4522,7 +4573,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H254" s="7"/>
     </row>
@@ -4536,7 +4587,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H255" s="7"/>
     </row>
@@ -4550,7 +4601,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H256" s="7"/>
     </row>
@@ -4564,7 +4615,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H257" s="7"/>
     </row>
@@ -4578,7 +4629,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H258" s="7"/>
     </row>
@@ -4592,7 +4643,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H259" s="7"/>
     </row>
@@ -4606,7 +4657,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H260" s="7"/>
     </row>
@@ -4620,7 +4671,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H261" s="7"/>
     </row>
@@ -4634,7 +4685,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="7">
         <f t="shared" si="7"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H262" s="7"/>
     </row>
@@ -4648,7 +4699,7 @@
       <c r="E263" s="4"/>
       <c r="F263" s="7">
         <f t="shared" ref="F263:F326" si="9">$E$3/$E$2</f>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H263" s="7"/>
     </row>
@@ -4662,7 +4713,7 @@
       <c r="E264" s="4"/>
       <c r="F264" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H264" s="7"/>
     </row>
@@ -4676,7 +4727,7 @@
       <c r="E265" s="4"/>
       <c r="F265" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H265" s="7"/>
     </row>
@@ -4690,7 +4741,7 @@
       <c r="E266" s="4"/>
       <c r="F266" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H266" s="7"/>
     </row>
@@ -4704,7 +4755,7 @@
       <c r="E267" s="4"/>
       <c r="F267" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H267" s="7"/>
     </row>
@@ -4718,7 +4769,7 @@
       <c r="E268" s="4"/>
       <c r="F268" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H268" s="7"/>
     </row>
@@ -4732,7 +4783,7 @@
       <c r="E269" s="4"/>
       <c r="F269" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H269" s="7"/>
     </row>
@@ -4746,7 +4797,7 @@
       <c r="E270" s="4"/>
       <c r="F270" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H270" s="7"/>
     </row>
@@ -4760,7 +4811,7 @@
       <c r="E271" s="4"/>
       <c r="F271" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H271" s="7"/>
     </row>
@@ -4774,7 +4825,7 @@
       <c r="E272" s="4"/>
       <c r="F272" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H272" s="7"/>
     </row>
@@ -4788,7 +4839,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H273" s="7"/>
     </row>
@@ -4802,7 +4853,7 @@
       <c r="E274" s="4"/>
       <c r="F274" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H274" s="7"/>
     </row>
@@ -4816,7 +4867,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H275" s="7"/>
     </row>
@@ -4830,7 +4881,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H276" s="7"/>
     </row>
@@ -4844,7 +4895,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H277" s="7"/>
     </row>
@@ -4858,7 +4909,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H278" s="7"/>
     </row>
@@ -4872,7 +4923,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H279" s="7"/>
     </row>
@@ -4886,7 +4937,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H280" s="7"/>
     </row>
@@ -4900,7 +4951,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H281" s="7"/>
     </row>
@@ -4914,7 +4965,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H282" s="7"/>
     </row>
@@ -4928,7 +4979,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H283" s="7"/>
     </row>
@@ -4942,7 +4993,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H284" s="7"/>
     </row>
@@ -4956,7 +5007,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H285" s="7"/>
     </row>
@@ -4970,7 +5021,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H286" s="7"/>
     </row>
@@ -4984,7 +5035,7 @@
       <c r="E287" s="4"/>
       <c r="F287" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H287" s="7"/>
     </row>
@@ -4998,7 +5049,7 @@
       <c r="E288" s="4"/>
       <c r="F288" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H288" s="7"/>
     </row>
@@ -5012,7 +5063,7 @@
       <c r="E289" s="4"/>
       <c r="F289" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H289" s="7"/>
     </row>
@@ -5026,7 +5077,7 @@
       <c r="E290" s="4"/>
       <c r="F290" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H290" s="7"/>
     </row>
@@ -5040,7 +5091,7 @@
       <c r="E291" s="4"/>
       <c r="F291" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H291" s="7"/>
     </row>
@@ -5054,7 +5105,7 @@
       <c r="E292" s="4"/>
       <c r="F292" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H292" s="7"/>
     </row>
@@ -5068,7 +5119,7 @@
       <c r="E293" s="4"/>
       <c r="F293" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H293" s="7"/>
     </row>
@@ -5082,7 +5133,7 @@
       <c r="E294" s="4"/>
       <c r="F294" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H294" s="7"/>
     </row>
@@ -5096,7 +5147,7 @@
       <c r="E295" s="4"/>
       <c r="F295" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H295" s="7"/>
     </row>
@@ -5110,7 +5161,7 @@
       <c r="E296" s="4"/>
       <c r="F296" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H296" s="7"/>
     </row>
@@ -5124,7 +5175,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H297" s="7"/>
     </row>
@@ -5138,7 +5189,7 @@
       <c r="E298" s="4"/>
       <c r="F298" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H298" s="7"/>
     </row>
@@ -5152,7 +5203,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H299" s="7"/>
     </row>
@@ -5166,7 +5217,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H300" s="7"/>
     </row>
@@ -5180,7 +5231,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H301" s="7"/>
     </row>
@@ -5194,7 +5245,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H302" s="7"/>
     </row>
@@ -5208,7 +5259,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H303" s="7"/>
     </row>
@@ -5222,7 +5273,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H304" s="7"/>
     </row>
@@ -5236,7 +5287,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H305" s="7"/>
     </row>
@@ -5252,7 +5303,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G306" s="6" t="s">
         <v>13</v>
@@ -5271,7 +5322,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G307" s="6" t="s">
         <v>14</v>
@@ -5290,7 +5341,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G308" s="6" t="s">
         <v>15</v>
@@ -5309,7 +5360,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G309" s="6" t="s">
         <v>16</v>
@@ -5328,7 +5379,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G310" s="6" t="s">
         <v>17</v>
@@ -5347,7 +5398,7 @@
       <c r="E311" s="4"/>
       <c r="F311" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G311" s="6" t="s">
         <v>18</v>
@@ -5366,7 +5417,7 @@
       <c r="E312" s="4"/>
       <c r="F312" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G312" s="6" t="s">
         <v>19</v>
@@ -5385,7 +5436,7 @@
       <c r="E313" s="4"/>
       <c r="F313" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G313" s="6" t="s">
         <v>20</v>
@@ -5404,7 +5455,7 @@
       <c r="E314" s="4"/>
       <c r="F314" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G314" s="6" t="s">
         <v>21</v>
@@ -5423,7 +5474,7 @@
       <c r="E315" s="4"/>
       <c r="F315" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G315" s="6" t="s">
         <v>22</v>
@@ -5442,7 +5493,7 @@
       <c r="E316" s="4"/>
       <c r="F316" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G316" s="6" t="s">
         <v>24</v>
@@ -5461,7 +5512,7 @@
       <c r="E317" s="4"/>
       <c r="F317" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G317" s="8" t="s">
         <v>23</v>
@@ -5480,7 +5531,7 @@
       <c r="E318" s="4"/>
       <c r="F318" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>25</v>
@@ -5499,7 +5550,7 @@
       <c r="E319" s="4"/>
       <c r="F319" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G319" s="6" t="s">
         <v>26</v>
@@ -5518,7 +5569,7 @@
       <c r="E320" s="4"/>
       <c r="F320" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G320" s="6" t="s">
         <v>27</v>
@@ -5537,7 +5588,7 @@
       <c r="E321" s="4"/>
       <c r="F321" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G321" s="6" t="s">
         <v>28</v>
@@ -5556,7 +5607,7 @@
       <c r="E322" s="4"/>
       <c r="F322" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G322" s="6" t="s">
         <v>29</v>
@@ -5575,7 +5626,7 @@
       <c r="E323" s="4"/>
       <c r="F323" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G323" s="6" t="s">
         <v>30</v>
@@ -5594,7 +5645,7 @@
       <c r="E324" s="4"/>
       <c r="F324" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G324" s="6" t="s">
         <v>31</v>
@@ -5613,7 +5664,7 @@
       <c r="E325" s="4"/>
       <c r="F325" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G325" s="6" t="s">
         <v>32</v>
@@ -5632,7 +5683,7 @@
       <c r="E326" s="4"/>
       <c r="F326" s="7">
         <f t="shared" si="9"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G326" s="6" t="s">
         <v>33</v>
@@ -5651,7 +5702,7 @@
       <c r="E327" s="4"/>
       <c r="F327" s="7">
         <f t="shared" ref="F327:F390" si="11">$E$3/$E$2</f>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G327" s="6" t="s">
         <v>34</v>
@@ -5670,7 +5721,7 @@
       <c r="E328" s="4"/>
       <c r="F328" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G328" s="6" t="s">
         <v>35</v>
@@ -5689,7 +5740,7 @@
       <c r="E329" s="4"/>
       <c r="F329" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G329" s="6" t="s">
         <v>36</v>
@@ -5708,7 +5759,7 @@
       <c r="E330" s="4"/>
       <c r="F330" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G330" s="6" t="s">
         <v>37</v>
@@ -5730,7 +5781,7 @@
       <c r="E331" s="4"/>
       <c r="F331" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G331" s="6" t="s">
         <v>38</v>
@@ -5749,7 +5800,7 @@
       <c r="E332" s="4"/>
       <c r="F332" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G332" s="6" t="s">
         <v>40</v>
@@ -5768,7 +5819,7 @@
       <c r="E333" s="4"/>
       <c r="F333" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G333" s="6" t="s">
         <v>41</v>
@@ -5787,7 +5838,7 @@
       <c r="E334" s="4"/>
       <c r="F334" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G334" s="6" t="s">
         <v>42</v>
@@ -5806,7 +5857,7 @@
       <c r="E335" s="4"/>
       <c r="F335" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G335" s="6" t="s">
         <v>43</v>
@@ -5825,7 +5876,7 @@
       <c r="E336" s="4"/>
       <c r="F336" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G336" s="6" t="s">
         <v>44</v>
@@ -5844,7 +5895,7 @@
       <c r="E337" s="4"/>
       <c r="F337" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G337" s="6" t="s">
         <v>45</v>
@@ -5863,7 +5914,7 @@
       <c r="E338" s="4"/>
       <c r="F338" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G338" s="6" t="s">
         <v>46</v>
@@ -5882,7 +5933,7 @@
       <c r="E339" s="4"/>
       <c r="F339" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G339" s="6" t="s">
         <v>47</v>
@@ -5901,7 +5952,7 @@
       <c r="E340" s="4"/>
       <c r="F340" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G340" s="6" t="s">
         <v>48</v>
@@ -5920,7 +5971,7 @@
       <c r="E341" s="4"/>
       <c r="F341" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G341" s="6" t="s">
         <v>49</v>
@@ -5939,7 +5990,7 @@
       <c r="E342" s="4"/>
       <c r="F342" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G342" s="6" t="s">
         <v>50</v>
@@ -5961,7 +6012,7 @@
       <c r="E343" s="4"/>
       <c r="F343" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G343" s="6" t="s">
         <v>51</v>
@@ -5980,7 +6031,7 @@
       <c r="E344" s="4"/>
       <c r="F344" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G344" s="6" t="s">
         <v>52</v>
@@ -5999,7 +6050,7 @@
       <c r="E345" s="4"/>
       <c r="F345" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G345" s="6" t="s">
         <v>53</v>
@@ -6018,7 +6069,7 @@
       <c r="E346" s="4"/>
       <c r="F346" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G346" s="6" t="s">
         <v>54</v>
@@ -6037,7 +6088,7 @@
       <c r="E347" s="4"/>
       <c r="F347" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G347" s="6" t="s">
         <v>55</v>
@@ -6056,7 +6107,7 @@
       <c r="E348" s="4"/>
       <c r="F348" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G348" s="6" t="s">
         <v>56</v>
@@ -6075,7 +6126,7 @@
       <c r="E349" s="4"/>
       <c r="F349" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G349" s="6" t="s">
         <v>57</v>
@@ -6097,7 +6148,7 @@
       <c r="E350" s="4"/>
       <c r="F350" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G350" s="6" t="s">
         <v>58</v>
@@ -6116,7 +6167,7 @@
       <c r="E351" s="4"/>
       <c r="F351" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G351" s="6" t="s">
         <v>59</v>
@@ -6135,7 +6186,7 @@
       <c r="E352" s="4"/>
       <c r="F352" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G352" s="6" t="s">
         <v>60</v>
@@ -6154,7 +6205,7 @@
       <c r="E353" s="4"/>
       <c r="F353" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G353" s="6" t="s">
         <v>61</v>
@@ -6173,7 +6224,7 @@
       <c r="E354" s="4"/>
       <c r="F354" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G354" s="6" t="s">
         <v>62</v>
@@ -6192,7 +6243,7 @@
       <c r="E355" s="4"/>
       <c r="F355" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G355" s="6" t="s">
         <v>63</v>
@@ -6211,7 +6262,7 @@
       <c r="E356" s="4"/>
       <c r="F356" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G356" s="6" t="s">
         <v>64</v>
@@ -6230,7 +6281,7 @@
       <c r="E357" s="4"/>
       <c r="F357" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G357" s="6" t="s">
         <v>65</v>
@@ -6249,7 +6300,7 @@
       <c r="E358" s="4"/>
       <c r="F358" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G358" s="6" t="s">
         <v>66</v>
@@ -6268,7 +6319,7 @@
       <c r="E359" s="4"/>
       <c r="F359" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G359" s="6" t="s">
         <v>67</v>
@@ -6287,7 +6338,7 @@
       <c r="E360" s="4"/>
       <c r="F360" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G360" s="6" t="s">
         <v>68</v>
@@ -6309,7 +6360,7 @@
       <c r="E361" s="4"/>
       <c r="F361" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G361" s="6" t="s">
         <v>69</v>
@@ -6328,7 +6379,7 @@
       <c r="E362" s="4"/>
       <c r="F362" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G362" s="6" t="s">
         <v>71</v>
@@ -6350,7 +6401,7 @@
       <c r="E363" s="4"/>
       <c r="F363" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G363" s="6" t="s">
         <v>72</v>
@@ -6369,7 +6420,7 @@
       <c r="E364" s="4"/>
       <c r="F364" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G364" s="6" t="s">
         <v>73</v>
@@ -6388,7 +6439,7 @@
       <c r="E365" s="4"/>
       <c r="F365" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G365" s="6" t="s">
         <v>74</v>
@@ -6407,7 +6458,7 @@
       <c r="E366" s="4"/>
       <c r="F366" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G366" s="6" t="s">
         <v>78</v>
@@ -6426,7 +6477,7 @@
       <c r="E367" s="4"/>
       <c r="F367" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G367" s="6" t="s">
         <v>75</v>
@@ -6445,7 +6496,7 @@
       <c r="E368" s="4"/>
       <c r="F368" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G368" s="6" t="s">
         <v>76</v>
@@ -6464,7 +6515,7 @@
       <c r="E369" s="4"/>
       <c r="F369" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G369" s="6" t="s">
         <v>77</v>
@@ -6483,7 +6534,7 @@
       <c r="E370" s="4"/>
       <c r="F370" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G370" s="6" t="s">
         <v>79</v>
@@ -6502,7 +6553,7 @@
       <c r="E371" s="4"/>
       <c r="F371" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G371" s="6" t="s">
         <v>80</v>
@@ -6521,7 +6572,7 @@
       <c r="E372" s="4"/>
       <c r="F372" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G372" s="6" t="s">
         <v>81</v>
@@ -6543,7 +6594,7 @@
       <c r="E373" s="4"/>
       <c r="F373" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G373" s="6" t="s">
         <v>82</v>
@@ -6562,7 +6613,7 @@
       <c r="E374" s="4"/>
       <c r="F374" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G374" s="6" t="s">
         <v>83</v>
@@ -6584,7 +6635,7 @@
       <c r="E375" s="4"/>
       <c r="F375" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G375" s="6" t="s">
         <v>84</v>
@@ -6603,7 +6654,7 @@
       <c r="E376" s="4"/>
       <c r="F376" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G376" s="6" t="s">
         <v>87</v>
@@ -6622,7 +6673,7 @@
       <c r="E377" s="4"/>
       <c r="F377" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G377" s="6" t="s">
         <v>86</v>
@@ -6644,7 +6695,7 @@
       <c r="E378" s="4"/>
       <c r="F378" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G378" s="6" t="s">
         <v>88</v>
@@ -6663,7 +6714,7 @@
       <c r="E379" s="4"/>
       <c r="F379" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G379" s="6" t="s">
         <v>89</v>
@@ -6685,7 +6736,7 @@
       <c r="E380" s="4"/>
       <c r="F380" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G380" s="6" t="s">
         <v>90</v>
@@ -6704,7 +6755,7 @@
       <c r="E381" s="4"/>
       <c r="F381" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G381" s="6" t="s">
         <v>91</v>
@@ -6723,7 +6774,7 @@
       <c r="E382" s="4"/>
       <c r="F382" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G382" s="6" t="s">
         <v>92</v>
@@ -6745,7 +6796,7 @@
       <c r="E383" s="4"/>
       <c r="F383" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G383" s="6" t="s">
         <v>93</v>
@@ -6764,7 +6815,7 @@
       <c r="E384" s="4"/>
       <c r="F384" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G384" s="6" t="s">
         <v>94</v>
@@ -6783,7 +6834,7 @@
       <c r="E385" s="4"/>
       <c r="F385" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G385" s="6" t="s">
         <v>95</v>
@@ -6802,7 +6853,7 @@
       <c r="E386" s="4"/>
       <c r="F386" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G386" s="6" t="s">
         <v>96</v>
@@ -6824,7 +6875,7 @@
       <c r="E387" s="4"/>
       <c r="F387" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G387" s="6" t="s">
         <v>97</v>
@@ -6843,7 +6894,7 @@
       <c r="E388" s="4"/>
       <c r="F388" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G388" s="6" t="s">
         <v>99</v>
@@ -6862,7 +6913,7 @@
       <c r="E389" s="4"/>
       <c r="F389" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G389" s="6" t="s">
         <v>100</v>
@@ -6881,7 +6932,7 @@
       <c r="E390" s="4"/>
       <c r="F390" s="7">
         <f t="shared" si="11"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>101</v>
@@ -6900,7 +6951,7 @@
       <c r="E391" s="4"/>
       <c r="F391" s="7">
         <f t="shared" ref="F391:F454" si="13">$E$3/$E$2</f>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G391" s="6" t="s">
         <v>102</v>
@@ -6919,7 +6970,7 @@
       <c r="E392" s="4"/>
       <c r="F392" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G392" s="6" t="s">
         <v>103</v>
@@ -6938,7 +6989,7 @@
       <c r="E393" s="4"/>
       <c r="F393" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G393" s="6" t="s">
         <v>104</v>
@@ -6957,7 +7008,7 @@
       <c r="E394" s="4"/>
       <c r="F394" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G394" s="6" t="s">
         <v>105</v>
@@ -6976,7 +7027,7 @@
       <c r="E395" s="4"/>
       <c r="F395" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>106</v>
@@ -6998,7 +7049,7 @@
       <c r="E396" s="4"/>
       <c r="F396" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G396" s="6" t="s">
         <v>107</v>
@@ -7017,7 +7068,7 @@
       <c r="E397" s="4"/>
       <c r="F397" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>108</v>
@@ -7039,7 +7090,7 @@
       <c r="E398" s="4"/>
       <c r="F398" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G398" s="6" t="s">
         <v>109</v>
@@ -7058,7 +7109,7 @@
       <c r="E399" s="4"/>
       <c r="F399" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G399" s="6" t="s">
         <v>111</v>
@@ -7080,7 +7131,7 @@
       <c r="E400" s="4"/>
       <c r="F400" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G400" s="6" t="s">
         <v>112</v>
@@ -7099,7 +7150,7 @@
       <c r="E401" s="4"/>
       <c r="F401" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G401" s="6" t="s">
         <v>113</v>
@@ -7118,7 +7169,7 @@
       <c r="E402" s="4"/>
       <c r="F402" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G402" s="6" t="s">
         <v>114</v>
@@ -7137,7 +7188,7 @@
       <c r="E403" s="4"/>
       <c r="F403" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G403" s="6" t="s">
         <v>115</v>
@@ -7156,7 +7207,7 @@
       <c r="E404" s="4"/>
       <c r="F404" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G404" s="6" t="s">
         <v>116</v>
@@ -7175,7 +7226,7 @@
       <c r="E405" s="4"/>
       <c r="F405" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G405" s="6" t="s">
         <v>117</v>
@@ -7194,7 +7245,7 @@
       <c r="E406" s="4"/>
       <c r="F406" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G406" s="6" t="s">
         <v>118</v>
@@ -7213,7 +7264,7 @@
       <c r="E407" s="4"/>
       <c r="F407" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G407" s="6" t="s">
         <v>119</v>
@@ -7230,7 +7281,7 @@
       <c r="E408" s="4"/>
       <c r="F408" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H408" s="7"/>
     </row>
@@ -7244,7 +7295,7 @@
       <c r="E409" s="4"/>
       <c r="F409" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H409" s="7"/>
     </row>
@@ -7258,7 +7309,7 @@
       <c r="E410" s="4"/>
       <c r="F410" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H410" s="7"/>
     </row>
@@ -7272,7 +7323,7 @@
       <c r="E411" s="4"/>
       <c r="F411" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H411" s="7"/>
     </row>
@@ -7286,7 +7337,7 @@
       <c r="E412" s="4"/>
       <c r="F412" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H412" s="7"/>
     </row>
@@ -7300,7 +7351,7 @@
       <c r="E413" s="4"/>
       <c r="F413" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H413" s="7"/>
     </row>
@@ -7314,7 +7365,7 @@
       <c r="E414" s="4"/>
       <c r="F414" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H414" s="7"/>
     </row>
@@ -7328,7 +7379,7 @@
       <c r="E415" s="4"/>
       <c r="F415" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H415" s="7"/>
     </row>
@@ -7342,7 +7393,7 @@
       <c r="E416" s="4"/>
       <c r="F416" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H416" s="7"/>
     </row>
@@ -7356,7 +7407,7 @@
       <c r="E417" s="4"/>
       <c r="F417" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H417" s="7"/>
     </row>
@@ -7370,7 +7421,7 @@
       <c r="E418" s="4"/>
       <c r="F418" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H418" s="7"/>
     </row>
@@ -7384,7 +7435,7 @@
       <c r="E419" s="4"/>
       <c r="F419" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H419" s="7"/>
     </row>
@@ -7398,7 +7449,7 @@
       <c r="E420" s="4"/>
       <c r="F420" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H420" s="7"/>
     </row>
@@ -7412,7 +7463,7 @@
       <c r="E421" s="4"/>
       <c r="F421" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H421" s="7"/>
     </row>
@@ -7426,7 +7477,7 @@
       <c r="E422" s="4"/>
       <c r="F422" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H422" s="7"/>
     </row>
@@ -7440,7 +7491,7 @@
       <c r="E423" s="4"/>
       <c r="F423" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H423" s="7"/>
     </row>
@@ -7454,7 +7505,7 @@
       <c r="E424" s="4"/>
       <c r="F424" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H424" s="7"/>
     </row>
@@ -7468,7 +7519,7 @@
       <c r="E425" s="4"/>
       <c r="F425" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H425" s="7"/>
     </row>
@@ -7482,7 +7533,7 @@
       <c r="E426" s="4"/>
       <c r="F426" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H426" s="7"/>
     </row>
@@ -7496,7 +7547,7 @@
       <c r="E427" s="4"/>
       <c r="F427" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H427" s="7"/>
     </row>
@@ -7510,7 +7561,7 @@
       <c r="E428" s="4"/>
       <c r="F428" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H428" s="7"/>
     </row>
@@ -7524,7 +7575,7 @@
       <c r="E429" s="4"/>
       <c r="F429" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H429" s="7"/>
     </row>
@@ -7538,7 +7589,7 @@
       <c r="E430" s="4"/>
       <c r="F430" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H430" s="7"/>
     </row>
@@ -7552,7 +7603,7 @@
       <c r="E431" s="4"/>
       <c r="F431" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H431" s="7"/>
     </row>
@@ -7566,7 +7617,7 @@
       <c r="E432" s="4"/>
       <c r="F432" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H432" s="7"/>
     </row>
@@ -7580,7 +7631,7 @@
       <c r="E433" s="4"/>
       <c r="F433" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H433" s="7"/>
     </row>
@@ -7594,7 +7645,7 @@
       <c r="E434" s="4"/>
       <c r="F434" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H434" s="7"/>
     </row>
@@ -7608,7 +7659,7 @@
       <c r="E435" s="4"/>
       <c r="F435" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H435" s="7"/>
     </row>
@@ -7622,7 +7673,7 @@
       <c r="E436" s="4"/>
       <c r="F436" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H436" s="7"/>
     </row>
@@ -7636,7 +7687,7 @@
       <c r="E437" s="4"/>
       <c r="F437" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H437" s="7"/>
     </row>
@@ -7650,7 +7701,7 @@
       <c r="E438" s="4"/>
       <c r="F438" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H438" s="7"/>
     </row>
@@ -7664,7 +7715,7 @@
       <c r="E439" s="4"/>
       <c r="F439" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H439" s="7"/>
     </row>
@@ -7678,7 +7729,7 @@
       <c r="E440" s="4"/>
       <c r="F440" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H440" s="7"/>
     </row>
@@ -7692,7 +7743,7 @@
       <c r="E441" s="4"/>
       <c r="F441" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H441" s="7"/>
     </row>
@@ -7706,7 +7757,7 @@
       <c r="E442" s="4"/>
       <c r="F442" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H442" s="7"/>
     </row>
@@ -7720,7 +7771,7 @@
       <c r="E443" s="4"/>
       <c r="F443" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H443" s="7"/>
     </row>
@@ -7734,7 +7785,7 @@
       <c r="E444" s="4"/>
       <c r="F444" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H444" s="7"/>
     </row>
@@ -7748,7 +7799,7 @@
       <c r="E445" s="4"/>
       <c r="F445" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H445" s="7"/>
     </row>
@@ -7762,7 +7813,7 @@
       <c r="E446" s="4"/>
       <c r="F446" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H446" s="7"/>
     </row>
@@ -7776,7 +7827,7 @@
       <c r="E447" s="4"/>
       <c r="F447" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H447" s="7"/>
     </row>
@@ -7790,7 +7841,7 @@
       <c r="E448" s="4"/>
       <c r="F448" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H448" s="7"/>
     </row>
@@ -7804,7 +7855,7 @@
       <c r="E449" s="4"/>
       <c r="F449" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H449" s="7"/>
     </row>
@@ -7818,7 +7869,7 @@
       <c r="E450" s="4"/>
       <c r="F450" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H450" s="7"/>
     </row>
@@ -7832,7 +7883,7 @@
       <c r="E451" s="4"/>
       <c r="F451" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H451" s="7"/>
     </row>
@@ -7846,7 +7897,7 @@
       <c r="E452" s="4"/>
       <c r="F452" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H452" s="7"/>
     </row>
@@ -7860,7 +7911,7 @@
       <c r="E453" s="4"/>
       <c r="F453" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H453" s="7"/>
     </row>
@@ -7874,7 +7925,7 @@
       <c r="E454" s="4"/>
       <c r="F454" s="7">
         <f t="shared" si="13"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H454" s="7"/>
     </row>
@@ -7888,7 +7939,7 @@
       <c r="E455" s="4"/>
       <c r="F455" s="7">
         <f t="shared" ref="F455:F518" si="15">$E$3/$E$2</f>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H455" s="7"/>
     </row>
@@ -7902,7 +7953,7 @@
       <c r="E456" s="4"/>
       <c r="F456" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H456" s="7"/>
     </row>
@@ -7916,7 +7967,7 @@
       <c r="E457" s="4"/>
       <c r="F457" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H457" s="7"/>
     </row>
@@ -7930,7 +7981,7 @@
       <c r="E458" s="4"/>
       <c r="F458" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H458" s="7"/>
     </row>
@@ -7944,7 +7995,7 @@
       <c r="E459" s="4"/>
       <c r="F459" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H459" s="7"/>
     </row>
@@ -7958,7 +8009,7 @@
       <c r="E460" s="4"/>
       <c r="F460" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H460" s="7"/>
     </row>
@@ -7972,7 +8023,7 @@
       <c r="E461" s="4"/>
       <c r="F461" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H461" s="7"/>
     </row>
@@ -7986,7 +8037,7 @@
       <c r="E462" s="4"/>
       <c r="F462" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H462" s="7"/>
     </row>
@@ -8000,7 +8051,7 @@
       <c r="E463" s="4"/>
       <c r="F463" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H463" s="7"/>
     </row>
@@ -8014,7 +8065,7 @@
       <c r="E464" s="4"/>
       <c r="F464" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H464" s="7"/>
     </row>
@@ -8028,7 +8079,7 @@
       <c r="E465" s="4"/>
       <c r="F465" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H465" s="7"/>
     </row>
@@ -8042,7 +8093,7 @@
       <c r="E466" s="4"/>
       <c r="F466" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H466" s="7"/>
     </row>
@@ -8056,7 +8107,7 @@
       <c r="E467" s="4"/>
       <c r="F467" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H467" s="7"/>
     </row>
@@ -8070,7 +8121,7 @@
       <c r="E468" s="4"/>
       <c r="F468" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H468" s="7"/>
     </row>
@@ -8084,7 +8135,7 @@
       <c r="E469" s="4"/>
       <c r="F469" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H469" s="7"/>
     </row>
@@ -8098,7 +8149,7 @@
       <c r="E470" s="4"/>
       <c r="F470" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H470" s="7"/>
     </row>
@@ -8112,7 +8163,7 @@
       <c r="E471" s="4"/>
       <c r="F471" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H471" s="7"/>
     </row>
@@ -8126,7 +8177,7 @@
       <c r="E472" s="4"/>
       <c r="F472" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H472" s="7"/>
     </row>
@@ -8140,7 +8191,7 @@
       <c r="E473" s="4"/>
       <c r="F473" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H473" s="7"/>
     </row>
@@ -8154,7 +8205,7 @@
       <c r="E474" s="4"/>
       <c r="F474" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H474" s="7"/>
     </row>
@@ -8168,7 +8219,7 @@
       <c r="E475" s="4"/>
       <c r="F475" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H475" s="7"/>
     </row>
@@ -8182,7 +8233,7 @@
       <c r="E476" s="4"/>
       <c r="F476" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H476" s="7"/>
     </row>
@@ -8196,7 +8247,7 @@
       <c r="E477" s="4"/>
       <c r="F477" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H477" s="7"/>
     </row>
@@ -8210,7 +8261,7 @@
       <c r="E478" s="4"/>
       <c r="F478" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H478" s="7"/>
     </row>
@@ -8224,7 +8275,7 @@
       <c r="E479" s="4"/>
       <c r="F479" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H479" s="7"/>
     </row>
@@ -8238,7 +8289,7 @@
       <c r="E480" s="4"/>
       <c r="F480" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H480" s="7"/>
     </row>
@@ -8252,7 +8303,7 @@
       <c r="E481" s="4"/>
       <c r="F481" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H481" s="7"/>
     </row>
@@ -8266,7 +8317,7 @@
       <c r="E482" s="4"/>
       <c r="F482" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H482" s="7"/>
     </row>
@@ -8280,7 +8331,7 @@
       <c r="E483" s="4"/>
       <c r="F483" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H483" s="7"/>
     </row>
@@ -8294,7 +8345,7 @@
       <c r="E484" s="4"/>
       <c r="F484" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H484" s="7"/>
     </row>
@@ -8308,7 +8359,7 @@
       <c r="E485" s="4"/>
       <c r="F485" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H485" s="7"/>
     </row>
@@ -8322,7 +8373,7 @@
       <c r="E486" s="4"/>
       <c r="F486" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H486" s="7"/>
     </row>
@@ -8336,7 +8387,7 @@
       <c r="E487" s="4"/>
       <c r="F487" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H487" s="7"/>
     </row>
@@ -8350,7 +8401,7 @@
       <c r="E488" s="4"/>
       <c r="F488" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H488" s="7"/>
     </row>
@@ -8364,7 +8415,7 @@
       <c r="E489" s="4"/>
       <c r="F489" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H489" s="7"/>
     </row>
@@ -8378,7 +8429,7 @@
       <c r="E490" s="4"/>
       <c r="F490" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H490" s="7"/>
     </row>
@@ -8392,7 +8443,7 @@
       <c r="E491" s="4"/>
       <c r="F491" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H491" s="7"/>
     </row>
@@ -8406,7 +8457,7 @@
       <c r="E492" s="4"/>
       <c r="F492" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H492" s="7"/>
     </row>
@@ -8420,7 +8471,7 @@
       <c r="E493" s="4"/>
       <c r="F493" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H493" s="7"/>
     </row>
@@ -8434,7 +8485,7 @@
       <c r="E494" s="4"/>
       <c r="F494" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H494" s="7"/>
     </row>
@@ -8448,7 +8499,7 @@
       <c r="E495" s="4"/>
       <c r="F495" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H495" s="7"/>
     </row>
@@ -8462,7 +8513,7 @@
       <c r="E496" s="4"/>
       <c r="F496" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H496" s="7"/>
     </row>
@@ -8476,7 +8527,7 @@
       <c r="E497" s="4"/>
       <c r="F497" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H497" s="7"/>
     </row>
@@ -8490,7 +8541,7 @@
       <c r="E498" s="4"/>
       <c r="F498" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H498" s="7"/>
     </row>
@@ -8504,7 +8555,7 @@
       <c r="E499" s="4"/>
       <c r="F499" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H499" s="7"/>
     </row>
@@ -8518,7 +8569,7 @@
       <c r="E500" s="4"/>
       <c r="F500" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H500" s="7"/>
     </row>
@@ -8532,7 +8583,7 @@
       <c r="E501" s="4"/>
       <c r="F501" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H501" s="7"/>
     </row>
@@ -8546,7 +8597,7 @@
       <c r="E502" s="4"/>
       <c r="F502" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H502" s="7"/>
     </row>
@@ -8560,7 +8611,7 @@
       <c r="E503" s="4"/>
       <c r="F503" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H503" s="7"/>
     </row>
@@ -8574,7 +8625,7 @@
       <c r="E504" s="4"/>
       <c r="F504" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H504" s="7"/>
     </row>
@@ -8588,7 +8639,7 @@
       <c r="E505" s="4"/>
       <c r="F505" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H505" s="7"/>
     </row>
@@ -8602,7 +8653,7 @@
       <c r="E506" s="4"/>
       <c r="F506" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H506" s="7"/>
     </row>
@@ -8616,7 +8667,7 @@
       <c r="E507" s="4"/>
       <c r="F507" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H507" s="7"/>
     </row>
@@ -8630,7 +8681,7 @@
       <c r="E508" s="4"/>
       <c r="F508" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H508" s="7"/>
     </row>
@@ -8644,7 +8695,7 @@
       <c r="E509" s="4"/>
       <c r="F509" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H509" s="7"/>
     </row>
@@ -8658,7 +8709,7 @@
       <c r="E510" s="4"/>
       <c r="F510" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H510" s="7"/>
     </row>
@@ -8672,7 +8723,7 @@
       <c r="E511" s="4"/>
       <c r="F511" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H511" s="7"/>
     </row>
@@ -8686,7 +8737,7 @@
       <c r="E512" s="4"/>
       <c r="F512" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H512" s="7"/>
     </row>
@@ -8700,7 +8751,7 @@
       <c r="E513" s="4"/>
       <c r="F513" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H513" s="7"/>
     </row>
@@ -8714,7 +8765,7 @@
       <c r="E514" s="4"/>
       <c r="F514" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H514" s="7"/>
     </row>
@@ -8728,7 +8779,7 @@
       <c r="E515" s="4"/>
       <c r="F515" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H515" s="7"/>
     </row>
@@ -8742,7 +8793,7 @@
       <c r="E516" s="4"/>
       <c r="F516" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H516" s="7"/>
     </row>
@@ -8756,7 +8807,7 @@
       <c r="E517" s="4"/>
       <c r="F517" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H517" s="7"/>
     </row>
@@ -8770,7 +8821,7 @@
       <c r="E518" s="4"/>
       <c r="F518" s="7">
         <f t="shared" si="15"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H518" s="7"/>
     </row>
@@ -8784,7 +8835,7 @@
       <c r="E519" s="4"/>
       <c r="F519" s="7">
         <f t="shared" ref="F519:F582" si="17">$E$3/$E$2</f>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H519" s="7"/>
     </row>
@@ -8798,7 +8849,7 @@
       <c r="E520" s="4"/>
       <c r="F520" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H520" s="7"/>
     </row>
@@ -8812,7 +8863,7 @@
       <c r="E521" s="4"/>
       <c r="F521" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H521" s="7"/>
     </row>
@@ -8826,7 +8877,7 @@
       <c r="E522" s="4"/>
       <c r="F522" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H522" s="7"/>
     </row>
@@ -8840,7 +8891,7 @@
       <c r="E523" s="4"/>
       <c r="F523" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H523" s="7"/>
     </row>
@@ -8854,7 +8905,7 @@
       <c r="E524" s="4"/>
       <c r="F524" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H524" s="7"/>
     </row>
@@ -8868,7 +8919,7 @@
       <c r="E525" s="4"/>
       <c r="F525" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H525" s="7"/>
     </row>
@@ -8882,7 +8933,7 @@
       <c r="E526" s="4"/>
       <c r="F526" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H526" s="7"/>
     </row>
@@ -8896,7 +8947,7 @@
       <c r="E527" s="4"/>
       <c r="F527" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H527" s="7"/>
     </row>
@@ -8910,7 +8961,7 @@
       <c r="E528" s="4"/>
       <c r="F528" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H528" s="7"/>
     </row>
@@ -8924,7 +8975,7 @@
       <c r="E529" s="4"/>
       <c r="F529" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H529" s="7"/>
     </row>
@@ -8938,7 +8989,7 @@
       <c r="E530" s="4"/>
       <c r="F530" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H530" s="7"/>
     </row>
@@ -8952,7 +9003,7 @@
       <c r="E531" s="4"/>
       <c r="F531" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H531" s="7"/>
     </row>
@@ -8966,7 +9017,7 @@
       <c r="E532" s="4"/>
       <c r="F532" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H532" s="7"/>
     </row>
@@ -8980,7 +9031,7 @@
       <c r="E533" s="4"/>
       <c r="F533" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H533" s="7"/>
     </row>
@@ -8994,7 +9045,7 @@
       <c r="E534" s="4"/>
       <c r="F534" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H534" s="7"/>
     </row>
@@ -9008,7 +9059,7 @@
       <c r="E535" s="4"/>
       <c r="F535" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H535" s="7"/>
     </row>
@@ -9022,7 +9073,7 @@
       <c r="E536" s="4"/>
       <c r="F536" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H536" s="7"/>
     </row>
@@ -9036,7 +9087,7 @@
       <c r="E537" s="4"/>
       <c r="F537" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H537" s="7"/>
     </row>
@@ -9050,7 +9101,7 @@
       <c r="E538" s="4"/>
       <c r="F538" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H538" s="7"/>
     </row>
@@ -9064,7 +9115,7 @@
       <c r="E539" s="4"/>
       <c r="F539" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H539" s="7"/>
     </row>
@@ -9078,7 +9129,7 @@
       <c r="E540" s="4"/>
       <c r="F540" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H540" s="7"/>
     </row>
@@ -9092,7 +9143,7 @@
       <c r="E541" s="4"/>
       <c r="F541" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H541" s="7"/>
     </row>
@@ -9106,7 +9157,7 @@
       <c r="E542" s="4"/>
       <c r="F542" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H542" s="7"/>
     </row>
@@ -9120,7 +9171,7 @@
       <c r="E543" s="4"/>
       <c r="F543" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H543" s="7"/>
     </row>
@@ -9134,7 +9185,7 @@
       <c r="E544" s="4"/>
       <c r="F544" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H544" s="7"/>
     </row>
@@ -9148,7 +9199,7 @@
       <c r="E545" s="4"/>
       <c r="F545" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H545" s="7"/>
     </row>
@@ -9162,7 +9213,7 @@
       <c r="E546" s="4"/>
       <c r="F546" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H546" s="7"/>
     </row>
@@ -9176,7 +9227,7 @@
       <c r="E547" s="4"/>
       <c r="F547" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H547" s="7"/>
     </row>
@@ -9190,7 +9241,7 @@
       <c r="E548" s="4"/>
       <c r="F548" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H548" s="7"/>
     </row>
@@ -9204,7 +9255,7 @@
       <c r="E549" s="4"/>
       <c r="F549" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H549" s="7"/>
     </row>
@@ -9218,7 +9269,7 @@
       <c r="E550" s="4"/>
       <c r="F550" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H550" s="7"/>
     </row>
@@ -9232,7 +9283,7 @@
       <c r="E551" s="4"/>
       <c r="F551" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H551" s="7"/>
     </row>
@@ -9246,7 +9297,7 @@
       <c r="E552" s="4"/>
       <c r="F552" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H552" s="7"/>
     </row>
@@ -9260,7 +9311,7 @@
       <c r="E553" s="4"/>
       <c r="F553" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H553" s="7"/>
     </row>
@@ -9274,7 +9325,7 @@
       <c r="E554" s="4"/>
       <c r="F554" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H554" s="7"/>
     </row>
@@ -9288,7 +9339,7 @@
       <c r="E555" s="4"/>
       <c r="F555" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H555" s="7"/>
     </row>
@@ -9302,7 +9353,7 @@
       <c r="E556" s="4"/>
       <c r="F556" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H556" s="7"/>
     </row>
@@ -9316,7 +9367,7 @@
       <c r="E557" s="4"/>
       <c r="F557" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H557" s="7"/>
     </row>
@@ -9330,7 +9381,7 @@
       <c r="E558" s="4"/>
       <c r="F558" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H558" s="7"/>
     </row>
@@ -9344,7 +9395,7 @@
       <c r="E559" s="4"/>
       <c r="F559" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H559" s="7"/>
     </row>
@@ -9358,7 +9409,7 @@
       <c r="E560" s="4"/>
       <c r="F560" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H560" s="7"/>
     </row>
@@ -9372,7 +9423,7 @@
       <c r="E561" s="4"/>
       <c r="F561" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H561" s="7"/>
     </row>
@@ -9386,7 +9437,7 @@
       <c r="E562" s="4"/>
       <c r="F562" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H562" s="7"/>
     </row>
@@ -9400,7 +9451,7 @@
       <c r="E563" s="4"/>
       <c r="F563" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H563" s="7"/>
     </row>
@@ -9414,7 +9465,7 @@
       <c r="E564" s="4"/>
       <c r="F564" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H564" s="7"/>
     </row>
@@ -9428,7 +9479,7 @@
       <c r="E565" s="4"/>
       <c r="F565" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H565" s="7"/>
     </row>
@@ -9442,7 +9493,7 @@
       <c r="E566" s="4"/>
       <c r="F566" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H566" s="7"/>
     </row>
@@ -9456,7 +9507,7 @@
       <c r="E567" s="4"/>
       <c r="F567" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H567" s="7"/>
     </row>
@@ -9470,7 +9521,7 @@
       <c r="E568" s="4"/>
       <c r="F568" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H568" s="7"/>
     </row>
@@ -9484,7 +9535,7 @@
       <c r="E569" s="4"/>
       <c r="F569" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H569" s="7"/>
     </row>
@@ -9498,7 +9549,7 @@
       <c r="E570" s="4"/>
       <c r="F570" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H570" s="7"/>
     </row>
@@ -9512,7 +9563,7 @@
       <c r="E571" s="4"/>
       <c r="F571" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H571" s="7"/>
     </row>
@@ -9526,7 +9577,7 @@
       <c r="E572" s="4"/>
       <c r="F572" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H572" s="7"/>
     </row>
@@ -9540,7 +9591,7 @@
       <c r="E573" s="4"/>
       <c r="F573" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H573" s="7"/>
     </row>
@@ -9554,7 +9605,7 @@
       <c r="E574" s="4"/>
       <c r="F574" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H574" s="7"/>
     </row>
@@ -9568,7 +9619,7 @@
       <c r="E575" s="4"/>
       <c r="F575" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H575" s="7"/>
     </row>
@@ -9582,7 +9633,7 @@
       <c r="E576" s="4"/>
       <c r="F576" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H576" s="7"/>
     </row>
@@ -9596,7 +9647,7 @@
       <c r="E577" s="4"/>
       <c r="F577" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H577" s="7"/>
     </row>
@@ -9610,7 +9661,7 @@
       <c r="E578" s="4"/>
       <c r="F578" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H578" s="7"/>
     </row>
@@ -9624,7 +9675,7 @@
       <c r="E579" s="4"/>
       <c r="F579" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H579" s="7"/>
     </row>
@@ -9638,7 +9689,7 @@
       <c r="E580" s="4"/>
       <c r="F580" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H580" s="7"/>
     </row>
@@ -9652,7 +9703,7 @@
       <c r="E581" s="4"/>
       <c r="F581" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H581" s="7"/>
     </row>
@@ -9666,7 +9717,7 @@
       <c r="E582" s="4"/>
       <c r="F582" s="7">
         <f t="shared" si="17"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H582" s="7"/>
     </row>
@@ -9680,7 +9731,7 @@
       <c r="E583" s="4"/>
       <c r="F583" s="7">
         <f t="shared" ref="F583:F646" si="19">$E$3/$E$2</f>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H583" s="7"/>
     </row>
@@ -9694,7 +9745,7 @@
       <c r="E584" s="4"/>
       <c r="F584" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H584" s="7"/>
     </row>
@@ -9708,7 +9759,7 @@
       <c r="E585" s="4"/>
       <c r="F585" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H585" s="7"/>
     </row>
@@ -9722,7 +9773,7 @@
       <c r="E586" s="4"/>
       <c r="F586" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H586" s="7"/>
     </row>
@@ -9736,7 +9787,7 @@
       <c r="E587" s="4"/>
       <c r="F587" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H587" s="7"/>
     </row>
@@ -9750,7 +9801,7 @@
       <c r="E588" s="4"/>
       <c r="F588" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H588" s="7"/>
     </row>
@@ -9764,7 +9815,7 @@
       <c r="E589" s="4"/>
       <c r="F589" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H589" s="7"/>
     </row>
@@ -9778,7 +9829,7 @@
       <c r="E590" s="4"/>
       <c r="F590" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H590" s="7"/>
     </row>
@@ -9792,7 +9843,7 @@
       <c r="E591" s="4"/>
       <c r="F591" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H591" s="7"/>
     </row>
@@ -9806,7 +9857,7 @@
       <c r="E592" s="4"/>
       <c r="F592" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H592" s="7"/>
     </row>
@@ -9820,7 +9871,7 @@
       <c r="E593" s="4"/>
       <c r="F593" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H593" s="7"/>
     </row>
@@ -9834,7 +9885,7 @@
       <c r="E594" s="4"/>
       <c r="F594" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H594" s="7"/>
     </row>
@@ -9848,7 +9899,7 @@
       <c r="E595" s="4"/>
       <c r="F595" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H595" s="7"/>
     </row>
@@ -9862,7 +9913,7 @@
       <c r="E596" s="4"/>
       <c r="F596" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H596" s="7"/>
     </row>
@@ -9876,7 +9927,7 @@
       <c r="E597" s="4"/>
       <c r="F597" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H597" s="7"/>
     </row>
@@ -9890,7 +9941,7 @@
       <c r="E598" s="4"/>
       <c r="F598" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H598" s="7"/>
     </row>
@@ -9904,7 +9955,7 @@
       <c r="E599" s="4"/>
       <c r="F599" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H599" s="7"/>
     </row>
@@ -9918,7 +9969,7 @@
       <c r="E600" s="4"/>
       <c r="F600" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H600" s="7"/>
     </row>
@@ -9932,7 +9983,7 @@
       <c r="E601" s="4"/>
       <c r="F601" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H601" s="7"/>
     </row>
@@ -9946,7 +9997,7 @@
       <c r="E602" s="4"/>
       <c r="F602" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H602" s="7"/>
     </row>
@@ -9960,7 +10011,7 @@
       <c r="E603" s="4"/>
       <c r="F603" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H603" s="7"/>
     </row>
@@ -9974,7 +10025,7 @@
       <c r="E604" s="4"/>
       <c r="F604" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H604" s="7"/>
     </row>
@@ -9988,7 +10039,7 @@
       <c r="E605" s="4"/>
       <c r="F605" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H605" s="7"/>
     </row>
@@ -10002,7 +10053,7 @@
       <c r="E606" s="4"/>
       <c r="F606" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H606" s="7"/>
     </row>
@@ -10016,7 +10067,7 @@
       <c r="E607" s="4"/>
       <c r="F607" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H607" s="7"/>
     </row>
@@ -10030,7 +10081,7 @@
       <c r="E608" s="4"/>
       <c r="F608" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H608" s="7"/>
     </row>
@@ -10044,7 +10095,7 @@
       <c r="E609" s="4"/>
       <c r="F609" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H609" s="7"/>
     </row>
@@ -10058,7 +10109,7 @@
       <c r="E610" s="4"/>
       <c r="F610" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H610" s="7"/>
     </row>
@@ -10072,7 +10123,7 @@
       <c r="E611" s="4"/>
       <c r="F611" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H611" s="7"/>
     </row>
@@ -10086,7 +10137,7 @@
       <c r="E612" s="4"/>
       <c r="F612" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H612" s="7"/>
     </row>
@@ -10100,7 +10151,7 @@
       <c r="E613" s="4"/>
       <c r="F613" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H613" s="7"/>
     </row>
@@ -10114,7 +10165,7 @@
       <c r="E614" s="4"/>
       <c r="F614" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H614" s="7"/>
     </row>
@@ -10128,7 +10179,7 @@
       <c r="E615" s="4"/>
       <c r="F615" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H615" s="7"/>
     </row>
@@ -10142,7 +10193,7 @@
       <c r="E616" s="4"/>
       <c r="F616" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H616" s="7"/>
     </row>
@@ -10156,7 +10207,7 @@
       <c r="E617" s="4"/>
       <c r="F617" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H617" s="7"/>
     </row>
@@ -10170,7 +10221,7 @@
       <c r="E618" s="4"/>
       <c r="F618" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H618" s="7"/>
     </row>
@@ -10184,7 +10235,7 @@
       <c r="E619" s="4"/>
       <c r="F619" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H619" s="7"/>
     </row>
@@ -10198,7 +10249,7 @@
       <c r="E620" s="4"/>
       <c r="F620" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H620" s="7"/>
     </row>
@@ -10212,7 +10263,7 @@
       <c r="E621" s="4"/>
       <c r="F621" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H621" s="7"/>
     </row>
@@ -10226,7 +10277,7 @@
       <c r="E622" s="4"/>
       <c r="F622" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H622" s="7"/>
     </row>
@@ -10240,7 +10291,7 @@
       <c r="E623" s="4"/>
       <c r="F623" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H623" s="7"/>
     </row>
@@ -10254,7 +10305,7 @@
       <c r="E624" s="4"/>
       <c r="F624" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H624" s="7"/>
     </row>
@@ -10268,7 +10319,7 @@
       <c r="E625" s="4"/>
       <c r="F625" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H625" s="7"/>
     </row>
@@ -10282,7 +10333,7 @@
       <c r="E626" s="4"/>
       <c r="F626" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H626" s="7"/>
     </row>
@@ -10296,7 +10347,7 @@
       <c r="E627" s="4"/>
       <c r="F627" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H627" s="7"/>
     </row>
@@ -10310,7 +10361,7 @@
       <c r="E628" s="4"/>
       <c r="F628" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H628" s="7"/>
     </row>
@@ -10324,7 +10375,7 @@
       <c r="E629" s="4"/>
       <c r="F629" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H629" s="7"/>
     </row>
@@ -10338,7 +10389,7 @@
       <c r="E630" s="4"/>
       <c r="F630" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H630" s="7"/>
     </row>
@@ -10352,7 +10403,7 @@
       <c r="E631" s="4"/>
       <c r="F631" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H631" s="7"/>
     </row>
@@ -10366,7 +10417,7 @@
       <c r="E632" s="4"/>
       <c r="F632" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H632" s="7"/>
     </row>
@@ -10380,7 +10431,7 @@
       <c r="E633" s="4"/>
       <c r="F633" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H633" s="7"/>
     </row>
@@ -10394,7 +10445,7 @@
       <c r="E634" s="4"/>
       <c r="F634" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H634" s="7"/>
     </row>
@@ -10408,7 +10459,7 @@
       <c r="E635" s="4"/>
       <c r="F635" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H635" s="7"/>
     </row>
@@ -10422,7 +10473,7 @@
       <c r="E636" s="4"/>
       <c r="F636" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H636" s="7"/>
     </row>
@@ -10436,7 +10487,7 @@
       <c r="E637" s="4"/>
       <c r="F637" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H637" s="7"/>
     </row>
@@ -10450,7 +10501,7 @@
       <c r="E638" s="4"/>
       <c r="F638" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H638" s="7"/>
     </row>
@@ -10464,7 +10515,7 @@
       <c r="E639" s="4"/>
       <c r="F639" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H639" s="7"/>
     </row>
@@ -10478,7 +10529,7 @@
       <c r="E640" s="4"/>
       <c r="F640" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H640" s="7"/>
     </row>
@@ -10492,7 +10543,7 @@
       <c r="E641" s="4"/>
       <c r="F641" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H641" s="7"/>
     </row>
@@ -10506,7 +10557,7 @@
       <c r="E642" s="4"/>
       <c r="F642" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H642" s="7"/>
     </row>
@@ -10520,7 +10571,7 @@
       <c r="E643" s="4"/>
       <c r="F643" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H643" s="7"/>
     </row>
@@ -10534,7 +10585,7 @@
       <c r="E644" s="4"/>
       <c r="F644" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H644" s="7"/>
     </row>
@@ -10548,7 +10599,7 @@
       <c r="E645" s="4"/>
       <c r="F645" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H645" s="7"/>
     </row>
@@ -10562,7 +10613,7 @@
       <c r="E646" s="4"/>
       <c r="F646" s="7">
         <f t="shared" si="19"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H646" s="7"/>
     </row>
@@ -10576,7 +10627,7 @@
       <c r="E647" s="4"/>
       <c r="F647" s="7">
         <f t="shared" ref="F647:F710" si="21">$E$3/$E$2</f>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H647" s="7"/>
     </row>
@@ -10590,7 +10641,7 @@
       <c r="E648" s="4"/>
       <c r="F648" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H648" s="7"/>
     </row>
@@ -10604,7 +10655,7 @@
       <c r="E649" s="4"/>
       <c r="F649" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H649" s="7"/>
     </row>
@@ -10618,7 +10669,7 @@
       <c r="E650" s="4"/>
       <c r="F650" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H650" s="7"/>
     </row>
@@ -10632,7 +10683,7 @@
       <c r="E651" s="4"/>
       <c r="F651" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H651" s="7"/>
     </row>
@@ -10646,7 +10697,7 @@
       <c r="E652" s="4"/>
       <c r="F652" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H652" s="7"/>
     </row>
@@ -10660,7 +10711,7 @@
       <c r="E653" s="4"/>
       <c r="F653" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H653" s="7"/>
     </row>
@@ -10674,7 +10725,7 @@
       <c r="E654" s="4"/>
       <c r="F654" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H654" s="7"/>
     </row>
@@ -10688,7 +10739,7 @@
       <c r="E655" s="4"/>
       <c r="F655" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H655" s="7"/>
     </row>
@@ -10702,7 +10753,7 @@
       <c r="E656" s="4"/>
       <c r="F656" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H656" s="7"/>
     </row>
@@ -10716,7 +10767,7 @@
       <c r="E657" s="4"/>
       <c r="F657" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H657" s="7"/>
     </row>
@@ -10730,7 +10781,7 @@
       <c r="E658" s="4"/>
       <c r="F658" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H658" s="7"/>
     </row>
@@ -10744,7 +10795,7 @@
       <c r="E659" s="4"/>
       <c r="F659" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H659" s="7"/>
     </row>
@@ -10758,7 +10809,7 @@
       <c r="E660" s="4"/>
       <c r="F660" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H660" s="7"/>
     </row>
@@ -10772,7 +10823,7 @@
       <c r="E661" s="4"/>
       <c r="F661" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H661" s="7"/>
     </row>
@@ -10786,7 +10837,7 @@
       <c r="E662" s="4"/>
       <c r="F662" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H662" s="7"/>
     </row>
@@ -10800,7 +10851,7 @@
       <c r="E663" s="4"/>
       <c r="F663" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H663" s="7"/>
     </row>
@@ -10814,7 +10865,7 @@
       <c r="E664" s="4"/>
       <c r="F664" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H664" s="7"/>
     </row>
@@ -10828,7 +10879,7 @@
       <c r="E665" s="4"/>
       <c r="F665" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H665" s="7"/>
     </row>
@@ -10842,7 +10893,7 @@
       <c r="E666" s="4"/>
       <c r="F666" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H666" s="7"/>
     </row>
@@ -10856,7 +10907,7 @@
       <c r="E667" s="4"/>
       <c r="F667" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H667" s="7"/>
     </row>
@@ -10870,7 +10921,7 @@
       <c r="E668" s="4"/>
       <c r="F668" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H668" s="7"/>
     </row>
@@ -10884,7 +10935,7 @@
       <c r="E669" s="4"/>
       <c r="F669" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H669" s="7"/>
     </row>
@@ -10898,7 +10949,7 @@
       <c r="E670" s="4"/>
       <c r="F670" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H670" s="7"/>
     </row>
@@ -10912,7 +10963,7 @@
       <c r="E671" s="4"/>
       <c r="F671" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H671" s="7"/>
     </row>
@@ -10926,7 +10977,7 @@
       <c r="E672" s="4"/>
       <c r="F672" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H672" s="7"/>
     </row>
@@ -10940,7 +10991,7 @@
       <c r="E673" s="4"/>
       <c r="F673" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H673" s="7"/>
     </row>
@@ -10954,7 +11005,7 @@
       <c r="E674" s="4"/>
       <c r="F674" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H674" s="7"/>
     </row>
@@ -10968,7 +11019,7 @@
       <c r="E675" s="4"/>
       <c r="F675" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H675" s="7"/>
     </row>
@@ -10982,7 +11033,7 @@
       <c r="E676" s="4"/>
       <c r="F676" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H676" s="7"/>
     </row>
@@ -10996,7 +11047,7 @@
       <c r="E677" s="4"/>
       <c r="F677" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H677" s="7"/>
     </row>
@@ -11010,7 +11061,7 @@
       <c r="E678" s="4"/>
       <c r="F678" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H678" s="7"/>
     </row>
@@ -11024,7 +11075,7 @@
       <c r="E679" s="4"/>
       <c r="F679" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H679" s="7"/>
     </row>
@@ -11038,7 +11089,7 @@
       <c r="E680" s="4"/>
       <c r="F680" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H680" s="7"/>
     </row>
@@ -11052,7 +11103,7 @@
       <c r="E681" s="4"/>
       <c r="F681" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H681" s="7"/>
     </row>
@@ -11066,7 +11117,7 @@
       <c r="E682" s="4"/>
       <c r="F682" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H682" s="7"/>
     </row>
@@ -11080,7 +11131,7 @@
       <c r="E683" s="4"/>
       <c r="F683" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H683" s="7"/>
     </row>
@@ -11094,7 +11145,7 @@
       <c r="E684" s="4"/>
       <c r="F684" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H684" s="7"/>
     </row>
@@ -11108,7 +11159,7 @@
       <c r="E685" s="4"/>
       <c r="F685" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H685" s="7"/>
     </row>
@@ -11122,7 +11173,7 @@
       <c r="E686" s="4"/>
       <c r="F686" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H686" s="7"/>
     </row>
@@ -11136,7 +11187,7 @@
       <c r="E687" s="4"/>
       <c r="F687" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H687" s="7"/>
     </row>
@@ -11150,7 +11201,7 @@
       <c r="E688" s="4"/>
       <c r="F688" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H688" s="7"/>
     </row>
@@ -11164,7 +11215,7 @@
       <c r="E689" s="4"/>
       <c r="F689" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H689" s="7"/>
     </row>
@@ -11178,7 +11229,7 @@
       <c r="E690" s="4"/>
       <c r="F690" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H690" s="7"/>
     </row>
@@ -11192,7 +11243,7 @@
       <c r="E691" s="4"/>
       <c r="F691" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H691" s="7"/>
     </row>
@@ -11206,7 +11257,7 @@
       <c r="E692" s="4"/>
       <c r="F692" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H692" s="7"/>
     </row>
@@ -11220,7 +11271,7 @@
       <c r="E693" s="4"/>
       <c r="F693" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H693" s="7"/>
     </row>
@@ -11234,7 +11285,7 @@
       <c r="E694" s="4"/>
       <c r="F694" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H694" s="7"/>
     </row>
@@ -11248,7 +11299,7 @@
       <c r="E695" s="4"/>
       <c r="F695" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H695" s="7"/>
     </row>
@@ -11262,7 +11313,7 @@
       <c r="E696" s="4"/>
       <c r="F696" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H696" s="7"/>
     </row>
@@ -11276,7 +11327,7 @@
       <c r="E697" s="4"/>
       <c r="F697" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H697" s="7"/>
     </row>
@@ -11290,7 +11341,7 @@
       <c r="E698" s="4"/>
       <c r="F698" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H698" s="7"/>
     </row>
@@ -11304,7 +11355,7 @@
       <c r="E699" s="4"/>
       <c r="F699" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H699" s="7"/>
     </row>
@@ -11318,7 +11369,7 @@
       <c r="E700" s="4"/>
       <c r="F700" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H700" s="7"/>
     </row>
@@ -11332,7 +11383,7 @@
       <c r="E701" s="4"/>
       <c r="F701" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H701" s="7"/>
     </row>
@@ -11346,7 +11397,7 @@
       <c r="E702" s="4"/>
       <c r="F702" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H702" s="7"/>
     </row>
@@ -11360,7 +11411,7 @@
       <c r="E703" s="4"/>
       <c r="F703" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H703" s="7"/>
     </row>
@@ -11374,7 +11425,7 @@
       <c r="E704" s="4"/>
       <c r="F704" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H704" s="7"/>
     </row>
@@ -11388,7 +11439,7 @@
       <c r="E705" s="4"/>
       <c r="F705" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H705" s="7"/>
     </row>
@@ -11404,7 +11455,7 @@
       <c r="E706" s="4"/>
       <c r="F706" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G706" s="6" t="s">
         <v>11</v>
@@ -11423,7 +11474,7 @@
       <c r="E707" s="4"/>
       <c r="F707" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G707" s="6" t="s">
         <v>10</v>
@@ -11442,7 +11493,7 @@
       <c r="E708" s="4"/>
       <c r="F708" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H708" s="7"/>
     </row>
@@ -11458,7 +11509,7 @@
       <c r="E709" s="4"/>
       <c r="F709" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G709" s="6" t="s">
         <v>9</v>
@@ -11480,7 +11531,7 @@
       <c r="E710" s="4"/>
       <c r="F710" s="7">
         <f t="shared" si="21"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G710" s="6" t="s">
         <v>6</v>
@@ -11499,7 +11550,7 @@
       <c r="E711" s="4"/>
       <c r="F711" s="7">
         <f t="shared" ref="F711:F717" si="23">$E$3/$E$2</f>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G711" s="6" t="s">
         <v>7</v>
@@ -11518,7 +11569,7 @@
       <c r="E712" s="4"/>
       <c r="F712" s="7">
         <f t="shared" si="23"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="G712" s="6" t="s">
         <v>8</v>
@@ -11537,7 +11588,7 @@
       <c r="E713" s="4"/>
       <c r="F713" s="7">
         <f t="shared" si="23"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H713" s="7"/>
     </row>
@@ -11553,7 +11604,7 @@
       <c r="E714" s="4"/>
       <c r="F714" s="7">
         <f t="shared" si="23"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H714" s="7"/>
     </row>
@@ -11569,7 +11620,7 @@
       <c r="E715" s="4"/>
       <c r="F715" s="7">
         <f t="shared" si="23"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H715" s="7"/>
     </row>
@@ -11585,7 +11636,7 @@
       <c r="E716" s="4"/>
       <c r="F716" s="7">
         <f t="shared" si="23"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H716" s="7"/>
     </row>
@@ -11601,7 +11652,7 @@
       <c r="E717" s="4"/>
       <c r="F717" s="7">
         <f t="shared" si="23"/>
-        <v>0.1699438202247191</v>
+        <v>0.17696629213483145</v>
       </c>
       <c r="H717" s="7"/>
     </row>

--- a/背题.xlsx
+++ b/背题.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="152">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -550,6 +550,78 @@
   </si>
   <si>
     <t>The progress of the shrink operation is saved in the bitmap blocks of the BOOKING table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specify the command ID in the RMAN script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It contains all data except that which is used by the transactions in the current online redo file of target db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control files regular archieve log files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resumable set for session with sid 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">server processes will retrieve the result from database and  return it to the client progrmae </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open the database with the RESETLOGS option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRA DISK i/o bottleneck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only one channel is allocated and the backup is created in the flash recovery area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disk &amp; all used and unused</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mount off restore recover online open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purged ' permanently droppped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle Loader, 2 - Oracle Data Pump, 3 - Direct Path API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set Flash Recovery Area enable Flashback logging archievlog mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLESPACE USAGE RESUMBALE SESSION SUSPEND RECOVERY AREA LOW ON FREE SPACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allocated and used and reuse % allocated and reuse and unallocated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile :Automatic Tuning Optimizer &amp; query optimizer automatically</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updated with all changes incremental]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,14 +633,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -673,8 +745,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -682,7 +754,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -968,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="G314" sqref="G314"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -994,7 +1066,7 @@
     <row r="3" spans="1:8">
       <c r="E3">
         <f>COUNTA($C$6:$C$717)</f>
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="F3" s="7"/>
       <c r="H3" s="7"/>
@@ -1031,7 +1103,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="7">
         <f>$E$3/$E$2</f>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>120</v>
@@ -1050,7 +1122,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="7">
         <f t="shared" ref="F7:F70" si="1">$E$3/$E$2</f>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>121</v>
@@ -1069,7 +1141,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>122</v>
@@ -1088,7 +1160,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>123</v>
@@ -1110,7 +1182,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>124</v>
@@ -1132,7 +1204,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>125</v>
@@ -1154,7 +1226,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>126</v>
@@ -1171,7 +1243,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H13" s="7"/>
     </row>
@@ -1185,7 +1257,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -1199,7 +1271,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H15" s="7"/>
     </row>
@@ -1213,7 +1285,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -1227,7 +1299,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H17" s="7"/>
     </row>
@@ -1241,7 +1313,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H18" s="7"/>
     </row>
@@ -1255,7 +1327,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H19" s="7"/>
     </row>
@@ -1269,7 +1341,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H20" s="7"/>
     </row>
@@ -1283,7 +1355,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H21" s="7"/>
     </row>
@@ -1297,7 +1369,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H22" s="7"/>
     </row>
@@ -1311,7 +1383,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H23" s="7"/>
     </row>
@@ -1325,7 +1397,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H24" s="7"/>
     </row>
@@ -1339,7 +1411,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H25" s="7"/>
     </row>
@@ -1353,7 +1425,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H26" s="7"/>
     </row>
@@ -1367,7 +1439,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H27" s="7"/>
     </row>
@@ -1381,7 +1453,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H28" s="7"/>
     </row>
@@ -1395,7 +1467,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H29" s="7"/>
     </row>
@@ -1409,7 +1481,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H30" s="7"/>
     </row>
@@ -1423,7 +1495,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H31" s="7"/>
     </row>
@@ -1437,7 +1509,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H32" s="7"/>
     </row>
@@ -1451,7 +1523,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H33" s="7"/>
     </row>
@@ -1465,7 +1537,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H34" s="7"/>
     </row>
@@ -1479,7 +1551,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H35" s="7"/>
     </row>
@@ -1493,7 +1565,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H36" s="7"/>
     </row>
@@ -1507,7 +1579,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H37" s="7"/>
     </row>
@@ -1521,7 +1593,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H38" s="7"/>
     </row>
@@ -1535,7 +1607,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H39" s="7"/>
     </row>
@@ -1549,7 +1621,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H40" s="7"/>
     </row>
@@ -1563,7 +1635,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H41" s="7"/>
     </row>
@@ -1577,7 +1649,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H42" s="7"/>
     </row>
@@ -1591,7 +1663,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H43" s="7"/>
     </row>
@@ -1605,7 +1677,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H44" s="7"/>
     </row>
@@ -1619,7 +1691,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H45" s="7"/>
     </row>
@@ -1633,7 +1705,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H46" s="7"/>
     </row>
@@ -1647,7 +1719,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H47" s="7"/>
     </row>
@@ -1661,7 +1733,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H48" s="7"/>
     </row>
@@ -1675,7 +1747,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H49" s="7"/>
     </row>
@@ -1689,7 +1761,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H50" s="7"/>
     </row>
@@ -1703,7 +1775,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H51" s="7"/>
     </row>
@@ -1717,7 +1789,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H52" s="7"/>
     </row>
@@ -1731,7 +1803,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H53" s="7"/>
     </row>
@@ -1745,7 +1817,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -1759,7 +1831,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -1773,7 +1845,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H56" s="7"/>
     </row>
@@ -1787,7 +1859,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H57" s="7"/>
     </row>
@@ -1801,7 +1873,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H58" s="7"/>
     </row>
@@ -1815,7 +1887,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H59" s="7"/>
     </row>
@@ -1829,7 +1901,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H60" s="7"/>
     </row>
@@ -1843,7 +1915,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H61" s="7"/>
     </row>
@@ -1857,7 +1929,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H62" s="7"/>
     </row>
@@ -1871,7 +1943,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H63" s="7"/>
     </row>
@@ -1885,7 +1957,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H64" s="7"/>
     </row>
@@ -1899,7 +1971,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H65" s="7"/>
     </row>
@@ -1913,7 +1985,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H66" s="7"/>
     </row>
@@ -1927,7 +1999,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H67" s="7"/>
     </row>
@@ -1941,7 +2013,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H68" s="7"/>
     </row>
@@ -1955,7 +2027,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H69" s="7"/>
     </row>
@@ -1969,7 +2041,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="7">
         <f t="shared" si="1"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H70" s="7"/>
     </row>
@@ -1983,7 +2055,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="7">
         <f t="shared" ref="F71:F134" si="3">$E$3/$E$2</f>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H71" s="7"/>
     </row>
@@ -1997,7 +2069,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H72" s="7"/>
     </row>
@@ -2011,7 +2083,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H73" s="7"/>
     </row>
@@ -2025,7 +2097,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H74" s="7"/>
     </row>
@@ -2039,7 +2111,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H75" s="7"/>
     </row>
@@ -2053,7 +2125,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H76" s="7"/>
     </row>
@@ -2067,7 +2139,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H77" s="7"/>
     </row>
@@ -2081,7 +2153,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H78" s="7"/>
     </row>
@@ -2095,7 +2167,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H79" s="7"/>
     </row>
@@ -2109,11 +2181,11 @@
       <c r="E80" s="4"/>
       <c r="F80" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="2:8">
+    <row r="81" spans="1:8">
       <c r="B81" s="2">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -2123,11 +2195,11 @@
       <c r="E81" s="4"/>
       <c r="F81" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="2:8">
+    <row r="82" spans="1:8">
       <c r="B82" s="2">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -2137,11 +2209,11 @@
       <c r="E82" s="4"/>
       <c r="F82" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="2:8">
+    <row r="83" spans="1:8">
       <c r="B83" s="2">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -2151,189 +2223,263 @@
       <c r="E83" s="4"/>
       <c r="F83" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="2:8">
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>146</v>
+      </c>
       <c r="B84" s="2">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="C84" s="4"/>
+      <c r="C84" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="2:8">
+    <row r="85" spans="1:8">
       <c r="B85" s="2">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="C85" s="4"/>
+      <c r="C85" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="2:8">
+    <row r="86" spans="1:8">
       <c r="B86" s="2">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="C86" s="4"/>
+      <c r="C86" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="2:8">
+    <row r="87" spans="1:8">
       <c r="B87" s="2">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="C87" s="4"/>
+      <c r="C87" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="2:8">
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>146</v>
+      </c>
       <c r="B88" s="2">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="C88" s="4"/>
+      <c r="C88" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="2:8">
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>146</v>
+      </c>
       <c r="B89" s="2">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="C89" s="4"/>
+      <c r="C89" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="2:8">
+    <row r="90" spans="1:8">
       <c r="B90" s="2">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="C90" s="4"/>
+      <c r="C90" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="2:8">
+    <row r="91" spans="1:8">
       <c r="B91" s="2">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="C91" s="4"/>
+      <c r="C91" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="2:8">
+    <row r="92" spans="1:8">
       <c r="B92" s="2">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="C92" s="4"/>
+      <c r="C92" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="2:8">
+    <row r="93" spans="1:8">
       <c r="B93" s="2">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="C93" s="4"/>
+      <c r="C93" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="2:8">
+    <row r="94" spans="1:8">
       <c r="B94" s="2">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="C94" s="4"/>
+      <c r="C94" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="H94" s="7"/>
     </row>
-    <row r="95" spans="2:8">
+    <row r="95" spans="1:8">
       <c r="B95" s="2">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="C95" s="4"/>
+      <c r="C95" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" spans="2:8">
+    <row r="96" spans="1:8">
       <c r="B96" s="2">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="C96" s="4"/>
+      <c r="C96" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="H96" s="7"/>
     </row>
@@ -2342,12 +2488,17 @@
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="C97" s="4"/>
+      <c r="C97" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="H97" s="7"/>
     </row>
@@ -2356,12 +2507,17 @@
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="C98" s="4"/>
+      <c r="C98" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="H98" s="7"/>
     </row>
@@ -2370,12 +2526,17 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="C99" s="4"/>
+      <c r="C99" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="H99" s="7"/>
     </row>
@@ -2384,12 +2545,17 @@
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="C100" s="4"/>
+      <c r="C100" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="H100" s="7"/>
     </row>
@@ -2405,7 +2571,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>133</v>
@@ -2424,7 +2590,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G102" s="6" t="s">
         <v>132</v>
@@ -2443,7 +2609,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G103" s="6" t="s">
         <v>131</v>
@@ -2465,7 +2631,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G104" s="6" t="s">
         <v>129</v>
@@ -2484,7 +2650,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G105" s="6" t="s">
         <v>128</v>
@@ -2501,7 +2667,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H106" s="7"/>
     </row>
@@ -2515,7 +2681,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H107" s="7"/>
     </row>
@@ -2529,7 +2695,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H108" s="7"/>
     </row>
@@ -2543,7 +2709,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H109" s="7"/>
     </row>
@@ -2557,7 +2723,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H110" s="7"/>
     </row>
@@ -2571,7 +2737,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H111" s="7"/>
     </row>
@@ -2585,7 +2751,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H112" s="7"/>
     </row>
@@ -2599,7 +2765,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H113" s="7"/>
     </row>
@@ -2613,7 +2779,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H114" s="7"/>
     </row>
@@ -2627,7 +2793,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H115" s="7"/>
     </row>
@@ -2641,7 +2807,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H116" s="7"/>
     </row>
@@ -2655,7 +2821,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H117" s="7"/>
     </row>
@@ -2669,7 +2835,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H118" s="7"/>
     </row>
@@ -2683,7 +2849,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H119" s="7"/>
     </row>
@@ -2697,7 +2863,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H120" s="7"/>
     </row>
@@ -2711,7 +2877,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H121" s="7"/>
     </row>
@@ -2725,7 +2891,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H122" s="7"/>
     </row>
@@ -2739,7 +2905,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H123" s="7"/>
     </row>
@@ -2753,7 +2919,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H124" s="7"/>
     </row>
@@ -2767,7 +2933,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H125" s="7"/>
     </row>
@@ -2781,7 +2947,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H126" s="7"/>
     </row>
@@ -2795,7 +2961,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H127" s="7"/>
     </row>
@@ -2809,7 +2975,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H128" s="7"/>
     </row>
@@ -2823,7 +2989,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H129" s="7"/>
     </row>
@@ -2837,7 +3003,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H130" s="7"/>
     </row>
@@ -2851,7 +3017,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H131" s="7"/>
     </row>
@@ -2865,7 +3031,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H132" s="7"/>
     </row>
@@ -2879,7 +3045,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H133" s="7"/>
     </row>
@@ -2893,7 +3059,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="7">
         <f t="shared" si="3"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H134" s="7"/>
     </row>
@@ -2907,7 +3073,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="7">
         <f t="shared" ref="F135:F198" si="5">$E$3/$E$2</f>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H135" s="7"/>
     </row>
@@ -2921,7 +3087,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H136" s="7"/>
     </row>
@@ -2935,7 +3101,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H137" s="7"/>
     </row>
@@ -2949,7 +3115,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H138" s="7"/>
     </row>
@@ -2963,7 +3129,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H139" s="7"/>
     </row>
@@ -2977,7 +3143,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H140" s="7"/>
     </row>
@@ -2991,7 +3157,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H141" s="7"/>
     </row>
@@ -3005,7 +3171,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H142" s="7"/>
     </row>
@@ -3019,7 +3185,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H143" s="7"/>
     </row>
@@ -3033,7 +3199,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H144" s="7"/>
     </row>
@@ -3047,7 +3213,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H145" s="7"/>
     </row>
@@ -3061,7 +3227,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H146" s="7"/>
     </row>
@@ -3075,7 +3241,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H147" s="7"/>
     </row>
@@ -3089,7 +3255,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H148" s="7"/>
     </row>
@@ -3103,7 +3269,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H149" s="7"/>
     </row>
@@ -3117,7 +3283,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H150" s="7"/>
     </row>
@@ -3131,7 +3297,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H151" s="7"/>
     </row>
@@ -3145,7 +3311,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H152" s="7"/>
     </row>
@@ -3159,7 +3325,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H153" s="7"/>
     </row>
@@ -3173,7 +3339,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H154" s="7"/>
     </row>
@@ -3187,7 +3353,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H155" s="7"/>
     </row>
@@ -3201,7 +3367,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H156" s="7"/>
     </row>
@@ -3215,7 +3381,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H157" s="7"/>
     </row>
@@ -3229,7 +3395,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H158" s="7"/>
     </row>
@@ -3243,7 +3409,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H159" s="7"/>
     </row>
@@ -3257,7 +3423,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H160" s="7"/>
     </row>
@@ -3271,7 +3437,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H161" s="7"/>
     </row>
@@ -3285,7 +3451,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H162" s="7"/>
     </row>
@@ -3299,7 +3465,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H163" s="7"/>
     </row>
@@ -3313,7 +3479,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H164" s="7"/>
     </row>
@@ -3327,7 +3493,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H165" s="7"/>
     </row>
@@ -3341,7 +3507,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H166" s="7"/>
     </row>
@@ -3355,7 +3521,7 @@
       <c r="E167" s="4"/>
       <c r="F167" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H167" s="7"/>
     </row>
@@ -3369,7 +3535,7 @@
       <c r="E168" s="4"/>
       <c r="F168" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H168" s="7"/>
     </row>
@@ -3383,7 +3549,7 @@
       <c r="E169" s="4"/>
       <c r="F169" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H169" s="7"/>
     </row>
@@ -3397,7 +3563,7 @@
       <c r="E170" s="4"/>
       <c r="F170" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H170" s="7"/>
     </row>
@@ -3411,7 +3577,7 @@
       <c r="E171" s="4"/>
       <c r="F171" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H171" s="7"/>
     </row>
@@ -3425,7 +3591,7 @@
       <c r="E172" s="4"/>
       <c r="F172" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H172" s="7"/>
     </row>
@@ -3439,7 +3605,7 @@
       <c r="E173" s="4"/>
       <c r="F173" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H173" s="7"/>
     </row>
@@ -3453,7 +3619,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H174" s="7"/>
     </row>
@@ -3467,7 +3633,7 @@
       <c r="E175" s="4"/>
       <c r="F175" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H175" s="7"/>
     </row>
@@ -3481,7 +3647,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H176" s="7"/>
     </row>
@@ -3495,7 +3661,7 @@
       <c r="E177" s="4"/>
       <c r="F177" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H177" s="7"/>
     </row>
@@ -3509,7 +3675,7 @@
       <c r="E178" s="4"/>
       <c r="F178" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H178" s="7"/>
     </row>
@@ -3523,7 +3689,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H179" s="7"/>
     </row>
@@ -3537,7 +3703,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H180" s="7"/>
     </row>
@@ -3551,7 +3717,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H181" s="7"/>
     </row>
@@ -3565,7 +3731,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H182" s="7"/>
     </row>
@@ -3579,7 +3745,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H183" s="7"/>
     </row>
@@ -3593,7 +3759,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H184" s="7"/>
     </row>
@@ -3607,7 +3773,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H185" s="7"/>
     </row>
@@ -3621,7 +3787,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H186" s="7"/>
     </row>
@@ -3635,7 +3801,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H187" s="7"/>
     </row>
@@ -3649,7 +3815,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H188" s="7"/>
     </row>
@@ -3663,7 +3829,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H189" s="7"/>
     </row>
@@ -3677,7 +3843,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H190" s="7"/>
     </row>
@@ -3691,7 +3857,7 @@
       <c r="E191" s="4"/>
       <c r="F191" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H191" s="7"/>
     </row>
@@ -3705,7 +3871,7 @@
       <c r="E192" s="4"/>
       <c r="F192" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H192" s="7"/>
     </row>
@@ -3719,7 +3885,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H193" s="7"/>
     </row>
@@ -3733,7 +3899,7 @@
       <c r="E194" s="4"/>
       <c r="F194" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H194" s="7"/>
     </row>
@@ -3747,7 +3913,7 @@
       <c r="E195" s="4"/>
       <c r="F195" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H195" s="7"/>
     </row>
@@ -3761,7 +3927,7 @@
       <c r="E196" s="4"/>
       <c r="F196" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H196" s="7"/>
     </row>
@@ -3775,7 +3941,7 @@
       <c r="E197" s="4"/>
       <c r="F197" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H197" s="7"/>
     </row>
@@ -3789,7 +3955,7 @@
       <c r="E198" s="4"/>
       <c r="F198" s="7">
         <f t="shared" si="5"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H198" s="7"/>
     </row>
@@ -3803,7 +3969,7 @@
       <c r="E199" s="4"/>
       <c r="F199" s="7">
         <f t="shared" ref="F199:F262" si="7">$E$3/$E$2</f>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H199" s="7"/>
     </row>
@@ -3817,7 +3983,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H200" s="7"/>
     </row>
@@ -3831,7 +3997,7 @@
       <c r="E201" s="4"/>
       <c r="F201" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H201" s="7"/>
     </row>
@@ -3845,7 +4011,7 @@
       <c r="E202" s="4"/>
       <c r="F202" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H202" s="7"/>
     </row>
@@ -3859,7 +4025,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H203" s="7"/>
     </row>
@@ -3873,7 +4039,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H204" s="7"/>
     </row>
@@ -3887,7 +4053,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H205" s="7"/>
     </row>
@@ -3901,7 +4067,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H206" s="7"/>
     </row>
@@ -3915,7 +4081,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H207" s="7"/>
     </row>
@@ -3929,7 +4095,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H208" s="7"/>
     </row>
@@ -3943,7 +4109,7 @@
       <c r="E209" s="4"/>
       <c r="F209" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H209" s="7"/>
     </row>
@@ -3957,7 +4123,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H210" s="7"/>
     </row>
@@ -3971,7 +4137,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H211" s="7"/>
     </row>
@@ -3985,7 +4151,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H212" s="7"/>
     </row>
@@ -3999,7 +4165,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H213" s="7"/>
     </row>
@@ -4013,7 +4179,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H214" s="7"/>
     </row>
@@ -4027,7 +4193,7 @@
       <c r="E215" s="4"/>
       <c r="F215" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H215" s="7"/>
     </row>
@@ -4041,7 +4207,7 @@
       <c r="E216" s="4"/>
       <c r="F216" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H216" s="7"/>
     </row>
@@ -4055,7 +4221,7 @@
       <c r="E217" s="4"/>
       <c r="F217" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H217" s="7"/>
     </row>
@@ -4069,7 +4235,7 @@
       <c r="E218" s="4"/>
       <c r="F218" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H218" s="7"/>
     </row>
@@ -4083,7 +4249,7 @@
       <c r="E219" s="4"/>
       <c r="F219" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H219" s="7"/>
     </row>
@@ -4097,7 +4263,7 @@
       <c r="E220" s="4"/>
       <c r="F220" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H220" s="7"/>
     </row>
@@ -4111,7 +4277,7 @@
       <c r="E221" s="4"/>
       <c r="F221" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H221" s="7"/>
     </row>
@@ -4125,7 +4291,7 @@
       <c r="E222" s="4"/>
       <c r="F222" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H222" s="7"/>
     </row>
@@ -4139,7 +4305,7 @@
       <c r="E223" s="4"/>
       <c r="F223" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H223" s="7"/>
     </row>
@@ -4153,7 +4319,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H224" s="7"/>
     </row>
@@ -4167,7 +4333,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H225" s="7"/>
     </row>
@@ -4181,7 +4347,7 @@
       <c r="E226" s="4"/>
       <c r="F226" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H226" s="7"/>
     </row>
@@ -4195,7 +4361,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H227" s="7"/>
     </row>
@@ -4209,7 +4375,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H228" s="7"/>
     </row>
@@ -4223,7 +4389,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H229" s="7"/>
     </row>
@@ -4237,7 +4403,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H230" s="7"/>
     </row>
@@ -4251,7 +4417,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H231" s="7"/>
     </row>
@@ -4265,7 +4431,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H232" s="7"/>
     </row>
@@ -4279,7 +4445,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H233" s="7"/>
     </row>
@@ -4293,7 +4459,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H234" s="7"/>
     </row>
@@ -4307,7 +4473,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H235" s="7"/>
     </row>
@@ -4321,7 +4487,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H236" s="7"/>
     </row>
@@ -4335,7 +4501,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H237" s="7"/>
     </row>
@@ -4349,7 +4515,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H238" s="7"/>
     </row>
@@ -4363,7 +4529,7 @@
       <c r="E239" s="4"/>
       <c r="F239" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H239" s="7"/>
     </row>
@@ -4377,7 +4543,7 @@
       <c r="E240" s="4"/>
       <c r="F240" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H240" s="7"/>
     </row>
@@ -4391,7 +4557,7 @@
       <c r="E241" s="4"/>
       <c r="F241" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H241" s="7"/>
     </row>
@@ -4405,7 +4571,7 @@
       <c r="E242" s="4"/>
       <c r="F242" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H242" s="7"/>
     </row>
@@ -4419,7 +4585,7 @@
       <c r="E243" s="4"/>
       <c r="F243" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H243" s="7"/>
     </row>
@@ -4433,7 +4599,7 @@
       <c r="E244" s="4"/>
       <c r="F244" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H244" s="7"/>
     </row>
@@ -4447,7 +4613,7 @@
       <c r="E245" s="4"/>
       <c r="F245" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H245" s="7"/>
     </row>
@@ -4461,7 +4627,7 @@
       <c r="E246" s="4"/>
       <c r="F246" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H246" s="7"/>
     </row>
@@ -4475,7 +4641,7 @@
       <c r="E247" s="4"/>
       <c r="F247" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H247" s="7"/>
     </row>
@@ -4489,7 +4655,7 @@
       <c r="E248" s="4"/>
       <c r="F248" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H248" s="7"/>
     </row>
@@ -4503,7 +4669,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H249" s="7"/>
     </row>
@@ -4517,7 +4683,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H250" s="7"/>
     </row>
@@ -4531,7 +4697,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H251" s="7"/>
     </row>
@@ -4545,7 +4711,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H252" s="7"/>
     </row>
@@ -4559,7 +4725,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H253" s="7"/>
     </row>
@@ -4573,7 +4739,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H254" s="7"/>
     </row>
@@ -4587,7 +4753,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H255" s="7"/>
     </row>
@@ -4601,7 +4767,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H256" s="7"/>
     </row>
@@ -4615,7 +4781,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H257" s="7"/>
     </row>
@@ -4629,7 +4795,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H258" s="7"/>
     </row>
@@ -4643,7 +4809,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H259" s="7"/>
     </row>
@@ -4657,7 +4823,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H260" s="7"/>
     </row>
@@ -4671,7 +4837,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H261" s="7"/>
     </row>
@@ -4685,7 +4851,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="7">
         <f t="shared" si="7"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H262" s="7"/>
     </row>
@@ -4699,7 +4865,7 @@
       <c r="E263" s="4"/>
       <c r="F263" s="7">
         <f t="shared" ref="F263:F326" si="9">$E$3/$E$2</f>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H263" s="7"/>
     </row>
@@ -4713,7 +4879,7 @@
       <c r="E264" s="4"/>
       <c r="F264" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H264" s="7"/>
     </row>
@@ -4727,7 +4893,7 @@
       <c r="E265" s="4"/>
       <c r="F265" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H265" s="7"/>
     </row>
@@ -4741,7 +4907,7 @@
       <c r="E266" s="4"/>
       <c r="F266" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H266" s="7"/>
     </row>
@@ -4755,7 +4921,7 @@
       <c r="E267" s="4"/>
       <c r="F267" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H267" s="7"/>
     </row>
@@ -4769,7 +4935,7 @@
       <c r="E268" s="4"/>
       <c r="F268" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H268" s="7"/>
     </row>
@@ -4783,7 +4949,7 @@
       <c r="E269" s="4"/>
       <c r="F269" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H269" s="7"/>
     </row>
@@ -4797,7 +4963,7 @@
       <c r="E270" s="4"/>
       <c r="F270" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H270" s="7"/>
     </row>
@@ -4811,7 +4977,7 @@
       <c r="E271" s="4"/>
       <c r="F271" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H271" s="7"/>
     </row>
@@ -4825,7 +4991,7 @@
       <c r="E272" s="4"/>
       <c r="F272" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H272" s="7"/>
     </row>
@@ -4839,7 +5005,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H273" s="7"/>
     </row>
@@ -4853,7 +5019,7 @@
       <c r="E274" s="4"/>
       <c r="F274" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H274" s="7"/>
     </row>
@@ -4867,7 +5033,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H275" s="7"/>
     </row>
@@ -4881,7 +5047,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H276" s="7"/>
     </row>
@@ -4895,7 +5061,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H277" s="7"/>
     </row>
@@ -4909,7 +5075,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H278" s="7"/>
     </row>
@@ -4923,7 +5089,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H279" s="7"/>
     </row>
@@ -4937,7 +5103,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H280" s="7"/>
     </row>
@@ -4951,7 +5117,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H281" s="7"/>
     </row>
@@ -4965,7 +5131,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H282" s="7"/>
     </row>
@@ -4979,7 +5145,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H283" s="7"/>
     </row>
@@ -4993,7 +5159,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H284" s="7"/>
     </row>
@@ -5007,7 +5173,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H285" s="7"/>
     </row>
@@ -5021,7 +5187,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H286" s="7"/>
     </row>
@@ -5035,7 +5201,7 @@
       <c r="E287" s="4"/>
       <c r="F287" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H287" s="7"/>
     </row>
@@ -5049,7 +5215,7 @@
       <c r="E288" s="4"/>
       <c r="F288" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H288" s="7"/>
     </row>
@@ -5063,7 +5229,7 @@
       <c r="E289" s="4"/>
       <c r="F289" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H289" s="7"/>
     </row>
@@ -5077,7 +5243,7 @@
       <c r="E290" s="4"/>
       <c r="F290" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H290" s="7"/>
     </row>
@@ -5091,7 +5257,7 @@
       <c r="E291" s="4"/>
       <c r="F291" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H291" s="7"/>
     </row>
@@ -5105,7 +5271,7 @@
       <c r="E292" s="4"/>
       <c r="F292" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H292" s="7"/>
     </row>
@@ -5119,7 +5285,7 @@
       <c r="E293" s="4"/>
       <c r="F293" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H293" s="7"/>
     </row>
@@ -5133,7 +5299,7 @@
       <c r="E294" s="4"/>
       <c r="F294" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H294" s="7"/>
     </row>
@@ -5147,7 +5313,7 @@
       <c r="E295" s="4"/>
       <c r="F295" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H295" s="7"/>
     </row>
@@ -5161,7 +5327,7 @@
       <c r="E296" s="4"/>
       <c r="F296" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H296" s="7"/>
     </row>
@@ -5175,7 +5341,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H297" s="7"/>
     </row>
@@ -5189,7 +5355,7 @@
       <c r="E298" s="4"/>
       <c r="F298" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H298" s="7"/>
     </row>
@@ -5203,7 +5369,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H299" s="7"/>
     </row>
@@ -5217,7 +5383,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H300" s="7"/>
     </row>
@@ -5231,7 +5397,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H301" s="7"/>
     </row>
@@ -5245,7 +5411,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H302" s="7"/>
     </row>
@@ -5259,7 +5425,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H303" s="7"/>
     </row>
@@ -5273,7 +5439,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H304" s="7"/>
     </row>
@@ -5287,7 +5453,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H305" s="7"/>
     </row>
@@ -5303,7 +5469,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G306" s="6" t="s">
         <v>13</v>
@@ -5322,7 +5488,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G307" s="6" t="s">
         <v>14</v>
@@ -5341,7 +5507,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G308" s="6" t="s">
         <v>15</v>
@@ -5360,7 +5526,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G309" s="6" t="s">
         <v>16</v>
@@ -5379,7 +5545,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G310" s="6" t="s">
         <v>17</v>
@@ -5398,7 +5564,7 @@
       <c r="E311" s="4"/>
       <c r="F311" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G311" s="6" t="s">
         <v>18</v>
@@ -5417,7 +5583,7 @@
       <c r="E312" s="4"/>
       <c r="F312" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G312" s="6" t="s">
         <v>19</v>
@@ -5436,7 +5602,7 @@
       <c r="E313" s="4"/>
       <c r="F313" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G313" s="6" t="s">
         <v>20</v>
@@ -5455,7 +5621,7 @@
       <c r="E314" s="4"/>
       <c r="F314" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G314" s="6" t="s">
         <v>21</v>
@@ -5474,7 +5640,7 @@
       <c r="E315" s="4"/>
       <c r="F315" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G315" s="6" t="s">
         <v>22</v>
@@ -5493,7 +5659,7 @@
       <c r="E316" s="4"/>
       <c r="F316" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G316" s="6" t="s">
         <v>24</v>
@@ -5512,7 +5678,7 @@
       <c r="E317" s="4"/>
       <c r="F317" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G317" s="8" t="s">
         <v>23</v>
@@ -5531,7 +5697,7 @@
       <c r="E318" s="4"/>
       <c r="F318" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>25</v>
@@ -5550,7 +5716,7 @@
       <c r="E319" s="4"/>
       <c r="F319" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G319" s="6" t="s">
         <v>26</v>
@@ -5569,7 +5735,7 @@
       <c r="E320" s="4"/>
       <c r="F320" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G320" s="6" t="s">
         <v>27</v>
@@ -5588,7 +5754,7 @@
       <c r="E321" s="4"/>
       <c r="F321" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G321" s="6" t="s">
         <v>28</v>
@@ -5607,7 +5773,7 @@
       <c r="E322" s="4"/>
       <c r="F322" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G322" s="6" t="s">
         <v>29</v>
@@ -5626,7 +5792,7 @@
       <c r="E323" s="4"/>
       <c r="F323" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G323" s="6" t="s">
         <v>30</v>
@@ -5645,7 +5811,7 @@
       <c r="E324" s="4"/>
       <c r="F324" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G324" s="6" t="s">
         <v>31</v>
@@ -5664,7 +5830,7 @@
       <c r="E325" s="4"/>
       <c r="F325" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G325" s="6" t="s">
         <v>32</v>
@@ -5683,7 +5849,7 @@
       <c r="E326" s="4"/>
       <c r="F326" s="7">
         <f t="shared" si="9"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G326" s="6" t="s">
         <v>33</v>
@@ -5702,7 +5868,7 @@
       <c r="E327" s="4"/>
       <c r="F327" s="7">
         <f t="shared" ref="F327:F390" si="11">$E$3/$E$2</f>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G327" s="6" t="s">
         <v>34</v>
@@ -5721,7 +5887,7 @@
       <c r="E328" s="4"/>
       <c r="F328" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G328" s="6" t="s">
         <v>35</v>
@@ -5740,7 +5906,7 @@
       <c r="E329" s="4"/>
       <c r="F329" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G329" s="6" t="s">
         <v>36</v>
@@ -5759,7 +5925,7 @@
       <c r="E330" s="4"/>
       <c r="F330" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G330" s="6" t="s">
         <v>37</v>
@@ -5781,7 +5947,7 @@
       <c r="E331" s="4"/>
       <c r="F331" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G331" s="6" t="s">
         <v>38</v>
@@ -5800,7 +5966,7 @@
       <c r="E332" s="4"/>
       <c r="F332" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G332" s="6" t="s">
         <v>40</v>
@@ -5819,7 +5985,7 @@
       <c r="E333" s="4"/>
       <c r="F333" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G333" s="6" t="s">
         <v>41</v>
@@ -5838,7 +6004,7 @@
       <c r="E334" s="4"/>
       <c r="F334" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G334" s="6" t="s">
         <v>42</v>
@@ -5857,7 +6023,7 @@
       <c r="E335" s="4"/>
       <c r="F335" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G335" s="6" t="s">
         <v>43</v>
@@ -5876,7 +6042,7 @@
       <c r="E336" s="4"/>
       <c r="F336" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G336" s="6" t="s">
         <v>44</v>
@@ -5895,7 +6061,7 @@
       <c r="E337" s="4"/>
       <c r="F337" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G337" s="6" t="s">
         <v>45</v>
@@ -5914,7 +6080,7 @@
       <c r="E338" s="4"/>
       <c r="F338" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G338" s="6" t="s">
         <v>46</v>
@@ -5933,7 +6099,7 @@
       <c r="E339" s="4"/>
       <c r="F339" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G339" s="6" t="s">
         <v>47</v>
@@ -5952,7 +6118,7 @@
       <c r="E340" s="4"/>
       <c r="F340" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G340" s="6" t="s">
         <v>48</v>
@@ -5971,7 +6137,7 @@
       <c r="E341" s="4"/>
       <c r="F341" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G341" s="6" t="s">
         <v>49</v>
@@ -5990,7 +6156,7 @@
       <c r="E342" s="4"/>
       <c r="F342" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G342" s="6" t="s">
         <v>50</v>
@@ -6012,7 +6178,7 @@
       <c r="E343" s="4"/>
       <c r="F343" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G343" s="6" t="s">
         <v>51</v>
@@ -6031,7 +6197,7 @@
       <c r="E344" s="4"/>
       <c r="F344" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G344" s="6" t="s">
         <v>52</v>
@@ -6050,7 +6216,7 @@
       <c r="E345" s="4"/>
       <c r="F345" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G345" s="6" t="s">
         <v>53</v>
@@ -6069,7 +6235,7 @@
       <c r="E346" s="4"/>
       <c r="F346" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G346" s="6" t="s">
         <v>54</v>
@@ -6088,7 +6254,7 @@
       <c r="E347" s="4"/>
       <c r="F347" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G347" s="6" t="s">
         <v>55</v>
@@ -6107,7 +6273,7 @@
       <c r="E348" s="4"/>
       <c r="F348" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G348" s="6" t="s">
         <v>56</v>
@@ -6126,7 +6292,7 @@
       <c r="E349" s="4"/>
       <c r="F349" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G349" s="6" t="s">
         <v>57</v>
@@ -6148,7 +6314,7 @@
       <c r="E350" s="4"/>
       <c r="F350" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G350" s="6" t="s">
         <v>58</v>
@@ -6167,7 +6333,7 @@
       <c r="E351" s="4"/>
       <c r="F351" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G351" s="6" t="s">
         <v>59</v>
@@ -6186,7 +6352,7 @@
       <c r="E352" s="4"/>
       <c r="F352" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G352" s="6" t="s">
         <v>60</v>
@@ -6205,7 +6371,7 @@
       <c r="E353" s="4"/>
       <c r="F353" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G353" s="6" t="s">
         <v>61</v>
@@ -6224,7 +6390,7 @@
       <c r="E354" s="4"/>
       <c r="F354" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G354" s="6" t="s">
         <v>62</v>
@@ -6243,7 +6409,7 @@
       <c r="E355" s="4"/>
       <c r="F355" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G355" s="6" t="s">
         <v>63</v>
@@ -6262,7 +6428,7 @@
       <c r="E356" s="4"/>
       <c r="F356" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G356" s="6" t="s">
         <v>64</v>
@@ -6281,7 +6447,7 @@
       <c r="E357" s="4"/>
       <c r="F357" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G357" s="6" t="s">
         <v>65</v>
@@ -6300,7 +6466,7 @@
       <c r="E358" s="4"/>
       <c r="F358" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G358" s="6" t="s">
         <v>66</v>
@@ -6319,7 +6485,7 @@
       <c r="E359" s="4"/>
       <c r="F359" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G359" s="6" t="s">
         <v>67</v>
@@ -6338,7 +6504,7 @@
       <c r="E360" s="4"/>
       <c r="F360" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G360" s="6" t="s">
         <v>68</v>
@@ -6360,7 +6526,7 @@
       <c r="E361" s="4"/>
       <c r="F361" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G361" s="6" t="s">
         <v>69</v>
@@ -6379,7 +6545,7 @@
       <c r="E362" s="4"/>
       <c r="F362" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G362" s="6" t="s">
         <v>71</v>
@@ -6401,7 +6567,7 @@
       <c r="E363" s="4"/>
       <c r="F363" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G363" s="6" t="s">
         <v>72</v>
@@ -6420,7 +6586,7 @@
       <c r="E364" s="4"/>
       <c r="F364" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G364" s="6" t="s">
         <v>73</v>
@@ -6439,7 +6605,7 @@
       <c r="E365" s="4"/>
       <c r="F365" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G365" s="6" t="s">
         <v>74</v>
@@ -6458,7 +6624,7 @@
       <c r="E366" s="4"/>
       <c r="F366" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G366" s="6" t="s">
         <v>78</v>
@@ -6477,7 +6643,7 @@
       <c r="E367" s="4"/>
       <c r="F367" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G367" s="6" t="s">
         <v>75</v>
@@ -6496,7 +6662,7 @@
       <c r="E368" s="4"/>
       <c r="F368" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G368" s="6" t="s">
         <v>76</v>
@@ -6515,7 +6681,7 @@
       <c r="E369" s="4"/>
       <c r="F369" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G369" s="6" t="s">
         <v>77</v>
@@ -6534,7 +6700,7 @@
       <c r="E370" s="4"/>
       <c r="F370" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G370" s="6" t="s">
         <v>79</v>
@@ -6553,7 +6719,7 @@
       <c r="E371" s="4"/>
       <c r="F371" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G371" s="6" t="s">
         <v>80</v>
@@ -6572,7 +6738,7 @@
       <c r="E372" s="4"/>
       <c r="F372" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G372" s="6" t="s">
         <v>81</v>
@@ -6594,7 +6760,7 @@
       <c r="E373" s="4"/>
       <c r="F373" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G373" s="6" t="s">
         <v>82</v>
@@ -6613,7 +6779,7 @@
       <c r="E374" s="4"/>
       <c r="F374" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G374" s="6" t="s">
         <v>83</v>
@@ -6635,7 +6801,7 @@
       <c r="E375" s="4"/>
       <c r="F375" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G375" s="6" t="s">
         <v>84</v>
@@ -6654,7 +6820,7 @@
       <c r="E376" s="4"/>
       <c r="F376" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G376" s="6" t="s">
         <v>87</v>
@@ -6673,7 +6839,7 @@
       <c r="E377" s="4"/>
       <c r="F377" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G377" s="6" t="s">
         <v>86</v>
@@ -6695,7 +6861,7 @@
       <c r="E378" s="4"/>
       <c r="F378" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G378" s="6" t="s">
         <v>88</v>
@@ -6714,7 +6880,7 @@
       <c r="E379" s="4"/>
       <c r="F379" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G379" s="6" t="s">
         <v>89</v>
@@ -6736,7 +6902,7 @@
       <c r="E380" s="4"/>
       <c r="F380" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G380" s="6" t="s">
         <v>90</v>
@@ -6755,7 +6921,7 @@
       <c r="E381" s="4"/>
       <c r="F381" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G381" s="6" t="s">
         <v>91</v>
@@ -6774,7 +6940,7 @@
       <c r="E382" s="4"/>
       <c r="F382" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G382" s="6" t="s">
         <v>92</v>
@@ -6796,7 +6962,7 @@
       <c r="E383" s="4"/>
       <c r="F383" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G383" s="6" t="s">
         <v>93</v>
@@ -6815,7 +6981,7 @@
       <c r="E384" s="4"/>
       <c r="F384" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G384" s="6" t="s">
         <v>94</v>
@@ -6834,7 +7000,7 @@
       <c r="E385" s="4"/>
       <c r="F385" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G385" s="6" t="s">
         <v>95</v>
@@ -6853,7 +7019,7 @@
       <c r="E386" s="4"/>
       <c r="F386" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G386" s="6" t="s">
         <v>96</v>
@@ -6875,7 +7041,7 @@
       <c r="E387" s="4"/>
       <c r="F387" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G387" s="6" t="s">
         <v>97</v>
@@ -6894,7 +7060,7 @@
       <c r="E388" s="4"/>
       <c r="F388" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G388" s="6" t="s">
         <v>99</v>
@@ -6913,7 +7079,7 @@
       <c r="E389" s="4"/>
       <c r="F389" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G389" s="6" t="s">
         <v>100</v>
@@ -6932,7 +7098,7 @@
       <c r="E390" s="4"/>
       <c r="F390" s="7">
         <f t="shared" si="11"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>101</v>
@@ -6951,7 +7117,7 @@
       <c r="E391" s="4"/>
       <c r="F391" s="7">
         <f t="shared" ref="F391:F454" si="13">$E$3/$E$2</f>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G391" s="6" t="s">
         <v>102</v>
@@ -6970,7 +7136,7 @@
       <c r="E392" s="4"/>
       <c r="F392" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G392" s="6" t="s">
         <v>103</v>
@@ -6989,7 +7155,7 @@
       <c r="E393" s="4"/>
       <c r="F393" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G393" s="6" t="s">
         <v>104</v>
@@ -7008,7 +7174,7 @@
       <c r="E394" s="4"/>
       <c r="F394" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G394" s="6" t="s">
         <v>105</v>
@@ -7027,7 +7193,7 @@
       <c r="E395" s="4"/>
       <c r="F395" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>106</v>
@@ -7049,7 +7215,7 @@
       <c r="E396" s="4"/>
       <c r="F396" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G396" s="6" t="s">
         <v>107</v>
@@ -7068,7 +7234,7 @@
       <c r="E397" s="4"/>
       <c r="F397" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>108</v>
@@ -7090,7 +7256,7 @@
       <c r="E398" s="4"/>
       <c r="F398" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G398" s="6" t="s">
         <v>109</v>
@@ -7109,7 +7275,7 @@
       <c r="E399" s="4"/>
       <c r="F399" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G399" s="6" t="s">
         <v>111</v>
@@ -7131,7 +7297,7 @@
       <c r="E400" s="4"/>
       <c r="F400" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G400" s="6" t="s">
         <v>112</v>
@@ -7150,7 +7316,7 @@
       <c r="E401" s="4"/>
       <c r="F401" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G401" s="6" t="s">
         <v>113</v>
@@ -7169,7 +7335,7 @@
       <c r="E402" s="4"/>
       <c r="F402" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G402" s="6" t="s">
         <v>114</v>
@@ -7188,7 +7354,7 @@
       <c r="E403" s="4"/>
       <c r="F403" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G403" s="6" t="s">
         <v>115</v>
@@ -7207,7 +7373,7 @@
       <c r="E404" s="4"/>
       <c r="F404" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G404" s="6" t="s">
         <v>116</v>
@@ -7226,7 +7392,7 @@
       <c r="E405" s="4"/>
       <c r="F405" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G405" s="6" t="s">
         <v>117</v>
@@ -7245,7 +7411,7 @@
       <c r="E406" s="4"/>
       <c r="F406" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G406" s="6" t="s">
         <v>118</v>
@@ -7264,7 +7430,7 @@
       <c r="E407" s="4"/>
       <c r="F407" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G407" s="6" t="s">
         <v>119</v>
@@ -7281,7 +7447,7 @@
       <c r="E408" s="4"/>
       <c r="F408" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H408" s="7"/>
     </row>
@@ -7295,7 +7461,7 @@
       <c r="E409" s="4"/>
       <c r="F409" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H409" s="7"/>
     </row>
@@ -7309,7 +7475,7 @@
       <c r="E410" s="4"/>
       <c r="F410" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H410" s="7"/>
     </row>
@@ -7323,7 +7489,7 @@
       <c r="E411" s="4"/>
       <c r="F411" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H411" s="7"/>
     </row>
@@ -7337,7 +7503,7 @@
       <c r="E412" s="4"/>
       <c r="F412" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H412" s="7"/>
     </row>
@@ -7351,7 +7517,7 @@
       <c r="E413" s="4"/>
       <c r="F413" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H413" s="7"/>
     </row>
@@ -7365,7 +7531,7 @@
       <c r="E414" s="4"/>
       <c r="F414" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H414" s="7"/>
     </row>
@@ -7379,7 +7545,7 @@
       <c r="E415" s="4"/>
       <c r="F415" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H415" s="7"/>
     </row>
@@ -7393,7 +7559,7 @@
       <c r="E416" s="4"/>
       <c r="F416" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H416" s="7"/>
     </row>
@@ -7407,7 +7573,7 @@
       <c r="E417" s="4"/>
       <c r="F417" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H417" s="7"/>
     </row>
@@ -7421,7 +7587,7 @@
       <c r="E418" s="4"/>
       <c r="F418" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H418" s="7"/>
     </row>
@@ -7435,7 +7601,7 @@
       <c r="E419" s="4"/>
       <c r="F419" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H419" s="7"/>
     </row>
@@ -7449,7 +7615,7 @@
       <c r="E420" s="4"/>
       <c r="F420" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H420" s="7"/>
     </row>
@@ -7463,7 +7629,7 @@
       <c r="E421" s="4"/>
       <c r="F421" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H421" s="7"/>
     </row>
@@ -7477,7 +7643,7 @@
       <c r="E422" s="4"/>
       <c r="F422" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H422" s="7"/>
     </row>
@@ -7491,7 +7657,7 @@
       <c r="E423" s="4"/>
       <c r="F423" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H423" s="7"/>
     </row>
@@ -7505,7 +7671,7 @@
       <c r="E424" s="4"/>
       <c r="F424" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H424" s="7"/>
     </row>
@@ -7519,7 +7685,7 @@
       <c r="E425" s="4"/>
       <c r="F425" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H425" s="7"/>
     </row>
@@ -7533,7 +7699,7 @@
       <c r="E426" s="4"/>
       <c r="F426" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H426" s="7"/>
     </row>
@@ -7547,7 +7713,7 @@
       <c r="E427" s="4"/>
       <c r="F427" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H427" s="7"/>
     </row>
@@ -7561,7 +7727,7 @@
       <c r="E428" s="4"/>
       <c r="F428" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H428" s="7"/>
     </row>
@@ -7575,7 +7741,7 @@
       <c r="E429" s="4"/>
       <c r="F429" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H429" s="7"/>
     </row>
@@ -7589,7 +7755,7 @@
       <c r="E430" s="4"/>
       <c r="F430" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H430" s="7"/>
     </row>
@@ -7603,7 +7769,7 @@
       <c r="E431" s="4"/>
       <c r="F431" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H431" s="7"/>
     </row>
@@ -7617,7 +7783,7 @@
       <c r="E432" s="4"/>
       <c r="F432" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H432" s="7"/>
     </row>
@@ -7631,7 +7797,7 @@
       <c r="E433" s="4"/>
       <c r="F433" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H433" s="7"/>
     </row>
@@ -7645,7 +7811,7 @@
       <c r="E434" s="4"/>
       <c r="F434" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H434" s="7"/>
     </row>
@@ -7659,7 +7825,7 @@
       <c r="E435" s="4"/>
       <c r="F435" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H435" s="7"/>
     </row>
@@ -7673,7 +7839,7 @@
       <c r="E436" s="4"/>
       <c r="F436" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H436" s="7"/>
     </row>
@@ -7687,7 +7853,7 @@
       <c r="E437" s="4"/>
       <c r="F437" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H437" s="7"/>
     </row>
@@ -7701,7 +7867,7 @@
       <c r="E438" s="4"/>
       <c r="F438" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H438" s="7"/>
     </row>
@@ -7715,7 +7881,7 @@
       <c r="E439" s="4"/>
       <c r="F439" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H439" s="7"/>
     </row>
@@ -7729,7 +7895,7 @@
       <c r="E440" s="4"/>
       <c r="F440" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H440" s="7"/>
     </row>
@@ -7743,7 +7909,7 @@
       <c r="E441" s="4"/>
       <c r="F441" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H441" s="7"/>
     </row>
@@ -7757,7 +7923,7 @@
       <c r="E442" s="4"/>
       <c r="F442" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H442" s="7"/>
     </row>
@@ -7771,7 +7937,7 @@
       <c r="E443" s="4"/>
       <c r="F443" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H443" s="7"/>
     </row>
@@ -7785,7 +7951,7 @@
       <c r="E444" s="4"/>
       <c r="F444" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H444" s="7"/>
     </row>
@@ -7799,7 +7965,7 @@
       <c r="E445" s="4"/>
       <c r="F445" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H445" s="7"/>
     </row>
@@ -7813,7 +7979,7 @@
       <c r="E446" s="4"/>
       <c r="F446" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H446" s="7"/>
     </row>
@@ -7827,7 +7993,7 @@
       <c r="E447" s="4"/>
       <c r="F447" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H447" s="7"/>
     </row>
@@ -7841,7 +8007,7 @@
       <c r="E448" s="4"/>
       <c r="F448" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H448" s="7"/>
     </row>
@@ -7855,7 +8021,7 @@
       <c r="E449" s="4"/>
       <c r="F449" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H449" s="7"/>
     </row>
@@ -7869,7 +8035,7 @@
       <c r="E450" s="4"/>
       <c r="F450" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H450" s="7"/>
     </row>
@@ -7883,7 +8049,7 @@
       <c r="E451" s="4"/>
       <c r="F451" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H451" s="7"/>
     </row>
@@ -7897,7 +8063,7 @@
       <c r="E452" s="4"/>
       <c r="F452" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H452" s="7"/>
     </row>
@@ -7911,7 +8077,7 @@
       <c r="E453" s="4"/>
       <c r="F453" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H453" s="7"/>
     </row>
@@ -7925,7 +8091,7 @@
       <c r="E454" s="4"/>
       <c r="F454" s="7">
         <f t="shared" si="13"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H454" s="7"/>
     </row>
@@ -7939,7 +8105,7 @@
       <c r="E455" s="4"/>
       <c r="F455" s="7">
         <f t="shared" ref="F455:F518" si="15">$E$3/$E$2</f>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H455" s="7"/>
     </row>
@@ -7953,7 +8119,7 @@
       <c r="E456" s="4"/>
       <c r="F456" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H456" s="7"/>
     </row>
@@ -7967,7 +8133,7 @@
       <c r="E457" s="4"/>
       <c r="F457" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H457" s="7"/>
     </row>
@@ -7981,7 +8147,7 @@
       <c r="E458" s="4"/>
       <c r="F458" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H458" s="7"/>
     </row>
@@ -7995,7 +8161,7 @@
       <c r="E459" s="4"/>
       <c r="F459" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H459" s="7"/>
     </row>
@@ -8009,7 +8175,7 @@
       <c r="E460" s="4"/>
       <c r="F460" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H460" s="7"/>
     </row>
@@ -8023,7 +8189,7 @@
       <c r="E461" s="4"/>
       <c r="F461" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H461" s="7"/>
     </row>
@@ -8037,7 +8203,7 @@
       <c r="E462" s="4"/>
       <c r="F462" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H462" s="7"/>
     </row>
@@ -8051,7 +8217,7 @@
       <c r="E463" s="4"/>
       <c r="F463" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H463" s="7"/>
     </row>
@@ -8065,7 +8231,7 @@
       <c r="E464" s="4"/>
       <c r="F464" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H464" s="7"/>
     </row>
@@ -8079,7 +8245,7 @@
       <c r="E465" s="4"/>
       <c r="F465" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H465" s="7"/>
     </row>
@@ -8093,7 +8259,7 @@
       <c r="E466" s="4"/>
       <c r="F466" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H466" s="7"/>
     </row>
@@ -8107,7 +8273,7 @@
       <c r="E467" s="4"/>
       <c r="F467" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H467" s="7"/>
     </row>
@@ -8121,7 +8287,7 @@
       <c r="E468" s="4"/>
       <c r="F468" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H468" s="7"/>
     </row>
@@ -8135,7 +8301,7 @@
       <c r="E469" s="4"/>
       <c r="F469" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H469" s="7"/>
     </row>
@@ -8149,7 +8315,7 @@
       <c r="E470" s="4"/>
       <c r="F470" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H470" s="7"/>
     </row>
@@ -8163,7 +8329,7 @@
       <c r="E471" s="4"/>
       <c r="F471" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H471" s="7"/>
     </row>
@@ -8177,7 +8343,7 @@
       <c r="E472" s="4"/>
       <c r="F472" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H472" s="7"/>
     </row>
@@ -8191,7 +8357,7 @@
       <c r="E473" s="4"/>
       <c r="F473" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H473" s="7"/>
     </row>
@@ -8205,7 +8371,7 @@
       <c r="E474" s="4"/>
       <c r="F474" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H474" s="7"/>
     </row>
@@ -8219,7 +8385,7 @@
       <c r="E475" s="4"/>
       <c r="F475" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H475" s="7"/>
     </row>
@@ -8233,7 +8399,7 @@
       <c r="E476" s="4"/>
       <c r="F476" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H476" s="7"/>
     </row>
@@ -8247,7 +8413,7 @@
       <c r="E477" s="4"/>
       <c r="F477" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H477" s="7"/>
     </row>
@@ -8261,7 +8427,7 @@
       <c r="E478" s="4"/>
       <c r="F478" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H478" s="7"/>
     </row>
@@ -8275,7 +8441,7 @@
       <c r="E479" s="4"/>
       <c r="F479" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H479" s="7"/>
     </row>
@@ -8289,7 +8455,7 @@
       <c r="E480" s="4"/>
       <c r="F480" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H480" s="7"/>
     </row>
@@ -8303,7 +8469,7 @@
       <c r="E481" s="4"/>
       <c r="F481" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H481" s="7"/>
     </row>
@@ -8317,7 +8483,7 @@
       <c r="E482" s="4"/>
       <c r="F482" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H482" s="7"/>
     </row>
@@ -8331,7 +8497,7 @@
       <c r="E483" s="4"/>
       <c r="F483" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H483" s="7"/>
     </row>
@@ -8345,7 +8511,7 @@
       <c r="E484" s="4"/>
       <c r="F484" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H484" s="7"/>
     </row>
@@ -8359,7 +8525,7 @@
       <c r="E485" s="4"/>
       <c r="F485" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H485" s="7"/>
     </row>
@@ -8373,7 +8539,7 @@
       <c r="E486" s="4"/>
       <c r="F486" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H486" s="7"/>
     </row>
@@ -8387,7 +8553,7 @@
       <c r="E487" s="4"/>
       <c r="F487" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H487" s="7"/>
     </row>
@@ -8401,7 +8567,7 @@
       <c r="E488" s="4"/>
       <c r="F488" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H488" s="7"/>
     </row>
@@ -8415,7 +8581,7 @@
       <c r="E489" s="4"/>
       <c r="F489" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H489" s="7"/>
     </row>
@@ -8429,7 +8595,7 @@
       <c r="E490" s="4"/>
       <c r="F490" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H490" s="7"/>
     </row>
@@ -8443,7 +8609,7 @@
       <c r="E491" s="4"/>
       <c r="F491" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H491" s="7"/>
     </row>
@@ -8457,7 +8623,7 @@
       <c r="E492" s="4"/>
       <c r="F492" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H492" s="7"/>
     </row>
@@ -8471,7 +8637,7 @@
       <c r="E493" s="4"/>
       <c r="F493" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H493" s="7"/>
     </row>
@@ -8485,7 +8651,7 @@
       <c r="E494" s="4"/>
       <c r="F494" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H494" s="7"/>
     </row>
@@ -8499,7 +8665,7 @@
       <c r="E495" s="4"/>
       <c r="F495" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H495" s="7"/>
     </row>
@@ -8513,7 +8679,7 @@
       <c r="E496" s="4"/>
       <c r="F496" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H496" s="7"/>
     </row>
@@ -8527,7 +8693,7 @@
       <c r="E497" s="4"/>
       <c r="F497" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H497" s="7"/>
     </row>
@@ -8541,7 +8707,7 @@
       <c r="E498" s="4"/>
       <c r="F498" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H498" s="7"/>
     </row>
@@ -8555,7 +8721,7 @@
       <c r="E499" s="4"/>
       <c r="F499" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H499" s="7"/>
     </row>
@@ -8569,7 +8735,7 @@
       <c r="E500" s="4"/>
       <c r="F500" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H500" s="7"/>
     </row>
@@ -8583,7 +8749,7 @@
       <c r="E501" s="4"/>
       <c r="F501" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H501" s="7"/>
     </row>
@@ -8597,7 +8763,7 @@
       <c r="E502" s="4"/>
       <c r="F502" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H502" s="7"/>
     </row>
@@ -8611,7 +8777,7 @@
       <c r="E503" s="4"/>
       <c r="F503" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H503" s="7"/>
     </row>
@@ -8625,7 +8791,7 @@
       <c r="E504" s="4"/>
       <c r="F504" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H504" s="7"/>
     </row>
@@ -8639,7 +8805,7 @@
       <c r="E505" s="4"/>
       <c r="F505" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H505" s="7"/>
     </row>
@@ -8653,7 +8819,7 @@
       <c r="E506" s="4"/>
       <c r="F506" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H506" s="7"/>
     </row>
@@ -8667,7 +8833,7 @@
       <c r="E507" s="4"/>
       <c r="F507" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H507" s="7"/>
     </row>
@@ -8681,7 +8847,7 @@
       <c r="E508" s="4"/>
       <c r="F508" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H508" s="7"/>
     </row>
@@ -8695,7 +8861,7 @@
       <c r="E509" s="4"/>
       <c r="F509" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H509" s="7"/>
     </row>
@@ -8709,7 +8875,7 @@
       <c r="E510" s="4"/>
       <c r="F510" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H510" s="7"/>
     </row>
@@ -8723,7 +8889,7 @@
       <c r="E511" s="4"/>
       <c r="F511" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H511" s="7"/>
     </row>
@@ -8737,7 +8903,7 @@
       <c r="E512" s="4"/>
       <c r="F512" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H512" s="7"/>
     </row>
@@ -8751,7 +8917,7 @@
       <c r="E513" s="4"/>
       <c r="F513" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H513" s="7"/>
     </row>
@@ -8765,7 +8931,7 @@
       <c r="E514" s="4"/>
       <c r="F514" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H514" s="7"/>
     </row>
@@ -8779,7 +8945,7 @@
       <c r="E515" s="4"/>
       <c r="F515" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H515" s="7"/>
     </row>
@@ -8793,7 +8959,7 @@
       <c r="E516" s="4"/>
       <c r="F516" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H516" s="7"/>
     </row>
@@ -8807,7 +8973,7 @@
       <c r="E517" s="4"/>
       <c r="F517" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H517" s="7"/>
     </row>
@@ -8821,7 +8987,7 @@
       <c r="E518" s="4"/>
       <c r="F518" s="7">
         <f t="shared" si="15"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H518" s="7"/>
     </row>
@@ -8835,7 +9001,7 @@
       <c r="E519" s="4"/>
       <c r="F519" s="7">
         <f t="shared" ref="F519:F582" si="17">$E$3/$E$2</f>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H519" s="7"/>
     </row>
@@ -8849,7 +9015,7 @@
       <c r="E520" s="4"/>
       <c r="F520" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H520" s="7"/>
     </row>
@@ -8863,7 +9029,7 @@
       <c r="E521" s="4"/>
       <c r="F521" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H521" s="7"/>
     </row>
@@ -8877,7 +9043,7 @@
       <c r="E522" s="4"/>
       <c r="F522" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H522" s="7"/>
     </row>
@@ -8891,7 +9057,7 @@
       <c r="E523" s="4"/>
       <c r="F523" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H523" s="7"/>
     </row>
@@ -8905,7 +9071,7 @@
       <c r="E524" s="4"/>
       <c r="F524" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H524" s="7"/>
     </row>
@@ -8919,7 +9085,7 @@
       <c r="E525" s="4"/>
       <c r="F525" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H525" s="7"/>
     </row>
@@ -8933,7 +9099,7 @@
       <c r="E526" s="4"/>
       <c r="F526" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H526" s="7"/>
     </row>
@@ -8947,7 +9113,7 @@
       <c r="E527" s="4"/>
       <c r="F527" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H527" s="7"/>
     </row>
@@ -8961,7 +9127,7 @@
       <c r="E528" s="4"/>
       <c r="F528" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H528" s="7"/>
     </row>
@@ -8975,7 +9141,7 @@
       <c r="E529" s="4"/>
       <c r="F529" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H529" s="7"/>
     </row>
@@ -8989,7 +9155,7 @@
       <c r="E530" s="4"/>
       <c r="F530" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H530" s="7"/>
     </row>
@@ -9003,7 +9169,7 @@
       <c r="E531" s="4"/>
       <c r="F531" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H531" s="7"/>
     </row>
@@ -9017,7 +9183,7 @@
       <c r="E532" s="4"/>
       <c r="F532" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H532" s="7"/>
     </row>
@@ -9031,7 +9197,7 @@
       <c r="E533" s="4"/>
       <c r="F533" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H533" s="7"/>
     </row>
@@ -9045,7 +9211,7 @@
       <c r="E534" s="4"/>
       <c r="F534" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H534" s="7"/>
     </row>
@@ -9059,7 +9225,7 @@
       <c r="E535" s="4"/>
       <c r="F535" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H535" s="7"/>
     </row>
@@ -9073,7 +9239,7 @@
       <c r="E536" s="4"/>
       <c r="F536" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H536" s="7"/>
     </row>
@@ -9087,7 +9253,7 @@
       <c r="E537" s="4"/>
       <c r="F537" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H537" s="7"/>
     </row>
@@ -9101,7 +9267,7 @@
       <c r="E538" s="4"/>
       <c r="F538" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H538" s="7"/>
     </row>
@@ -9115,7 +9281,7 @@
       <c r="E539" s="4"/>
       <c r="F539" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H539" s="7"/>
     </row>
@@ -9129,7 +9295,7 @@
       <c r="E540" s="4"/>
       <c r="F540" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H540" s="7"/>
     </row>
@@ -9143,7 +9309,7 @@
       <c r="E541" s="4"/>
       <c r="F541" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H541" s="7"/>
     </row>
@@ -9157,7 +9323,7 @@
       <c r="E542" s="4"/>
       <c r="F542" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H542" s="7"/>
     </row>
@@ -9171,7 +9337,7 @@
       <c r="E543" s="4"/>
       <c r="F543" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H543" s="7"/>
     </row>
@@ -9185,7 +9351,7 @@
       <c r="E544" s="4"/>
       <c r="F544" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H544" s="7"/>
     </row>
@@ -9199,7 +9365,7 @@
       <c r="E545" s="4"/>
       <c r="F545" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H545" s="7"/>
     </row>
@@ -9213,7 +9379,7 @@
       <c r="E546" s="4"/>
       <c r="F546" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H546" s="7"/>
     </row>
@@ -9227,7 +9393,7 @@
       <c r="E547" s="4"/>
       <c r="F547" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H547" s="7"/>
     </row>
@@ -9241,7 +9407,7 @@
       <c r="E548" s="4"/>
       <c r="F548" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H548" s="7"/>
     </row>
@@ -9255,7 +9421,7 @@
       <c r="E549" s="4"/>
       <c r="F549" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H549" s="7"/>
     </row>
@@ -9269,7 +9435,7 @@
       <c r="E550" s="4"/>
       <c r="F550" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H550" s="7"/>
     </row>
@@ -9283,7 +9449,7 @@
       <c r="E551" s="4"/>
       <c r="F551" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H551" s="7"/>
     </row>
@@ -9297,7 +9463,7 @@
       <c r="E552" s="4"/>
       <c r="F552" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H552" s="7"/>
     </row>
@@ -9311,7 +9477,7 @@
       <c r="E553" s="4"/>
       <c r="F553" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H553" s="7"/>
     </row>
@@ -9325,7 +9491,7 @@
       <c r="E554" s="4"/>
       <c r="F554" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H554" s="7"/>
     </row>
@@ -9339,7 +9505,7 @@
       <c r="E555" s="4"/>
       <c r="F555" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H555" s="7"/>
     </row>
@@ -9353,7 +9519,7 @@
       <c r="E556" s="4"/>
       <c r="F556" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H556" s="7"/>
     </row>
@@ -9367,7 +9533,7 @@
       <c r="E557" s="4"/>
       <c r="F557" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H557" s="7"/>
     </row>
@@ -9381,7 +9547,7 @@
       <c r="E558" s="4"/>
       <c r="F558" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H558" s="7"/>
     </row>
@@ -9395,7 +9561,7 @@
       <c r="E559" s="4"/>
       <c r="F559" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H559" s="7"/>
     </row>
@@ -9409,7 +9575,7 @@
       <c r="E560" s="4"/>
       <c r="F560" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H560" s="7"/>
     </row>
@@ -9423,7 +9589,7 @@
       <c r="E561" s="4"/>
       <c r="F561" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H561" s="7"/>
     </row>
@@ -9437,7 +9603,7 @@
       <c r="E562" s="4"/>
       <c r="F562" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H562" s="7"/>
     </row>
@@ -9451,7 +9617,7 @@
       <c r="E563" s="4"/>
       <c r="F563" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H563" s="7"/>
     </row>
@@ -9465,7 +9631,7 @@
       <c r="E564" s="4"/>
       <c r="F564" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H564" s="7"/>
     </row>
@@ -9479,7 +9645,7 @@
       <c r="E565" s="4"/>
       <c r="F565" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H565" s="7"/>
     </row>
@@ -9493,7 +9659,7 @@
       <c r="E566" s="4"/>
       <c r="F566" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H566" s="7"/>
     </row>
@@ -9507,7 +9673,7 @@
       <c r="E567" s="4"/>
       <c r="F567" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H567" s="7"/>
     </row>
@@ -9521,7 +9687,7 @@
       <c r="E568" s="4"/>
       <c r="F568" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H568" s="7"/>
     </row>
@@ -9535,7 +9701,7 @@
       <c r="E569" s="4"/>
       <c r="F569" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H569" s="7"/>
     </row>
@@ -9549,7 +9715,7 @@
       <c r="E570" s="4"/>
       <c r="F570" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H570" s="7"/>
     </row>
@@ -9563,7 +9729,7 @@
       <c r="E571" s="4"/>
       <c r="F571" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H571" s="7"/>
     </row>
@@ -9577,7 +9743,7 @@
       <c r="E572" s="4"/>
       <c r="F572" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H572" s="7"/>
     </row>
@@ -9591,7 +9757,7 @@
       <c r="E573" s="4"/>
       <c r="F573" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H573" s="7"/>
     </row>
@@ -9605,7 +9771,7 @@
       <c r="E574" s="4"/>
       <c r="F574" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H574" s="7"/>
     </row>
@@ -9619,7 +9785,7 @@
       <c r="E575" s="4"/>
       <c r="F575" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H575" s="7"/>
     </row>
@@ -9633,7 +9799,7 @@
       <c r="E576" s="4"/>
       <c r="F576" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H576" s="7"/>
     </row>
@@ -9647,7 +9813,7 @@
       <c r="E577" s="4"/>
       <c r="F577" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H577" s="7"/>
     </row>
@@ -9661,7 +9827,7 @@
       <c r="E578" s="4"/>
       <c r="F578" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H578" s="7"/>
     </row>
@@ -9675,7 +9841,7 @@
       <c r="E579" s="4"/>
       <c r="F579" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H579" s="7"/>
     </row>
@@ -9689,7 +9855,7 @@
       <c r="E580" s="4"/>
       <c r="F580" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H580" s="7"/>
     </row>
@@ -9703,7 +9869,7 @@
       <c r="E581" s="4"/>
       <c r="F581" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H581" s="7"/>
     </row>
@@ -9717,7 +9883,7 @@
       <c r="E582" s="4"/>
       <c r="F582" s="7">
         <f t="shared" si="17"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H582" s="7"/>
     </row>
@@ -9731,7 +9897,7 @@
       <c r="E583" s="4"/>
       <c r="F583" s="7">
         <f t="shared" ref="F583:F646" si="19">$E$3/$E$2</f>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H583" s="7"/>
     </row>
@@ -9745,7 +9911,7 @@
       <c r="E584" s="4"/>
       <c r="F584" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H584" s="7"/>
     </row>
@@ -9759,7 +9925,7 @@
       <c r="E585" s="4"/>
       <c r="F585" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H585" s="7"/>
     </row>
@@ -9773,7 +9939,7 @@
       <c r="E586" s="4"/>
       <c r="F586" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H586" s="7"/>
     </row>
@@ -9787,7 +9953,7 @@
       <c r="E587" s="4"/>
       <c r="F587" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H587" s="7"/>
     </row>
@@ -9801,7 +9967,7 @@
       <c r="E588" s="4"/>
       <c r="F588" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H588" s="7"/>
     </row>
@@ -9815,7 +9981,7 @@
       <c r="E589" s="4"/>
       <c r="F589" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H589" s="7"/>
     </row>
@@ -9829,7 +9995,7 @@
       <c r="E590" s="4"/>
       <c r="F590" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H590" s="7"/>
     </row>
@@ -9843,7 +10009,7 @@
       <c r="E591" s="4"/>
       <c r="F591" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H591" s="7"/>
     </row>
@@ -9857,7 +10023,7 @@
       <c r="E592" s="4"/>
       <c r="F592" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H592" s="7"/>
     </row>
@@ -9871,7 +10037,7 @@
       <c r="E593" s="4"/>
       <c r="F593" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H593" s="7"/>
     </row>
@@ -9885,7 +10051,7 @@
       <c r="E594" s="4"/>
       <c r="F594" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H594" s="7"/>
     </row>
@@ -9899,7 +10065,7 @@
       <c r="E595" s="4"/>
       <c r="F595" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H595" s="7"/>
     </row>
@@ -9913,7 +10079,7 @@
       <c r="E596" s="4"/>
       <c r="F596" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H596" s="7"/>
     </row>
@@ -9927,7 +10093,7 @@
       <c r="E597" s="4"/>
       <c r="F597" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H597" s="7"/>
     </row>
@@ -9941,7 +10107,7 @@
       <c r="E598" s="4"/>
       <c r="F598" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H598" s="7"/>
     </row>
@@ -9955,7 +10121,7 @@
       <c r="E599" s="4"/>
       <c r="F599" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H599" s="7"/>
     </row>
@@ -9969,7 +10135,7 @@
       <c r="E600" s="4"/>
       <c r="F600" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H600" s="7"/>
     </row>
@@ -9983,7 +10149,7 @@
       <c r="E601" s="4"/>
       <c r="F601" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H601" s="7"/>
     </row>
@@ -9997,7 +10163,7 @@
       <c r="E602" s="4"/>
       <c r="F602" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H602" s="7"/>
     </row>
@@ -10011,7 +10177,7 @@
       <c r="E603" s="4"/>
       <c r="F603" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H603" s="7"/>
     </row>
@@ -10025,7 +10191,7 @@
       <c r="E604" s="4"/>
       <c r="F604" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H604" s="7"/>
     </row>
@@ -10039,7 +10205,7 @@
       <c r="E605" s="4"/>
       <c r="F605" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H605" s="7"/>
     </row>
@@ -10053,7 +10219,7 @@
       <c r="E606" s="4"/>
       <c r="F606" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H606" s="7"/>
     </row>
@@ -10067,7 +10233,7 @@
       <c r="E607" s="4"/>
       <c r="F607" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H607" s="7"/>
     </row>
@@ -10081,7 +10247,7 @@
       <c r="E608" s="4"/>
       <c r="F608" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H608" s="7"/>
     </row>
@@ -10095,7 +10261,7 @@
       <c r="E609" s="4"/>
       <c r="F609" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H609" s="7"/>
     </row>
@@ -10109,7 +10275,7 @@
       <c r="E610" s="4"/>
       <c r="F610" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H610" s="7"/>
     </row>
@@ -10123,7 +10289,7 @@
       <c r="E611" s="4"/>
       <c r="F611" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H611" s="7"/>
     </row>
@@ -10137,7 +10303,7 @@
       <c r="E612" s="4"/>
       <c r="F612" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H612" s="7"/>
     </row>
@@ -10151,7 +10317,7 @@
       <c r="E613" s="4"/>
       <c r="F613" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H613" s="7"/>
     </row>
@@ -10165,7 +10331,7 @@
       <c r="E614" s="4"/>
       <c r="F614" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H614" s="7"/>
     </row>
@@ -10179,7 +10345,7 @@
       <c r="E615" s="4"/>
       <c r="F615" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H615" s="7"/>
     </row>
@@ -10193,7 +10359,7 @@
       <c r="E616" s="4"/>
       <c r="F616" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H616" s="7"/>
     </row>
@@ -10207,7 +10373,7 @@
       <c r="E617" s="4"/>
       <c r="F617" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H617" s="7"/>
     </row>
@@ -10221,7 +10387,7 @@
       <c r="E618" s="4"/>
       <c r="F618" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H618" s="7"/>
     </row>
@@ -10235,7 +10401,7 @@
       <c r="E619" s="4"/>
       <c r="F619" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H619" s="7"/>
     </row>
@@ -10249,7 +10415,7 @@
       <c r="E620" s="4"/>
       <c r="F620" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H620" s="7"/>
     </row>
@@ -10263,7 +10429,7 @@
       <c r="E621" s="4"/>
       <c r="F621" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H621" s="7"/>
     </row>
@@ -10277,7 +10443,7 @@
       <c r="E622" s="4"/>
       <c r="F622" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H622" s="7"/>
     </row>
@@ -10291,7 +10457,7 @@
       <c r="E623" s="4"/>
       <c r="F623" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H623" s="7"/>
     </row>
@@ -10305,7 +10471,7 @@
       <c r="E624" s="4"/>
       <c r="F624" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H624" s="7"/>
     </row>
@@ -10319,7 +10485,7 @@
       <c r="E625" s="4"/>
       <c r="F625" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H625" s="7"/>
     </row>
@@ -10333,7 +10499,7 @@
       <c r="E626" s="4"/>
       <c r="F626" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H626" s="7"/>
     </row>
@@ -10347,7 +10513,7 @@
       <c r="E627" s="4"/>
       <c r="F627" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H627" s="7"/>
     </row>
@@ -10361,7 +10527,7 @@
       <c r="E628" s="4"/>
       <c r="F628" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H628" s="7"/>
     </row>
@@ -10375,7 +10541,7 @@
       <c r="E629" s="4"/>
       <c r="F629" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H629" s="7"/>
     </row>
@@ -10389,7 +10555,7 @@
       <c r="E630" s="4"/>
       <c r="F630" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H630" s="7"/>
     </row>
@@ -10403,7 +10569,7 @@
       <c r="E631" s="4"/>
       <c r="F631" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H631" s="7"/>
     </row>
@@ -10417,7 +10583,7 @@
       <c r="E632" s="4"/>
       <c r="F632" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H632" s="7"/>
     </row>
@@ -10431,7 +10597,7 @@
       <c r="E633" s="4"/>
       <c r="F633" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H633" s="7"/>
     </row>
@@ -10445,7 +10611,7 @@
       <c r="E634" s="4"/>
       <c r="F634" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H634" s="7"/>
     </row>
@@ -10459,7 +10625,7 @@
       <c r="E635" s="4"/>
       <c r="F635" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H635" s="7"/>
     </row>
@@ -10473,7 +10639,7 @@
       <c r="E636" s="4"/>
       <c r="F636" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H636" s="7"/>
     </row>
@@ -10487,7 +10653,7 @@
       <c r="E637" s="4"/>
       <c r="F637" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H637" s="7"/>
     </row>
@@ -10501,7 +10667,7 @@
       <c r="E638" s="4"/>
       <c r="F638" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H638" s="7"/>
     </row>
@@ -10515,7 +10681,7 @@
       <c r="E639" s="4"/>
       <c r="F639" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H639" s="7"/>
     </row>
@@ -10529,7 +10695,7 @@
       <c r="E640" s="4"/>
       <c r="F640" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H640" s="7"/>
     </row>
@@ -10543,7 +10709,7 @@
       <c r="E641" s="4"/>
       <c r="F641" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H641" s="7"/>
     </row>
@@ -10557,7 +10723,7 @@
       <c r="E642" s="4"/>
       <c r="F642" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H642" s="7"/>
     </row>
@@ -10571,7 +10737,7 @@
       <c r="E643" s="4"/>
       <c r="F643" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H643" s="7"/>
     </row>
@@ -10585,7 +10751,7 @@
       <c r="E644" s="4"/>
       <c r="F644" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H644" s="7"/>
     </row>
@@ -10599,7 +10765,7 @@
       <c r="E645" s="4"/>
       <c r="F645" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H645" s="7"/>
     </row>
@@ -10613,7 +10779,7 @@
       <c r="E646" s="4"/>
       <c r="F646" s="7">
         <f t="shared" si="19"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H646" s="7"/>
     </row>
@@ -10627,7 +10793,7 @@
       <c r="E647" s="4"/>
       <c r="F647" s="7">
         <f t="shared" ref="F647:F710" si="21">$E$3/$E$2</f>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H647" s="7"/>
     </row>
@@ -10641,7 +10807,7 @@
       <c r="E648" s="4"/>
       <c r="F648" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H648" s="7"/>
     </row>
@@ -10655,7 +10821,7 @@
       <c r="E649" s="4"/>
       <c r="F649" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H649" s="7"/>
     </row>
@@ -10669,7 +10835,7 @@
       <c r="E650" s="4"/>
       <c r="F650" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H650" s="7"/>
     </row>
@@ -10683,7 +10849,7 @@
       <c r="E651" s="4"/>
       <c r="F651" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H651" s="7"/>
     </row>
@@ -10697,7 +10863,7 @@
       <c r="E652" s="4"/>
       <c r="F652" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H652" s="7"/>
     </row>
@@ -10711,7 +10877,7 @@
       <c r="E653" s="4"/>
       <c r="F653" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H653" s="7"/>
     </row>
@@ -10725,7 +10891,7 @@
       <c r="E654" s="4"/>
       <c r="F654" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H654" s="7"/>
     </row>
@@ -10739,7 +10905,7 @@
       <c r="E655" s="4"/>
       <c r="F655" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H655" s="7"/>
     </row>
@@ -10753,7 +10919,7 @@
       <c r="E656" s="4"/>
       <c r="F656" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H656" s="7"/>
     </row>
@@ -10767,7 +10933,7 @@
       <c r="E657" s="4"/>
       <c r="F657" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H657" s="7"/>
     </row>
@@ -10781,7 +10947,7 @@
       <c r="E658" s="4"/>
       <c r="F658" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H658" s="7"/>
     </row>
@@ -10795,7 +10961,7 @@
       <c r="E659" s="4"/>
       <c r="F659" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H659" s="7"/>
     </row>
@@ -10809,7 +10975,7 @@
       <c r="E660" s="4"/>
       <c r="F660" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H660" s="7"/>
     </row>
@@ -10823,7 +10989,7 @@
       <c r="E661" s="4"/>
       <c r="F661" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H661" s="7"/>
     </row>
@@ -10837,7 +11003,7 @@
       <c r="E662" s="4"/>
       <c r="F662" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H662" s="7"/>
     </row>
@@ -10851,7 +11017,7 @@
       <c r="E663" s="4"/>
       <c r="F663" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H663" s="7"/>
     </row>
@@ -10865,7 +11031,7 @@
       <c r="E664" s="4"/>
       <c r="F664" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H664" s="7"/>
     </row>
@@ -10879,7 +11045,7 @@
       <c r="E665" s="4"/>
       <c r="F665" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H665" s="7"/>
     </row>
@@ -10893,7 +11059,7 @@
       <c r="E666" s="4"/>
       <c r="F666" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H666" s="7"/>
     </row>
@@ -10907,7 +11073,7 @@
       <c r="E667" s="4"/>
       <c r="F667" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H667" s="7"/>
     </row>
@@ -10921,7 +11087,7 @@
       <c r="E668" s="4"/>
       <c r="F668" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H668" s="7"/>
     </row>
@@ -10935,7 +11101,7 @@
       <c r="E669" s="4"/>
       <c r="F669" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H669" s="7"/>
     </row>
@@ -10949,7 +11115,7 @@
       <c r="E670" s="4"/>
       <c r="F670" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H670" s="7"/>
     </row>
@@ -10963,7 +11129,7 @@
       <c r="E671" s="4"/>
       <c r="F671" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H671" s="7"/>
     </row>
@@ -10977,7 +11143,7 @@
       <c r="E672" s="4"/>
       <c r="F672" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H672" s="7"/>
     </row>
@@ -10991,7 +11157,7 @@
       <c r="E673" s="4"/>
       <c r="F673" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H673" s="7"/>
     </row>
@@ -11005,7 +11171,7 @@
       <c r="E674" s="4"/>
       <c r="F674" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H674" s="7"/>
     </row>
@@ -11019,7 +11185,7 @@
       <c r="E675" s="4"/>
       <c r="F675" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H675" s="7"/>
     </row>
@@ -11033,7 +11199,7 @@
       <c r="E676" s="4"/>
       <c r="F676" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H676" s="7"/>
     </row>
@@ -11047,7 +11213,7 @@
       <c r="E677" s="4"/>
       <c r="F677" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H677" s="7"/>
     </row>
@@ -11061,7 +11227,7 @@
       <c r="E678" s="4"/>
       <c r="F678" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H678" s="7"/>
     </row>
@@ -11075,7 +11241,7 @@
       <c r="E679" s="4"/>
       <c r="F679" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H679" s="7"/>
     </row>
@@ -11089,7 +11255,7 @@
       <c r="E680" s="4"/>
       <c r="F680" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H680" s="7"/>
     </row>
@@ -11103,7 +11269,7 @@
       <c r="E681" s="4"/>
       <c r="F681" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H681" s="7"/>
     </row>
@@ -11117,7 +11283,7 @@
       <c r="E682" s="4"/>
       <c r="F682" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H682" s="7"/>
     </row>
@@ -11131,7 +11297,7 @@
       <c r="E683" s="4"/>
       <c r="F683" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H683" s="7"/>
     </row>
@@ -11145,7 +11311,7 @@
       <c r="E684" s="4"/>
       <c r="F684" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H684" s="7"/>
     </row>
@@ -11159,7 +11325,7 @@
       <c r="E685" s="4"/>
       <c r="F685" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H685" s="7"/>
     </row>
@@ -11173,7 +11339,7 @@
       <c r="E686" s="4"/>
       <c r="F686" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H686" s="7"/>
     </row>
@@ -11187,7 +11353,7 @@
       <c r="E687" s="4"/>
       <c r="F687" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H687" s="7"/>
     </row>
@@ -11201,7 +11367,7 @@
       <c r="E688" s="4"/>
       <c r="F688" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H688" s="7"/>
     </row>
@@ -11215,7 +11381,7 @@
       <c r="E689" s="4"/>
       <c r="F689" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H689" s="7"/>
     </row>
@@ -11229,7 +11395,7 @@
       <c r="E690" s="4"/>
       <c r="F690" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H690" s="7"/>
     </row>
@@ -11243,7 +11409,7 @@
       <c r="E691" s="4"/>
       <c r="F691" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H691" s="7"/>
     </row>
@@ -11257,7 +11423,7 @@
       <c r="E692" s="4"/>
       <c r="F692" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H692" s="7"/>
     </row>
@@ -11271,7 +11437,7 @@
       <c r="E693" s="4"/>
       <c r="F693" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H693" s="7"/>
     </row>
@@ -11285,7 +11451,7 @@
       <c r="E694" s="4"/>
       <c r="F694" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H694" s="7"/>
     </row>
@@ -11299,7 +11465,7 @@
       <c r="E695" s="4"/>
       <c r="F695" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H695" s="7"/>
     </row>
@@ -11313,7 +11479,7 @@
       <c r="E696" s="4"/>
       <c r="F696" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H696" s="7"/>
     </row>
@@ -11327,7 +11493,7 @@
       <c r="E697" s="4"/>
       <c r="F697" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H697" s="7"/>
     </row>
@@ -11341,7 +11507,7 @@
       <c r="E698" s="4"/>
       <c r="F698" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H698" s="7"/>
     </row>
@@ -11355,7 +11521,7 @@
       <c r="E699" s="4"/>
       <c r="F699" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H699" s="7"/>
     </row>
@@ -11369,7 +11535,7 @@
       <c r="E700" s="4"/>
       <c r="F700" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H700" s="7"/>
     </row>
@@ -11383,7 +11549,7 @@
       <c r="E701" s="4"/>
       <c r="F701" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H701" s="7"/>
     </row>
@@ -11397,7 +11563,7 @@
       <c r="E702" s="4"/>
       <c r="F702" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H702" s="7"/>
     </row>
@@ -11411,7 +11577,7 @@
       <c r="E703" s="4"/>
       <c r="F703" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H703" s="7"/>
     </row>
@@ -11425,7 +11591,7 @@
       <c r="E704" s="4"/>
       <c r="F704" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H704" s="7"/>
     </row>
@@ -11439,7 +11605,7 @@
       <c r="E705" s="4"/>
       <c r="F705" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H705" s="7"/>
     </row>
@@ -11455,7 +11621,7 @@
       <c r="E706" s="4"/>
       <c r="F706" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G706" s="6" t="s">
         <v>11</v>
@@ -11474,7 +11640,7 @@
       <c r="E707" s="4"/>
       <c r="F707" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G707" s="6" t="s">
         <v>10</v>
@@ -11493,7 +11659,7 @@
       <c r="E708" s="4"/>
       <c r="F708" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H708" s="7"/>
     </row>
@@ -11509,7 +11675,7 @@
       <c r="E709" s="4"/>
       <c r="F709" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G709" s="6" t="s">
         <v>9</v>
@@ -11531,7 +11697,7 @@
       <c r="E710" s="4"/>
       <c r="F710" s="7">
         <f t="shared" si="21"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G710" s="6" t="s">
         <v>6</v>
@@ -11550,7 +11716,7 @@
       <c r="E711" s="4"/>
       <c r="F711" s="7">
         <f t="shared" ref="F711:F717" si="23">$E$3/$E$2</f>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G711" s="6" t="s">
         <v>7</v>
@@ -11569,7 +11735,7 @@
       <c r="E712" s="4"/>
       <c r="F712" s="7">
         <f t="shared" si="23"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="G712" s="6" t="s">
         <v>8</v>
@@ -11588,7 +11754,7 @@
       <c r="E713" s="4"/>
       <c r="F713" s="7">
         <f t="shared" si="23"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H713" s="7"/>
     </row>
@@ -11604,7 +11770,7 @@
       <c r="E714" s="4"/>
       <c r="F714" s="7">
         <f t="shared" si="23"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H714" s="7"/>
     </row>
@@ -11620,7 +11786,7 @@
       <c r="E715" s="4"/>
       <c r="F715" s="7">
         <f t="shared" si="23"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H715" s="7"/>
     </row>
@@ -11636,7 +11802,7 @@
       <c r="E716" s="4"/>
       <c r="F716" s="7">
         <f t="shared" si="23"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H716" s="7"/>
     </row>
@@ -11652,7 +11818,7 @@
       <c r="E717" s="4"/>
       <c r="F717" s="7">
         <f t="shared" si="23"/>
-        <v>0.17696629213483145</v>
+        <v>0.20084269662921347</v>
       </c>
       <c r="H717" s="7"/>
     </row>

--- a/背题.xlsx
+++ b/背题.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="200">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -621,7 +621,271 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>updated with all changes incremental]</t>
+    <t>Image copies updated with all changes to incremental backup scn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMAN reads level 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shutdown immediate;It results in an error because other database instances are connected to it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>features of ASM:file stripping mirring rebalancing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POWER OPTION &amp; ARM NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compressed backup:base disk &amp; network bandwith important &amp;saves media costs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identify the segments that you should shrink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify the AWR snapshot time interval to two hours.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shrink behavior cascaded dependent segments support shrink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNDO_MANAGEMENT:AUTO UNDO_RETENTION :appropriately</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It will not add the tablespace TEMP1 to any group.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heap tables Index-Organized Tables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGA_TARGET:non-zero  STATISTICS_LEVEL:typical all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST_TBS is a dictionary-managed tablespace.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The archived redo log files are still maintained because the file names are unique.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>determine all the necessary undo SQL statements from FLASHBACK_TRANSACTION_QUERY &amp; revocery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACKUP AS COPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a single SQL stmt:SQL Tuning Advisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting idle timeout limits on resource plans &amp; assigning priorities to jobs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ALTER DATABASE ENABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BLOCK CHANGE TRACKING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>USING FILE &lt;path&gt;;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWR baselines can be created on the basis of two time values.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASMB :db conn foreground db to asm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one table recovered with filo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ORACLE_HOME/dbs/oranfstab ./etc/oranfstab  ./etc/mtab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The cached result becomes invalid when any structural change is done to the EMPLOYEES table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BZIP2 compression algorithm consumes more resource than ZLIB </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB_ULTRA_SAFE:data_only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terminates the client connection after 10 bad packets,but can reconnect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>when some disks in a disk group are offline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redo log group is CURRENT:resore cancel-based incomplete recovery resetlogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILESYSTEMIO_OPTIONS parameter is set to NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It will display a list of files that have not been backed up in the last five days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER DISKGROUP data CHECK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cross check to claim archived log spcae &amp; OS cmd to move file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It produces an error because the partitions specified for merging are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not adjacent</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicFile --&gt; secureFile :It can be done at the table level or partition level.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It returns space usage of only SecureFile LOB chunks.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The RMAN makes the backup because no backup of the tablespace exists within the seven day window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threshold has been breached</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the backup becomes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eligible for deletion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> according to the existing retention policy</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>because Current Open Cursors Count is not a basic metric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not require database instance shutdown. &amp; detect conflicts between two online patches.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They execute and create a virtual catalog for pre-Oracle 11g clients.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perform Export before TSPITR and Import after TSPITR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add a segment directive for the ADDM task.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It remains valid.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user belonging to DSS_QUERIES can log in to a new session but queued &amp; CPU_WAIT_TIME column indicates waited for CPU due to resource management</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,18 +893,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -660,6 +924,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -745,8 +1017,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -754,7 +1026,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1040,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1066,7 +1338,7 @@
     <row r="3" spans="1:8">
       <c r="E3">
         <f>COUNTA($C$6:$C$717)</f>
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="F3" s="7"/>
       <c r="H3" s="7"/>
@@ -1103,7 +1375,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="7">
         <f>$E$3/$E$2</f>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>120</v>
@@ -1122,7 +1394,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="7">
         <f t="shared" ref="F7:F70" si="1">$E$3/$E$2</f>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>121</v>
@@ -1141,7 +1413,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>122</v>
@@ -1160,7 +1432,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>123</v>
@@ -1182,7 +1454,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>124</v>
@@ -1204,7 +1476,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>125</v>
@@ -1226,7 +1498,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>126</v>
@@ -1234,30 +1506,46 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>164</v>
+      </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>164</v>
+      </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -1266,12 +1554,17 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="H15" s="7"/>
     </row>
@@ -1280,142 +1573,201 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="1:8">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>164</v>
+      </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>164</v>
+      </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="1:8">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="1:8">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="1:8">
       <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>164</v>
+      </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="1:8">
       <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="1:8">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="1:8">
       <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1425,11 +1777,11 @@
       <c r="E26" s="4"/>
       <c r="F26" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="1:8">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1439,11 +1791,11 @@
       <c r="E27" s="4"/>
       <c r="F27" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="1:8">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1453,11 +1805,11 @@
       <c r="E28" s="4"/>
       <c r="F28" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="1:8">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1467,11 +1819,11 @@
       <c r="E29" s="4"/>
       <c r="F29" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="1:8">
       <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1481,11 +1833,11 @@
       <c r="E30" s="4"/>
       <c r="F30" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="1:8">
       <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1495,25 +1847,33 @@
       <c r="E31" s="4"/>
       <c r="F31" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>164</v>
+      </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="1:8">
       <c r="B33" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1523,11 +1883,11 @@
       <c r="E33" s="4"/>
       <c r="F33" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="1:8">
       <c r="B34" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1537,11 +1897,11 @@
       <c r="E34" s="4"/>
       <c r="F34" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="1:8">
       <c r="B35" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1551,11 +1911,11 @@
       <c r="E35" s="4"/>
       <c r="F35" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="1:8">
       <c r="B36" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1565,11 +1925,11 @@
       <c r="E36" s="4"/>
       <c r="F36" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="1:8">
       <c r="B37" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1579,11 +1939,14 @@
       <c r="E37" s="4"/>
       <c r="F37" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>164</v>
+      </c>
       <c r="B38" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1593,11 +1956,14 @@
       <c r="E38" s="4"/>
       <c r="F38" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="1:8">
       <c r="B39" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1607,11 +1973,11 @@
       <c r="E39" s="4"/>
       <c r="F39" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="1:8">
       <c r="B40" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1621,11 +1987,11 @@
       <c r="E40" s="4"/>
       <c r="F40" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="1:8">
       <c r="B41" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1635,11 +2001,11 @@
       <c r="E41" s="4"/>
       <c r="F41" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="1:8">
       <c r="B42" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1649,11 +2015,11 @@
       <c r="E42" s="4"/>
       <c r="F42" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="1:8">
       <c r="B43" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1663,11 +2029,11 @@
       <c r="E43" s="4"/>
       <c r="F43" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="1:8">
       <c r="B44" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1677,11 +2043,11 @@
       <c r="E44" s="4"/>
       <c r="F44" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="1:8">
       <c r="B45" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1691,11 +2057,11 @@
       <c r="E45" s="4"/>
       <c r="F45" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="1:8">
       <c r="B46" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1705,11 +2071,11 @@
       <c r="E46" s="4"/>
       <c r="F46" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="1:8">
       <c r="B47" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1719,11 +2085,11 @@
       <c r="E47" s="4"/>
       <c r="F47" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="1:8">
       <c r="B48" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1733,11 +2099,11 @@
       <c r="E48" s="4"/>
       <c r="F48" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="1:8">
       <c r="B49" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1747,11 +2113,11 @@
       <c r="E49" s="4"/>
       <c r="F49" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="1:8">
       <c r="B50" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1761,11 +2127,11 @@
       <c r="E50" s="4"/>
       <c r="F50" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="1:8">
       <c r="B51" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1775,413 +2141,576 @@
       <c r="E51" s="4"/>
       <c r="F51" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="1:8">
       <c r="B52" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C52" s="4"/>
+      <c r="C52" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="1:8">
       <c r="B53" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C53" s="4"/>
+      <c r="C53" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="1:8">
       <c r="B54" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C54" s="4"/>
+      <c r="C54" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="1:8">
       <c r="B55" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C55" s="4"/>
+      <c r="C55" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="1:8">
       <c r="B56" s="2">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="C56" s="4"/>
+      <c r="C56" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>164</v>
+      </c>
       <c r="B57" s="2">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="C57" s="4"/>
+      <c r="C57" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>164</v>
+      </c>
       <c r="B58" s="2">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C58" s="4"/>
+      <c r="C58" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="1:8">
       <c r="B59" s="2">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C59" s="4"/>
+      <c r="C59" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="1:8">
       <c r="B60" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C60" s="4"/>
+      <c r="C60" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="1:8">
       <c r="B61" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="C61" s="4"/>
+      <c r="C61" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="1:8">
       <c r="B62" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C62" s="4"/>
+      <c r="C62" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="1:8">
       <c r="B63" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="C63" s="4"/>
+      <c r="C63" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>164</v>
+      </c>
       <c r="B64" s="2">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C64" s="4"/>
+      <c r="C64" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="1:8">
       <c r="B65" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C65" s="4"/>
+      <c r="C65" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="1:8">
       <c r="B66" s="2">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C66" s="4"/>
+      <c r="C66" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="1:8">
       <c r="B67" s="2">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="C67" s="4"/>
+      <c r="C67" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="1:8">
       <c r="B68" s="2">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C68" s="4"/>
+      <c r="C68" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>164</v>
+      </c>
       <c r="B69" s="2">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C69" s="4"/>
+      <c r="C69" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="2:8">
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>164</v>
+      </c>
       <c r="B70" s="2">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C70" s="4"/>
+      <c r="C70" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="7">
         <f t="shared" si="1"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>164</v>
+      </c>
       <c r="B71" s="2">
         <f t="shared" ref="B71:B134" si="2">ROW()-5</f>
         <v>66</v>
       </c>
-      <c r="C71" s="4"/>
+      <c r="C71" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="7">
         <f t="shared" ref="F71:F134" si="3">$E$3/$E$2</f>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="2:8">
+    <row r="72" spans="1:8">
       <c r="B72" s="2">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="C72" s="4"/>
+      <c r="C72" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="1:8">
       <c r="B73" s="2">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="C73" s="4"/>
+      <c r="C73" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="1:8">
       <c r="B74" s="2">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="C74" s="4"/>
+      <c r="C74" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="1:8">
       <c r="B75" s="2">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="C75" s="4"/>
+      <c r="C75" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="2:8">
+    <row r="76" spans="1:8">
       <c r="B76" s="2">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="C76" s="4"/>
+      <c r="C76" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="1:8">
       <c r="B77" s="2">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="C77" s="4"/>
+      <c r="C77" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="1:8">
       <c r="B78" s="2">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="C78" s="4"/>
+      <c r="C78" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="1:8">
       <c r="B79" s="2">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="C79" s="4"/>
+      <c r="C79" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="2:8">
+    <row r="80" spans="1:8">
       <c r="B80" s="2">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="C80" s="4"/>
+      <c r="C80" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="H80" s="7"/>
     </row>
@@ -2190,12 +2719,17 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="C81" s="4"/>
+      <c r="C81" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="H81" s="7"/>
     </row>
@@ -2204,12 +2738,17 @@
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="C82" s="4"/>
+      <c r="C82" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="H82" s="7"/>
     </row>
@@ -2218,12 +2757,17 @@
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="C83" s="4"/>
+      <c r="C83" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="H83" s="7"/>
     </row>
@@ -2242,7 +2786,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>151</v>
@@ -2261,7 +2805,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>150</v>
@@ -2280,7 +2824,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>149</v>
@@ -2299,7 +2843,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>148</v>
@@ -2321,7 +2865,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>147</v>
@@ -2343,7 +2887,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>145</v>
@@ -2362,7 +2906,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>144</v>
@@ -2381,7 +2925,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>143</v>
@@ -2389,6 +2933,9 @@
       <c r="H91" s="7"/>
     </row>
     <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
       <c r="B92" s="2">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -2400,7 +2947,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>142</v>
@@ -2419,7 +2966,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G93" s="6" t="s">
         <v>141</v>
@@ -2438,7 +2985,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G94" s="6" t="s">
         <v>139</v>
@@ -2457,7 +3004,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G95" s="6" t="s">
         <v>140</v>
@@ -2476,7 +3023,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G96" s="6" t="s">
         <v>138</v>
@@ -2495,7 +3042,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>137</v>
@@ -2514,7 +3061,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G98" s="6" t="s">
         <v>136</v>
@@ -2533,7 +3080,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>134</v>
@@ -2552,7 +3099,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>135</v>
@@ -2571,7 +3118,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>133</v>
@@ -2590,7 +3137,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G102" s="6" t="s">
         <v>132</v>
@@ -2609,7 +3156,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G103" s="6" t="s">
         <v>131</v>
@@ -2631,7 +3178,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G104" s="6" t="s">
         <v>129</v>
@@ -2650,7 +3197,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G105" s="6" t="s">
         <v>128</v>
@@ -2667,7 +3214,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H106" s="7"/>
     </row>
@@ -2681,7 +3228,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H107" s="7"/>
     </row>
@@ -2695,7 +3242,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H108" s="7"/>
     </row>
@@ -2709,7 +3256,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H109" s="7"/>
     </row>
@@ -2723,7 +3270,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H110" s="7"/>
     </row>
@@ -2737,7 +3284,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H111" s="7"/>
     </row>
@@ -2751,7 +3298,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H112" s="7"/>
     </row>
@@ -2765,7 +3312,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H113" s="7"/>
     </row>
@@ -2779,7 +3326,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H114" s="7"/>
     </row>
@@ -2793,7 +3340,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H115" s="7"/>
     </row>
@@ -2807,7 +3354,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H116" s="7"/>
     </row>
@@ -2821,7 +3368,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H117" s="7"/>
     </row>
@@ -2835,7 +3382,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H118" s="7"/>
     </row>
@@ -2849,7 +3396,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H119" s="7"/>
     </row>
@@ -2863,7 +3410,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H120" s="7"/>
     </row>
@@ -2877,7 +3424,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H121" s="7"/>
     </row>
@@ -2891,7 +3438,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H122" s="7"/>
     </row>
@@ -2905,7 +3452,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H123" s="7"/>
     </row>
@@ -2919,7 +3466,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H124" s="7"/>
     </row>
@@ -2933,7 +3480,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H125" s="7"/>
     </row>
@@ -2947,7 +3494,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H126" s="7"/>
     </row>
@@ -2961,7 +3508,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H127" s="7"/>
     </row>
@@ -2975,7 +3522,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H128" s="7"/>
     </row>
@@ -2989,7 +3536,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H129" s="7"/>
     </row>
@@ -3003,7 +3550,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H130" s="7"/>
     </row>
@@ -3017,7 +3564,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H131" s="7"/>
     </row>
@@ -3031,7 +3578,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H132" s="7"/>
     </row>
@@ -3045,7 +3592,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H133" s="7"/>
     </row>
@@ -3059,7 +3606,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="7">
         <f t="shared" si="3"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H134" s="7"/>
     </row>
@@ -3073,7 +3620,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="7">
         <f t="shared" ref="F135:F198" si="5">$E$3/$E$2</f>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H135" s="7"/>
     </row>
@@ -3087,7 +3634,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H136" s="7"/>
     </row>
@@ -3101,7 +3648,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H137" s="7"/>
     </row>
@@ -3115,7 +3662,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H138" s="7"/>
     </row>
@@ -3129,7 +3676,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H139" s="7"/>
     </row>
@@ -3143,7 +3690,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H140" s="7"/>
     </row>
@@ -3157,7 +3704,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H141" s="7"/>
     </row>
@@ -3171,7 +3718,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H142" s="7"/>
     </row>
@@ -3185,7 +3732,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H143" s="7"/>
     </row>
@@ -3199,7 +3746,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H144" s="7"/>
     </row>
@@ -3213,7 +3760,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H145" s="7"/>
     </row>
@@ -3227,7 +3774,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H146" s="7"/>
     </row>
@@ -3241,7 +3788,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H147" s="7"/>
     </row>
@@ -3255,7 +3802,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H148" s="7"/>
     </row>
@@ -3269,7 +3816,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H149" s="7"/>
     </row>
@@ -3283,7 +3830,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H150" s="7"/>
     </row>
@@ -3297,7 +3844,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H151" s="7"/>
     </row>
@@ -3311,7 +3858,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H152" s="7"/>
     </row>
@@ -3325,7 +3872,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H153" s="7"/>
     </row>
@@ -3339,7 +3886,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H154" s="7"/>
     </row>
@@ -3353,7 +3900,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H155" s="7"/>
     </row>
@@ -3367,7 +3914,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H156" s="7"/>
     </row>
@@ -3381,7 +3928,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H157" s="7"/>
     </row>
@@ -3395,7 +3942,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H158" s="7"/>
     </row>
@@ -3409,7 +3956,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H159" s="7"/>
     </row>
@@ -3423,7 +3970,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H160" s="7"/>
     </row>
@@ -3437,7 +3984,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H161" s="7"/>
     </row>
@@ -3451,7 +3998,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H162" s="7"/>
     </row>
@@ -3465,7 +4012,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H163" s="7"/>
     </row>
@@ -3479,7 +4026,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H164" s="7"/>
     </row>
@@ -3493,7 +4040,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H165" s="7"/>
     </row>
@@ -3507,7 +4054,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H166" s="7"/>
     </row>
@@ -3521,7 +4068,7 @@
       <c r="E167" s="4"/>
       <c r="F167" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H167" s="7"/>
     </row>
@@ -3535,7 +4082,7 @@
       <c r="E168" s="4"/>
       <c r="F168" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H168" s="7"/>
     </row>
@@ -3549,7 +4096,7 @@
       <c r="E169" s="4"/>
       <c r="F169" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H169" s="7"/>
     </row>
@@ -3563,7 +4110,7 @@
       <c r="E170" s="4"/>
       <c r="F170" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H170" s="7"/>
     </row>
@@ -3577,7 +4124,7 @@
       <c r="E171" s="4"/>
       <c r="F171" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H171" s="7"/>
     </row>
@@ -3591,7 +4138,7 @@
       <c r="E172" s="4"/>
       <c r="F172" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H172" s="7"/>
     </row>
@@ -3605,7 +4152,7 @@
       <c r="E173" s="4"/>
       <c r="F173" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H173" s="7"/>
     </row>
@@ -3619,7 +4166,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H174" s="7"/>
     </row>
@@ -3633,7 +4180,7 @@
       <c r="E175" s="4"/>
       <c r="F175" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H175" s="7"/>
     </row>
@@ -3647,7 +4194,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H176" s="7"/>
     </row>
@@ -3661,7 +4208,7 @@
       <c r="E177" s="4"/>
       <c r="F177" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H177" s="7"/>
     </row>
@@ -3675,7 +4222,7 @@
       <c r="E178" s="4"/>
       <c r="F178" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H178" s="7"/>
     </row>
@@ -3689,7 +4236,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H179" s="7"/>
     </row>
@@ -3703,7 +4250,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H180" s="7"/>
     </row>
@@ -3717,7 +4264,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H181" s="7"/>
     </row>
@@ -3731,7 +4278,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H182" s="7"/>
     </row>
@@ -3745,7 +4292,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H183" s="7"/>
     </row>
@@ -3759,7 +4306,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H184" s="7"/>
     </row>
@@ -3773,7 +4320,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H185" s="7"/>
     </row>
@@ -3787,7 +4334,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H186" s="7"/>
     </row>
@@ -3801,7 +4348,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H187" s="7"/>
     </row>
@@ -3815,7 +4362,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H188" s="7"/>
     </row>
@@ -3829,7 +4376,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H189" s="7"/>
     </row>
@@ -3843,7 +4390,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H190" s="7"/>
     </row>
@@ -3857,7 +4404,7 @@
       <c r="E191" s="4"/>
       <c r="F191" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H191" s="7"/>
     </row>
@@ -3871,7 +4418,7 @@
       <c r="E192" s="4"/>
       <c r="F192" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H192" s="7"/>
     </row>
@@ -3885,7 +4432,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H193" s="7"/>
     </row>
@@ -3899,7 +4446,7 @@
       <c r="E194" s="4"/>
       <c r="F194" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H194" s="7"/>
     </row>
@@ -3913,7 +4460,7 @@
       <c r="E195" s="4"/>
       <c r="F195" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H195" s="7"/>
     </row>
@@ -3927,7 +4474,7 @@
       <c r="E196" s="4"/>
       <c r="F196" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H196" s="7"/>
     </row>
@@ -3941,7 +4488,7 @@
       <c r="E197" s="4"/>
       <c r="F197" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H197" s="7"/>
     </row>
@@ -3955,7 +4502,7 @@
       <c r="E198" s="4"/>
       <c r="F198" s="7">
         <f t="shared" si="5"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H198" s="7"/>
     </row>
@@ -3969,7 +4516,7 @@
       <c r="E199" s="4"/>
       <c r="F199" s="7">
         <f t="shared" ref="F199:F262" si="7">$E$3/$E$2</f>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H199" s="7"/>
     </row>
@@ -3983,7 +4530,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H200" s="7"/>
     </row>
@@ -3997,7 +4544,7 @@
       <c r="E201" s="4"/>
       <c r="F201" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H201" s="7"/>
     </row>
@@ -4011,7 +4558,7 @@
       <c r="E202" s="4"/>
       <c r="F202" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H202" s="7"/>
     </row>
@@ -4025,7 +4572,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H203" s="7"/>
     </row>
@@ -4039,7 +4586,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H204" s="7"/>
     </row>
@@ -4053,7 +4600,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H205" s="7"/>
     </row>
@@ -4067,7 +4614,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H206" s="7"/>
     </row>
@@ -4081,7 +4628,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H207" s="7"/>
     </row>
@@ -4095,7 +4642,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H208" s="7"/>
     </row>
@@ -4109,7 +4656,7 @@
       <c r="E209" s="4"/>
       <c r="F209" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H209" s="7"/>
     </row>
@@ -4123,7 +4670,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H210" s="7"/>
     </row>
@@ -4137,7 +4684,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H211" s="7"/>
     </row>
@@ -4151,7 +4698,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H212" s="7"/>
     </row>
@@ -4165,7 +4712,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H213" s="7"/>
     </row>
@@ -4179,7 +4726,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H214" s="7"/>
     </row>
@@ -4193,7 +4740,7 @@
       <c r="E215" s="4"/>
       <c r="F215" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H215" s="7"/>
     </row>
@@ -4207,7 +4754,7 @@
       <c r="E216" s="4"/>
       <c r="F216" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H216" s="7"/>
     </row>
@@ -4221,7 +4768,7 @@
       <c r="E217" s="4"/>
       <c r="F217" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H217" s="7"/>
     </row>
@@ -4235,7 +4782,7 @@
       <c r="E218" s="4"/>
       <c r="F218" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H218" s="7"/>
     </row>
@@ -4249,7 +4796,7 @@
       <c r="E219" s="4"/>
       <c r="F219" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H219" s="7"/>
     </row>
@@ -4263,7 +4810,7 @@
       <c r="E220" s="4"/>
       <c r="F220" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H220" s="7"/>
     </row>
@@ -4277,7 +4824,7 @@
       <c r="E221" s="4"/>
       <c r="F221" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H221" s="7"/>
     </row>
@@ -4291,7 +4838,7 @@
       <c r="E222" s="4"/>
       <c r="F222" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H222" s="7"/>
     </row>
@@ -4305,7 +4852,7 @@
       <c r="E223" s="4"/>
       <c r="F223" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H223" s="7"/>
     </row>
@@ -4319,7 +4866,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H224" s="7"/>
     </row>
@@ -4333,7 +4880,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H225" s="7"/>
     </row>
@@ -4347,7 +4894,7 @@
       <c r="E226" s="4"/>
       <c r="F226" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H226" s="7"/>
     </row>
@@ -4361,7 +4908,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H227" s="7"/>
     </row>
@@ -4375,7 +4922,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H228" s="7"/>
     </row>
@@ -4389,7 +4936,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H229" s="7"/>
     </row>
@@ -4403,7 +4950,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H230" s="7"/>
     </row>
@@ -4417,7 +4964,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H231" s="7"/>
     </row>
@@ -4431,7 +4978,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H232" s="7"/>
     </row>
@@ -4445,7 +4992,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H233" s="7"/>
     </row>
@@ -4459,7 +5006,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H234" s="7"/>
     </row>
@@ -4473,7 +5020,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H235" s="7"/>
     </row>
@@ -4487,7 +5034,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H236" s="7"/>
     </row>
@@ -4501,7 +5048,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H237" s="7"/>
     </row>
@@ -4515,7 +5062,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H238" s="7"/>
     </row>
@@ -4529,7 +5076,7 @@
       <c r="E239" s="4"/>
       <c r="F239" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H239" s="7"/>
     </row>
@@ -4543,7 +5090,7 @@
       <c r="E240" s="4"/>
       <c r="F240" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H240" s="7"/>
     </row>
@@ -4557,7 +5104,7 @@
       <c r="E241" s="4"/>
       <c r="F241" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H241" s="7"/>
     </row>
@@ -4571,7 +5118,7 @@
       <c r="E242" s="4"/>
       <c r="F242" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H242" s="7"/>
     </row>
@@ -4585,7 +5132,7 @@
       <c r="E243" s="4"/>
       <c r="F243" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H243" s="7"/>
     </row>
@@ -4599,7 +5146,7 @@
       <c r="E244" s="4"/>
       <c r="F244" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H244" s="7"/>
     </row>
@@ -4613,7 +5160,7 @@
       <c r="E245" s="4"/>
       <c r="F245" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H245" s="7"/>
     </row>
@@ -4627,7 +5174,7 @@
       <c r="E246" s="4"/>
       <c r="F246" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H246" s="7"/>
     </row>
@@ -4641,7 +5188,7 @@
       <c r="E247" s="4"/>
       <c r="F247" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H247" s="7"/>
     </row>
@@ -4655,7 +5202,7 @@
       <c r="E248" s="4"/>
       <c r="F248" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H248" s="7"/>
     </row>
@@ -4669,7 +5216,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H249" s="7"/>
     </row>
@@ -4683,7 +5230,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H250" s="7"/>
     </row>
@@ -4697,7 +5244,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H251" s="7"/>
     </row>
@@ -4711,7 +5258,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H252" s="7"/>
     </row>
@@ -4725,7 +5272,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H253" s="7"/>
     </row>
@@ -4739,7 +5286,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H254" s="7"/>
     </row>
@@ -4753,7 +5300,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H255" s="7"/>
     </row>
@@ -4767,7 +5314,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H256" s="7"/>
     </row>
@@ -4781,7 +5328,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H257" s="7"/>
     </row>
@@ -4795,7 +5342,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H258" s="7"/>
     </row>
@@ -4809,7 +5356,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H259" s="7"/>
     </row>
@@ -4823,7 +5370,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H260" s="7"/>
     </row>
@@ -4837,7 +5384,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H261" s="7"/>
     </row>
@@ -4851,7 +5398,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="7">
         <f t="shared" si="7"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H262" s="7"/>
     </row>
@@ -4865,7 +5412,7 @@
       <c r="E263" s="4"/>
       <c r="F263" s="7">
         <f t="shared" ref="F263:F326" si="9">$E$3/$E$2</f>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H263" s="7"/>
     </row>
@@ -4879,7 +5426,7 @@
       <c r="E264" s="4"/>
       <c r="F264" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H264" s="7"/>
     </row>
@@ -4893,7 +5440,7 @@
       <c r="E265" s="4"/>
       <c r="F265" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H265" s="7"/>
     </row>
@@ -4907,7 +5454,7 @@
       <c r="E266" s="4"/>
       <c r="F266" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H266" s="7"/>
     </row>
@@ -4921,7 +5468,7 @@
       <c r="E267" s="4"/>
       <c r="F267" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H267" s="7"/>
     </row>
@@ -4935,7 +5482,7 @@
       <c r="E268" s="4"/>
       <c r="F268" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H268" s="7"/>
     </row>
@@ -4949,7 +5496,7 @@
       <c r="E269" s="4"/>
       <c r="F269" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H269" s="7"/>
     </row>
@@ -4963,7 +5510,7 @@
       <c r="E270" s="4"/>
       <c r="F270" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H270" s="7"/>
     </row>
@@ -4977,7 +5524,7 @@
       <c r="E271" s="4"/>
       <c r="F271" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H271" s="7"/>
     </row>
@@ -4991,7 +5538,7 @@
       <c r="E272" s="4"/>
       <c r="F272" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H272" s="7"/>
     </row>
@@ -5005,7 +5552,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H273" s="7"/>
     </row>
@@ -5019,7 +5566,7 @@
       <c r="E274" s="4"/>
       <c r="F274" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H274" s="7"/>
     </row>
@@ -5033,7 +5580,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H275" s="7"/>
     </row>
@@ -5047,7 +5594,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H276" s="7"/>
     </row>
@@ -5061,7 +5608,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H277" s="7"/>
     </row>
@@ -5075,7 +5622,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H278" s="7"/>
     </row>
@@ -5089,7 +5636,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H279" s="7"/>
     </row>
@@ -5103,7 +5650,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H280" s="7"/>
     </row>
@@ -5117,7 +5664,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H281" s="7"/>
     </row>
@@ -5131,7 +5678,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H282" s="7"/>
     </row>
@@ -5145,7 +5692,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H283" s="7"/>
     </row>
@@ -5159,7 +5706,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H284" s="7"/>
     </row>
@@ -5173,7 +5720,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H285" s="7"/>
     </row>
@@ -5187,7 +5734,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H286" s="7"/>
     </row>
@@ -5201,7 +5748,7 @@
       <c r="E287" s="4"/>
       <c r="F287" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H287" s="7"/>
     </row>
@@ -5215,7 +5762,7 @@
       <c r="E288" s="4"/>
       <c r="F288" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H288" s="7"/>
     </row>
@@ -5229,7 +5776,7 @@
       <c r="E289" s="4"/>
       <c r="F289" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H289" s="7"/>
     </row>
@@ -5243,7 +5790,7 @@
       <c r="E290" s="4"/>
       <c r="F290" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H290" s="7"/>
     </row>
@@ -5257,7 +5804,7 @@
       <c r="E291" s="4"/>
       <c r="F291" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H291" s="7"/>
     </row>
@@ -5271,7 +5818,7 @@
       <c r="E292" s="4"/>
       <c r="F292" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H292" s="7"/>
     </row>
@@ -5285,7 +5832,7 @@
       <c r="E293" s="4"/>
       <c r="F293" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H293" s="7"/>
     </row>
@@ -5299,7 +5846,7 @@
       <c r="E294" s="4"/>
       <c r="F294" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H294" s="7"/>
     </row>
@@ -5313,7 +5860,7 @@
       <c r="E295" s="4"/>
       <c r="F295" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H295" s="7"/>
     </row>
@@ -5327,7 +5874,7 @@
       <c r="E296" s="4"/>
       <c r="F296" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H296" s="7"/>
     </row>
@@ -5341,7 +5888,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H297" s="7"/>
     </row>
@@ -5355,7 +5902,7 @@
       <c r="E298" s="4"/>
       <c r="F298" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H298" s="7"/>
     </row>
@@ -5369,7 +5916,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H299" s="7"/>
     </row>
@@ -5383,7 +5930,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H300" s="7"/>
     </row>
@@ -5397,7 +5944,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H301" s="7"/>
     </row>
@@ -5411,7 +5958,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H302" s="7"/>
     </row>
@@ -5425,7 +5972,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H303" s="7"/>
     </row>
@@ -5439,7 +5986,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H304" s="7"/>
     </row>
@@ -5453,7 +6000,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H305" s="7"/>
     </row>
@@ -5469,7 +6016,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G306" s="6" t="s">
         <v>13</v>
@@ -5488,7 +6035,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G307" s="6" t="s">
         <v>14</v>
@@ -5507,7 +6054,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G308" s="6" t="s">
         <v>15</v>
@@ -5526,7 +6073,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G309" s="6" t="s">
         <v>16</v>
@@ -5545,7 +6092,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G310" s="6" t="s">
         <v>17</v>
@@ -5564,7 +6111,7 @@
       <c r="E311" s="4"/>
       <c r="F311" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G311" s="6" t="s">
         <v>18</v>
@@ -5583,7 +6130,7 @@
       <c r="E312" s="4"/>
       <c r="F312" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G312" s="6" t="s">
         <v>19</v>
@@ -5602,7 +6149,7 @@
       <c r="E313" s="4"/>
       <c r="F313" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G313" s="6" t="s">
         <v>20</v>
@@ -5621,7 +6168,7 @@
       <c r="E314" s="4"/>
       <c r="F314" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G314" s="6" t="s">
         <v>21</v>
@@ -5640,7 +6187,7 @@
       <c r="E315" s="4"/>
       <c r="F315" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G315" s="6" t="s">
         <v>22</v>
@@ -5659,7 +6206,7 @@
       <c r="E316" s="4"/>
       <c r="F316" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G316" s="6" t="s">
         <v>24</v>
@@ -5678,7 +6225,7 @@
       <c r="E317" s="4"/>
       <c r="F317" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G317" s="8" t="s">
         <v>23</v>
@@ -5697,7 +6244,7 @@
       <c r="E318" s="4"/>
       <c r="F318" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G318" s="6" t="s">
         <v>25</v>
@@ -5716,7 +6263,7 @@
       <c r="E319" s="4"/>
       <c r="F319" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G319" s="6" t="s">
         <v>26</v>
@@ -5735,7 +6282,7 @@
       <c r="E320" s="4"/>
       <c r="F320" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G320" s="6" t="s">
         <v>27</v>
@@ -5754,7 +6301,7 @@
       <c r="E321" s="4"/>
       <c r="F321" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G321" s="6" t="s">
         <v>28</v>
@@ -5773,7 +6320,7 @@
       <c r="E322" s="4"/>
       <c r="F322" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G322" s="6" t="s">
         <v>29</v>
@@ -5792,7 +6339,7 @@
       <c r="E323" s="4"/>
       <c r="F323" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G323" s="6" t="s">
         <v>30</v>
@@ -5811,7 +6358,7 @@
       <c r="E324" s="4"/>
       <c r="F324" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G324" s="6" t="s">
         <v>31</v>
@@ -5830,7 +6377,7 @@
       <c r="E325" s="4"/>
       <c r="F325" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G325" s="6" t="s">
         <v>32</v>
@@ -5849,7 +6396,7 @@
       <c r="E326" s="4"/>
       <c r="F326" s="7">
         <f t="shared" si="9"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G326" s="6" t="s">
         <v>33</v>
@@ -5868,7 +6415,7 @@
       <c r="E327" s="4"/>
       <c r="F327" s="7">
         <f t="shared" ref="F327:F390" si="11">$E$3/$E$2</f>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G327" s="6" t="s">
         <v>34</v>
@@ -5887,7 +6434,7 @@
       <c r="E328" s="4"/>
       <c r="F328" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G328" s="6" t="s">
         <v>35</v>
@@ -5906,7 +6453,7 @@
       <c r="E329" s="4"/>
       <c r="F329" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G329" s="6" t="s">
         <v>36</v>
@@ -5925,7 +6472,7 @@
       <c r="E330" s="4"/>
       <c r="F330" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G330" s="6" t="s">
         <v>37</v>
@@ -5947,7 +6494,7 @@
       <c r="E331" s="4"/>
       <c r="F331" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G331" s="6" t="s">
         <v>38</v>
@@ -5966,7 +6513,7 @@
       <c r="E332" s="4"/>
       <c r="F332" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G332" s="6" t="s">
         <v>40</v>
@@ -5985,7 +6532,7 @@
       <c r="E333" s="4"/>
       <c r="F333" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G333" s="6" t="s">
         <v>41</v>
@@ -6004,7 +6551,7 @@
       <c r="E334" s="4"/>
       <c r="F334" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G334" s="6" t="s">
         <v>42</v>
@@ -6023,7 +6570,7 @@
       <c r="E335" s="4"/>
       <c r="F335" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G335" s="6" t="s">
         <v>43</v>
@@ -6042,7 +6589,7 @@
       <c r="E336" s="4"/>
       <c r="F336" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G336" s="6" t="s">
         <v>44</v>
@@ -6061,7 +6608,7 @@
       <c r="E337" s="4"/>
       <c r="F337" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G337" s="6" t="s">
         <v>45</v>
@@ -6080,7 +6627,7 @@
       <c r="E338" s="4"/>
       <c r="F338" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G338" s="6" t="s">
         <v>46</v>
@@ -6099,7 +6646,7 @@
       <c r="E339" s="4"/>
       <c r="F339" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G339" s="6" t="s">
         <v>47</v>
@@ -6118,7 +6665,7 @@
       <c r="E340" s="4"/>
       <c r="F340" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G340" s="6" t="s">
         <v>48</v>
@@ -6137,7 +6684,7 @@
       <c r="E341" s="4"/>
       <c r="F341" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G341" s="6" t="s">
         <v>49</v>
@@ -6156,7 +6703,7 @@
       <c r="E342" s="4"/>
       <c r="F342" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G342" s="6" t="s">
         <v>50</v>
@@ -6178,7 +6725,7 @@
       <c r="E343" s="4"/>
       <c r="F343" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G343" s="6" t="s">
         <v>51</v>
@@ -6197,7 +6744,7 @@
       <c r="E344" s="4"/>
       <c r="F344" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G344" s="6" t="s">
         <v>52</v>
@@ -6216,7 +6763,7 @@
       <c r="E345" s="4"/>
       <c r="F345" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G345" s="6" t="s">
         <v>53</v>
@@ -6235,7 +6782,7 @@
       <c r="E346" s="4"/>
       <c r="F346" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G346" s="6" t="s">
         <v>54</v>
@@ -6254,7 +6801,7 @@
       <c r="E347" s="4"/>
       <c r="F347" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G347" s="6" t="s">
         <v>55</v>
@@ -6273,7 +6820,7 @@
       <c r="E348" s="4"/>
       <c r="F348" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G348" s="6" t="s">
         <v>56</v>
@@ -6292,7 +6839,7 @@
       <c r="E349" s="4"/>
       <c r="F349" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G349" s="6" t="s">
         <v>57</v>
@@ -6314,7 +6861,7 @@
       <c r="E350" s="4"/>
       <c r="F350" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G350" s="6" t="s">
         <v>58</v>
@@ -6333,7 +6880,7 @@
       <c r="E351" s="4"/>
       <c r="F351" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G351" s="6" t="s">
         <v>59</v>
@@ -6352,7 +6899,7 @@
       <c r="E352" s="4"/>
       <c r="F352" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G352" s="6" t="s">
         <v>60</v>
@@ -6371,7 +6918,7 @@
       <c r="E353" s="4"/>
       <c r="F353" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G353" s="6" t="s">
         <v>61</v>
@@ -6390,7 +6937,7 @@
       <c r="E354" s="4"/>
       <c r="F354" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G354" s="6" t="s">
         <v>62</v>
@@ -6409,7 +6956,7 @@
       <c r="E355" s="4"/>
       <c r="F355" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G355" s="6" t="s">
         <v>63</v>
@@ -6428,7 +6975,7 @@
       <c r="E356" s="4"/>
       <c r="F356" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G356" s="6" t="s">
         <v>64</v>
@@ -6447,7 +6994,7 @@
       <c r="E357" s="4"/>
       <c r="F357" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G357" s="6" t="s">
         <v>65</v>
@@ -6466,7 +7013,7 @@
       <c r="E358" s="4"/>
       <c r="F358" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G358" s="6" t="s">
         <v>66</v>
@@ -6485,7 +7032,7 @@
       <c r="E359" s="4"/>
       <c r="F359" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G359" s="6" t="s">
         <v>67</v>
@@ -6504,7 +7051,7 @@
       <c r="E360" s="4"/>
       <c r="F360" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G360" s="6" t="s">
         <v>68</v>
@@ -6526,7 +7073,7 @@
       <c r="E361" s="4"/>
       <c r="F361" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G361" s="6" t="s">
         <v>69</v>
@@ -6545,7 +7092,7 @@
       <c r="E362" s="4"/>
       <c r="F362" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G362" s="6" t="s">
         <v>71</v>
@@ -6567,7 +7114,7 @@
       <c r="E363" s="4"/>
       <c r="F363" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G363" s="6" t="s">
         <v>72</v>
@@ -6586,7 +7133,7 @@
       <c r="E364" s="4"/>
       <c r="F364" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G364" s="6" t="s">
         <v>73</v>
@@ -6605,7 +7152,7 @@
       <c r="E365" s="4"/>
       <c r="F365" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G365" s="6" t="s">
         <v>74</v>
@@ -6624,7 +7171,7 @@
       <c r="E366" s="4"/>
       <c r="F366" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G366" s="6" t="s">
         <v>78</v>
@@ -6643,7 +7190,7 @@
       <c r="E367" s="4"/>
       <c r="F367" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G367" s="6" t="s">
         <v>75</v>
@@ -6662,7 +7209,7 @@
       <c r="E368" s="4"/>
       <c r="F368" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G368" s="6" t="s">
         <v>76</v>
@@ -6681,7 +7228,7 @@
       <c r="E369" s="4"/>
       <c r="F369" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G369" s="6" t="s">
         <v>77</v>
@@ -6700,7 +7247,7 @@
       <c r="E370" s="4"/>
       <c r="F370" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G370" s="6" t="s">
         <v>79</v>
@@ -6719,7 +7266,7 @@
       <c r="E371" s="4"/>
       <c r="F371" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G371" s="6" t="s">
         <v>80</v>
@@ -6738,7 +7285,7 @@
       <c r="E372" s="4"/>
       <c r="F372" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G372" s="6" t="s">
         <v>81</v>
@@ -6760,7 +7307,7 @@
       <c r="E373" s="4"/>
       <c r="F373" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G373" s="6" t="s">
         <v>82</v>
@@ -6779,7 +7326,7 @@
       <c r="E374" s="4"/>
       <c r="F374" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G374" s="6" t="s">
         <v>83</v>
@@ -6801,7 +7348,7 @@
       <c r="E375" s="4"/>
       <c r="F375" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G375" s="6" t="s">
         <v>84</v>
@@ -6820,7 +7367,7 @@
       <c r="E376" s="4"/>
       <c r="F376" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G376" s="6" t="s">
         <v>87</v>
@@ -6839,7 +7386,7 @@
       <c r="E377" s="4"/>
       <c r="F377" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G377" s="6" t="s">
         <v>86</v>
@@ -6861,7 +7408,7 @@
       <c r="E378" s="4"/>
       <c r="F378" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G378" s="6" t="s">
         <v>88</v>
@@ -6880,7 +7427,7 @@
       <c r="E379" s="4"/>
       <c r="F379" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G379" s="6" t="s">
         <v>89</v>
@@ -6902,7 +7449,7 @@
       <c r="E380" s="4"/>
       <c r="F380" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G380" s="6" t="s">
         <v>90</v>
@@ -6921,7 +7468,7 @@
       <c r="E381" s="4"/>
       <c r="F381" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G381" s="6" t="s">
         <v>91</v>
@@ -6940,7 +7487,7 @@
       <c r="E382" s="4"/>
       <c r="F382" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G382" s="6" t="s">
         <v>92</v>
@@ -6962,7 +7509,7 @@
       <c r="E383" s="4"/>
       <c r="F383" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G383" s="6" t="s">
         <v>93</v>
@@ -6981,7 +7528,7 @@
       <c r="E384" s="4"/>
       <c r="F384" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G384" s="6" t="s">
         <v>94</v>
@@ -7000,7 +7547,7 @@
       <c r="E385" s="4"/>
       <c r="F385" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G385" s="6" t="s">
         <v>95</v>
@@ -7019,7 +7566,7 @@
       <c r="E386" s="4"/>
       <c r="F386" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G386" s="6" t="s">
         <v>96</v>
@@ -7041,7 +7588,7 @@
       <c r="E387" s="4"/>
       <c r="F387" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G387" s="6" t="s">
         <v>97</v>
@@ -7060,7 +7607,7 @@
       <c r="E388" s="4"/>
       <c r="F388" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G388" s="6" t="s">
         <v>99</v>
@@ -7079,7 +7626,7 @@
       <c r="E389" s="4"/>
       <c r="F389" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G389" s="6" t="s">
         <v>100</v>
@@ -7098,7 +7645,7 @@
       <c r="E390" s="4"/>
       <c r="F390" s="7">
         <f t="shared" si="11"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G390" s="6" t="s">
         <v>101</v>
@@ -7117,7 +7664,7 @@
       <c r="E391" s="4"/>
       <c r="F391" s="7">
         <f t="shared" ref="F391:F454" si="13">$E$3/$E$2</f>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G391" s="6" t="s">
         <v>102</v>
@@ -7136,7 +7683,7 @@
       <c r="E392" s="4"/>
       <c r="F392" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G392" s="6" t="s">
         <v>103</v>
@@ -7155,7 +7702,7 @@
       <c r="E393" s="4"/>
       <c r="F393" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G393" s="6" t="s">
         <v>104</v>
@@ -7174,7 +7721,7 @@
       <c r="E394" s="4"/>
       <c r="F394" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G394" s="6" t="s">
         <v>105</v>
@@ -7193,7 +7740,7 @@
       <c r="E395" s="4"/>
       <c r="F395" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>106</v>
@@ -7215,7 +7762,7 @@
       <c r="E396" s="4"/>
       <c r="F396" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G396" s="6" t="s">
         <v>107</v>
@@ -7234,7 +7781,7 @@
       <c r="E397" s="4"/>
       <c r="F397" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G397" s="6" t="s">
         <v>108</v>
@@ -7256,7 +7803,7 @@
       <c r="E398" s="4"/>
       <c r="F398" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G398" s="6" t="s">
         <v>109</v>
@@ -7275,7 +7822,7 @@
       <c r="E399" s="4"/>
       <c r="F399" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G399" s="6" t="s">
         <v>111</v>
@@ -7297,7 +7844,7 @@
       <c r="E400" s="4"/>
       <c r="F400" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G400" s="6" t="s">
         <v>112</v>
@@ -7316,7 +7863,7 @@
       <c r="E401" s="4"/>
       <c r="F401" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G401" s="6" t="s">
         <v>113</v>
@@ -7335,7 +7882,7 @@
       <c r="E402" s="4"/>
       <c r="F402" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G402" s="6" t="s">
         <v>114</v>
@@ -7354,7 +7901,7 @@
       <c r="E403" s="4"/>
       <c r="F403" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G403" s="6" t="s">
         <v>115</v>
@@ -7373,7 +7920,7 @@
       <c r="E404" s="4"/>
       <c r="F404" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G404" s="6" t="s">
         <v>116</v>
@@ -7392,7 +7939,7 @@
       <c r="E405" s="4"/>
       <c r="F405" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G405" s="6" t="s">
         <v>117</v>
@@ -7411,7 +7958,7 @@
       <c r="E406" s="4"/>
       <c r="F406" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G406" s="6" t="s">
         <v>118</v>
@@ -7430,7 +7977,7 @@
       <c r="E407" s="4"/>
       <c r="F407" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G407" s="6" t="s">
         <v>119</v>
@@ -7447,7 +7994,7 @@
       <c r="E408" s="4"/>
       <c r="F408" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H408" s="7"/>
     </row>
@@ -7461,7 +8008,7 @@
       <c r="E409" s="4"/>
       <c r="F409" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H409" s="7"/>
     </row>
@@ -7475,7 +8022,7 @@
       <c r="E410" s="4"/>
       <c r="F410" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H410" s="7"/>
     </row>
@@ -7489,7 +8036,7 @@
       <c r="E411" s="4"/>
       <c r="F411" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H411" s="7"/>
     </row>
@@ -7503,7 +8050,7 @@
       <c r="E412" s="4"/>
       <c r="F412" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H412" s="7"/>
     </row>
@@ -7517,7 +8064,7 @@
       <c r="E413" s="4"/>
       <c r="F413" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H413" s="7"/>
     </row>
@@ -7531,7 +8078,7 @@
       <c r="E414" s="4"/>
       <c r="F414" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H414" s="7"/>
     </row>
@@ -7545,7 +8092,7 @@
       <c r="E415" s="4"/>
       <c r="F415" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H415" s="7"/>
     </row>
@@ -7559,7 +8106,7 @@
       <c r="E416" s="4"/>
       <c r="F416" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H416" s="7"/>
     </row>
@@ -7573,7 +8120,7 @@
       <c r="E417" s="4"/>
       <c r="F417" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H417" s="7"/>
     </row>
@@ -7587,7 +8134,7 @@
       <c r="E418" s="4"/>
       <c r="F418" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H418" s="7"/>
     </row>
@@ -7601,7 +8148,7 @@
       <c r="E419" s="4"/>
       <c r="F419" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H419" s="7"/>
     </row>
@@ -7615,7 +8162,7 @@
       <c r="E420" s="4"/>
       <c r="F420" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H420" s="7"/>
     </row>
@@ -7629,7 +8176,7 @@
       <c r="E421" s="4"/>
       <c r="F421" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H421" s="7"/>
     </row>
@@ -7643,7 +8190,7 @@
       <c r="E422" s="4"/>
       <c r="F422" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H422" s="7"/>
     </row>
@@ -7657,7 +8204,7 @@
       <c r="E423" s="4"/>
       <c r="F423" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H423" s="7"/>
     </row>
@@ -7671,7 +8218,7 @@
       <c r="E424" s="4"/>
       <c r="F424" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H424" s="7"/>
     </row>
@@ -7685,7 +8232,7 @@
       <c r="E425" s="4"/>
       <c r="F425" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H425" s="7"/>
     </row>
@@ -7699,7 +8246,7 @@
       <c r="E426" s="4"/>
       <c r="F426" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H426" s="7"/>
     </row>
@@ -7713,7 +8260,7 @@
       <c r="E427" s="4"/>
       <c r="F427" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H427" s="7"/>
     </row>
@@ -7727,7 +8274,7 @@
       <c r="E428" s="4"/>
       <c r="F428" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H428" s="7"/>
     </row>
@@ -7741,7 +8288,7 @@
       <c r="E429" s="4"/>
       <c r="F429" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H429" s="7"/>
     </row>
@@ -7755,7 +8302,7 @@
       <c r="E430" s="4"/>
       <c r="F430" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H430" s="7"/>
     </row>
@@ -7769,7 +8316,7 @@
       <c r="E431" s="4"/>
       <c r="F431" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H431" s="7"/>
     </row>
@@ -7783,7 +8330,7 @@
       <c r="E432" s="4"/>
       <c r="F432" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H432" s="7"/>
     </row>
@@ -7797,7 +8344,7 @@
       <c r="E433" s="4"/>
       <c r="F433" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H433" s="7"/>
     </row>
@@ -7811,7 +8358,7 @@
       <c r="E434" s="4"/>
       <c r="F434" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H434" s="7"/>
     </row>
@@ -7825,7 +8372,7 @@
       <c r="E435" s="4"/>
       <c r="F435" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H435" s="7"/>
     </row>
@@ -7839,7 +8386,7 @@
       <c r="E436" s="4"/>
       <c r="F436" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H436" s="7"/>
     </row>
@@ -7853,7 +8400,7 @@
       <c r="E437" s="4"/>
       <c r="F437" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H437" s="7"/>
     </row>
@@ -7867,7 +8414,7 @@
       <c r="E438" s="4"/>
       <c r="F438" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H438" s="7"/>
     </row>
@@ -7881,7 +8428,7 @@
       <c r="E439" s="4"/>
       <c r="F439" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H439" s="7"/>
     </row>
@@ -7895,7 +8442,7 @@
       <c r="E440" s="4"/>
       <c r="F440" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H440" s="7"/>
     </row>
@@ -7909,7 +8456,7 @@
       <c r="E441" s="4"/>
       <c r="F441" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H441" s="7"/>
     </row>
@@ -7923,7 +8470,7 @@
       <c r="E442" s="4"/>
       <c r="F442" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H442" s="7"/>
     </row>
@@ -7937,7 +8484,7 @@
       <c r="E443" s="4"/>
       <c r="F443" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H443" s="7"/>
     </row>
@@ -7951,7 +8498,7 @@
       <c r="E444" s="4"/>
       <c r="F444" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H444" s="7"/>
     </row>
@@ -7965,7 +8512,7 @@
       <c r="E445" s="4"/>
       <c r="F445" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H445" s="7"/>
     </row>
@@ -7979,7 +8526,7 @@
       <c r="E446" s="4"/>
       <c r="F446" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H446" s="7"/>
     </row>
@@ -7993,7 +8540,7 @@
       <c r="E447" s="4"/>
       <c r="F447" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H447" s="7"/>
     </row>
@@ -8007,7 +8554,7 @@
       <c r="E448" s="4"/>
       <c r="F448" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H448" s="7"/>
     </row>
@@ -8021,7 +8568,7 @@
       <c r="E449" s="4"/>
       <c r="F449" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H449" s="7"/>
     </row>
@@ -8035,7 +8582,7 @@
       <c r="E450" s="4"/>
       <c r="F450" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H450" s="7"/>
     </row>
@@ -8049,7 +8596,7 @@
       <c r="E451" s="4"/>
       <c r="F451" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H451" s="7"/>
     </row>
@@ -8063,7 +8610,7 @@
       <c r="E452" s="4"/>
       <c r="F452" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H452" s="7"/>
     </row>
@@ -8077,7 +8624,7 @@
       <c r="E453" s="4"/>
       <c r="F453" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H453" s="7"/>
     </row>
@@ -8091,7 +8638,7 @@
       <c r="E454" s="4"/>
       <c r="F454" s="7">
         <f t="shared" si="13"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H454" s="7"/>
     </row>
@@ -8105,7 +8652,7 @@
       <c r="E455" s="4"/>
       <c r="F455" s="7">
         <f t="shared" ref="F455:F518" si="15">$E$3/$E$2</f>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H455" s="7"/>
     </row>
@@ -8119,7 +8666,7 @@
       <c r="E456" s="4"/>
       <c r="F456" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H456" s="7"/>
     </row>
@@ -8133,7 +8680,7 @@
       <c r="E457" s="4"/>
       <c r="F457" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H457" s="7"/>
     </row>
@@ -8147,7 +8694,7 @@
       <c r="E458" s="4"/>
       <c r="F458" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H458" s="7"/>
     </row>
@@ -8161,7 +8708,7 @@
       <c r="E459" s="4"/>
       <c r="F459" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H459" s="7"/>
     </row>
@@ -8175,7 +8722,7 @@
       <c r="E460" s="4"/>
       <c r="F460" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H460" s="7"/>
     </row>
@@ -8189,7 +8736,7 @@
       <c r="E461" s="4"/>
       <c r="F461" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H461" s="7"/>
     </row>
@@ -8203,7 +8750,7 @@
       <c r="E462" s="4"/>
       <c r="F462" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H462" s="7"/>
     </row>
@@ -8217,7 +8764,7 @@
       <c r="E463" s="4"/>
       <c r="F463" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H463" s="7"/>
     </row>
@@ -8231,7 +8778,7 @@
       <c r="E464" s="4"/>
       <c r="F464" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H464" s="7"/>
     </row>
@@ -8245,7 +8792,7 @@
       <c r="E465" s="4"/>
       <c r="F465" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H465" s="7"/>
     </row>
@@ -8259,7 +8806,7 @@
       <c r="E466" s="4"/>
       <c r="F466" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H466" s="7"/>
     </row>
@@ -8273,7 +8820,7 @@
       <c r="E467" s="4"/>
       <c r="F467" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H467" s="7"/>
     </row>
@@ -8287,7 +8834,7 @@
       <c r="E468" s="4"/>
       <c r="F468" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H468" s="7"/>
     </row>
@@ -8301,7 +8848,7 @@
       <c r="E469" s="4"/>
       <c r="F469" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H469" s="7"/>
     </row>
@@ -8315,7 +8862,7 @@
       <c r="E470" s="4"/>
       <c r="F470" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H470" s="7"/>
     </row>
@@ -8329,7 +8876,7 @@
       <c r="E471" s="4"/>
       <c r="F471" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H471" s="7"/>
     </row>
@@ -8343,7 +8890,7 @@
       <c r="E472" s="4"/>
       <c r="F472" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H472" s="7"/>
     </row>
@@ -8357,7 +8904,7 @@
       <c r="E473" s="4"/>
       <c r="F473" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H473" s="7"/>
     </row>
@@ -8371,7 +8918,7 @@
       <c r="E474" s="4"/>
       <c r="F474" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H474" s="7"/>
     </row>
@@ -8385,7 +8932,7 @@
       <c r="E475" s="4"/>
       <c r="F475" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H475" s="7"/>
     </row>
@@ -8399,7 +8946,7 @@
       <c r="E476" s="4"/>
       <c r="F476" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H476" s="7"/>
     </row>
@@ -8413,7 +8960,7 @@
       <c r="E477" s="4"/>
       <c r="F477" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H477" s="7"/>
     </row>
@@ -8427,7 +8974,7 @@
       <c r="E478" s="4"/>
       <c r="F478" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H478" s="7"/>
     </row>
@@ -8441,7 +8988,7 @@
       <c r="E479" s="4"/>
       <c r="F479" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H479" s="7"/>
     </row>
@@ -8455,7 +9002,7 @@
       <c r="E480" s="4"/>
       <c r="F480" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H480" s="7"/>
     </row>
@@ -8469,7 +9016,7 @@
       <c r="E481" s="4"/>
       <c r="F481" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H481" s="7"/>
     </row>
@@ -8483,7 +9030,7 @@
       <c r="E482" s="4"/>
       <c r="F482" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H482" s="7"/>
     </row>
@@ -8497,7 +9044,7 @@
       <c r="E483" s="4"/>
       <c r="F483" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H483" s="7"/>
     </row>
@@ -8511,7 +9058,7 @@
       <c r="E484" s="4"/>
       <c r="F484" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H484" s="7"/>
     </row>
@@ -8525,7 +9072,7 @@
       <c r="E485" s="4"/>
       <c r="F485" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H485" s="7"/>
     </row>
@@ -8539,7 +9086,7 @@
       <c r="E486" s="4"/>
       <c r="F486" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H486" s="7"/>
     </row>
@@ -8553,7 +9100,7 @@
       <c r="E487" s="4"/>
       <c r="F487" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H487" s="7"/>
     </row>
@@ -8567,7 +9114,7 @@
       <c r="E488" s="4"/>
       <c r="F488" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H488" s="7"/>
     </row>
@@ -8581,7 +9128,7 @@
       <c r="E489" s="4"/>
       <c r="F489" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H489" s="7"/>
     </row>
@@ -8595,7 +9142,7 @@
       <c r="E490" s="4"/>
       <c r="F490" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H490" s="7"/>
     </row>
@@ -8609,7 +9156,7 @@
       <c r="E491" s="4"/>
       <c r="F491" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H491" s="7"/>
     </row>
@@ -8623,7 +9170,7 @@
       <c r="E492" s="4"/>
       <c r="F492" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H492" s="7"/>
     </row>
@@ -8637,7 +9184,7 @@
       <c r="E493" s="4"/>
       <c r="F493" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H493" s="7"/>
     </row>
@@ -8651,7 +9198,7 @@
       <c r="E494" s="4"/>
       <c r="F494" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H494" s="7"/>
     </row>
@@ -8665,7 +9212,7 @@
       <c r="E495" s="4"/>
       <c r="F495" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H495" s="7"/>
     </row>
@@ -8679,7 +9226,7 @@
       <c r="E496" s="4"/>
       <c r="F496" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H496" s="7"/>
     </row>
@@ -8693,7 +9240,7 @@
       <c r="E497" s="4"/>
       <c r="F497" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H497" s="7"/>
     </row>
@@ -8707,7 +9254,7 @@
       <c r="E498" s="4"/>
       <c r="F498" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H498" s="7"/>
     </row>
@@ -8721,7 +9268,7 @@
       <c r="E499" s="4"/>
       <c r="F499" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H499" s="7"/>
     </row>
@@ -8735,7 +9282,7 @@
       <c r="E500" s="4"/>
       <c r="F500" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H500" s="7"/>
     </row>
@@ -8749,7 +9296,7 @@
       <c r="E501" s="4"/>
       <c r="F501" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H501" s="7"/>
     </row>
@@ -8763,7 +9310,7 @@
       <c r="E502" s="4"/>
       <c r="F502" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H502" s="7"/>
     </row>
@@ -8777,7 +9324,7 @@
       <c r="E503" s="4"/>
       <c r="F503" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H503" s="7"/>
     </row>
@@ -8791,7 +9338,7 @@
       <c r="E504" s="4"/>
       <c r="F504" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H504" s="7"/>
     </row>
@@ -8805,7 +9352,7 @@
       <c r="E505" s="4"/>
       <c r="F505" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H505" s="7"/>
     </row>
@@ -8819,7 +9366,7 @@
       <c r="E506" s="4"/>
       <c r="F506" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H506" s="7"/>
     </row>
@@ -8833,7 +9380,7 @@
       <c r="E507" s="4"/>
       <c r="F507" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H507" s="7"/>
     </row>
@@ -8847,7 +9394,7 @@
       <c r="E508" s="4"/>
       <c r="F508" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H508" s="7"/>
     </row>
@@ -8861,7 +9408,7 @@
       <c r="E509" s="4"/>
       <c r="F509" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H509" s="7"/>
     </row>
@@ -8875,7 +9422,7 @@
       <c r="E510" s="4"/>
       <c r="F510" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H510" s="7"/>
     </row>
@@ -8889,7 +9436,7 @@
       <c r="E511" s="4"/>
       <c r="F511" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H511" s="7"/>
     </row>
@@ -8903,7 +9450,7 @@
       <c r="E512" s="4"/>
       <c r="F512" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H512" s="7"/>
     </row>
@@ -8917,7 +9464,7 @@
       <c r="E513" s="4"/>
       <c r="F513" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H513" s="7"/>
     </row>
@@ -8931,7 +9478,7 @@
       <c r="E514" s="4"/>
       <c r="F514" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H514" s="7"/>
     </row>
@@ -8945,7 +9492,7 @@
       <c r="E515" s="4"/>
       <c r="F515" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H515" s="7"/>
     </row>
@@ -8959,7 +9506,7 @@
       <c r="E516" s="4"/>
       <c r="F516" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H516" s="7"/>
     </row>
@@ -8973,7 +9520,7 @@
       <c r="E517" s="4"/>
       <c r="F517" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H517" s="7"/>
     </row>
@@ -8987,7 +9534,7 @@
       <c r="E518" s="4"/>
       <c r="F518" s="7">
         <f t="shared" si="15"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H518" s="7"/>
     </row>
@@ -9001,7 +9548,7 @@
       <c r="E519" s="4"/>
       <c r="F519" s="7">
         <f t="shared" ref="F519:F582" si="17">$E$3/$E$2</f>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H519" s="7"/>
     </row>
@@ -9015,7 +9562,7 @@
       <c r="E520" s="4"/>
       <c r="F520" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H520" s="7"/>
     </row>
@@ -9029,7 +9576,7 @@
       <c r="E521" s="4"/>
       <c r="F521" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H521" s="7"/>
     </row>
@@ -9043,7 +9590,7 @@
       <c r="E522" s="4"/>
       <c r="F522" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H522" s="7"/>
     </row>
@@ -9057,7 +9604,7 @@
       <c r="E523" s="4"/>
       <c r="F523" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H523" s="7"/>
     </row>
@@ -9071,7 +9618,7 @@
       <c r="E524" s="4"/>
       <c r="F524" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H524" s="7"/>
     </row>
@@ -9085,7 +9632,7 @@
       <c r="E525" s="4"/>
       <c r="F525" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H525" s="7"/>
     </row>
@@ -9099,7 +9646,7 @@
       <c r="E526" s="4"/>
       <c r="F526" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H526" s="7"/>
     </row>
@@ -9113,7 +9660,7 @@
       <c r="E527" s="4"/>
       <c r="F527" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H527" s="7"/>
     </row>
@@ -9127,7 +9674,7 @@
       <c r="E528" s="4"/>
       <c r="F528" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H528" s="7"/>
     </row>
@@ -9141,7 +9688,7 @@
       <c r="E529" s="4"/>
       <c r="F529" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H529" s="7"/>
     </row>
@@ -9155,7 +9702,7 @@
       <c r="E530" s="4"/>
       <c r="F530" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H530" s="7"/>
     </row>
@@ -9169,7 +9716,7 @@
       <c r="E531" s="4"/>
       <c r="F531" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H531" s="7"/>
     </row>
@@ -9183,7 +9730,7 @@
       <c r="E532" s="4"/>
       <c r="F532" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H532" s="7"/>
     </row>
@@ -9197,7 +9744,7 @@
       <c r="E533" s="4"/>
       <c r="F533" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H533" s="7"/>
     </row>
@@ -9211,7 +9758,7 @@
       <c r="E534" s="4"/>
       <c r="F534" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H534" s="7"/>
     </row>
@@ -9225,7 +9772,7 @@
       <c r="E535" s="4"/>
       <c r="F535" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H535" s="7"/>
     </row>
@@ -9239,7 +9786,7 @@
       <c r="E536" s="4"/>
       <c r="F536" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H536" s="7"/>
     </row>
@@ -9253,7 +9800,7 @@
       <c r="E537" s="4"/>
       <c r="F537" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H537" s="7"/>
     </row>
@@ -9267,7 +9814,7 @@
       <c r="E538" s="4"/>
       <c r="F538" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H538" s="7"/>
     </row>
@@ -9281,7 +9828,7 @@
       <c r="E539" s="4"/>
       <c r="F539" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H539" s="7"/>
     </row>
@@ -9295,7 +9842,7 @@
       <c r="E540" s="4"/>
       <c r="F540" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H540" s="7"/>
     </row>
@@ -9309,7 +9856,7 @@
       <c r="E541" s="4"/>
       <c r="F541" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H541" s="7"/>
     </row>
@@ -9323,7 +9870,7 @@
       <c r="E542" s="4"/>
       <c r="F542" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H542" s="7"/>
     </row>
@@ -9337,7 +9884,7 @@
       <c r="E543" s="4"/>
       <c r="F543" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H543" s="7"/>
     </row>
@@ -9351,7 +9898,7 @@
       <c r="E544" s="4"/>
       <c r="F544" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H544" s="7"/>
     </row>
@@ -9365,7 +9912,7 @@
       <c r="E545" s="4"/>
       <c r="F545" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H545" s="7"/>
     </row>
@@ -9379,7 +9926,7 @@
       <c r="E546" s="4"/>
       <c r="F546" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H546" s="7"/>
     </row>
@@ -9393,7 +9940,7 @@
       <c r="E547" s="4"/>
       <c r="F547" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H547" s="7"/>
     </row>
@@ -9407,7 +9954,7 @@
       <c r="E548" s="4"/>
       <c r="F548" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H548" s="7"/>
     </row>
@@ -9421,7 +9968,7 @@
       <c r="E549" s="4"/>
       <c r="F549" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H549" s="7"/>
     </row>
@@ -9435,7 +9982,7 @@
       <c r="E550" s="4"/>
       <c r="F550" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H550" s="7"/>
     </row>
@@ -9449,7 +9996,7 @@
       <c r="E551" s="4"/>
       <c r="F551" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H551" s="7"/>
     </row>
@@ -9463,7 +10010,7 @@
       <c r="E552" s="4"/>
       <c r="F552" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H552" s="7"/>
     </row>
@@ -9477,7 +10024,7 @@
       <c r="E553" s="4"/>
       <c r="F553" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H553" s="7"/>
     </row>
@@ -9491,7 +10038,7 @@
       <c r="E554" s="4"/>
       <c r="F554" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H554" s="7"/>
     </row>
@@ -9505,7 +10052,7 @@
       <c r="E555" s="4"/>
       <c r="F555" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H555" s="7"/>
     </row>
@@ -9519,7 +10066,7 @@
       <c r="E556" s="4"/>
       <c r="F556" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H556" s="7"/>
     </row>
@@ -9533,7 +10080,7 @@
       <c r="E557" s="4"/>
       <c r="F557" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H557" s="7"/>
     </row>
@@ -9547,7 +10094,7 @@
       <c r="E558" s="4"/>
       <c r="F558" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H558" s="7"/>
     </row>
@@ -9561,7 +10108,7 @@
       <c r="E559" s="4"/>
       <c r="F559" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H559" s="7"/>
     </row>
@@ -9575,7 +10122,7 @@
       <c r="E560" s="4"/>
       <c r="F560" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H560" s="7"/>
     </row>
@@ -9589,7 +10136,7 @@
       <c r="E561" s="4"/>
       <c r="F561" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H561" s="7"/>
     </row>
@@ -9603,7 +10150,7 @@
       <c r="E562" s="4"/>
       <c r="F562" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H562" s="7"/>
     </row>
@@ -9617,7 +10164,7 @@
       <c r="E563" s="4"/>
       <c r="F563" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H563" s="7"/>
     </row>
@@ -9631,7 +10178,7 @@
       <c r="E564" s="4"/>
       <c r="F564" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H564" s="7"/>
     </row>
@@ -9645,7 +10192,7 @@
       <c r="E565" s="4"/>
       <c r="F565" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H565" s="7"/>
     </row>
@@ -9659,7 +10206,7 @@
       <c r="E566" s="4"/>
       <c r="F566" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H566" s="7"/>
     </row>
@@ -9673,7 +10220,7 @@
       <c r="E567" s="4"/>
       <c r="F567" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H567" s="7"/>
     </row>
@@ -9687,7 +10234,7 @@
       <c r="E568" s="4"/>
       <c r="F568" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H568" s="7"/>
     </row>
@@ -9701,7 +10248,7 @@
       <c r="E569" s="4"/>
       <c r="F569" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H569" s="7"/>
     </row>
@@ -9715,7 +10262,7 @@
       <c r="E570" s="4"/>
       <c r="F570" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H570" s="7"/>
     </row>
@@ -9729,7 +10276,7 @@
       <c r="E571" s="4"/>
       <c r="F571" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H571" s="7"/>
     </row>
@@ -9743,7 +10290,7 @@
       <c r="E572" s="4"/>
       <c r="F572" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H572" s="7"/>
     </row>
@@ -9757,7 +10304,7 @@
       <c r="E573" s="4"/>
       <c r="F573" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H573" s="7"/>
     </row>
@@ -9771,7 +10318,7 @@
       <c r="E574" s="4"/>
       <c r="F574" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H574" s="7"/>
     </row>
@@ -9785,7 +10332,7 @@
       <c r="E575" s="4"/>
       <c r="F575" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H575" s="7"/>
     </row>
@@ -9799,7 +10346,7 @@
       <c r="E576" s="4"/>
       <c r="F576" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H576" s="7"/>
     </row>
@@ -9813,7 +10360,7 @@
       <c r="E577" s="4"/>
       <c r="F577" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H577" s="7"/>
     </row>
@@ -9827,7 +10374,7 @@
       <c r="E578" s="4"/>
       <c r="F578" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H578" s="7"/>
     </row>
@@ -9841,7 +10388,7 @@
       <c r="E579" s="4"/>
       <c r="F579" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H579" s="7"/>
     </row>
@@ -9855,7 +10402,7 @@
       <c r="E580" s="4"/>
       <c r="F580" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H580" s="7"/>
     </row>
@@ -9869,7 +10416,7 @@
       <c r="E581" s="4"/>
       <c r="F581" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H581" s="7"/>
     </row>
@@ -9883,7 +10430,7 @@
       <c r="E582" s="4"/>
       <c r="F582" s="7">
         <f t="shared" si="17"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H582" s="7"/>
     </row>
@@ -9897,7 +10444,7 @@
       <c r="E583" s="4"/>
       <c r="F583" s="7">
         <f t="shared" ref="F583:F646" si="19">$E$3/$E$2</f>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H583" s="7"/>
     </row>
@@ -9911,7 +10458,7 @@
       <c r="E584" s="4"/>
       <c r="F584" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H584" s="7"/>
     </row>
@@ -9925,7 +10472,7 @@
       <c r="E585" s="4"/>
       <c r="F585" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H585" s="7"/>
     </row>
@@ -9939,7 +10486,7 @@
       <c r="E586" s="4"/>
       <c r="F586" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H586" s="7"/>
     </row>
@@ -9953,7 +10500,7 @@
       <c r="E587" s="4"/>
       <c r="F587" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H587" s="7"/>
     </row>
@@ -9967,7 +10514,7 @@
       <c r="E588" s="4"/>
       <c r="F588" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H588" s="7"/>
     </row>
@@ -9981,7 +10528,7 @@
       <c r="E589" s="4"/>
       <c r="F589" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H589" s="7"/>
     </row>
@@ -9995,7 +10542,7 @@
       <c r="E590" s="4"/>
       <c r="F590" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H590" s="7"/>
     </row>
@@ -10009,7 +10556,7 @@
       <c r="E591" s="4"/>
       <c r="F591" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H591" s="7"/>
     </row>
@@ -10023,7 +10570,7 @@
       <c r="E592" s="4"/>
       <c r="F592" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H592" s="7"/>
     </row>
@@ -10037,7 +10584,7 @@
       <c r="E593" s="4"/>
       <c r="F593" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H593" s="7"/>
     </row>
@@ -10051,7 +10598,7 @@
       <c r="E594" s="4"/>
       <c r="F594" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H594" s="7"/>
     </row>
@@ -10065,7 +10612,7 @@
       <c r="E595" s="4"/>
       <c r="F595" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H595" s="7"/>
     </row>
@@ -10079,7 +10626,7 @@
       <c r="E596" s="4"/>
       <c r="F596" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H596" s="7"/>
     </row>
@@ -10093,7 +10640,7 @@
       <c r="E597" s="4"/>
       <c r="F597" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H597" s="7"/>
     </row>
@@ -10107,7 +10654,7 @@
       <c r="E598" s="4"/>
       <c r="F598" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H598" s="7"/>
     </row>
@@ -10121,7 +10668,7 @@
       <c r="E599" s="4"/>
       <c r="F599" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H599" s="7"/>
     </row>
@@ -10135,7 +10682,7 @@
       <c r="E600" s="4"/>
       <c r="F600" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H600" s="7"/>
     </row>
@@ -10149,7 +10696,7 @@
       <c r="E601" s="4"/>
       <c r="F601" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H601" s="7"/>
     </row>
@@ -10163,7 +10710,7 @@
       <c r="E602" s="4"/>
       <c r="F602" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H602" s="7"/>
     </row>
@@ -10177,7 +10724,7 @@
       <c r="E603" s="4"/>
       <c r="F603" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H603" s="7"/>
     </row>
@@ -10191,7 +10738,7 @@
       <c r="E604" s="4"/>
       <c r="F604" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H604" s="7"/>
     </row>
@@ -10205,7 +10752,7 @@
       <c r="E605" s="4"/>
       <c r="F605" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H605" s="7"/>
     </row>
@@ -10219,7 +10766,7 @@
       <c r="E606" s="4"/>
       <c r="F606" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H606" s="7"/>
     </row>
@@ -10233,7 +10780,7 @@
       <c r="E607" s="4"/>
       <c r="F607" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H607" s="7"/>
     </row>
@@ -10247,7 +10794,7 @@
       <c r="E608" s="4"/>
       <c r="F608" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H608" s="7"/>
     </row>
@@ -10261,7 +10808,7 @@
       <c r="E609" s="4"/>
       <c r="F609" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H609" s="7"/>
     </row>
@@ -10275,7 +10822,7 @@
       <c r="E610" s="4"/>
       <c r="F610" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H610" s="7"/>
     </row>
@@ -10289,7 +10836,7 @@
       <c r="E611" s="4"/>
       <c r="F611" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H611" s="7"/>
     </row>
@@ -10303,7 +10850,7 @@
       <c r="E612" s="4"/>
       <c r="F612" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H612" s="7"/>
     </row>
@@ -10317,7 +10864,7 @@
       <c r="E613" s="4"/>
       <c r="F613" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H613" s="7"/>
     </row>
@@ -10331,7 +10878,7 @@
       <c r="E614" s="4"/>
       <c r="F614" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H614" s="7"/>
     </row>
@@ -10345,7 +10892,7 @@
       <c r="E615" s="4"/>
       <c r="F615" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H615" s="7"/>
     </row>
@@ -10359,7 +10906,7 @@
       <c r="E616" s="4"/>
       <c r="F616" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H616" s="7"/>
     </row>
@@ -10373,7 +10920,7 @@
       <c r="E617" s="4"/>
       <c r="F617" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H617" s="7"/>
     </row>
@@ -10387,7 +10934,7 @@
       <c r="E618" s="4"/>
       <c r="F618" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H618" s="7"/>
     </row>
@@ -10401,7 +10948,7 @@
       <c r="E619" s="4"/>
       <c r="F619" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H619" s="7"/>
     </row>
@@ -10415,7 +10962,7 @@
       <c r="E620" s="4"/>
       <c r="F620" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H620" s="7"/>
     </row>
@@ -10429,7 +10976,7 @@
       <c r="E621" s="4"/>
       <c r="F621" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H621" s="7"/>
     </row>
@@ -10443,7 +10990,7 @@
       <c r="E622" s="4"/>
       <c r="F622" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H622" s="7"/>
     </row>
@@ -10457,7 +11004,7 @@
       <c r="E623" s="4"/>
       <c r="F623" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H623" s="7"/>
     </row>
@@ -10471,7 +11018,7 @@
       <c r="E624" s="4"/>
       <c r="F624" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H624" s="7"/>
     </row>
@@ -10485,7 +11032,7 @@
       <c r="E625" s="4"/>
       <c r="F625" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H625" s="7"/>
     </row>
@@ -10499,7 +11046,7 @@
       <c r="E626" s="4"/>
       <c r="F626" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H626" s="7"/>
     </row>
@@ -10513,7 +11060,7 @@
       <c r="E627" s="4"/>
       <c r="F627" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H627" s="7"/>
     </row>
@@ -10527,7 +11074,7 @@
       <c r="E628" s="4"/>
       <c r="F628" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H628" s="7"/>
     </row>
@@ -10541,7 +11088,7 @@
       <c r="E629" s="4"/>
       <c r="F629" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H629" s="7"/>
     </row>
@@ -10555,7 +11102,7 @@
       <c r="E630" s="4"/>
       <c r="F630" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H630" s="7"/>
     </row>
@@ -10569,7 +11116,7 @@
       <c r="E631" s="4"/>
       <c r="F631" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H631" s="7"/>
     </row>
@@ -10583,7 +11130,7 @@
       <c r="E632" s="4"/>
       <c r="F632" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H632" s="7"/>
     </row>
@@ -10597,7 +11144,7 @@
       <c r="E633" s="4"/>
       <c r="F633" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H633" s="7"/>
     </row>
@@ -10611,7 +11158,7 @@
       <c r="E634" s="4"/>
       <c r="F634" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H634" s="7"/>
     </row>
@@ -10625,7 +11172,7 @@
       <c r="E635" s="4"/>
       <c r="F635" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H635" s="7"/>
     </row>
@@ -10639,7 +11186,7 @@
       <c r="E636" s="4"/>
       <c r="F636" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H636" s="7"/>
     </row>
@@ -10653,7 +11200,7 @@
       <c r="E637" s="4"/>
       <c r="F637" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H637" s="7"/>
     </row>
@@ -10667,7 +11214,7 @@
       <c r="E638" s="4"/>
       <c r="F638" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H638" s="7"/>
     </row>
@@ -10681,7 +11228,7 @@
       <c r="E639" s="4"/>
       <c r="F639" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H639" s="7"/>
     </row>
@@ -10695,7 +11242,7 @@
       <c r="E640" s="4"/>
       <c r="F640" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H640" s="7"/>
     </row>
@@ -10709,7 +11256,7 @@
       <c r="E641" s="4"/>
       <c r="F641" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H641" s="7"/>
     </row>
@@ -10723,7 +11270,7 @@
       <c r="E642" s="4"/>
       <c r="F642" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H642" s="7"/>
     </row>
@@ -10737,7 +11284,7 @@
       <c r="E643" s="4"/>
       <c r="F643" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H643" s="7"/>
     </row>
@@ -10751,7 +11298,7 @@
       <c r="E644" s="4"/>
       <c r="F644" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H644" s="7"/>
     </row>
@@ -10765,7 +11312,7 @@
       <c r="E645" s="4"/>
       <c r="F645" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H645" s="7"/>
     </row>
@@ -10779,7 +11326,7 @@
       <c r="E646" s="4"/>
       <c r="F646" s="7">
         <f t="shared" si="19"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H646" s="7"/>
     </row>
@@ -10793,7 +11340,7 @@
       <c r="E647" s="4"/>
       <c r="F647" s="7">
         <f t="shared" ref="F647:F710" si="21">$E$3/$E$2</f>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H647" s="7"/>
     </row>
@@ -10807,7 +11354,7 @@
       <c r="E648" s="4"/>
       <c r="F648" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H648" s="7"/>
     </row>
@@ -10821,7 +11368,7 @@
       <c r="E649" s="4"/>
       <c r="F649" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H649" s="7"/>
     </row>
@@ -10835,7 +11382,7 @@
       <c r="E650" s="4"/>
       <c r="F650" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H650" s="7"/>
     </row>
@@ -10849,7 +11396,7 @@
       <c r="E651" s="4"/>
       <c r="F651" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H651" s="7"/>
     </row>
@@ -10863,7 +11410,7 @@
       <c r="E652" s="4"/>
       <c r="F652" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H652" s="7"/>
     </row>
@@ -10877,7 +11424,7 @@
       <c r="E653" s="4"/>
       <c r="F653" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H653" s="7"/>
     </row>
@@ -10891,7 +11438,7 @@
       <c r="E654" s="4"/>
       <c r="F654" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H654" s="7"/>
     </row>
@@ -10905,7 +11452,7 @@
       <c r="E655" s="4"/>
       <c r="F655" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H655" s="7"/>
     </row>
@@ -10919,7 +11466,7 @@
       <c r="E656" s="4"/>
       <c r="F656" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H656" s="7"/>
     </row>
@@ -10933,7 +11480,7 @@
       <c r="E657" s="4"/>
       <c r="F657" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H657" s="7"/>
     </row>
@@ -10947,7 +11494,7 @@
       <c r="E658" s="4"/>
       <c r="F658" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H658" s="7"/>
     </row>
@@ -10961,7 +11508,7 @@
       <c r="E659" s="4"/>
       <c r="F659" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H659" s="7"/>
     </row>
@@ -10975,7 +11522,7 @@
       <c r="E660" s="4"/>
       <c r="F660" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H660" s="7"/>
     </row>
@@ -10989,7 +11536,7 @@
       <c r="E661" s="4"/>
       <c r="F661" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H661" s="7"/>
     </row>
@@ -11003,7 +11550,7 @@
       <c r="E662" s="4"/>
       <c r="F662" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H662" s="7"/>
     </row>
@@ -11017,7 +11564,7 @@
       <c r="E663" s="4"/>
       <c r="F663" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H663" s="7"/>
     </row>
@@ -11031,7 +11578,7 @@
       <c r="E664" s="4"/>
       <c r="F664" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H664" s="7"/>
     </row>
@@ -11045,7 +11592,7 @@
       <c r="E665" s="4"/>
       <c r="F665" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H665" s="7"/>
     </row>
@@ -11059,7 +11606,7 @@
       <c r="E666" s="4"/>
       <c r="F666" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H666" s="7"/>
     </row>
@@ -11073,7 +11620,7 @@
       <c r="E667" s="4"/>
       <c r="F667" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H667" s="7"/>
     </row>
@@ -11087,7 +11634,7 @@
       <c r="E668" s="4"/>
       <c r="F668" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H668" s="7"/>
     </row>
@@ -11101,7 +11648,7 @@
       <c r="E669" s="4"/>
       <c r="F669" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H669" s="7"/>
     </row>
@@ -11115,7 +11662,7 @@
       <c r="E670" s="4"/>
       <c r="F670" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H670" s="7"/>
     </row>
@@ -11129,7 +11676,7 @@
       <c r="E671" s="4"/>
       <c r="F671" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H671" s="7"/>
     </row>
@@ -11143,7 +11690,7 @@
       <c r="E672" s="4"/>
       <c r="F672" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H672" s="7"/>
     </row>
@@ -11157,7 +11704,7 @@
       <c r="E673" s="4"/>
       <c r="F673" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H673" s="7"/>
     </row>
@@ -11171,7 +11718,7 @@
       <c r="E674" s="4"/>
       <c r="F674" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H674" s="7"/>
     </row>
@@ -11185,7 +11732,7 @@
       <c r="E675" s="4"/>
       <c r="F675" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H675" s="7"/>
     </row>
@@ -11199,7 +11746,7 @@
       <c r="E676" s="4"/>
       <c r="F676" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H676" s="7"/>
     </row>
@@ -11213,7 +11760,7 @@
       <c r="E677" s="4"/>
       <c r="F677" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H677" s="7"/>
     </row>
@@ -11227,7 +11774,7 @@
       <c r="E678" s="4"/>
       <c r="F678" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H678" s="7"/>
     </row>
@@ -11241,7 +11788,7 @@
       <c r="E679" s="4"/>
       <c r="F679" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H679" s="7"/>
     </row>
@@ -11255,7 +11802,7 @@
       <c r="E680" s="4"/>
       <c r="F680" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H680" s="7"/>
     </row>
@@ -11269,7 +11816,7 @@
       <c r="E681" s="4"/>
       <c r="F681" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H681" s="7"/>
     </row>
@@ -11283,7 +11830,7 @@
       <c r="E682" s="4"/>
       <c r="F682" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H682" s="7"/>
     </row>
@@ -11297,7 +11844,7 @@
       <c r="E683" s="4"/>
       <c r="F683" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H683" s="7"/>
     </row>
@@ -11311,7 +11858,7 @@
       <c r="E684" s="4"/>
       <c r="F684" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H684" s="7"/>
     </row>
@@ -11325,7 +11872,7 @@
       <c r="E685" s="4"/>
       <c r="F685" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H685" s="7"/>
     </row>
@@ -11339,7 +11886,7 @@
       <c r="E686" s="4"/>
       <c r="F686" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H686" s="7"/>
     </row>
@@ -11353,7 +11900,7 @@
       <c r="E687" s="4"/>
       <c r="F687" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H687" s="7"/>
     </row>
@@ -11367,7 +11914,7 @@
       <c r="E688" s="4"/>
       <c r="F688" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H688" s="7"/>
     </row>
@@ -11381,7 +11928,7 @@
       <c r="E689" s="4"/>
       <c r="F689" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H689" s="7"/>
     </row>
@@ -11395,7 +11942,7 @@
       <c r="E690" s="4"/>
       <c r="F690" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H690" s="7"/>
     </row>
@@ -11409,7 +11956,7 @@
       <c r="E691" s="4"/>
       <c r="F691" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H691" s="7"/>
     </row>
@@ -11423,7 +11970,7 @@
       <c r="E692" s="4"/>
       <c r="F692" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H692" s="7"/>
     </row>
@@ -11437,7 +11984,7 @@
       <c r="E693" s="4"/>
       <c r="F693" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H693" s="7"/>
     </row>
@@ -11451,7 +11998,7 @@
       <c r="E694" s="4"/>
       <c r="F694" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H694" s="7"/>
     </row>
@@ -11465,7 +12012,7 @@
       <c r="E695" s="4"/>
       <c r="F695" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H695" s="7"/>
     </row>
@@ -11479,7 +12026,7 @@
       <c r="E696" s="4"/>
       <c r="F696" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H696" s="7"/>
     </row>
@@ -11493,7 +12040,7 @@
       <c r="E697" s="4"/>
       <c r="F697" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H697" s="7"/>
     </row>
@@ -11507,7 +12054,7 @@
       <c r="E698" s="4"/>
       <c r="F698" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H698" s="7"/>
     </row>
@@ -11521,7 +12068,7 @@
       <c r="E699" s="4"/>
       <c r="F699" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H699" s="7"/>
     </row>
@@ -11535,7 +12082,7 @@
       <c r="E700" s="4"/>
       <c r="F700" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H700" s="7"/>
     </row>
@@ -11549,7 +12096,7 @@
       <c r="E701" s="4"/>
       <c r="F701" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H701" s="7"/>
     </row>
@@ -11563,7 +12110,7 @@
       <c r="E702" s="4"/>
       <c r="F702" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H702" s="7"/>
     </row>
@@ -11577,7 +12124,7 @@
       <c r="E703" s="4"/>
       <c r="F703" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H703" s="7"/>
     </row>
@@ -11591,7 +12138,7 @@
       <c r="E704" s="4"/>
       <c r="F704" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H704" s="7"/>
     </row>
@@ -11605,7 +12152,7 @@
       <c r="E705" s="4"/>
       <c r="F705" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H705" s="7"/>
     </row>
@@ -11621,7 +12168,7 @@
       <c r="E706" s="4"/>
       <c r="F706" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G706" s="6" t="s">
         <v>11</v>
@@ -11640,7 +12187,7 @@
       <c r="E707" s="4"/>
       <c r="F707" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G707" s="6" t="s">
         <v>10</v>
@@ -11659,7 +12206,7 @@
       <c r="E708" s="4"/>
       <c r="F708" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H708" s="7"/>
     </row>
@@ -11675,7 +12222,7 @@
       <c r="E709" s="4"/>
       <c r="F709" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G709" s="6" t="s">
         <v>9</v>
@@ -11697,7 +12244,7 @@
       <c r="E710" s="4"/>
       <c r="F710" s="7">
         <f t="shared" si="21"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G710" s="6" t="s">
         <v>6</v>
@@ -11716,7 +12263,7 @@
       <c r="E711" s="4"/>
       <c r="F711" s="7">
         <f t="shared" ref="F711:F717" si="23">$E$3/$E$2</f>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G711" s="6" t="s">
         <v>7</v>
@@ -11735,7 +12282,7 @@
       <c r="E712" s="4"/>
       <c r="F712" s="7">
         <f t="shared" si="23"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="G712" s="6" t="s">
         <v>8</v>
@@ -11754,7 +12301,7 @@
       <c r="E713" s="4"/>
       <c r="F713" s="7">
         <f t="shared" si="23"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H713" s="7"/>
     </row>
@@ -11770,7 +12317,7 @@
       <c r="E714" s="4"/>
       <c r="F714" s="7">
         <f t="shared" si="23"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H714" s="7"/>
     </row>
@@ -11786,7 +12333,7 @@
       <c r="E715" s="4"/>
       <c r="F715" s="7">
         <f t="shared" si="23"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H715" s="7"/>
     </row>
@@ -11802,7 +12349,7 @@
       <c r="E716" s="4"/>
       <c r="F716" s="7">
         <f t="shared" si="23"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H716" s="7"/>
     </row>
@@ -11818,7 +12365,7 @@
       <c r="E717" s="4"/>
       <c r="F717" s="7">
         <f t="shared" si="23"/>
-        <v>0.20084269662921347</v>
+        <v>0.2654494382022472</v>
       </c>
       <c r="H717" s="7"/>
     </row>
